--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,39 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计活
+动支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸽子费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,52 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计活
-动支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸽子费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计参
-加次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应缴纳
 总费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +367,140 @@
   </si>
   <si>
     <t>100(120922)</t>
+  </si>
+  <si>
+    <t>初始
+金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人
+账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补场地费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农大西校区友谊赛,少收20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懦夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古轮木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交之前下雨踢球一个小时费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次缴纳金额[/累计缴纳金额](日期),…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -821,61 +942,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="7.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="47.625" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>60</v>
+      <c r="H1" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="8"/>
@@ -885,17 +1000,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="8"/>
@@ -905,17 +1011,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="8"/>
@@ -925,17 +1022,8 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="8"/>
@@ -945,17 +1033,8 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="8"/>
@@ -965,17 +1044,8 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="8"/>
@@ -985,24 +1055,15 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C100)</f>
-        <v>1155.1300000000003</v>
+        <v>2197.1299999999997</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1010,11 +1071,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>1945</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>344.99999999999994</v>
+        <v>690.00000000000011</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1022,20 +1083,13 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>0</v>
       </c>
@@ -1062,19 +1116,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1083,33 +1128,28 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.833333333333332</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>35</v>
+      </c>
       <c r="F10" s="9">
         <f>'201201'!D10</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="8">
         <f>'201201'!C10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -1136,19 +1176,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>3</v>
       </c>
@@ -1157,33 +1188,28 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>57.42</v>
+        <v>77.25333333333333</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>40</v>
+      </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -1192,37 +1218,28 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
-        <v>19.182105263157897</v>
+        <v>99.015438596491236</v>
       </c>
       <c r="D13" s="2">
         <v>18.34</v>
       </c>
       <c r="E13" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F13" s="9">
         <f>'201201'!D13</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8">
         <f>'201201'!C13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>5</v>
       </c>
@@ -1247,17 +1264,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>6</v>
       </c>
@@ -1282,17 +1290,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>7</v>
       </c>
@@ -1301,37 +1300,28 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
-        <v>4.7821052631578951</v>
+        <v>14.615438596491224</v>
       </c>
       <c r="D16" s="2">
         <v>3.94</v>
       </c>
       <c r="E16" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F16" s="9">
         <f>'201201'!D16</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <f>'201201'!C16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>8</v>
       </c>
@@ -1358,19 +1348,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>9</v>
       </c>
@@ -1397,19 +1378,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>10</v>
       </c>
@@ -1418,7 +1390,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>149.53210526315789</v>
+        <v>129.36543859649123</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1428,27 +1400,18 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>11</v>
       </c>
@@ -1457,37 +1420,28 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" si="1"/>
-        <v>13.152105263157896</v>
+        <v>92.985438596491235</v>
       </c>
       <c r="D20" s="2">
         <v>12.31</v>
       </c>
       <c r="E20" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F20" s="9">
         <f>'201201'!D20</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8">
         <f>'201201'!C20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>12</v>
       </c>
@@ -1512,17 +1466,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>13</v>
       </c>
@@ -1531,33 +1476,28 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>35.49</v>
+        <v>115.32333333333334</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>100</v>
+      </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>14</v>
       </c>
@@ -1582,17 +1522,8 @@
         <v>0</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>15</v>
       </c>
@@ -1601,33 +1532,28 @@
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
-        <v>9.09</v>
+        <v>88.923333333333332</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>100</v>
+      </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>16</v>
       </c>
@@ -1636,37 +1562,28 @@
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
-        <v>16.202105263157893</v>
+        <v>96.035438596491247</v>
       </c>
       <c r="D25" s="2">
         <v>15.36</v>
       </c>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F25" s="9">
         <f>'201201'!D25</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="8">
         <f>'201201'!C25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>17</v>
       </c>
@@ -1691,17 +1608,8 @@
         <v>0</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>18</v>
       </c>
@@ -1728,19 +1636,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>19</v>
       </c>
@@ -1767,19 +1666,10 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>20</v>
       </c>
@@ -1806,19 +1696,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>21</v>
       </c>
@@ -1843,17 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>22</v>
       </c>
@@ -1878,17 +1750,8 @@
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>23</v>
       </c>
@@ -1913,17 +1776,8 @@
         <v>0</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>24</v>
       </c>
@@ -1948,17 +1802,8 @@
         <v>0</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>25</v>
       </c>
@@ -1983,19 +1828,10 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>26</v>
       </c>
@@ -2004,33 +1840,28 @@
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
-        <v>90.35</v>
+        <v>170.18333333333334</v>
       </c>
       <c r="D35" s="2">
         <v>90.35</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>100</v>
+      </c>
       <c r="F35" s="9">
         <f>'201201'!D35</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <f>'201201'!C35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>27</v>
       </c>
@@ -2039,33 +1870,28 @@
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>8.41</v>
+        <v>88.243333333333325</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>100</v>
+      </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>28</v>
       </c>
@@ -2074,33 +1900,28 @@
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
-        <v>54.12</v>
+        <v>133.95333333333335</v>
       </c>
       <c r="D37" s="2">
         <v>54.12</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>100</v>
+      </c>
       <c r="F37" s="9">
         <f>'201201'!D37</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8">
         <f>'201201'!C37</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>29</v>
       </c>
@@ -2109,33 +1930,28 @@
       </c>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
-        <v>29.94</v>
+        <v>109.77333333333333</v>
       </c>
       <c r="D38" s="2">
         <v>29.94</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>100</v>
+      </c>
       <c r="F38" s="9">
         <f>'201201'!D38</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="8">
         <f>'201201'!C38</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>30</v>
       </c>
@@ -2160,17 +1976,8 @@
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>32</v>
       </c>
@@ -2179,33 +1986,28 @@
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
-        <v>15.66</v>
+        <v>95.493333333333325</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>100</v>
+      </c>
       <c r="F40" s="9">
         <f>'201201'!D40</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <f>'201201'!C40</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>33</v>
       </c>
@@ -2213,7 +2015,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C72" si="2">D41+E41+G41-F41-H41</f>
+        <f t="shared" ref="C41:C65" si="2">D41+E41+G41-F41-H41</f>
         <v>3.38</v>
       </c>
       <c r="D41" s="2">
@@ -2230,17 +2032,8 @@
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>37</v>
       </c>
@@ -2249,33 +2042,28 @@
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
-        <v>4.7</v>
+        <v>84.533333333333331</v>
       </c>
       <c r="D42" s="2">
         <v>4.7</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>100</v>
+      </c>
       <c r="F42" s="9">
         <f>'201201'!D42</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8">
         <f>'201201'!C42</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>45</v>
       </c>
@@ -2300,17 +2088,8 @@
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <v>55</v>
       </c>
@@ -2335,17 +2114,8 @@
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>69</v>
       </c>
@@ -2370,17 +2140,8 @@
         <v>0</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <v>77</v>
       </c>
@@ -2405,17 +2166,8 @@
         <v>0</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>86</v>
       </c>
@@ -2440,17 +2192,8 @@
         <v>0</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <v>87</v>
       </c>
@@ -2477,19 +2220,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>88</v>
       </c>
@@ -2516,19 +2250,10 @@
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <v>94</v>
       </c>
@@ -2553,17 +2278,8 @@
         <v>0</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <v>97</v>
       </c>
@@ -2572,7 +2288,7 @@
       </c>
       <c r="C51" s="12">
         <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <v>-19.324561403508774</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -2582,27 +2298,18 @@
       </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <v>98</v>
       </c>
@@ -2627,17 +2334,8 @@
         <v>0</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <v>99</v>
       </c>
@@ -2662,17 +2360,8 @@
         <v>0</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>49</v>
@@ -2695,17 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>50</v>
@@ -2728,17 +2408,8 @@
         <v>0</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>51</v>
@@ -2761,50 +2432,36 @@
         <v>0</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="2"/>
-        <v>20.27</v>
+        <v>100.10333333333332</v>
       </c>
       <c r="D57" s="2">
         <v>20.27</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>100</v>
+      </c>
       <c r="F57" s="9">
         <f>'201201'!D57</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="8">
         <f>'201201'!C57</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>53</v>
@@ -2827,17 +2484,8 @@
         <v>0</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>54</v>
@@ -2860,24 +2508,15 @@
         <v>0</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
-        <v>-19.157894736842106</v>
+        <v>-39.324561403508774</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -2885,38 +2524,29 @@
       <c r="E60" s="2"/>
       <c r="F60" s="9">
         <f>'201201'!D60</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="8">
         <f>'201201'!C60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <v>100.84210526315789</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F61" s="9">
         <f>'201201'!D61</f>
@@ -2928,19 +2558,10 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>57</v>
@@ -2965,19 +2586,10 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>58</v>
@@ -3002,19 +2614,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
         <v>0</v>
@@ -3037,20 +2640,11 @@
         <v>0</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
@@ -3070,17 +2664,8 @@
         <v>0</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="12"/>
@@ -3090,17 +2675,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="8"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="12"/>
@@ -3110,17 +2686,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="8"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="12"/>
@@ -3130,17 +2697,8 @@
       <c r="G68" s="1"/>
       <c r="H68" s="8"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="12"/>
@@ -3150,17 +2708,8 @@
       <c r="G69" s="1"/>
       <c r="H69" s="8"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="12"/>
@@ -3170,17 +2719,8 @@
       <c r="G70" s="1"/>
       <c r="H70" s="8"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="12"/>
@@ -3190,17 +2730,8 @@
       <c r="G71" s="1"/>
       <c r="H71" s="8"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="12"/>
@@ -3210,17 +2741,8 @@
       <c r="G72" s="1"/>
       <c r="H72" s="8"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="12"/>
@@ -3230,17 +2752,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="8"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="12"/>
@@ -3250,17 +2763,8 @@
       <c r="G74" s="1"/>
       <c r="H74" s="8"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="12"/>
@@ -3270,17 +2774,8 @@
       <c r="G75" s="1"/>
       <c r="H75" s="8"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="12"/>
@@ -3290,17 +2785,8 @@
       <c r="G76" s="1"/>
       <c r="H76" s="8"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="12"/>
@@ -3310,17 +2796,8 @@
       <c r="G77" s="1"/>
       <c r="H77" s="8"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="12"/>
@@ -3330,17 +2807,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="8"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="12"/>
@@ -3350,17 +2818,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="8"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="12"/>
@@ -3370,17 +2829,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="8"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="12"/>
@@ -3390,17 +2840,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="8"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="12"/>
@@ -3410,17 +2851,8 @@
       <c r="G82" s="1"/>
       <c r="H82" s="8"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="12"/>
@@ -3430,17 +2862,8 @@
       <c r="G83" s="1"/>
       <c r="H83" s="8"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="12"/>
@@ -3450,17 +2873,8 @@
       <c r="G84" s="1"/>
       <c r="H84" s="8"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="12"/>
@@ -3470,17 +2884,8 @@
       <c r="G85" s="1"/>
       <c r="H85" s="8"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="12"/>
@@ -3490,17 +2895,8 @@
       <c r="G86" s="1"/>
       <c r="H86" s="8"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="12"/>
@@ -3510,17 +2906,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="8"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="12"/>
@@ -3530,17 +2917,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="8"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="12"/>
@@ -3550,17 +2928,8 @@
       <c r="G89" s="1"/>
       <c r="H89" s="8"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="12"/>
@@ -3570,17 +2939,8 @@
       <c r="G90" s="1"/>
       <c r="H90" s="8"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="12"/>
@@ -3590,17 +2950,8 @@
       <c r="G91" s="1"/>
       <c r="H91" s="8"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="12"/>
@@ -3610,17 +2961,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="8"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="12"/>
@@ -3630,17 +2972,8 @@
       <c r="G93" s="1"/>
       <c r="H93" s="8"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="12"/>
@@ -3650,17 +2983,8 @@
       <c r="G94" s="1"/>
       <c r="H94" s="8"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="12"/>
@@ -3670,17 +2994,8 @@
       <c r="G95" s="1"/>
       <c r="H95" s="8"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="12"/>
@@ -3690,17 +3005,8 @@
       <c r="G96" s="1"/>
       <c r="H96" s="8"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="12"/>
@@ -3710,17 +3016,8 @@
       <c r="G97" s="1"/>
       <c r="H97" s="8"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="12"/>
@@ -3730,17 +3027,8 @@
       <c r="G98" s="1"/>
       <c r="H98" s="8"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="12"/>
@@ -3750,17 +3038,8 @@
       <c r="G99" s="1"/>
       <c r="H99" s="8"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="12"/>
@@ -3770,19 +3049,11 @@
       <c r="G100" s="1"/>
       <c r="H100" s="8"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3790,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3804,28 +3075,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3839,10 +3110,10 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
@@ -3851,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3869,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -3880,193 +3151,480 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B4" s="18">
+        <v>100</v>
+      </c>
+      <c r="C4" s="18">
+        <f>C3+B4</f>
+        <v>468</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B5" s="18">
+        <v>35</v>
+      </c>
+      <c r="C5" s="18">
+        <f>C4+B5</f>
+        <v>503</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B6" s="18">
+        <v>100</v>
+      </c>
+      <c r="C6" s="18">
+        <f>C5+B6</f>
+        <v>603</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B7" s="18">
+        <v>100</v>
+      </c>
+      <c r="C7" s="18">
+        <f>C6+B7</f>
+        <v>703</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="C8" s="18">
+        <f>C7+B8</f>
+        <v>803</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B9" s="18">
+        <v>40</v>
+      </c>
+      <c r="C9" s="18">
+        <f>C8+B9</f>
+        <v>843</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B10" s="18">
+        <v>100</v>
+      </c>
+      <c r="C10" s="18">
+        <f>C9+B10</f>
+        <v>943</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B11" s="18">
+        <v>100</v>
+      </c>
+      <c r="C11" s="18">
+        <f>C10+B11</f>
+        <v>1043</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B12" s="18">
+        <v>100</v>
+      </c>
+      <c r="C12" s="18">
+        <f>C11+B12</f>
+        <v>1143</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B13" s="18">
+        <v>100</v>
+      </c>
+      <c r="C13" s="18">
+        <f>C12+B13</f>
+        <v>1243</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B14" s="18">
+        <v>100</v>
+      </c>
+      <c r="C14" s="18">
+        <f>C13+B14</f>
+        <v>1343</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B15" s="18">
+        <v>30</v>
+      </c>
+      <c r="C15" s="18">
+        <f>C14+B15</f>
+        <v>1373</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B16" s="18">
+        <v>100</v>
+      </c>
+      <c r="C16" s="18">
+        <f>C15+B16</f>
+        <v>1473</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B17" s="18">
+        <v>100</v>
+      </c>
+      <c r="C17" s="18">
+        <f>C16+B17</f>
+        <v>1573</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B18" s="18">
+        <v>100</v>
+      </c>
+      <c r="C18" s="18">
+        <f>C17+B18</f>
+        <v>1673</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B19" s="18">
+        <v>100</v>
+      </c>
+      <c r="C19" s="18">
+        <f>C18+B19</f>
+        <v>1773</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B20" s="18">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18">
+        <f>C19+B20</f>
+        <v>1793</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B21" s="18">
+        <v>-100</v>
+      </c>
+      <c r="C21" s="18">
+        <f>C20+B21</f>
+        <v>1693</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="17">
+        <v>41179</v>
+      </c>
+      <c r="B22" s="18">
+        <v>-345</v>
+      </c>
+      <c r="C22" s="18">
+        <f>C21+B22</f>
+        <v>1348</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -4171,7 +3729,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4184,28 +3742,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4219,19 +3777,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -4246,28 +3804,45 @@
         <v>910</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="17">
+        <v>40443</v>
+      </c>
+      <c r="B4" s="18">
+        <v>-20</v>
+      </c>
+      <c r="C4" s="18">
+        <f>C3+B4</f>
+        <v>890</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -4542,6 +4117,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4549,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4560,25 +4136,28 @@
     <col min="3" max="3" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="16">
-        <v>41149</v>
-      </c>
-      <c r="F1" s="14"/>
+        <v>41172</v>
+      </c>
+      <c r="F1" s="16">
+        <v>41179</v>
+      </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -4594,7 +4173,9 @@
       <c r="E2" s="11">
         <v>19</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="11">
+        <v>18</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4602,7 +4183,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -4610,7 +4191,9 @@
       <c r="E3" s="4">
         <v>345</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="4">
+        <v>345</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4618,7 +4201,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4627,7 +4210,10 @@
         <f>E3/E2</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="9">
+        <f>F3/F2</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4635,7 +4221,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4644,7 +4230,10 @@
         <f>COUNT(E9:E100)</f>
         <v>19</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="10">
+        <f>COUNT(F9:F100)</f>
+        <v>18</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4652,22 +4241,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <f>SUM(C9:C100)</f>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9">
         <f>SUM(D9:D100)</f>
-        <v>344.99999999999994</v>
+        <v>690.00000000000011</v>
       </c>
       <c r="E6" s="9">
         <f>SUM(E9:E100)</f>
         <v>344.99999999999994</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="9">
+        <f>SUM(F9:F100)</f>
+        <v>345.00000000000006</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4679,7 +4271,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4691,7 +4283,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4718,7 +4310,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4735,14 +4327,17 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4769,7 +4364,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4786,14 +4381,17 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4810,17 +4408,20 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E13" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4844,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4868,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4885,17 +4486,20 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E16" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4922,7 +4526,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -4949,7 +4553,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -4966,17 +4570,20 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -4993,17 +4600,20 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E20" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5027,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -5044,14 +4654,17 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -5075,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -5092,14 +4705,17 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -5116,17 +4732,20 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E25" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -5150,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -5174,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -5201,7 +4820,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -5228,7 +4847,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -5252,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -5276,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -5300,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -5324,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -5351,7 +4970,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -5368,14 +4987,17 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -5392,14 +5014,17 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -5416,14 +5041,17 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -5440,14 +5068,17 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -5471,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -5488,14 +5119,17 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -5515,11 +5149,11 @@
         <v>0</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D72" si="3">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D63" si="3">SUM(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -5536,14 +5170,17 @@
       </c>
       <c r="C42" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -5567,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -5591,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -5615,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -5639,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -5663,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -5690,7 +5327,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -5717,7 +5354,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -5741,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -5758,17 +5395,20 @@
       </c>
       <c r="C51" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="3"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E51" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -5792,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -5816,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -5837,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -5858,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -5879,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5893,14 +5533,17 @@
       </c>
       <c r="C57" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5921,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5942,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5956,17 +5599,20 @@
       </c>
       <c r="C60" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="3"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E60" s="7">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5990,7 +5636,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -6014,7 +5660,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -6038,7 +5684,7 @@
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -6050,7 +5696,7 @@
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -6062,7 +5708,7 @@
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -6074,7 +5720,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -6086,7 +5732,7 @@
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -6098,7 +5744,7 @@
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -6110,7 +5756,7 @@
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -6122,7 +5768,7 @@
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -6134,7 +5780,7 @@
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -6146,7 +5792,7 @@
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -6158,7 +5804,7 @@
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -6170,7 +5816,7 @@
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -6182,7 +5828,7 @@
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -6194,7 +5840,7 @@
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -6206,7 +5852,7 @@
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -6218,7 +5864,7 @@
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -6230,7 +5876,7 @@
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -6242,7 +5888,7 @@
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6254,7 +5900,7 @@
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6266,7 +5912,7 @@
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6278,7 +5924,7 @@
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6290,7 +5936,7 @@
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="4"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6302,7 +5948,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6314,7 +5960,7 @@
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6326,7 +5972,7 @@
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6338,7 +5984,7 @@
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6350,7 +5996,7 @@
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6362,7 +6008,7 @@
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6374,7 +6020,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6386,7 +6032,7 @@
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6398,7 +6044,7 @@
       <c r="C93" s="8"/>
       <c r="D93" s="9"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6410,7 +6056,7 @@
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6422,7 +6068,7 @@
       <c r="C95" s="8"/>
       <c r="D95" s="9"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6434,7 +6080,7 @@
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="4"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6446,7 +6092,7 @@
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="4"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6458,7 +6104,7 @@
       <c r="C98" s="8"/>
       <c r="D98" s="9"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6470,7 +6116,7 @@
       <c r="C99" s="8"/>
       <c r="D99" s="9"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="1"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6482,7 +6128,7 @@
       <c r="C100" s="8"/>
       <c r="D100" s="9"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="4"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -6491,7 +6137,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="122">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,13 @@
   <si>
     <t>本次缴纳金额[/累计缴纳金额](日期),…</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/120(120927)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -639,6 +646,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -944,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1063,7 +1073,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C100)</f>
-        <v>2197.1299999999997</v>
+        <v>2197.13</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1810,7 +1820,7 @@
       <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="19">
         <f t="shared" si="1"/>
         <v>-1.1578947368421062</v>
       </c>
@@ -2148,7 +2158,7 @@
       <c r="B46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="19">
         <f t="shared" si="2"/>
         <v>-4.26</v>
       </c>
@@ -2286,7 +2296,7 @@
       <c r="B51" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="19">
         <f t="shared" si="2"/>
         <v>-19.324561403508774</v>
       </c>
@@ -2516,12 +2526,14 @@
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
-        <v>-39.324561403508774</v>
+        <v>60.675438596491226</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>100</v>
+      </c>
       <c r="F60" s="9">
         <f>'201201'!D60</f>
         <v>37.324561403508774</v>
@@ -2531,7 +2543,9 @@
         <f>'201201'!C60</f>
         <v>2</v>
       </c>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
@@ -2540,13 +2554,13 @@
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
-        <v>100.84210526315789</v>
+        <v>0.8421052631578938</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F61" s="9">
         <f>'201201'!D61</f>
@@ -2558,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -3061,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3133,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="18">
-        <f>C2+B3</f>
+        <f t="shared" ref="C3:C22" si="0">C2+B3</f>
         <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3158,7 +3172,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="18">
-        <f>C3+B4</f>
+        <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3183,7 +3197,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="18">
-        <f>C4+B5</f>
+        <f t="shared" si="0"/>
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3208,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="18">
-        <f>C5+B6</f>
+        <f t="shared" si="0"/>
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3233,7 +3247,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="18">
-        <f>C6+B7</f>
+        <f t="shared" si="0"/>
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3258,7 +3272,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="18">
-        <f>C7+B8</f>
+        <f t="shared" si="0"/>
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3283,7 +3297,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="18">
-        <f>C8+B9</f>
+        <f t="shared" si="0"/>
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3308,7 +3322,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="18">
-        <f>C9+B10</f>
+        <f t="shared" si="0"/>
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3333,7 +3347,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="18">
-        <f>C10+B11</f>
+        <f t="shared" si="0"/>
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3358,7 +3372,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="18">
-        <f>C11+B12</f>
+        <f t="shared" si="0"/>
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3383,7 +3397,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="18">
-        <f>C12+B13</f>
+        <f t="shared" si="0"/>
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3408,7 +3422,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="18">
-        <f>C13+B14</f>
+        <f t="shared" si="0"/>
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3433,7 +3447,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="18">
-        <f>C14+B15</f>
+        <f t="shared" si="0"/>
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3458,7 +3472,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="18">
-        <f>C15+B16</f>
+        <f t="shared" si="0"/>
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3483,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="C17" s="18">
-        <f>C16+B17</f>
+        <f t="shared" si="0"/>
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3508,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="18">
-        <f>C17+B18</f>
+        <f t="shared" si="0"/>
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3533,7 +3547,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="18">
-        <f>C18+B19</f>
+        <f t="shared" si="0"/>
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3558,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="18">
-        <f>C19+B20</f>
+        <f t="shared" si="0"/>
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -3583,7 +3597,7 @@
         <v>-100</v>
       </c>
       <c r="C21" s="18">
-        <f>C20+B21</f>
+        <f t="shared" si="0"/>
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3610,7 +3624,7 @@
         <v>-345</v>
       </c>
       <c r="C22" s="18">
-        <f>C21+B22</f>
+        <f t="shared" si="0"/>
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4126,7 +4140,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4136,7 +4150,7 @@
     <col min="3" max="3" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3076,7 +3076,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天赐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
   </si>
   <si>
     <t>拂晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,6 +500,14 @@
   </si>
   <si>
     <t>100/120(120927)</t>
+  </si>
+  <si>
+    <t>天赐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -952,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:I65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,25 +976,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>1</v>
@@ -1068,11 +1068,11 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:H8" si="0">SUM(C9:C100)</f>
+        <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
         <v>2197.13</v>
       </c>
       <c r="D8" s="8">
@@ -1096,7 +1096,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1740,14 +1740,14 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
-        <v>8.4600000000000009</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>8.4600000000000009</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="9">
@@ -1766,7 +1766,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -1792,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="12">
         <f t="shared" si="1"/>
@@ -1818,7 +1818,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="19">
         <f t="shared" si="1"/>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1846,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1876,7 +1876,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1906,7 +1906,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1936,7 +1936,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
@@ -1992,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2022,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="12">
         <f t="shared" ref="C41:C65" si="2">D41+E41+G41-F41-H41</f>
@@ -2048,7 +2048,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2078,7 +2078,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
@@ -2104,7 +2104,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
@@ -2130,7 +2130,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="2"/>
@@ -2156,7 +2156,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="19">
         <f t="shared" si="2"/>
@@ -2182,7 +2182,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="12">
         <f t="shared" si="2"/>
@@ -2208,7 +2208,7 @@
         <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="12">
         <f t="shared" si="2"/>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2238,7 +2238,7 @@
         <v>88</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
@@ -2260,78 +2260,78 @@
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="12">
+        <v>43</v>
+      </c>
+      <c r="C50" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-19.324561403508774</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>20</v>
+      </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>0</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="19">
+        <v>44</v>
+      </c>
+      <c r="C51" s="12">
         <f t="shared" si="2"/>
-        <v>-19.324561403508774</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
-        <v>20</v>
-      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>37.324561403508774</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>2</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>54.77</v>
       </c>
       <c r="D52" s="2">
-        <v>0</v>
+        <v>54.77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="9">
@@ -2346,18 +2346,16 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="8">
-        <v>99</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="2"/>
-        <v>54.77</v>
+        <v>28.77</v>
       </c>
       <c r="D53" s="2">
-        <v>54.77</v>
+        <v>28.77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="9">
@@ -2374,14 +2372,14 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="2"/>
-        <v>28.77</v>
+        <v>33.36</v>
       </c>
       <c r="D54" s="2">
-        <v>28.77</v>
+        <v>33.36</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="9">
@@ -2398,14 +2396,14 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
-        <v>33.36</v>
+        <v>9.94</v>
       </c>
       <c r="D55" s="2">
-        <v>33.36</v>
+        <v>9.94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="9">
@@ -2422,59 +2420,59 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
-        <v>9.94</v>
+        <v>100.10333333333332</v>
       </c>
       <c r="D56" s="2">
-        <v>9.94</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>20.27</v>
+      </c>
+      <c r="E56" s="2">
+        <v>100</v>
+      </c>
       <c r="F56" s="9">
         <f>'201201'!D56</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8">
         <f>'201201'!C56</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="2"/>
-        <v>100.10333333333332</v>
+        <v>8.41</v>
       </c>
       <c r="D57" s="2">
-        <v>20.27</v>
-      </c>
-      <c r="E57" s="2">
-        <v>100</v>
-      </c>
+        <v>8.41</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="9">
         <f>'201201'!D57</f>
-        <v>19.166666666666668</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="8">
         <f>'201201'!C57</f>
-        <v>1</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="2"/>
@@ -2498,59 +2496,63 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="2"/>
-        <v>8.41</v>
+        <v>60.675438596491226</v>
       </c>
       <c r="D59" s="2">
-        <v>8.41</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>100</v>
+      </c>
       <c r="F59" s="9">
         <f>'201201'!D59</f>
-        <v>0</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="8">
         <f>'201201'!C59</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
-        <v>60.675438596491226</v>
+        <v>0.8421052631578938</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F60" s="9">
         <f>'201201'!D60</f>
-        <v>37.324561403508774</v>
+        <v>18.157894736842106</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="8">
         <f>'201201'!C60</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
@@ -2572,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="2"/>
@@ -2600,48 +2602,44 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <v>45.77</v>
       </c>
       <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2">
-        <v>20</v>
-      </c>
+        <v>45.77</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="9">
         <f>'201201'!D63</f>
-        <v>18.157894736842106</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="8">
         <f>'201201'!C63</f>
-        <v>1</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="2"/>
-        <v>45.77</v>
+        <v>8.41</v>
       </c>
       <c r="D64" s="2">
-        <v>45.77</v>
+        <v>8.41</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="9">
@@ -2658,14 +2656,14 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
-        <v>8.41</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="D65" s="2">
-        <v>8.41</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="9">
@@ -3052,17 +3050,6 @@
       <c r="G99" s="1"/>
       <c r="H99" s="8"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3075,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3089,28 +3076,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3124,10 +3111,10 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
@@ -3136,7 +3123,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3154,7 +3141,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -3176,10 +3163,10 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
@@ -3201,10 +3188,10 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
@@ -3226,10 +3213,10 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -3251,10 +3238,10 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
@@ -3276,10 +3263,10 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -3301,10 +3288,10 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
@@ -3326,10 +3313,10 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -3351,10 +3338,10 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
@@ -3376,10 +3363,10 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
@@ -3401,10 +3388,10 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
@@ -3426,10 +3413,10 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -3451,10 +3438,10 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
@@ -3476,10 +3463,10 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
@@ -3501,10 +3488,10 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
@@ -3526,10 +3513,10 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -3551,10 +3538,10 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -3576,10 +3563,10 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
@@ -3601,10 +3588,10 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
@@ -3613,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -3628,10 +3615,10 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -3756,28 +3743,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3791,19 +3778,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3818,16 +3805,16 @@
         <v>910</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -3843,19 +3830,19 @@
         <v>890</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4137,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4155,16 +4142,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -4179,7 +4166,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -4197,7 +4184,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -4215,7 +4202,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4235,17 +4222,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f>COUNT(E9:E100)</f>
+        <f>COUNT(E9:E99)</f>
         <v>19</v>
       </c>
       <c r="F5" s="10">
-        <f>COUNT(F9:F100)</f>
+        <f>COUNT(F9:F99)</f>
         <v>18</v>
       </c>
       <c r="G5" s="1"/>
@@ -4255,23 +4242,23 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f>SUM(C9:C100)</f>
+        <f>SUM(C9:C99)</f>
         <v>37</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(D9:D100)</f>
+        <f>SUM(D9:D99)</f>
         <v>690.00000000000011</v>
       </c>
       <c r="E6" s="9">
-        <f>SUM(E9:E100)</f>
+        <f>SUM(E9:E99)</f>
         <v>344.99999999999994</v>
       </c>
       <c r="F6" s="9">
-        <f>SUM(F9:F100)</f>
+        <f>SUM(F9:F99)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="1"/>
@@ -4898,7 +4885,7 @@
       </c>
       <c r="B31" s="8" t="str">
         <f>member!B31</f>
-        <v>天赐</v>
+        <v>温涛</v>
       </c>
       <c r="C31" s="8">
         <f t="shared" si="0"/>
@@ -5159,11 +5146,11 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C63" si="2">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C65" si="2">COUNT(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D63" si="3">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D65" si="3">SUM(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="E41" s="4"/>
@@ -5377,22 +5364,28 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B50" s="8" t="str">
         <f>member!B50</f>
-        <v>温涛</v>
+        <v>R</v>
       </c>
       <c r="C50" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+        <v>37.324561403508774</v>
+      </c>
+      <c r="E50" s="4">
+        <f>E4</f>
+        <v>18.157894736842106</v>
+      </c>
+      <c r="F50" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -5401,28 +5394,22 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <f>member!A51</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="8" t="str">
         <f>member!B51</f>
-        <v>R</v>
+        <v>啪啪</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="3"/>
-        <v>37.324561403508774</v>
-      </c>
-      <c r="E51" s="4">
-        <f>E4</f>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="F51" s="4">
-        <f>F4</f>
-        <v>19.166666666666668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -5431,11 +5418,11 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <f>member!A52</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="8" t="str">
         <f>member!B52</f>
-        <v>啪啪</v>
+        <v>陈磊</v>
       </c>
       <c r="C52" s="8">
         <f t="shared" si="2"/>
@@ -5453,13 +5440,10 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="8">
-        <f>member!A53</f>
-        <v>99</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
-        <v>陈磊</v>
+        <v>Shenghak</v>
       </c>
       <c r="C53" s="8">
         <f t="shared" si="2"/>
@@ -5480,7 +5464,7 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
-        <v>Shenghak</v>
+        <v>张硕</v>
       </c>
       <c r="C54" s="8">
         <f t="shared" si="2"/>
@@ -5501,7 +5485,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
-        <v>张硕</v>
+        <v>孙伟</v>
       </c>
       <c r="C55" s="8">
         <f t="shared" si="2"/>
@@ -5522,18 +5506,21 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
-        <v>孙伟</v>
+        <v>小新</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5543,21 +5530,18 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
-        <v>小新</v>
+        <v>祈网见</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="3"/>
-        <v>19.166666666666668</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4">
-        <f>F4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5567,7 +5551,7 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
-        <v>祈网见</v>
+        <v>小严</v>
       </c>
       <c r="C58" s="8">
         <f t="shared" si="2"/>
@@ -5588,18 +5572,24 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
-        <v>小严</v>
+        <v>懦夫</v>
       </c>
       <c r="C59" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+        <v>37.324561403508774</v>
+      </c>
+      <c r="E59" s="7">
+        <f>E4</f>
+        <v>18.157894736842106</v>
+      </c>
+      <c r="F59" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5609,24 +5599,21 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
-        <v>懦夫</v>
+        <v>徐老师</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="3"/>
-        <v>37.324561403508774</v>
-      </c>
-      <c r="E60" s="7">
+        <v>18.157894736842106</v>
+      </c>
+      <c r="E60" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F60" s="4">
-        <f>F4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5636,7 +5623,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
-        <v>徐老师</v>
+        <v>拉齐奥</v>
       </c>
       <c r="C61" s="8">
         <f t="shared" si="2"/>
@@ -5660,7 +5647,7 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
-        <v>拉齐奥</v>
+        <v>冬瓜</v>
       </c>
       <c r="C62" s="8">
         <f t="shared" si="2"/>
@@ -5684,20 +5671,17 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
-        <v>冬瓜</v>
+        <v>狐狸</v>
       </c>
       <c r="C63" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" si="3"/>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="E63" s="4">
-        <f>E4</f>
-        <v>18.157894736842106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -5706,9 +5690,18 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="8" t="str">
+        <f>member!B64</f>
+        <v>AC</v>
+      </c>
+      <c r="C64" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="1"/>
@@ -5718,9 +5711,18 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="8" t="str">
+        <f>member!B65</f>
+        <v>天赐</v>
+      </c>
+      <c r="C65" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="1"/>
@@ -6136,22 +6138,10 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="6"/>
-      <c r="B103" s="3" t="s">
-        <v>62</v>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,15 +350,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预交费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20(120920),100(120922)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120922)</t>
   </si>
   <si>
     <t>初始
@@ -387,18 +380,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20(120920),100/120(120927)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20(120920),30/50(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100(120927)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,6 +492,74 @@
   </si>
   <si>
     <t>温涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多缴纳5块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40(120927),100/140(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +573,7 @@
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +591,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -596,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -651,6 +711,8 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -965,7 +1027,7 @@
     <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.25" customWidth="1"/>
@@ -979,10 +1041,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>61</v>
@@ -1073,7 +1135,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
-        <v>2197.13</v>
+        <v>2704.1299999999997</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1081,11 +1143,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>1945</v>
+        <v>2815</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>690.00000000000011</v>
+        <v>1035</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1093,10 +1155,10 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1156,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1198,25 +1260,25 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>77.25333333333333</v>
+        <v>157.08666666666667</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
       </c>
       <c r="E12" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1246,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1284,22 +1346,26 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
-        <v>5.46</v>
+        <v>85.293333333333322</v>
       </c>
       <c r="D15" s="2">
         <v>5.46</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
       <c r="F15" s="9">
         <f>'201201'!D15</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
         <f>'201201'!C15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
@@ -1310,25 +1376,25 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
-        <v>14.615438596491224</v>
+        <v>64.448771929824559</v>
       </c>
       <c r="D16" s="2">
         <v>3.94</v>
       </c>
       <c r="E16" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F16" s="9">
         <f>'201201'!D16</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <f>'201201'!C16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1400,7 +1466,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>129.36543859649123</v>
+        <v>109.19877192982456</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1410,15 +1476,15 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1448,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1460,22 +1526,26 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79.833333333333329</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
       <c r="F21" s="9">
         <f>'201201'!D21</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8">
         <f>'201201'!C21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
@@ -1486,7 +1556,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>115.32333333333334</v>
+        <v>95.156666666666666</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
@@ -1496,15 +1566,15 @@
       </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1542,7 +1612,7 @@
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
-        <v>88.923333333333332</v>
+        <v>68.756666666666661</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
@@ -1552,15 +1622,15 @@
       </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1572,7 +1642,7 @@
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
-        <v>96.035438596491247</v>
+        <v>75.868771929824575</v>
       </c>
       <c r="D25" s="2">
         <v>15.36</v>
@@ -1582,15 +1652,15 @@
       </c>
       <c r="F25" s="9">
         <f>'201201'!D25</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="8">
         <f>'201201'!C25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1628,7 +1698,7 @@
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
-        <v>111.81</v>
+        <v>91.643333333333331</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
@@ -1638,15 +1708,15 @@
       </c>
       <c r="F27" s="9">
         <f>'201201'!D27</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <f>'201201'!C27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1658,25 +1728,25 @@
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
-        <v>38.892105263157887</v>
+        <v>118.72543859649124</v>
       </c>
       <c r="D28" s="2">
         <v>38.049999999999997</v>
       </c>
       <c r="E28" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F28" s="9">
         <f>'201201'!D28</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8">
         <f>'201201'!C28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1740,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
@@ -1868,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1880,7 +1950,7 @@
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>88.243333333333325</v>
+        <v>68.076666666666654</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
@@ -1890,15 +1960,15 @@
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1910,7 +1980,7 @@
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
-        <v>133.95333333333335</v>
+        <v>113.78666666666666</v>
       </c>
       <c r="D37" s="2">
         <v>54.12</v>
@@ -1920,15 +1990,15 @@
       </c>
       <c r="F37" s="9">
         <f>'201201'!D37</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8">
         <f>'201201'!C37</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1958,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1970,22 +2040,26 @@
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79.833333333333329</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>100</v>
+      </c>
       <c r="F39" s="9">
         <f>'201201'!D39</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <f>'201201'!C39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -1996,7 +2070,7 @@
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
-        <v>95.493333333333325</v>
+        <v>75.326666666666654</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
@@ -2006,15 +2080,15 @@
       </c>
       <c r="F40" s="9">
         <f>'201201'!D40</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <f>'201201'!C40</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2070,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2242,25 +2316,25 @@
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
-        <v>26.902105263157896</v>
+        <v>106.73543859649124</v>
       </c>
       <c r="D49" s="2">
         <v>26.06</v>
       </c>
       <c r="E49" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2270,27 +2344,27 @@
       <c r="B50" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="12">
         <f t="shared" si="2"/>
-        <v>-19.324561403508774</v>
+        <v>60.508771929824562</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2400,22 +2474,26 @@
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
-        <v>9.94</v>
+        <v>89.773333333333326</v>
       </c>
       <c r="D55" s="2">
         <v>9.94</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2">
+        <v>100</v>
+      </c>
       <c r="F55" s="9">
         <f>'201201'!D55</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <f>'201201'!C55</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
@@ -2424,7 +2502,7 @@
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
-        <v>100.10333333333332</v>
+        <v>79.936666666666667</v>
       </c>
       <c r="D56" s="2">
         <v>20.27</v>
@@ -2434,15 +2512,15 @@
       </c>
       <c r="F56" s="9">
         <f>'201201'!D56</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8">
         <f>'201201'!C56</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -2518,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -2546,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -2656,7 +2734,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
@@ -3060,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3107,7 +3185,7 @@
       <c r="B2" s="18">
         <v>268</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="8">
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3133,8 +3211,8 @@
       <c r="B3" s="18">
         <v>100</v>
       </c>
-      <c r="C3" s="18">
-        <f t="shared" ref="C3:C22" si="0">C2+B3</f>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C33" si="0">C2+B3</f>
         <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3158,12 +3236,12 @@
       <c r="B4" s="18">
         <v>100</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>80</v>
@@ -3183,12 +3261,12 @@
       <c r="B5" s="18">
         <v>35</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>80</v>
@@ -3208,12 +3286,12 @@
       <c r="B6" s="18">
         <v>100</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>80</v>
@@ -3233,12 +3311,12 @@
       <c r="B7" s="18">
         <v>100</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>80</v>
@@ -3258,12 +3336,12 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>80</v>
@@ -3283,12 +3361,12 @@
       <c r="B9" s="18">
         <v>40</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>80</v>
@@ -3308,12 +3386,12 @@
       <c r="B10" s="18">
         <v>100</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>80</v>
@@ -3333,12 +3411,12 @@
       <c r="B11" s="18">
         <v>100</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>80</v>
@@ -3358,12 +3436,12 @@
       <c r="B12" s="18">
         <v>100</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>80</v>
@@ -3383,12 +3461,12 @@
       <c r="B13" s="18">
         <v>100</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>80</v>
@@ -3408,12 +3486,12 @@
       <c r="B14" s="18">
         <v>100</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>80</v>
@@ -3433,12 +3511,12 @@
       <c r="B15" s="18">
         <v>30</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>80</v>
@@ -3458,12 +3536,12 @@
       <c r="B16" s="18">
         <v>100</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>80</v>
@@ -3483,12 +3561,12 @@
       <c r="B17" s="18">
         <v>100</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>80</v>
@@ -3508,12 +3586,12 @@
       <c r="B18" s="18">
         <v>100</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>80</v>
@@ -3533,12 +3611,12 @@
       <c r="B19" s="18">
         <v>100</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>80</v>
@@ -3558,15 +3636,15 @@
       <c r="B20" s="18">
         <v>20</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
@@ -3583,15 +3661,15 @@
       <c r="B21" s="18">
         <v>-100</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
@@ -3600,7 +3678,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -3610,15 +3688,15 @@
       <c r="B22" s="18">
         <v>-345</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>13</v>
@@ -3629,94 +3707,281 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B23" s="18">
+        <v>100</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>1448</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B24" s="18">
+        <v>100</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="0"/>
+        <v>1548</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B25" s="18">
+        <v>100</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>1648</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B26" s="18">
+        <v>70</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>1718</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B27" s="18">
+        <v>100</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>1818</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B28" s="18">
+        <v>100</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>1918</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B29" s="18">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="A30" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B30" s="18">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
+        <v>2118</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="A31" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B31" s="18">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="0"/>
+        <v>2218</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B32" s="18">
+        <v>100</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="0"/>
+        <v>2318</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B33" s="18">
+        <v>-350</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3727,10 +3992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3774,7 +4039,7 @@
       <c r="B2" s="18">
         <v>810</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="8">
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3798,17 +4063,17 @@
         <v>40443</v>
       </c>
       <c r="B3" s="18">
-        <v>100</v>
-      </c>
-      <c r="C3" s="18">
+        <v>-20</v>
+      </c>
+      <c r="C3" s="8">
         <f>C2+B3</f>
-        <v>910</v>
+        <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>79</v>
@@ -3816,34 +4081,19 @@
       <c r="G3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>40443</v>
-      </c>
-      <c r="B4" s="18">
-        <v>-20</v>
-      </c>
-      <c r="C4" s="18">
-        <f>C3+B4</f>
-        <v>890</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -4104,16 +4354,6 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4126,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4138,11 +4378,12 @@
     <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>57</v>
@@ -4159,7 +4400,9 @@
       <c r="F1" s="16">
         <v>41179</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="16">
+        <v>41191</v>
+      </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -4177,7 +4420,9 @@
       <c r="F2" s="11">
         <v>18</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="11">
+        <v>18</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4195,7 +4440,9 @@
       <c r="F3" s="4">
         <v>345</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="4">
+        <v>345</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4215,7 +4462,10 @@
         <f>F3/F2</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="9">
+        <f>G3/G2</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4235,7 +4485,10 @@
         <f>COUNT(F9:F99)</f>
         <v>18</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="10">
+        <f>COUNT(G9:G99)</f>
+        <v>18</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4247,11 +4500,11 @@
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <f>SUM(C9:C99)</f>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9">
         <f>SUM(D9:D99)</f>
-        <v>690.00000000000011</v>
+        <v>1035</v>
       </c>
       <c r="E6" s="9">
         <f>SUM(E9:E99)</f>
@@ -4261,7 +4514,10 @@
         <f>SUM(F9:F99)</f>
         <v>345.00000000000006</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9">
+        <f>SUM(G9:G99)</f>
+        <v>345.00000000000006</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -4339,7 +4595,7 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4382,18 +4638,21 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -4463,15 +4722,18 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -4487,11 +4749,11 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="1"/>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="E16" s="4">
         <f>E4</f>
@@ -4501,7 +4763,10 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4571,11 +4836,11 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="1"/>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
@@ -4585,7 +4850,10 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -4631,15 +4899,18 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -4655,18 +4926,21 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -4706,18 +4980,21 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4733,11 +5010,11 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="1"/>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="E25" s="4">
         <f>E4</f>
@@ -4747,7 +5024,10 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4787,15 +5067,18 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -4811,18 +5094,21 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E28" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -5015,18 +5301,21 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -5042,18 +5331,21 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -5096,15 +5388,18 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -5120,18 +5415,21 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -5345,18 +5643,21 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" si="3"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E49" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -5372,11 +5673,11 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" si="3"/>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="E50" s="4">
         <f>E4</f>
@@ -5386,7 +5687,10 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -5489,15 +5793,18 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -5510,18 +5817,21 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="3"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="21">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="142">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,10 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多缴纳5块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40(120927),100/140(121009)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,6 +556,38 @@
   </si>
   <si>
     <t>100(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.10.9 多缴纳5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -712,7 +740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,19 +1162,19 @@
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
-        <v>2704.1299999999997</v>
+        <v>2921.1300000000006</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>979.12999999999988</v>
+        <v>959.12999999999988</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>2815</v>
+        <v>3415</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>1035</v>
+        <v>1380.0000000000002</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1155,7 +1182,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>113</v>
@@ -1260,7 +1287,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>157.08666666666667</v>
+        <v>136.92000000000002</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1270,15 +1297,15 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1290,7 +1317,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
-        <v>99.015438596491236</v>
+        <v>78.848771929824565</v>
       </c>
       <c r="D13" s="2">
         <v>18.34</v>
@@ -1300,12 +1327,12 @@
       </c>
       <c r="F13" s="9">
         <f>'201201'!D13</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8">
         <f>'201201'!C13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>89</v>
@@ -1364,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1394,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1436,25 +1463,25 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="1"/>
-        <v>12.392105263157895</v>
+        <v>92.225438596491244</v>
       </c>
       <c r="D18" s="2">
         <v>11.55</v>
       </c>
       <c r="E18" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F18" s="9">
         <f>'201201'!D18</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8">
         <f>'201201'!C18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1544,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1556,7 +1583,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>95.156666666666666</v>
+        <v>74.990000000000009</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
@@ -1566,12 +1593,12 @@
       </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>90</v>
@@ -1642,7 +1669,7 @@
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
-        <v>75.868771929824575</v>
+        <v>55.702105263157904</v>
       </c>
       <c r="D25" s="2">
         <v>15.36</v>
@@ -1652,12 +1679,12 @@
       </c>
       <c r="F25" s="9">
         <f>'201201'!D25</f>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="8">
         <f>'201201'!C25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>91</v>
@@ -1672,7 +1699,7 @@
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
-        <v>51.02</v>
+        <v>30.853333333333335</v>
       </c>
       <c r="D26" s="2">
         <v>51.02</v>
@@ -1680,12 +1707,12 @@
       <c r="E26" s="2"/>
       <c r="F26" s="9">
         <f>'201201'!D26</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8">
         <f>'201201'!C26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -1716,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1746,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1866,22 +1893,26 @@
       </c>
       <c r="C33" s="12">
         <f t="shared" si="1"/>
-        <v>19.97</v>
+        <v>99.803333333333327</v>
       </c>
       <c r="D33" s="2">
         <v>19.97</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>100</v>
+      </c>
       <c r="F33" s="9">
         <f>'201201'!D33</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="8">
         <f>'201201'!C33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
@@ -1920,7 +1951,7 @@
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
-        <v>170.18333333333334</v>
+        <v>150.01666666666665</v>
       </c>
       <c r="D35" s="2">
         <v>90.35</v>
@@ -1930,12 +1961,12 @@
       </c>
       <c r="F35" s="9">
         <f>'201201'!D35</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <f>'201201'!C35</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>92</v>
@@ -1950,7 +1981,7 @@
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>68.076666666666654</v>
+        <v>47.91</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
@@ -1960,12 +1991,12 @@
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>92</v>
@@ -2040,7 +2071,7 @@
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
-        <v>79.833333333333329</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -2050,15 +2081,15 @@
       </c>
       <c r="F39" s="9">
         <f>'201201'!D39</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <f>'201201'!C39</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2070,7 +2101,7 @@
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
-        <v>75.326666666666654</v>
+        <v>55.16</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
@@ -2080,12 +2111,12 @@
       </c>
       <c r="F40" s="9">
         <f>'201201'!D40</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <f>'201201'!C40</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>92</v>
@@ -2126,7 +2157,7 @@
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
-        <v>84.533333333333331</v>
+        <v>64.366666666666674</v>
       </c>
       <c r="D42" s="2">
         <v>4.7</v>
@@ -2136,12 +2167,12 @@
       </c>
       <c r="F42" s="9">
         <f>'201201'!D42</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8">
         <f>'201201'!C42</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>92</v>
@@ -2156,22 +2187,26 @@
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79.833333333333329</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>100</v>
+      </c>
       <c r="F43" s="9">
         <f>'201201'!D43</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8">
         <f>'201201'!C43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -2182,12 +2217,14 @@
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
-        <v>8.41</v>
+        <v>108.41</v>
       </c>
       <c r="D44" s="2">
         <v>8.41</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>100</v>
+      </c>
       <c r="F44" s="9">
         <f>'201201'!D44</f>
         <v>0</v>
@@ -2197,7 +2234,9 @@
         <f>'201201'!C44</f>
         <v>0</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -2286,25 +2325,25 @@
       </c>
       <c r="C48" s="12">
         <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <v>80.675438596491233</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F48" s="9">
         <f>'201201'!D48</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="8">
         <f>'201201'!C48</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2334,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2346,7 +2385,7 @@
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
-        <v>60.508771929824562</v>
+        <v>40.34210526315789</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -2356,15 +2395,15 @@
       </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2402,22 +2441,26 @@
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
-        <v>54.77</v>
+        <v>114.60333333333334</v>
       </c>
       <c r="D52" s="2">
-        <v>54.77</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>34.770000000000003</v>
+      </c>
+      <c r="E52" s="2">
+        <v>100</v>
+      </c>
       <c r="F52" s="9">
         <f>'201201'!D52</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8">
         <f>'201201'!C52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
@@ -2450,7 +2493,7 @@
       </c>
       <c r="C54" s="12">
         <f t="shared" si="2"/>
-        <v>33.36</v>
+        <v>13.193333333333332</v>
       </c>
       <c r="D54" s="2">
         <v>33.36</v>
@@ -2458,12 +2501,12 @@
       <c r="E54" s="2"/>
       <c r="F54" s="9">
         <f>'201201'!D54</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="8">
         <f>'201201'!C54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1"/>
     </row>
@@ -2492,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2502,7 +2545,7 @@
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
-        <v>79.936666666666667</v>
+        <v>59.769999999999996</v>
       </c>
       <c r="D56" s="2">
         <v>20.27</v>
@@ -2512,12 +2555,12 @@
       </c>
       <c r="F56" s="9">
         <f>'201201'!D56</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8">
         <f>'201201'!C56</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>92</v>
@@ -3138,15 +3181,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="7" width="9" style="3"/>
     <col min="8" max="8" width="39.75" bestFit="1" customWidth="1"/>
@@ -3943,7 +3986,7 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>80</v>
@@ -3979,8 +4022,183 @@
       <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>127</v>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
+        <v>41193</v>
+      </c>
+      <c r="B34" s="18">
+        <v>100</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" ref="C34:C39" si="1">C33+B34</f>
+        <v>2068</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="17">
+        <v>41193</v>
+      </c>
+      <c r="B35" s="18">
+        <v>100</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="1"/>
+        <v>2168</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="17">
+        <v>41193</v>
+      </c>
+      <c r="B36" s="18">
+        <v>100</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="1"/>
+        <v>2268</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="17">
+        <v>41193</v>
+      </c>
+      <c r="B37" s="18">
+        <v>100</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="1"/>
+        <v>2368</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="17">
+        <v>41193</v>
+      </c>
+      <c r="B38" s="18">
+        <v>100</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="1"/>
+        <v>2468</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="17">
+        <v>41193</v>
+      </c>
+      <c r="B39" s="18">
+        <v>100</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="17">
+        <v>41193</v>
+      </c>
+      <c r="B40" s="18">
+        <v>-340</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" ref="C40" si="2">C39+B40</f>
+        <v>2228</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4366,8 +4584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4378,7 +4596,8 @@
     <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -4403,7 +4622,9 @@
       <c r="G1" s="16">
         <v>41191</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="16">
+        <v>41193</v>
+      </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
@@ -4423,7 +4644,9 @@
       <c r="G2" s="11">
         <v>18</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="11">
+        <v>18</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -4443,7 +4666,9 @@
       <c r="G3" s="4">
         <v>345</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="4">
+        <v>345</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -4466,7 +4691,10 @@
         <f>G3/G2</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="9">
+        <f>H3/H2</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -4489,7 +4717,10 @@
         <f>COUNT(G9:G99)</f>
         <v>18</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="10">
+        <f>COUNT(H9:H99)</f>
+        <v>18</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
@@ -4500,11 +4731,11 @@
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <f>SUM(C9:C99)</f>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D6" s="9">
         <f>SUM(D9:D99)</f>
-        <v>1035</v>
+        <v>1380.0000000000002</v>
       </c>
       <c r="E6" s="9">
         <f>SUM(E9:E99)</f>
@@ -4518,7 +4749,10 @@
         <f>SUM(G9:G99)</f>
         <v>345.00000000000006</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="9">
+        <f>SUM(H9:H99)</f>
+        <v>345.00000000000006</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
@@ -4529,8 +4763,8 @@
       <c r="D7" s="9"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
@@ -4541,8 +4775,8 @@
       <c r="D8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
@@ -4568,8 +4802,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -4595,8 +4829,8 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
@@ -4622,8 +4856,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
@@ -4638,22 +4872,25 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
@@ -4668,11 +4905,11 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="1"/>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="E13" s="4">
         <f>E4</f>
@@ -4682,8 +4919,11 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -4706,8 +4946,8 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
@@ -4730,11 +4970,11 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
@@ -4763,11 +5003,11 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
@@ -4793,8 +5033,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
@@ -4809,19 +5049,22 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E18" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
@@ -4850,11 +5093,11 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
@@ -4883,8 +5126,8 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
@@ -4907,11 +5150,11 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
@@ -4926,22 +5169,25 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
@@ -4964,8 +5210,8 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
@@ -4991,11 +5237,11 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
@@ -5010,11 +5256,11 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="1"/>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
         <f>E4</f>
@@ -5024,11 +5270,14 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
@@ -5043,16 +5292,19 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="7">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -5075,11 +5327,11 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="21">
+      <c r="G27" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
@@ -5105,11 +5357,11 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="21">
+      <c r="G28" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
@@ -5135,8 +5387,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
@@ -5159,8 +5411,8 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
@@ -5183,8 +5435,8 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
@@ -5207,8 +5459,8 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
@@ -5223,16 +5475,19 @@
       </c>
       <c r="C33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
@@ -5258,8 +5513,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
@@ -5274,19 +5529,22 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -5301,22 +5559,25 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
@@ -5342,11 +5603,11 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
@@ -5372,8 +5633,8 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
@@ -5388,19 +5649,22 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="21">
+      <c r="G39" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
@@ -5415,22 +5679,25 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
@@ -5453,8 +5720,8 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
@@ -5469,19 +5736,22 @@
       </c>
       <c r="C42" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="3"/>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
@@ -5496,16 +5766,19 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
@@ -5528,8 +5801,8 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
@@ -5552,8 +5825,8 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
@@ -5576,8 +5849,8 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
@@ -5600,8 +5873,8 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
@@ -5616,19 +5889,22 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="3"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E48" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
@@ -5654,11 +5930,11 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="21">
+      <c r="G49" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
@@ -5673,11 +5949,11 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" si="3"/>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="E50" s="4">
         <f>E4</f>
@@ -5687,11 +5963,14 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
@@ -5714,8 +5993,8 @@
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
@@ -5730,16 +6009,19 @@
       </c>
       <c r="C52" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
@@ -5759,8 +6041,8 @@
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
@@ -5772,16 +6054,19 @@
       </c>
       <c r="C54" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="7">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
@@ -5801,11 +6086,11 @@
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="21">
+      <c r="G55" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
@@ -5817,22 +6102,25 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="3"/>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
@@ -5852,8 +6140,8 @@
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
@@ -5873,8 +6161,8 @@
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
@@ -5900,8 +6188,8 @@
         <f>F4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
@@ -5924,8 +6212,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
@@ -5948,8 +6236,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
@@ -5972,8 +6260,8 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
@@ -5993,8 +6281,8 @@
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
@@ -6014,8 +6302,8 @@
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
@@ -6035,8 +6323,8 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
@@ -6047,8 +6335,8 @@
       <c r="D66" s="9"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
@@ -6059,8 +6347,8 @@
       <c r="D67" s="9"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
@@ -6071,8 +6359,8 @@
       <c r="D68" s="9"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
@@ -6083,8 +6371,8 @@
       <c r="D69" s="9"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
@@ -6095,8 +6383,8 @@
       <c r="D70" s="9"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
@@ -6107,8 +6395,8 @@
       <c r="D71" s="9"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
@@ -6119,8 +6407,8 @@
       <c r="D72" s="9"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
@@ -6131,8 +6419,8 @@
       <c r="D73" s="9"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
@@ -6143,8 +6431,8 @@
       <c r="D74" s="9"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
@@ -6155,8 +6443,8 @@
       <c r="D75" s="9"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
@@ -6167,8 +6455,8 @@
       <c r="D76" s="9"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
@@ -6179,8 +6467,8 @@
       <c r="D77" s="9"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
@@ -6191,8 +6479,8 @@
       <c r="D78" s="9"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
@@ -6203,8 +6491,8 @@
       <c r="D79" s="9"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
@@ -6215,8 +6503,8 @@
       <c r="D80" s="9"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
@@ -6227,8 +6515,8 @@
       <c r="D81" s="9"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
@@ -6239,8 +6527,8 @@
       <c r="D82" s="9"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
@@ -6251,8 +6539,8 @@
       <c r="D83" s="9"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
@@ -6263,8 +6551,8 @@
       <c r="D84" s="9"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
@@ -6275,8 +6563,8 @@
       <c r="D85" s="9"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
@@ -6287,8 +6575,8 @@
       <c r="D86" s="9"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
@@ -6299,8 +6587,8 @@
       <c r="D87" s="9"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
@@ -6311,8 +6599,8 @@
       <c r="D88" s="9"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
@@ -6323,8 +6611,8 @@
       <c r="D89" s="9"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
@@ -6335,8 +6623,8 @@
       <c r="D90" s="9"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
@@ -6347,8 +6635,8 @@
       <c r="D91" s="9"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
@@ -6359,8 +6647,8 @@
       <c r="D92" s="9"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
@@ -6371,8 +6659,8 @@
       <c r="D93" s="9"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
@@ -6383,8 +6671,8 @@
       <c r="D94" s="9"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
@@ -6395,8 +6683,8 @@
       <c r="D95" s="9"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
@@ -6407,8 +6695,8 @@
       <c r="D96" s="9"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
@@ -6419,8 +6707,8 @@
       <c r="D97" s="9"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
@@ -6431,8 +6719,8 @@
       <c r="D98" s="9"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
@@ -6443,8 +6731,8 @@
       <c r="D99" s="9"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="150">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,6 +588,38 @@
   </si>
   <si>
     <t>100(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121006)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),25/45(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -740,6 +772,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,7 +1195,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
-        <v>2921.1300000000006</v>
+        <v>2983.1300000000006</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1170,11 +1203,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>3415</v>
+        <v>3840</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>1380.0000000000002</v>
+        <v>1725.0000000000005</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1182,7 +1215,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>113</v>
@@ -1257,25 +1290,25 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="1"/>
-        <v>0.8421052631578938</v>
+        <v>80.675438596491233</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F11" s="9">
         <f>'201201'!D11</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="8">
         <f>'201201'!C11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1287,7 +1320,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>136.92000000000002</v>
+        <v>116.75333333333334</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1297,12 +1330,12 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>57.5</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>127</v>
@@ -1347,7 +1380,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
-        <v>29.16</v>
+        <v>8.9933333333333323</v>
       </c>
       <c r="D14" s="2">
         <v>29.16</v>
@@ -1355,12 +1388,12 @@
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <f>'201201'!D14</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="8">
         <f>'201201'!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1373,7 +1406,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
-        <v>85.293333333333322</v>
+        <v>65.126666666666665</v>
       </c>
       <c r="D15" s="2">
         <v>5.46</v>
@@ -1383,12 +1416,12 @@
       </c>
       <c r="F15" s="9">
         <f>'201201'!D15</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
         <f>'201201'!C15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>128</v>
@@ -1493,7 +1526,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>109.19877192982456</v>
+        <v>89.032105263157888</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1503,12 +1536,12 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>82</v>
@@ -1553,7 +1586,7 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" si="1"/>
-        <v>79.833333333333329</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1563,12 +1596,12 @@
       </c>
       <c r="F21" s="9">
         <f>'201201'!D21</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8">
         <f>'201201'!C21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>128</v>
@@ -1583,7 +1616,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>74.990000000000009</v>
+        <v>54.823333333333338</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
@@ -1593,12 +1626,12 @@
       </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>57.5</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>90</v>
@@ -1639,7 +1672,7 @@
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
-        <v>68.756666666666661</v>
+        <v>48.59</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
@@ -1649,12 +1682,12 @@
       </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>90</v>
@@ -1725,7 +1758,7 @@
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
-        <v>91.643333333333331</v>
+        <v>71.476666666666659</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
@@ -1735,12 +1768,12 @@
       </c>
       <c r="F27" s="9">
         <f>'201201'!D27</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <f>'201201'!C27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>128</v>
@@ -1755,7 +1788,7 @@
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
-        <v>118.72543859649124</v>
+        <v>98.558771929824573</v>
       </c>
       <c r="D28" s="2">
         <v>38.049999999999997</v>
@@ -1765,12 +1798,12 @@
       </c>
       <c r="F28" s="9">
         <f>'201201'!D28</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8">
         <f>'201201'!C28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>130</v>
@@ -1785,25 +1818,25 @@
       </c>
       <c r="C29" s="12">
         <f t="shared" si="1"/>
-        <v>0.8421052631578938</v>
+        <v>5.675438596491226</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F29" s="9">
         <f>'201201'!D29</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="8">
         <f>'201201'!C29</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1815,22 +1848,26 @@
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>
-        <v>18.420000000000002</v>
+        <v>98.25333333333333</v>
       </c>
       <c r="D30" s="2">
         <v>18.420000000000002</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>100</v>
+      </c>
       <c r="F30" s="9">
         <f>'201201'!D30</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8">
         <f>'201201'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
@@ -1841,22 +1878,26 @@
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79.833333333333329</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>100</v>
+      </c>
       <c r="F31" s="9">
         <f>'201201'!D31</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="8">
         <f>'201201'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
@@ -1981,7 +2022,7 @@
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>47.91</v>
+        <v>27.743333333333325</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
@@ -1991,12 +2032,12 @@
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>57.5</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>92</v>
@@ -2011,7 +2052,7 @@
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
-        <v>113.78666666666666</v>
+        <v>93.62</v>
       </c>
       <c r="D37" s="2">
         <v>54.12</v>
@@ -2021,12 +2062,12 @@
       </c>
       <c r="F37" s="9">
         <f>'201201'!D37</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8">
         <f>'201201'!C37</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>92</v>
@@ -2071,7 +2112,7 @@
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
-        <v>59.666666666666664</v>
+        <v>39.5</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -2081,12 +2122,12 @@
       </c>
       <c r="F39" s="9">
         <f>'201201'!D39</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <f>'201201'!C39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>131</v>
@@ -2130,7 +2171,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C65" si="2">D41+E41+G41-F41-H41</f>
+        <f t="shared" ref="C41:C66" si="2">D41+E41+G41-F41-H41</f>
         <v>3.38</v>
       </c>
       <c r="D41" s="2">
@@ -2385,7 +2426,7 @@
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
-        <v>40.34210526315789</v>
+        <v>20.175438596491219</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -2395,12 +2436,12 @@
       </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>75.65789473684211</v>
+        <v>94.824561403508781</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>130</v>
@@ -2800,14 +2841,31 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="9"/>
+      <c r="B66" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="2"/>
+        <v>79.833333333333329</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>100</v>
+      </c>
+      <c r="F66" s="9">
+        <f>'201201'!D66</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="8">
+        <f>'201201'!C66</f>
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
@@ -3181,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4182,7 +4240,7 @@
         <v>-340</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" ref="C40" si="2">C39+B40</f>
+        <f t="shared" ref="C40:C45" si="2">C39+B40</f>
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -4200,6 +4258,156 @@
       <c r="H40" s="1" t="s">
         <v>137</v>
       </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="17">
+        <v>41198</v>
+      </c>
+      <c r="B41" s="18">
+        <v>100</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="2"/>
+        <v>2328</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="17">
+        <v>41198</v>
+      </c>
+      <c r="B42" s="18">
+        <v>100</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="2"/>
+        <v>2428</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="17">
+        <v>41198</v>
+      </c>
+      <c r="B43" s="18">
+        <v>100</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="2"/>
+        <v>2528</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="17">
+        <v>41198</v>
+      </c>
+      <c r="B44" s="18">
+        <v>100</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="2"/>
+        <v>2628</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="17">
+        <v>41198</v>
+      </c>
+      <c r="B45" s="18">
+        <v>25</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" si="2"/>
+        <v>2653</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="17">
+        <v>41198</v>
+      </c>
+      <c r="B46" s="18">
+        <v>-345</v>
+      </c>
+      <c r="C46" s="8">
+        <f t="shared" ref="C46" si="3">C45+B46</f>
+        <v>2308</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4584,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4598,6 +4806,7 @@
     <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -4625,7 +4834,9 @@
       <c r="H1" s="16">
         <v>41193</v>
       </c>
-      <c r="I1" s="14"/>
+      <c r="I1" s="16">
+        <v>41198</v>
+      </c>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -4647,7 +4858,9 @@
       <c r="H2" s="11">
         <v>18</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="2">
+        <v>18</v>
+      </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -4669,7 +4882,9 @@
       <c r="H3" s="4">
         <v>345</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="2">
+        <v>345</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -4695,7 +4910,10 @@
         <f>H3/H2</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="9">
+        <f>I3/I2</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -4721,7 +4939,10 @@
         <f>COUNT(H9:H99)</f>
         <v>18</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="10">
+        <f>COUNT(I9:I99)</f>
+        <v>18</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -4730,30 +4951,33 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f>SUM(C9:C99)</f>
-        <v>73</v>
+        <f t="shared" ref="C6:I6" si="0">SUM(C9:C99)</f>
+        <v>91</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(D9:D99)</f>
-        <v>1380.0000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1725.0000000000005</v>
       </c>
       <c r="E6" s="9">
-        <f>SUM(E9:E99)</f>
+        <f t="shared" si="0"/>
         <v>344.99999999999994</v>
       </c>
       <c r="F6" s="9">
-        <f>SUM(F9:F99)</f>
+        <f t="shared" si="0"/>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f>SUM(G9:G99)</f>
+        <f t="shared" si="0"/>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(H9:H99)</f>
+        <f t="shared" si="0"/>
         <v>345.00000000000006</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="9">
+        <f t="shared" si="0"/>
+        <v>345.00000000000006</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -4765,7 +4989,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -4777,7 +5001,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -4790,11 +5014,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="0">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="1">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="1">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="2">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -4804,7 +5028,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -4817,11 +5041,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -4831,7 +5055,7 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -4844,12 +5068,12 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <f t="shared" si="2"/>
+        <v>37.324561403508774</v>
       </c>
       <c r="E11" s="4">
         <f>E4</f>
@@ -4858,7 +5082,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -4871,12 +5098,12 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="1"/>
-        <v>57.5</v>
+        <f t="shared" si="2"/>
+        <v>76.666666666666671</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -4891,7 +5118,10 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -4904,11 +5134,11 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E13" s="4">
@@ -4924,7 +5154,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -4937,18 +5167,21 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -4961,12 +5194,12 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="2"/>
+        <v>38.333333333333336</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -4975,7 +5208,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -4988,11 +5224,11 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E16" s="4">
@@ -5008,7 +5244,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -5021,11 +5257,11 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E17" s="4">
@@ -5035,7 +5271,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -5048,11 +5284,11 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E18" s="4">
@@ -5065,7 +5301,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -5078,12 +5314,12 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="1"/>
-        <v>56.491228070175438</v>
+        <f t="shared" si="2"/>
+        <v>75.65789473684211</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
@@ -5098,7 +5334,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H19" s="18"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -5111,11 +5350,11 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E20" s="4">
@@ -5128,7 +5367,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -5141,12 +5380,12 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="2"/>
+        <v>38.333333333333336</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -5155,7 +5394,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -5168,12 +5410,12 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="1"/>
-        <v>57.5</v>
+        <f t="shared" si="2"/>
+        <v>76.666666666666671</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
@@ -5188,7 +5430,10 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -5201,18 +5446,18 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -5225,12 +5470,12 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="2"/>
+        <v>57.5</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -5242,7 +5487,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -5255,11 +5503,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -5278,7 +5526,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -5291,11 +5539,11 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E26" s="4"/>
@@ -5305,7 +5553,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -5318,12 +5566,12 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="1"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="2"/>
+        <v>38.333333333333336</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -5332,7 +5580,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -5345,12 +5596,12 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="1"/>
-        <v>37.324561403508774</v>
+        <f t="shared" si="2"/>
+        <v>56.491228070175438</v>
       </c>
       <c r="E28" s="4">
         <f>E4</f>
@@ -5362,7 +5613,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -5375,12 +5629,12 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="1"/>
-        <v>18.157894736842106</v>
+        <f t="shared" si="2"/>
+        <v>37.324561403508774</v>
       </c>
       <c r="E29" s="4">
         <f>E4</f>
@@ -5389,7 +5643,10 @@
       <c r="F29" s="4"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -5402,18 +5659,21 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -5426,18 +5686,21 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -5450,18 +5713,18 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -5474,11 +5737,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -5488,7 +5751,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -5501,11 +5764,11 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E34" s="7">
@@ -5515,7 +5778,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -5528,11 +5791,11 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E35" s="4"/>
@@ -5545,7 +5808,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -5558,12 +5821,12 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="1"/>
-        <v>57.5</v>
+        <f t="shared" si="2"/>
+        <v>76.666666666666671</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
@@ -5578,7 +5841,10 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I36" s="1"/>
+      <c r="I36" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -5591,12 +5857,12 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="2"/>
+        <v>57.5</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
@@ -5608,7 +5874,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -5621,11 +5890,11 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E38" s="4"/>
@@ -5635,7 +5904,7 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -5648,12 +5917,12 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="2"/>
+        <v>57.5</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5665,7 +5934,10 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -5678,11 +5950,11 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
       <c r="E40" s="4"/>
@@ -5698,7 +5970,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -5711,18 +5983,18 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C65" si="2">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C66" si="3">COUNT(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D65" si="3">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D66" si="4">SUM(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -5735,11 +6007,11 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E42" s="4"/>
@@ -5752,7 +6024,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -5765,11 +6037,11 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E43" s="4"/>
@@ -5779,7 +6051,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -5792,18 +6064,18 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -5816,18 +6088,18 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -5840,18 +6112,18 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -5864,18 +6136,18 @@
         <v>行盛于言</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -5888,11 +6160,11 @@
         <v>晨</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E48" s="4">
@@ -5905,7 +6177,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I48" s="1"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -5918,11 +6190,11 @@
         <v>拂晓</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E49" s="4">
@@ -5935,7 +6207,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H49" s="18"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -5948,12 +6220,12 @@
         <v>R</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="3"/>
-        <v>75.65789473684211</v>
+        <f t="shared" si="4"/>
+        <v>94.824561403508781</v>
       </c>
       <c r="E50" s="4">
         <f>E4</f>
@@ -5971,7 +6243,10 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I50" s="1"/>
+      <c r="I50" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -5984,18 +6259,18 @@
         <v>啪啪</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -6008,11 +6283,11 @@
         <v>陈磊</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
@@ -6022,7 +6297,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -6032,18 +6307,18 @@
         <v>Shenghak</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -6053,11 +6328,11 @@
         <v>张硕</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E54" s="4"/>
@@ -6067,7 +6342,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I54" s="1"/>
+      <c r="I54" s="2"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -6077,11 +6352,11 @@
         <v>孙伟</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E55" s="4"/>
@@ -6091,7 +6366,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="H55" s="18"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="2"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -6101,11 +6376,11 @@
         <v>小新</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="E56" s="4"/>
@@ -6121,7 +6396,7 @@
         <f>H4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="I56" s="1"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -6131,18 +6406,18 @@
         <v>祈网见</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -6152,18 +6427,18 @@
         <v>小严</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="2"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -6173,11 +6448,11 @@
         <v>懦夫</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E59" s="7">
@@ -6190,7 +6465,7 @@
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -6200,11 +6475,11 @@
         <v>徐老师</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E60" s="4">
@@ -6214,7 +6489,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="2"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -6224,11 +6499,11 @@
         <v>拉齐奥</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E61" s="4">
@@ -6238,7 +6513,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -6248,11 +6523,11 @@
         <v>冬瓜</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E62" s="4">
@@ -6262,7 +6537,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -6272,18 +6547,18 @@
         <v>狐狸</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -6293,18 +6568,18 @@
         <v>AC</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -6314,31 +6589,43 @@
         <v>天赐</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
+      <c r="B66" s="8" t="str">
+        <f>member!B66</f>
+        <v>小岭</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="4"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="I66" s="21">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
@@ -6349,7 +6636,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -6361,7 +6648,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -6373,7 +6660,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -6385,7 +6672,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -6397,7 +6684,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -6409,7 +6696,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -6421,7 +6708,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -6433,7 +6720,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -6445,7 +6732,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -6457,7 +6744,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -6469,7 +6756,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -6481,7 +6768,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -6493,7 +6780,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -6505,7 +6792,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="2"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -6517,7 +6804,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -6529,7 +6816,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -6541,7 +6828,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -6553,7 +6840,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="2"/>
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -6565,7 +6852,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -6577,7 +6864,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -6589,7 +6876,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="2"/>
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -6601,7 +6888,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="1"/>
+      <c r="I88" s="2"/>
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -6613,7 +6900,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="2"/>
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -6625,7 +6912,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="1"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -6637,7 +6924,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="1"/>
+      <c r="I91" s="2"/>
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -6649,7 +6936,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="2"/>
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -6661,7 +6948,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="2"/>
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -6673,7 +6960,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="1"/>
+      <c r="I94" s="2"/>
       <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -6685,7 +6972,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="1"/>
+      <c r="I95" s="2"/>
       <c r="J95" s="1"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -6697,7 +6984,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="1"/>
+      <c r="I96" s="2"/>
       <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -6709,7 +6996,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="1"/>
+      <c r="I97" s="2"/>
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -6721,7 +7008,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="2"/>
       <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -6733,7 +7020,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="2"/>
       <c r="J99" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="164">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +620,62 @@
   </si>
   <si>
     <t>M8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),200/220(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009),120/190(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),70/90(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,6 +829,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,7 +1245,9 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
@@ -1195,7 +1256,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
-        <v>2983.1300000000006</v>
+        <v>3360.7966666666662</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1203,11 +1264,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>3840</v>
+        <v>4500</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>1725.0000000000005</v>
+        <v>1993.3333333333339</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1215,10 +1276,10 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1320,7 +1381,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>116.75333333333334</v>
+        <v>96.586666666666673</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1330,12 +1391,12 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>76.666666666666671</v>
+        <v>95.833333333333343</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>127</v>
@@ -1436,7 +1497,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
-        <v>64.448771929824559</v>
+        <v>44.282105263157888</v>
       </c>
       <c r="D16" s="2">
         <v>3.94</v>
@@ -1446,12 +1507,12 @@
       </c>
       <c r="F16" s="9">
         <f>'201201'!D16</f>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <f>'201201'!C16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>129</v>
@@ -1466,25 +1527,25 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="1"/>
-        <v>3.2021052631578932</v>
+        <v>183.03543859649125</v>
       </c>
       <c r="D17" s="2">
         <v>2.36</v>
       </c>
       <c r="E17" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="F17" s="9">
         <f>'201201'!D17</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8">
         <f>'201201'!C17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1496,7 +1557,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="1"/>
-        <v>92.225438596491244</v>
+        <v>72.058771929824573</v>
       </c>
       <c r="D18" s="2">
         <v>11.55</v>
@@ -1506,12 +1567,12 @@
       </c>
       <c r="F18" s="9">
         <f>'201201'!D18</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8">
         <f>'201201'!C18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>138</v>
@@ -1732,22 +1793,26 @@
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
-        <v>30.853333333333335</v>
+        <v>40.686666666666675</v>
       </c>
       <c r="D26" s="2">
         <v>51.02</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>30</v>
+      </c>
       <c r="F26" s="9">
         <f>'201201'!D26</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8">
         <f>'201201'!C26</f>
-        <v>1</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
@@ -1992,7 +2057,7 @@
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
-        <v>150.01666666666665</v>
+        <v>129.85</v>
       </c>
       <c r="D35" s="2">
         <v>90.35</v>
@@ -2002,12 +2067,12 @@
       </c>
       <c r="F35" s="9">
         <f>'201201'!D35</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <f>'201201'!C35</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>92</v>
@@ -2112,7 +2177,7 @@
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
-        <v>39.5</v>
+        <v>19.333333333333329</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -2122,12 +2187,12 @@
       </c>
       <c r="F39" s="9">
         <f>'201201'!D39</f>
-        <v>57.5</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <f>'201201'!C39</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>131</v>
@@ -2171,7 +2236,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C66" si="2">D41+E41+G41-F41-H41</f>
+        <f t="shared" ref="C41:C70" si="2">D41+E41+G41-F41-H41</f>
         <v>3.38</v>
       </c>
       <c r="D41" s="2">
@@ -2198,7 +2263,7 @@
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
-        <v>64.366666666666674</v>
+        <v>44.2</v>
       </c>
       <c r="D42" s="2">
         <v>4.7</v>
@@ -2208,12 +2273,12 @@
       </c>
       <c r="F42" s="9">
         <f>'201201'!D42</f>
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8">
         <f>'201201'!C42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>92</v>
@@ -2228,7 +2293,7 @@
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
-        <v>79.833333333333329</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -2238,12 +2303,12 @@
       </c>
       <c r="F43" s="9">
         <f>'201201'!D43</f>
-        <v>19.166666666666668</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8">
         <f>'201201'!C43</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>139</v>
@@ -2258,7 +2323,7 @@
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
-        <v>108.41</v>
+        <v>88.243333333333325</v>
       </c>
       <c r="D44" s="2">
         <v>8.41</v>
@@ -2268,12 +2333,12 @@
       </c>
       <c r="F44" s="9">
         <f>'201201'!D44</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="8">
         <f>'201201'!C44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>139</v>
@@ -2312,24 +2377,28 @@
       <c r="B46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="12">
         <f t="shared" si="2"/>
-        <v>-4.26</v>
+        <v>5.5733333333333341</v>
       </c>
       <c r="D46" s="2">
         <v>-4.26</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>30</v>
+      </c>
       <c r="F46" s="9">
         <f>'201201'!D46</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="8">
         <f>'201201'!C46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -2396,7 +2465,7 @@
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
-        <v>106.73543859649124</v>
+        <v>86.568771929824564</v>
       </c>
       <c r="D49" s="2">
         <v>26.06</v>
@@ -2406,12 +2475,12 @@
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>130</v>
@@ -2426,25 +2495,25 @@
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
-        <v>20.175438596491219</v>
+        <v>70.008771929824547</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>94.824561403508781</v>
+        <v>113.99122807017545</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2718,25 +2787,25 @@
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <v>50.675438596491226</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F61" s="9">
         <f>'201201'!D61</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="8">
         <f>'201201'!C61</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -2869,47 +2938,115 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="9"/>
+      <c r="B67" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>30</v>
+      </c>
+      <c r="F67" s="9">
+        <f>'201201'!D67</f>
+        <v>0</v>
+      </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="8">
+        <f>'201201'!C67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="9"/>
+      <c r="B68" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>30</v>
+      </c>
+      <c r="F68" s="9">
+        <f>'201201'!D68</f>
+        <v>0</v>
+      </c>
       <c r="G68" s="1"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="8">
+        <f>'201201'!C68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="9"/>
+      <c r="B69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>100</v>
+      </c>
+      <c r="F69" s="9">
+        <f>'201201'!D69</f>
+        <v>0</v>
+      </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="8">
+        <f>'201201'!C69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="9"/>
+      <c r="B70" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>100</v>
+      </c>
+      <c r="F70" s="9">
+        <f>'201201'!D70</f>
+        <v>0</v>
+      </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="8">
+        <f>'201201'!C70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
@@ -3239,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3331,7 +3468,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="22">
         <v>41179</v>
       </c>
       <c r="B4" s="18">
@@ -3356,7 +3493,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="A5" s="22">
         <v>41179</v>
       </c>
       <c r="B5" s="18">
@@ -3381,7 +3518,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="A6" s="22">
         <v>41179</v>
       </c>
       <c r="B6" s="18">
@@ -3406,7 +3543,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+      <c r="A7" s="22">
         <v>41179</v>
       </c>
       <c r="B7" s="18">
@@ -3431,7 +3568,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
+      <c r="A8" s="22">
         <v>41179</v>
       </c>
       <c r="B8" s="18">
@@ -3456,7 +3593,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
+      <c r="A9" s="22">
         <v>41179</v>
       </c>
       <c r="B9" s="18">
@@ -3481,7 +3618,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="A10" s="22">
         <v>41179</v>
       </c>
       <c r="B10" s="18">
@@ -3506,7 +3643,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="22">
         <v>41179</v>
       </c>
       <c r="B11" s="18">
@@ -3531,7 +3668,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="22">
         <v>41179</v>
       </c>
       <c r="B12" s="18">
@@ -3556,7 +3693,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="A13" s="22">
         <v>41179</v>
       </c>
       <c r="B13" s="18">
@@ -3581,7 +3718,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="22">
         <v>41179</v>
       </c>
       <c r="B14" s="18">
@@ -3606,7 +3743,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+      <c r="A15" s="22">
         <v>41179</v>
       </c>
       <c r="B15" s="18">
@@ -3631,7 +3768,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="17">
+      <c r="A16" s="22">
         <v>41179</v>
       </c>
       <c r="B16" s="18">
@@ -3656,7 +3793,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
+      <c r="A17" s="22">
         <v>41179</v>
       </c>
       <c r="B17" s="18">
@@ -3681,7 +3818,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="22">
         <v>41179</v>
       </c>
       <c r="B18" s="18">
@@ -3706,7 +3843,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
+      <c r="A19" s="22">
         <v>41179</v>
       </c>
       <c r="B19" s="18">
@@ -3731,7 +3868,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
+      <c r="A20" s="22">
         <v>41179</v>
       </c>
       <c r="B20" s="18">
@@ -3756,7 +3893,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
+      <c r="A21" s="22">
         <v>41179</v>
       </c>
       <c r="B21" s="18">
@@ -3783,7 +3920,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="A22" s="22">
         <v>41179</v>
       </c>
       <c r="B22" s="18">
@@ -4083,7 +4220,7 @@
       <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="17">
+      <c r="A34" s="22">
         <v>41193</v>
       </c>
       <c r="B34" s="18">
@@ -4108,7 +4245,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="17">
+      <c r="A35" s="22">
         <v>41193</v>
       </c>
       <c r="B35" s="18">
@@ -4133,7 +4270,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="17">
+      <c r="A36" s="22">
         <v>41193</v>
       </c>
       <c r="B36" s="18">
@@ -4158,7 +4295,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="17">
+      <c r="A37" s="22">
         <v>41193</v>
       </c>
       <c r="B37" s="18">
@@ -4183,7 +4320,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="17">
+      <c r="A38" s="22">
         <v>41193</v>
       </c>
       <c r="B38" s="18">
@@ -4208,7 +4345,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="17">
+      <c r="A39" s="22">
         <v>41193</v>
       </c>
       <c r="B39" s="18">
@@ -4233,7 +4370,7 @@
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="17">
+      <c r="A40" s="22">
         <v>41193</v>
       </c>
       <c r="B40" s="18">
@@ -4392,7 +4529,7 @@
         <v>-345</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" ref="C46" si="3">C45+B46</f>
+        <f t="shared" ref="C46:C51" si="3">C45+B46</f>
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -4408,6 +4545,206 @@
         <v>13</v>
       </c>
       <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B47" s="18">
+        <v>200</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" si="3"/>
+        <v>2508</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B48" s="18">
+        <v>100</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" si="3"/>
+        <v>2608</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B49" s="18">
+        <v>100</v>
+      </c>
+      <c r="C49" s="8">
+        <f t="shared" si="3"/>
+        <v>2708</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B50" s="18">
+        <v>30</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" si="3"/>
+        <v>2738</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B51" s="18">
+        <v>100</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" si="3"/>
+        <v>2838</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B52" s="18">
+        <v>100</v>
+      </c>
+      <c r="C52" s="8">
+        <f t="shared" ref="C52:C54" si="4">C51+B52</f>
+        <v>2938</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B53" s="18">
+        <v>30</v>
+      </c>
+      <c r="C53" s="8">
+        <f t="shared" si="4"/>
+        <v>2968</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="22">
+        <v>41200</v>
+      </c>
+      <c r="B54" s="18">
+        <v>-345</v>
+      </c>
+      <c r="C54" s="8">
+        <f t="shared" si="4"/>
+        <v>2623</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4792,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4807,6 +5144,7 @@
     <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -4837,7 +5175,9 @@
       <c r="I1" s="16">
         <v>41198</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16">
+        <v>41200</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -4861,7 +5201,9 @@
       <c r="I2" s="2">
         <v>18</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
@@ -4885,7 +5227,9 @@
       <c r="I3" s="2">
         <v>345</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="2">
+        <v>345</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
@@ -4914,7 +5258,10 @@
         <f>I3/I2</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="9">
+        <f>J3/J2</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
@@ -4943,7 +5290,10 @@
         <f>COUNT(I9:I99)</f>
         <v>18</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="10">
+        <f>COUNT(J9:J99)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
@@ -4952,11 +5302,11 @@
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <f t="shared" ref="C6:I6" si="0">SUM(C9:C99)</f>
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>1725.0000000000005</v>
+        <v>1993.3333333333339</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
@@ -4978,7 +5328,10 @@
         <f t="shared" si="0"/>
         <v>345.00000000000006</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6" si="1">SUM(J9:J99)</f>
+        <v>345.00000000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
@@ -4990,7 +5343,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
@@ -5002,7 +5355,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
@@ -5014,11 +5367,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="1">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="2">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="2">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="3">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -5029,7 +5382,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
@@ -5041,11 +5394,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -5056,7 +5409,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
@@ -5068,11 +5421,11 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E11" s="4">
@@ -5086,7 +5439,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
@@ -5098,12 +5451,12 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="2"/>
-        <v>76.666666666666671</v>
+        <f t="shared" si="3"/>
+        <v>95.833333333333343</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -5122,7 +5475,10 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
@@ -5134,11 +5490,11 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E13" s="4">
@@ -5155,7 +5511,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
@@ -5167,11 +5523,11 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -5182,7 +5538,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
@@ -5194,11 +5550,11 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E15" s="4"/>
@@ -5212,7 +5568,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
@@ -5224,12 +5580,12 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="2"/>
-        <v>56.491228070175438</v>
+        <f t="shared" si="3"/>
+        <v>75.65789473684211</v>
       </c>
       <c r="E16" s="4">
         <f>E4</f>
@@ -5245,7 +5601,10 @@
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
@@ -5257,12 +5616,12 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="2"/>
-        <v>18.157894736842106</v>
+        <f t="shared" si="3"/>
+        <v>37.324561403508774</v>
       </c>
       <c r="E17" s="4">
         <f>E4</f>
@@ -5272,7 +5631,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
@@ -5284,12 +5646,12 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="2"/>
-        <v>37.324561403508774</v>
+        <f t="shared" si="3"/>
+        <v>56.491228070175438</v>
       </c>
       <c r="E18" s="4">
         <f>E4</f>
@@ -5302,7 +5664,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
@@ -5314,11 +5679,11 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E19" s="4">
@@ -5338,7 +5703,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
@@ -5350,11 +5715,11 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E20" s="4">
@@ -5368,7 +5733,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
@@ -5380,11 +5745,11 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E21" s="4"/>
@@ -5398,7 +5763,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
@@ -5410,11 +5775,11 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76.666666666666671</v>
       </c>
       <c r="E22" s="4"/>
@@ -5434,7 +5799,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
@@ -5446,11 +5811,11 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -5458,7 +5823,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
@@ -5470,11 +5835,11 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
       <c r="E24" s="4"/>
@@ -5491,7 +5856,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
@@ -5503,11 +5868,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -5527,7 +5892,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
@@ -5539,12 +5904,12 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="2"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="3"/>
+        <v>38.333333333333336</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5554,7 +5919,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
@@ -5566,11 +5934,11 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E27" s="4"/>
@@ -5584,7 +5952,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
@@ -5596,11 +5964,11 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E28" s="4">
@@ -5617,7 +5985,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
@@ -5629,11 +5997,11 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E29" s="4">
@@ -5647,7 +6015,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
@@ -5659,11 +6027,11 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E30" s="4"/>
@@ -5674,7 +6042,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
@@ -5686,11 +6054,11 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -5701,7 +6069,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
@@ -5713,11 +6081,11 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
@@ -5725,7 +6093,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
@@ -5737,11 +6105,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -5752,7 +6120,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
@@ -5764,11 +6132,11 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E34" s="7">
@@ -5779,7 +6147,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
@@ -5791,12 +6159,12 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="2"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="3"/>
+        <v>57.5</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
@@ -5809,7 +6177,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
@@ -5821,11 +6192,11 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76.666666666666671</v>
       </c>
       <c r="E36" s="4"/>
@@ -5845,7 +6216,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
@@ -5857,11 +6228,11 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
       <c r="E37" s="4"/>
@@ -5878,7 +6249,7 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
@@ -5890,11 +6261,11 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E38" s="4"/>
@@ -5905,7 +6276,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
@@ -5917,12 +6288,12 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="2"/>
-        <v>57.5</v>
+        <f t="shared" si="3"/>
+        <v>76.666666666666671</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5938,7 +6309,10 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
@@ -5950,11 +6324,11 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
       <c r="E40" s="4"/>
@@ -5971,7 +6345,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
@@ -5983,11 +6357,11 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C66" si="3">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C66" si="4">COUNT(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D66" si="4">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D66" si="5">SUM(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="E41" s="4"/>
@@ -5995,7 +6369,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -6007,12 +6381,12 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="4"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="5"/>
+        <v>57.5</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
@@ -6025,7 +6399,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
@@ -6037,12 +6414,12 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="4"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="5"/>
+        <v>38.333333333333336</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -6052,7 +6429,10 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
@@ -6064,19 +6444,22 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
@@ -6088,11 +6471,11 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -6100,7 +6483,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
@@ -6112,19 +6495,22 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
@@ -6136,11 +6522,11 @@
         <v>行盛于言</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
@@ -6148,7 +6534,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
@@ -6160,11 +6546,11 @@
         <v>晨</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E48" s="4">
@@ -6178,7 +6564,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
@@ -6190,12 +6576,12 @@
         <v>拂晓</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="4"/>
-        <v>37.324561403508774</v>
+        <f t="shared" si="5"/>
+        <v>56.491228070175438</v>
       </c>
       <c r="E49" s="4">
         <f>E4</f>
@@ -6208,7 +6594,10 @@
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
@@ -6220,12 +6609,12 @@
         <v>R</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="4"/>
-        <v>94.824561403508781</v>
+        <f t="shared" si="5"/>
+        <v>113.99122807017545</v>
       </c>
       <c r="E50" s="4">
         <f>E4</f>
@@ -6247,7 +6636,10 @@
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J50" s="1"/>
+      <c r="J50" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
@@ -6259,11 +6651,11 @@
         <v>啪啪</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E51" s="4"/>
@@ -6271,7 +6663,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
@@ -6283,11 +6675,11 @@
         <v>陈磊</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
@@ -6298,7 +6690,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
@@ -6307,11 +6699,11 @@
         <v>Shenghak</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E53" s="4"/>
@@ -6319,7 +6711,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
@@ -6328,11 +6720,11 @@
         <v>张硕</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E54" s="4"/>
@@ -6343,7 +6735,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
@@ -6352,11 +6744,11 @@
         <v>孙伟</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E55" s="4"/>
@@ -6367,7 +6759,7 @@
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
@@ -6376,11 +6768,11 @@
         <v>小新</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="E56" s="4"/>
@@ -6397,7 +6789,7 @@
         <v>19.166666666666668</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
@@ -6406,11 +6798,11 @@
         <v>祈网见</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E57" s="4"/>
@@ -6418,7 +6810,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
@@ -6427,11 +6819,11 @@
         <v>小严</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
@@ -6439,7 +6831,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
@@ -6448,11 +6840,11 @@
         <v>懦夫</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E59" s="7">
@@ -6466,7 +6858,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
@@ -6475,11 +6867,11 @@
         <v>徐老师</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E60" s="4">
@@ -6490,7 +6882,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
@@ -6499,12 +6891,12 @@
         <v>拉齐奥</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="4"/>
-        <v>18.157894736842106</v>
+        <f t="shared" si="5"/>
+        <v>37.324561403508774</v>
       </c>
       <c r="E61" s="4">
         <f>E4</f>
@@ -6514,7 +6906,10 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
@@ -6523,11 +6918,11 @@
         <v>冬瓜</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E62" s="4">
@@ -6538,7 +6933,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
@@ -6547,11 +6942,11 @@
         <v>狐狸</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E63" s="4"/>
@@ -6559,7 +6954,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
@@ -6568,11 +6963,11 @@
         <v>AC</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E64" s="4"/>
@@ -6580,7 +6975,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
@@ -6589,11 +6984,11 @@
         <v>天赐</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E65" s="4"/>
@@ -6601,7 +6996,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
@@ -6610,11 +7005,11 @@
         <v>小岭</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E66" s="4"/>
@@ -6629,7 +7024,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="8" t="str">
+        <f>member!B67</f>
+        <v>孙硕</v>
+      </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
       <c r="E67" s="4"/>
@@ -6637,11 +7035,17 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="8" t="str">
+        <f>member!B68</f>
+        <v>R2</v>
+      </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
       <c r="E68" s="4"/>
@@ -6649,11 +7053,17 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="8" t="str">
+        <f>member!B69</f>
+        <v>刘俊峰</v>
+      </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
       <c r="E69" s="4"/>
@@ -6661,11 +7071,17 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="8" t="str">
+        <f>member!B70</f>
+        <v>人在旅途</v>
+      </c>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
       <c r="E70" s="4"/>
@@ -6673,7 +7089,10 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
@@ -6685,7 +7104,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
@@ -6697,7 +7116,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
@@ -6709,7 +7128,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
@@ -6721,7 +7140,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
@@ -6733,7 +7152,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
@@ -6745,7 +7164,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
@@ -6757,7 +7176,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
@@ -6769,7 +7188,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
@@ -6781,7 +7200,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
@@ -6793,7 +7212,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="1"/>
+      <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
@@ -6805,7 +7224,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="1"/>
+      <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
@@ -6817,7 +7236,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="1"/>
+      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
@@ -6829,7 +7248,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
@@ -6841,7 +7260,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
@@ -6853,7 +7272,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
@@ -6865,7 +7284,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="1"/>
+      <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
@@ -6877,7 +7296,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="1"/>
+      <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
@@ -6889,7 +7308,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="1"/>
+      <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
@@ -6901,7 +7320,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="1"/>
+      <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
@@ -6913,7 +7332,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="1"/>
+      <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
@@ -6925,7 +7344,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
@@ -6937,7 +7356,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="1"/>
+      <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
@@ -6949,7 +7368,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="1"/>
+      <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
@@ -6961,7 +7380,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="1"/>
+      <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
@@ -6973,7 +7392,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="1"/>
+      <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
@@ -6985,7 +7404,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="1"/>
+      <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
@@ -6997,7 +7416,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="1"/>
+      <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
@@ -7009,7 +7428,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="1"/>
+      <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
@@ -7021,7 +7440,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="2"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1256,7 +1256,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
-        <v>3360.7966666666662</v>
+        <v>3280.13</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>1993.3333333333339</v>
+        <v>2070.0000000000005</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>162</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="F67" s="9">
         <f>'201201'!D67</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="8">
         <f>'201201'!C67</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>155</v>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="C68" s="12">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="F68" s="9">
         <f>'201201'!D68</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8">
         <f>'201201'!C68</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>155</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C69" s="12">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>79.833333333333329</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="F69" s="9">
         <f>'201201'!D69</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8">
         <f>'201201'!C69</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>160</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>79.833333333333329</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="F70" s="9">
         <f>'201201'!D70</f>
-        <v>0</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8">
         <f>'201201'!C70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>160</v>
@@ -5129,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5239,27 +5239,27 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <f>E3/E2</f>
+        <f t="shared" ref="E4:J4" si="0">E3/E2</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F4" s="9">
-        <f>F3/F2</f>
+        <f t="shared" si="0"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G4" s="9">
-        <f>G3/G2</f>
+        <f t="shared" si="0"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H4" s="9">
-        <f>H3/H2</f>
+        <f t="shared" si="0"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I4" s="9">
-        <f>I3/I2</f>
+        <f t="shared" si="0"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J4" s="9">
-        <f>J3/J2</f>
+        <f t="shared" si="0"/>
         <v>19.166666666666668</v>
       </c>
     </row>
@@ -5271,27 +5271,27 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f>COUNT(E9:E99)</f>
+        <f t="shared" ref="E5:J5" si="1">COUNT(E9:E99)</f>
         <v>19</v>
       </c>
       <c r="F5" s="10">
-        <f>COUNT(F9:F99)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G5" s="10">
-        <f>COUNT(G9:G99)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H5" s="10">
-        <f>COUNT(H9:H99)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I5" s="10">
-        <f>COUNT(I9:I99)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J5" s="10">
-        <f>COUNT(J9:J99)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -5301,35 +5301,35 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:I6" si="0">SUM(C9:C99)</f>
-        <v>105</v>
+        <f t="shared" ref="C6:I6" si="2">SUM(C9:C99)</f>
+        <v>109</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>1993.3333333333339</v>
+        <f t="shared" si="2"/>
+        <v>2070.0000000000005</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>344.99999999999994</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6" si="1">SUM(J9:J99)</f>
+        <f t="shared" ref="J6" si="3">SUM(J9:J99)</f>
         <v>345.00000000000006</v>
       </c>
     </row>
@@ -5367,11 +5367,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="2">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="4">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="3">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="5">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -5394,11 +5394,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -5421,11 +5421,11 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E11" s="4">
@@ -5451,11 +5451,11 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.833333333333343</v>
       </c>
       <c r="E12" s="4"/>
@@ -5490,11 +5490,11 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E13" s="4">
@@ -5523,11 +5523,11 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -5550,11 +5550,11 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E15" s="4"/>
@@ -5580,11 +5580,11 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E16" s="4">
@@ -5616,11 +5616,11 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E17" s="4">
@@ -5646,11 +5646,11 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E18" s="4">
@@ -5679,11 +5679,11 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E19" s="4">
@@ -5715,11 +5715,11 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E20" s="4">
@@ -5745,11 +5745,11 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E21" s="4"/>
@@ -5775,11 +5775,11 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76.666666666666671</v>
       </c>
       <c r="E22" s="4"/>
@@ -5811,11 +5811,11 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -5835,11 +5835,11 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="E24" s="4"/>
@@ -5868,11 +5868,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -5904,11 +5904,11 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E26" s="4"/>
@@ -5934,11 +5934,11 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E27" s="4"/>
@@ -5964,11 +5964,11 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E28" s="4">
@@ -5997,11 +5997,11 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E29" s="4">
@@ -6027,11 +6027,11 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E30" s="4"/>
@@ -6054,11 +6054,11 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -6081,11 +6081,11 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
@@ -6105,11 +6105,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -6132,11 +6132,11 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E34" s="7">
@@ -6159,11 +6159,11 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="E35" s="4"/>
@@ -6192,11 +6192,11 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76.666666666666671</v>
       </c>
       <c r="E36" s="4"/>
@@ -6228,11 +6228,11 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="E37" s="4"/>
@@ -6261,11 +6261,11 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E38" s="4"/>
@@ -6288,11 +6288,11 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76.666666666666671</v>
       </c>
       <c r="E39" s="4"/>
@@ -6324,11 +6324,11 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="E40" s="4"/>
@@ -6357,11 +6357,11 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C66" si="4">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C70" si="6">COUNT(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D66" si="5">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D70" si="7">SUM(E41:ZZ41)</f>
         <v>0</v>
       </c>
       <c r="E41" s="4"/>
@@ -6381,11 +6381,11 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="E42" s="4"/>
@@ -6414,11 +6414,11 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E43" s="4"/>
@@ -6444,11 +6444,11 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E44" s="4"/>
@@ -6471,11 +6471,11 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -6495,11 +6495,11 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -6522,11 +6522,11 @@
         <v>行盛于言</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
@@ -6546,11 +6546,11 @@
         <v>晨</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E48" s="4">
@@ -6576,11 +6576,11 @@
         <v>拂晓</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E49" s="4">
@@ -6609,35 +6609,35 @@
         <v>R</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>113.99122807017545</v>
       </c>
       <c r="E50" s="4">
-        <f>E4</f>
+        <f t="shared" ref="E50:J50" si="8">E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F50" s="4">
-        <f>F4</f>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G50" s="18">
-        <f>G4</f>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H50" s="18">
-        <f>H4</f>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I50" s="18">
-        <f>I4</f>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J50" s="18">
-        <f>J4</f>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
     </row>
@@ -6651,11 +6651,11 @@
         <v>啪啪</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E51" s="4"/>
@@ -6675,11 +6675,11 @@
         <v>陈磊</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
@@ -6699,11 +6699,11 @@
         <v>Shenghak</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E53" s="4"/>
@@ -6720,11 +6720,11 @@
         <v>张硕</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E54" s="4"/>
@@ -6744,11 +6744,11 @@
         <v>孙伟</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E55" s="4"/>
@@ -6768,11 +6768,11 @@
         <v>小新</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="E56" s="4"/>
@@ -6798,11 +6798,11 @@
         <v>祈网见</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E57" s="4"/>
@@ -6819,11 +6819,11 @@
         <v>小严</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
@@ -6840,11 +6840,11 @@
         <v>懦夫</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E59" s="7">
@@ -6867,11 +6867,11 @@
         <v>徐老师</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E60" s="4">
@@ -6891,11 +6891,11 @@
         <v>拉齐奥</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E61" s="4">
@@ -6918,11 +6918,11 @@
         <v>冬瓜</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E62" s="4">
@@ -6942,11 +6942,11 @@
         <v>狐狸</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E63" s="4"/>
@@ -6963,11 +6963,11 @@
         <v>AC</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E64" s="4"/>
@@ -6984,11 +6984,11 @@
         <v>天赐</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E65" s="4"/>
@@ -7005,11 +7005,11 @@
         <v>小岭</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E66" s="4"/>
@@ -7028,8 +7028,14 @@
         <f>member!B67</f>
         <v>孙硕</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
+      <c r="C67" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="9">
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="2"/>
@@ -7046,8 +7052,14 @@
         <f>member!B68</f>
         <v>R2</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
+      <c r="C68" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="2"/>
@@ -7064,8 +7076,14 @@
         <f>member!B69</f>
         <v>刘俊峰</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
+      <c r="C69" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="2"/>
@@ -7082,8 +7100,14 @@
         <f>member!B70</f>
         <v>人在旅途</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="2"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="174">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,11 +671,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>660/4500(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70拉齐奥,30孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70R,30R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenhak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,11 +864,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1256,7 +1292,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
-        <v>3280.13</v>
+        <v>3338.1299999999992</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1264,11 +1300,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>4930</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>2070.0000000000005</v>
+        <v>2419.9999999999995</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1276,10 +1312,10 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1411,7 +1447,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
-        <v>78.848771929824565</v>
+        <v>61.939681020733659</v>
       </c>
       <c r="D13" s="2">
         <v>18.34</v>
@@ -1421,12 +1457,12 @@
       </c>
       <c r="F13" s="9">
         <f>'201201'!D13</f>
-        <v>56.491228070175438</v>
+        <v>72.400318979266345</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8">
         <f>'201201'!C13</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>89</v>
@@ -1467,7 +1503,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
-        <v>65.126666666666665</v>
+        <v>48.217575757575752</v>
       </c>
       <c r="D15" s="2">
         <v>5.46</v>
@@ -1477,12 +1513,12 @@
       </c>
       <c r="F15" s="9">
         <f>'201201'!D15</f>
-        <v>38.333333333333336</v>
+        <v>54.242424242424242</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
         <f>'201201'!C15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>128</v>
@@ -1587,7 +1623,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>89.032105263157888</v>
+        <v>72.123014354066981</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1597,12 +1633,12 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>75.65789473684211</v>
+        <v>91.566985645933016</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>82</v>
@@ -1677,7 +1713,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>54.823333333333338</v>
+        <v>37.914242424242431</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
@@ -1687,12 +1723,12 @@
       </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>76.666666666666671</v>
+        <v>92.575757575757578</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>90</v>
@@ -1733,7 +1769,7 @@
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
-        <v>48.59</v>
+        <v>31.680909090909097</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
@@ -1743,12 +1779,12 @@
       </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>57.5</v>
+        <v>73.409090909090907</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>90</v>
@@ -1823,7 +1859,7 @@
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
-        <v>71.476666666666659</v>
+        <v>54.56757575757576</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
@@ -1833,12 +1869,12 @@
       </c>
       <c r="F27" s="9">
         <f>'201201'!D27</f>
-        <v>38.333333333333336</v>
+        <v>54.242424242424242</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <f>'201201'!C27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>128</v>
@@ -1853,7 +1889,7 @@
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
-        <v>98.558771929824573</v>
+        <v>81.649681020733667</v>
       </c>
       <c r="D28" s="2">
         <v>38.049999999999997</v>
@@ -1863,12 +1899,12 @@
       </c>
       <c r="F28" s="9">
         <f>'201201'!D28</f>
-        <v>56.491228070175438</v>
+        <v>72.400318979266345</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8">
         <f>'201201'!C28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>130</v>
@@ -1913,7 +1949,7 @@
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>
-        <v>98.25333333333333</v>
+        <v>81.344242424242424</v>
       </c>
       <c r="D30" s="2">
         <v>18.420000000000002</v>
@@ -1923,12 +1959,12 @@
       </c>
       <c r="F30" s="9">
         <f>'201201'!D30</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8">
         <f>'201201'!C30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>144</v>
@@ -2027,25 +2063,27 @@
       <c r="B34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="12">
         <f t="shared" si="1"/>
-        <v>-1.1578947368421062</v>
+        <v>11.933014354066984</v>
       </c>
       <c r="D34" s="2">
         <v>18</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>30</v>
+      </c>
       <c r="F34" s="9">
         <f>'201201'!D34</f>
-        <v>18.157894736842106</v>
+        <v>34.066985645933016</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="8">
         <f>'201201'!C34</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2057,7 +2095,7 @@
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
-        <v>129.85</v>
+        <v>112.94090909090909</v>
       </c>
       <c r="D35" s="2">
         <v>90.35</v>
@@ -2067,12 +2105,12 @@
       </c>
       <c r="F35" s="9">
         <f>'201201'!D35</f>
-        <v>57.5</v>
+        <v>73.409090909090907</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <f>'201201'!C35</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>92</v>
@@ -2087,25 +2125,25 @@
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>27.743333333333325</v>
+        <v>110.83424242424242</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
       </c>
       <c r="E36" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>76.666666666666671</v>
+        <v>92.575757575757578</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2147,7 +2185,7 @@
       </c>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
-        <v>109.77333333333333</v>
+        <v>92.86424242424242</v>
       </c>
       <c r="D38" s="2">
         <v>29.94</v>
@@ -2157,12 +2195,12 @@
       </c>
       <c r="F38" s="9">
         <f>'201201'!D38</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="8">
         <f>'201201'!C38</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>92</v>
@@ -2236,23 +2274,27 @@
         <v>34</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C70" si="2">D41+E41+G41-F41-H41</f>
-        <v>3.38</v>
+        <f t="shared" ref="C41:C71" si="2">D41+E41+G41-F41-H41</f>
+        <v>86.470909090909089</v>
       </c>
       <c r="D41" s="2">
         <v>3.38</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>100</v>
+      </c>
       <c r="F41" s="9">
         <f>'201201'!D41</f>
-        <v>0</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
         <f>'201201'!C41</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
@@ -2465,7 +2507,7 @@
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
-        <v>86.568771929824564</v>
+        <v>69.659681020733657</v>
       </c>
       <c r="D49" s="2">
         <v>26.06</v>
@@ -2475,12 +2517,12 @@
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>56.491228070175438</v>
+        <v>72.400318979266345</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>130</v>
@@ -2495,7 +2537,7 @@
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
-        <v>70.008771929824547</v>
+        <v>53.099681020733641</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -2505,12 +2547,12 @@
       </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>113.99122807017545</v>
+        <v>129.90031897926636</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>156</v>
@@ -2551,7 +2593,7 @@
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
-        <v>114.60333333333334</v>
+        <v>97.694242424242432</v>
       </c>
       <c r="D52" s="2">
         <v>34.770000000000003</v>
@@ -2561,12 +2603,12 @@
       </c>
       <c r="F52" s="9">
         <f>'201201'!D52</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8">
         <f>'201201'!C52</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>141</v>
@@ -2579,22 +2621,26 @@
       </c>
       <c r="C53" s="12">
         <f t="shared" si="2"/>
-        <v>28.77</v>
+        <v>111.8609090909091</v>
       </c>
       <c r="D53" s="2">
         <v>28.77</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>100</v>
+      </c>
       <c r="F53" s="9">
         <f>'201201'!D53</f>
-        <v>0</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="8">
         <f>'201201'!C53</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
@@ -2627,7 +2673,7 @@
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
-        <v>89.773333333333326</v>
+        <v>72.86424242424242</v>
       </c>
       <c r="D55" s="2">
         <v>9.94</v>
@@ -2637,12 +2683,12 @@
       </c>
       <c r="F55" s="9">
         <f>'201201'!D55</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <f>'201201'!C55</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>133</v>
@@ -2655,7 +2701,7 @@
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
-        <v>59.769999999999996</v>
+        <v>42.86090909090909</v>
       </c>
       <c r="D56" s="2">
         <v>20.27</v>
@@ -2665,12 +2711,12 @@
       </c>
       <c r="F56" s="9">
         <f>'201201'!D56</f>
-        <v>57.5</v>
+        <v>73.409090909090907</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8">
         <f>'201201'!C56</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>92</v>
@@ -2915,7 +2961,7 @@
       </c>
       <c r="C66" s="12">
         <f t="shared" si="2"/>
-        <v>79.833333333333329</v>
+        <v>62.924242424242422</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -2925,12 +2971,12 @@
       </c>
       <c r="F66" s="9">
         <f>'201201'!D66</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="8">
         <f>'201201'!C66</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>146</v>
@@ -2939,7 +2985,7 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
@@ -3027,7 +3073,7 @@
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
-        <v>79.833333333333329</v>
+        <v>62.924242424242422</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -3037,12 +3083,12 @@
       </c>
       <c r="F70" s="9">
         <f>'201201'!D70</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8">
         <f>'201201'!C70</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>160</v>
@@ -3050,14 +3096,31 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="9"/>
+      <c r="B71" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="2"/>
+        <v>83.090909090909093</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>100</v>
+      </c>
+      <c r="F71" s="9">
+        <f>'201201'!D71</f>
+        <v>15.909090909090908</v>
+      </c>
       <c r="G71" s="1"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="8">
+        <f>'201201'!C71</f>
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
@@ -3376,10 +3439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3468,7 +3531,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>41179</v>
       </c>
       <c r="B4" s="18">
@@ -3493,7 +3556,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>41179</v>
       </c>
       <c r="B5" s="18">
@@ -3518,7 +3581,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>41179</v>
       </c>
       <c r="B6" s="18">
@@ -3543,7 +3606,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>41179</v>
       </c>
       <c r="B7" s="18">
@@ -3568,7 +3631,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>41179</v>
       </c>
       <c r="B8" s="18">
@@ -3593,7 +3656,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
+      <c r="A9" s="20">
         <v>41179</v>
       </c>
       <c r="B9" s="18">
@@ -3618,7 +3681,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>41179</v>
       </c>
       <c r="B10" s="18">
@@ -3643,7 +3706,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+      <c r="A11" s="20">
         <v>41179</v>
       </c>
       <c r="B11" s="18">
@@ -3668,7 +3731,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>41179</v>
       </c>
       <c r="B12" s="18">
@@ -3693,7 +3756,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>41179</v>
       </c>
       <c r="B13" s="18">
@@ -3718,7 +3781,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="A14" s="20">
         <v>41179</v>
       </c>
       <c r="B14" s="18">
@@ -3743,7 +3806,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>41179</v>
       </c>
       <c r="B15" s="18">
@@ -3768,7 +3831,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>41179</v>
       </c>
       <c r="B16" s="18">
@@ -3793,7 +3856,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="A17" s="20">
         <v>41179</v>
       </c>
       <c r="B17" s="18">
@@ -3818,7 +3881,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="A18" s="20">
         <v>41179</v>
       </c>
       <c r="B18" s="18">
@@ -3843,7 +3906,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+      <c r="A19" s="20">
         <v>41179</v>
       </c>
       <c r="B19" s="18">
@@ -3868,7 +3931,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="A20" s="20">
         <v>41179</v>
       </c>
       <c r="B20" s="18">
@@ -3893,7 +3956,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+      <c r="A21" s="20">
         <v>41179</v>
       </c>
       <c r="B21" s="18">
@@ -3920,7 +3983,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>41179</v>
       </c>
       <c r="B22" s="18">
@@ -4217,10 +4280,10 @@
       <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="22">
+      <c r="A34" s="20">
         <v>41193</v>
       </c>
       <c r="B34" s="18">
@@ -4245,7 +4308,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="22">
+      <c r="A35" s="20">
         <v>41193</v>
       </c>
       <c r="B35" s="18">
@@ -4270,7 +4333,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="22">
+      <c r="A36" s="20">
         <v>41193</v>
       </c>
       <c r="B36" s="18">
@@ -4295,7 +4358,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="22">
+      <c r="A37" s="20">
         <v>41193</v>
       </c>
       <c r="B37" s="18">
@@ -4320,7 +4383,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="22">
+      <c r="A38" s="20">
         <v>41193</v>
       </c>
       <c r="B38" s="18">
@@ -4345,7 +4408,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="22">
+      <c r="A39" s="20">
         <v>41193</v>
       </c>
       <c r="B39" s="18">
@@ -4367,10 +4430,10 @@
       <c r="G39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="22">
+      <c r="A40" s="20">
         <v>41193</v>
       </c>
       <c r="B40" s="18">
@@ -4519,7 +4582,7 @@
       <c r="G45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="20"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="17">
@@ -4547,7 +4610,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="22">
+      <c r="A47" s="20">
         <v>41200</v>
       </c>
       <c r="B47" s="18">
@@ -4572,7 +4635,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="22">
+      <c r="A48" s="20">
         <v>41200</v>
       </c>
       <c r="B48" s="18">
@@ -4597,7 +4660,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="22">
+      <c r="A49" s="20">
         <v>41200</v>
       </c>
       <c r="B49" s="18">
@@ -4622,7 +4685,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="22">
+      <c r="A50" s="20">
         <v>41200</v>
       </c>
       <c r="B50" s="18">
@@ -4647,7 +4710,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="22">
+      <c r="A51" s="20">
         <v>41200</v>
       </c>
       <c r="B51" s="18">
@@ -4669,17 +4732,19 @@
       <c r="G51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="20"/>
+      <c r="H51" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="22">
+      <c r="A52" s="20">
         <v>41200</v>
       </c>
       <c r="B52" s="18">
         <v>100</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" ref="C52:C54" si="4">C51+B52</f>
+        <f t="shared" ref="C52:C60" si="4">C51+B52</f>
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -4694,10 +4759,12 @@
       <c r="G52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="22">
+      <c r="A53" s="20">
         <v>41200</v>
       </c>
       <c r="B53" s="18">
@@ -4719,10 +4786,10 @@
       <c r="G53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="20"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="22">
+      <c r="A54" s="20">
         <v>41200</v>
       </c>
       <c r="B54" s="18">
@@ -4745,6 +4812,156 @@
         <v>13</v>
       </c>
       <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B55" s="18">
+        <v>100</v>
+      </c>
+      <c r="C55" s="8">
+        <f t="shared" si="4"/>
+        <v>2723</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B56" s="18">
+        <v>100</v>
+      </c>
+      <c r="C56" s="8">
+        <f t="shared" si="4"/>
+        <v>2823</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B57" s="18">
+        <v>100</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" si="4"/>
+        <v>2923</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B58" s="18">
+        <v>100</v>
+      </c>
+      <c r="C58" s="8">
+        <f t="shared" si="4"/>
+        <v>3023</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B59" s="18">
+        <v>30</v>
+      </c>
+      <c r="C59" s="8">
+        <f t="shared" si="4"/>
+        <v>3053</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B60" s="18">
+        <v>-350</v>
+      </c>
+      <c r="C60" s="8">
+        <f t="shared" si="4"/>
+        <v>2703</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5127,10 +5344,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5144,10 +5361,10 @@
     <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>87</v>
       </c>
@@ -5178,8 +5395,11 @@
       <c r="J1" s="16">
         <v>41200</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="16">
+        <v>41205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -5204,8 +5424,11 @@
       <c r="J2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>67</v>
       </c>
@@ -5230,8 +5453,11 @@
       <c r="J3" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
@@ -5262,8 +5488,12 @@
         <f t="shared" si="0"/>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="9">
+        <f t="shared" ref="K4" si="1">K3/K2</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>69</v>
       </c>
@@ -5271,69 +5501,77 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f t="shared" ref="E5:J5" si="1">COUNT(E9:E99)</f>
+        <f t="shared" ref="E5:J5" si="2">COUNT(E9:E99)</f>
         <v>19</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="10">
+        <f t="shared" ref="K5" si="3">COUNT(K9:K99)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:I6" si="2">SUM(C9:C99)</f>
-        <v>109</v>
+        <f t="shared" ref="C6:I6" si="4">SUM(C9:C99)</f>
+        <v>131</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="2"/>
-        <v>2070.0000000000005</v>
+        <f t="shared" si="4"/>
+        <v>2419.9999999999995</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>344.99999999999994</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6" si="3">SUM(J9:J99)</f>
+        <f t="shared" ref="J6:K6" si="5">SUM(J9:J99)</f>
         <v>345.00000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="9">
+        <f t="shared" si="5"/>
+        <v>350.00000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5344,8 +5582,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5356,8 +5595,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f>member!A9</f>
         <v>0</v>
@@ -5367,11 +5607,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="4">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="6">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="5">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="7">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -5383,8 +5623,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f>member!A10</f>
         <v>1</v>
@@ -5394,11 +5635,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -5410,8 +5651,9 @@
       <c r="H10" s="18"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f>member!A11</f>
         <v>2</v>
@@ -5421,11 +5663,11 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E11" s="4">
@@ -5440,8 +5682,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f>member!A12</f>
         <v>3</v>
@@ -5451,11 +5694,11 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95.833333333333343</v>
       </c>
       <c r="E12" s="4"/>
@@ -5479,8 +5722,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f>member!A13</f>
         <v>4</v>
@@ -5490,12 +5734,12 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="5"/>
-        <v>56.491228070175438</v>
+        <f t="shared" si="7"/>
+        <v>72.400318979266345</v>
       </c>
       <c r="E13" s="4">
         <f>E4</f>
@@ -5512,8 +5756,12 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f>member!A14</f>
         <v>5</v>
@@ -5523,11 +5771,11 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -5539,8 +5787,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f>member!A15</f>
         <v>6</v>
@@ -5550,12 +5799,12 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="5"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="7"/>
+        <v>54.242424242424242</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -5569,8 +5818,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>member!A16</f>
         <v>7</v>
@@ -5580,11 +5833,11 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E16" s="4">
@@ -5605,8 +5858,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f>member!A17</f>
         <v>8</v>
@@ -5616,11 +5870,11 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E17" s="4">
@@ -5635,8 +5889,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>member!A18</f>
         <v>9</v>
@@ -5646,11 +5901,11 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E18" s="4">
@@ -5668,8 +5923,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f>member!A19</f>
         <v>10</v>
@@ -5679,12 +5935,12 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="5"/>
-        <v>75.65789473684211</v>
+        <f t="shared" si="7"/>
+        <v>91.566985645933016</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
@@ -5704,8 +5960,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>member!A20</f>
         <v>11</v>
@@ -5715,11 +5975,11 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E20" s="4">
@@ -5734,8 +5994,9 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f>member!A21</f>
         <v>12</v>
@@ -5745,11 +6006,11 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E21" s="4"/>
@@ -5764,8 +6025,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f>member!A22</f>
         <v>13</v>
@@ -5775,12 +6037,12 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="5"/>
-        <v>76.666666666666671</v>
+        <f t="shared" si="7"/>
+        <v>92.575757575757578</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
@@ -5800,8 +6062,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f>member!A23</f>
         <v>14</v>
@@ -5811,11 +6077,11 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -5824,8 +6090,9 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f>member!A24</f>
         <v>15</v>
@@ -5835,12 +6102,12 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="5"/>
-        <v>57.5</v>
+        <f t="shared" si="7"/>
+        <v>73.409090909090907</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -5857,8 +6124,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f>member!A25</f>
         <v>16</v>
@@ -5868,11 +6139,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -5893,8 +6164,9 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f>member!A26</f>
         <v>17</v>
@@ -5904,11 +6176,11 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E26" s="4"/>
@@ -5923,8 +6195,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f>member!A27</f>
         <v>18</v>
@@ -5934,12 +6207,12 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="5"/>
-        <v>38.333333333333336</v>
+        <f t="shared" si="7"/>
+        <v>54.242424242424242</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -5953,8 +6226,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>member!A28</f>
         <v>19</v>
@@ -5964,12 +6241,12 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="5"/>
-        <v>56.491228070175438</v>
+        <f t="shared" si="7"/>
+        <v>72.400318979266345</v>
       </c>
       <c r="E28" s="4">
         <f>E4</f>
@@ -5986,8 +6263,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>member!A29</f>
         <v>20</v>
@@ -5997,11 +6278,11 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E29" s="4">
@@ -6016,8 +6297,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f>member!A30</f>
         <v>21</v>
@@ -6027,12 +6309,12 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="5"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="7"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -6043,8 +6325,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f>member!A31</f>
         <v>22</v>
@@ -6054,11 +6340,11 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -6070,8 +6356,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f>member!A32</f>
         <v>23</v>
@@ -6081,11 +6368,11 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
@@ -6094,8 +6381,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>member!A33</f>
         <v>24</v>
@@ -6105,11 +6393,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -6121,8 +6409,9 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f>member!A34</f>
         <v>25</v>
@@ -6132,12 +6421,12 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="5"/>
-        <v>18.157894736842106</v>
+        <f t="shared" si="7"/>
+        <v>34.066985645933016</v>
       </c>
       <c r="E34" s="7">
         <f>E4</f>
@@ -6148,8 +6437,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f>member!A35</f>
         <v>26</v>
@@ -6159,12 +6452,12 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="5"/>
-        <v>57.5</v>
+        <f t="shared" si="7"/>
+        <v>73.409090909090907</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
@@ -6181,8 +6474,12 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f>member!A36</f>
         <v>27</v>
@@ -6192,12 +6489,12 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="5"/>
-        <v>76.666666666666671</v>
+        <f t="shared" si="7"/>
+        <v>92.575757575757578</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
@@ -6217,8 +6514,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f>member!A37</f>
         <v>28</v>
@@ -6228,11 +6529,11 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="E37" s="4"/>
@@ -6250,8 +6551,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f>member!A38</f>
         <v>29</v>
@@ -6261,12 +6563,12 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="5"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="7"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4">
@@ -6277,8 +6579,12 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f>member!A39</f>
         <v>30</v>
@@ -6288,11 +6594,11 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76.666666666666671</v>
       </c>
       <c r="E39" s="4"/>
@@ -6313,8 +6619,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f>member!A40</f>
         <v>32</v>
@@ -6324,11 +6631,11 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="E40" s="4"/>
@@ -6346,8 +6653,9 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f>member!A41</f>
         <v>33</v>
@@ -6357,12 +6665,12 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C70" si="6">COUNT(E41:ZZ41)</f>
-        <v>0</v>
+        <f t="shared" ref="C41:C71" si="8">COUNT(E41:ZZ41)</f>
+        <v>1</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D70" si="7">SUM(E41:ZZ41)</f>
-        <v>0</v>
+        <f t="shared" ref="D41:D71" si="9">SUM(E41:ZZ41)</f>
+        <v>15.909090909090908</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -6370,8 +6678,12 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f>member!A42</f>
         <v>37</v>
@@ -6381,11 +6693,11 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
       <c r="E42" s="4"/>
@@ -6403,8 +6715,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f>member!A43</f>
         <v>45</v>
@@ -6414,11 +6727,11 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38.333333333333336</v>
       </c>
       <c r="E43" s="4"/>
@@ -6433,8 +6746,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>member!A44</f>
         <v>55</v>
@@ -6444,11 +6758,11 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E44" s="4"/>
@@ -6460,8 +6774,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f>member!A45</f>
         <v>69</v>
@@ -6471,11 +6786,11 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -6484,8 +6799,9 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f>member!A46</f>
         <v>77</v>
@@ -6495,11 +6811,11 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -6511,8 +6827,9 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f>member!A47</f>
         <v>86</v>
@@ -6522,11 +6839,11 @@
         <v>行盛于言</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
@@ -6535,8 +6852,9 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>member!A48</f>
         <v>87</v>
@@ -6546,11 +6864,11 @@
         <v>晨</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E48" s="4">
@@ -6565,8 +6883,9 @@
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>member!A49</f>
         <v>88</v>
@@ -6576,12 +6895,12 @@
         <v>拂晓</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="7"/>
-        <v>56.491228070175438</v>
+        <f t="shared" si="9"/>
+        <v>72.400318979266345</v>
       </c>
       <c r="E49" s="4">
         <f>E4</f>
@@ -6598,8 +6917,12 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
         <v>97</v>
@@ -6609,39 +6932,43 @@
         <v>R</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="7"/>
-        <v>113.99122807017545</v>
+        <f t="shared" si="9"/>
+        <v>129.90031897926636</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" ref="E50:J50" si="8">E4</f>
+        <f t="shared" ref="E50:J50" si="10">E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G50" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H50" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I50" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J50" s="18">
-        <f t="shared" si="8"/>
-        <v>19.166666666666668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="K50" s="18">
+        <f t="shared" ref="K50" si="11">K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <f>member!A51</f>
         <v>98</v>
@@ -6651,11 +6978,11 @@
         <v>啪啪</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E51" s="4"/>
@@ -6664,8 +6991,9 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <f>member!A52</f>
         <v>99</v>
@@ -6675,12 +7003,12 @@
         <v>陈磊</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="7"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="9"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6691,20 +7019,24 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
         <v>Shenghak</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>15.909090909090908</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -6712,19 +7044,23 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
         <v>张硕</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E54" s="4"/>
@@ -6736,20 +7072,21 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
         <v>孙伟</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="7"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="9"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -6760,20 +7097,24 @@
       <c r="H55" s="18"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
         <v>小新</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="7"/>
-        <v>57.5</v>
+        <f t="shared" si="9"/>
+        <v>73.409090909090907</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
@@ -6790,19 +7131,23 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
         <v>祈网见</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E57" s="4"/>
@@ -6811,19 +7156,20 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
         <v>小严</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
@@ -6832,19 +7178,20 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
         <v>懦夫</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E59" s="7">
@@ -6859,19 +7206,20 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
         <v>徐老师</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E60" s="4">
@@ -6883,19 +7231,20 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
         <v>拉齐奥</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E61" s="4">
@@ -6910,19 +7259,20 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
         <v>冬瓜</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E62" s="4">
@@ -6930,207 +7280,235 @@
         <v>18.157894736842106</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
         <v>狐狸</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>member!B64</f>
         <v>AC</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>member!B65</f>
         <v>天赐</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>member!B66</f>
         <v>小岭</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="7"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="9"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="21">
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18">
         <f>I4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J66" s="18"/>
+      <c r="K66" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>member!B67</f>
         <v>孙硕</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="18">
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>member!B68</f>
         <v>R2</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="18">
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>member!B69</f>
         <v>刘俊峰</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="18">
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>member!B70</f>
         <v>人在旅途</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" si="7"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="9"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="18">
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="8" t="str">
+        <f>member!B71</f>
+        <v>狮子少爷</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" si="9"/>
+        <v>15.909090909090908</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7141,8 +7519,9 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -7153,8 +7532,9 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -7165,8 +7545,9 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -7177,8 +7558,9 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -7189,8 +7571,9 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7201,8 +7584,9 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7213,8 +7597,9 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7225,8 +7610,9 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -7237,8 +7623,9 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7249,8 +7636,9 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -7261,8 +7649,9 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7273,8 +7662,9 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7285,8 +7675,9 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7297,8 +7688,9 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7309,8 +7701,9 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7321,8 +7714,9 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7333,8 +7727,9 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7345,8 +7740,9 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7357,8 +7753,9 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7369,8 +7766,9 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7381,8 +7779,9 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7393,8 +7792,9 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7405,8 +7805,9 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7417,8 +7818,9 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7429,8 +7831,9 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7441,8 +7844,9 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7453,8 +7857,9 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7465,8 +7870,9 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K99" s="2"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="3" t="s">
         <v>60</v>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="176">
   <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +716,14 @@
   </si>
   <si>
     <t>红星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割除了另外一箱水钱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一箱水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -3442,7 +3450,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="A60" sqref="A60:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4943,11 +4951,11 @@
         <v>41205</v>
       </c>
       <c r="B60" s="18">
-        <v>-350</v>
+        <v>-320</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" si="4"/>
-        <v>2703</v>
+        <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>110</v>
@@ -4961,7 +4969,9 @@
       <c r="G60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4974,13 +4984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="3"/>
     <col min="7" max="7" width="7" style="3" customWidth="1"/>
     <col min="8" max="8" width="39.75" bestFit="1" customWidth="1"/>
@@ -5066,14 +5076,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B4" s="18">
+        <v>-30</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4" si="0">C3+B4</f>
+        <v>760</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,11 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="176">
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="191">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,18 +44,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小磊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,18 +88,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贰壹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清道夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>啪啪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈磊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,24 +176,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祈网见</t>
-  </si>
-  <si>
-    <t>小严</t>
-  </si>
-  <si>
     <t>懦夫</t>
   </si>
   <si>
-    <t>徐老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拉齐奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,23 +421,359 @@
     <t>100/120(120927)</t>
   </si>
   <si>
+    <t>温涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40(120927),100/140(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.10.9 多缴纳5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121006)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),25/45(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),200/220(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009),120/190(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),70/90(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70拉齐奥,30孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70R,30R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenhak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割除了另外一箱水钱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一箱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈网见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>天赐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>温涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拂晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zigbeer</t>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930,360/5290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,219 +781,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40(120927),100/140(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),30/50(120927),70/120(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.10.9 多缴纳5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121006)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),25/45(121016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘俊峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),200/220(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121009),120/190(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),70/90(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘俊峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70拉齐奥,30孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70R,30R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shenhak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀割除了另外一箱水钱30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加一箱水</t>
+    <t>待缴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,11 +793,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -767,7 +830,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +852,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -876,6 +963,25 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1193,36 +1299,36 @@
     <col min="6" max="6" width="8.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.25" customWidth="1"/>
+    <col min="9" max="9" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1237,8 +1343,10 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="22"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1248,8 +1356,10 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1259,8 +1369,10 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1270,8 +1382,10 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="24"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1281,8 +1395,10 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1290,17 +1406,17 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:H8" si="0">SUM(C9:C99)</f>
-        <v>3338.1299999999992</v>
+        <f t="shared" ref="C8:H8" si="0">SUM(C9:C98)</f>
+        <v>3340.1300000000006</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1308,11 +1424,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>4930</v>
+        <v>5290</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>2419.9999999999995</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1320,18 +1436,18 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
+      <c r="B9" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" ref="C9:C40" si="1">D9+E9+G9-F9-H9</f>
@@ -1353,15 +1469,15 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
+      <c r="B10" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="1"/>
@@ -1383,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1391,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="1"/>
@@ -1413,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1421,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
@@ -1443,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1451,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
@@ -1473,15 +1589,15 @@
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>8</v>
+      <c r="B14" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
@@ -1507,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
@@ -1529,19 +1645,19 @@
         <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
+      <c r="B16" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
-        <v>44.282105263157888</v>
+        <v>24.393216374269002</v>
       </c>
       <c r="D16" s="2">
         <v>3.94</v>
@@ -1551,15 +1667,15 @@
       </c>
       <c r="F16" s="9">
         <f>'201201'!D16</f>
-        <v>75.65789473684211</v>
+        <v>94.546783625730995</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <f>'201201'!C16</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1567,7 +1683,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="1"/>
@@ -1589,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1597,11 +1713,11 @@
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="1"/>
-        <v>72.058771929824573</v>
+        <v>52.169883040935687</v>
       </c>
       <c r="D18" s="2">
         <v>11.55</v>
@@ -1611,15 +1727,15 @@
       </c>
       <c r="F18" s="9">
         <f>'201201'!D18</f>
-        <v>56.491228070175438</v>
+        <v>75.380116959064324</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8">
         <f>'201201'!C18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1627,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
@@ -1649,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1657,11 +1773,11 @@
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="1"/>
-        <v>92.985438596491235</v>
+        <v>73.096549707602335</v>
       </c>
       <c r="D20" s="2">
         <v>12.31</v>
@@ -1671,15 +1787,15 @@
       </c>
       <c r="F20" s="9">
         <f>'201201'!D20</f>
-        <v>37.324561403508774</v>
+        <v>56.213450292397667</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8">
         <f>'201201'!C20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1687,11 +1803,11 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="1"/>
-        <v>59.666666666666664</v>
+        <v>39.777777777777771</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1701,15 +1817,15 @@
       </c>
       <c r="F21" s="9">
         <f>'201201'!D21</f>
-        <v>38.333333333333336</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8">
         <f>'201201'!C21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1717,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
@@ -1739,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1747,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="1"/>
@@ -1773,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
@@ -1795,15 +1911,15 @@
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>16</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>19</v>
+      <c r="B25" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
@@ -1825,19 +1941,19 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>17</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>20</v>
+      <c r="B26" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
-        <v>40.686666666666675</v>
+        <v>20.797777777777782</v>
       </c>
       <c r="D26" s="2">
         <v>51.02</v>
@@ -1847,15 +1963,15 @@
       </c>
       <c r="F26" s="9">
         <f>'201201'!D26</f>
-        <v>38.333333333333336</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8">
         <f>'201201'!C26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1863,7 +1979,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
@@ -1885,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1893,7 +2009,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
@@ -1915,15 +2031,15 @@
         <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>23</v>
+      <c r="B29" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="1"/>
@@ -1945,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1953,7 +2069,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>
@@ -1975,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1983,7 +2099,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
@@ -2005,15 +2121,15 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>23</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>25</v>
+      <c r="B32" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -2039,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C33" s="12">
         <f t="shared" si="1"/>
@@ -2061,15 +2177,15 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>25</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>27</v>
+      <c r="B34" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C34" s="12">
         <f t="shared" si="1"/>
@@ -2091,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2099,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
@@ -2121,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2129,11 +2245,11 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>110.83424242424242</v>
+        <v>90.945353535353533</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
@@ -2143,15 +2259,15 @@
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>92.575757575757578</v>
+        <v>111.46464646464646</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2159,7 +2275,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
@@ -2181,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2189,7 +2305,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
@@ -2211,15 +2327,15 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>30</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>32</v>
+      <c r="B39" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
@@ -2241,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2249,11 +2365,11 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
-        <v>55.16</v>
+        <v>35.271111111111111</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
@@ -2263,15 +2379,15 @@
       </c>
       <c r="F40" s="9">
         <f>'201201'!D40</f>
-        <v>57.5</v>
+        <v>76.388888888888886</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <f>'201201'!C40</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2279,10 +2395,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C71" si="2">D41+E41+G41-F41-H41</f>
+        <f t="shared" ref="C41:C74" si="2">D41+E41+G41-F41-H41</f>
         <v>86.470909090909089</v>
       </c>
       <c r="D41" s="2">
@@ -2301,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2309,7 +2425,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
@@ -2331,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2339,11 +2455,11 @@
         <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
-        <v>59.666666666666664</v>
+        <v>39.777777777777771</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -2353,15 +2469,15 @@
       </c>
       <c r="F43" s="9">
         <f>'201201'!D43</f>
-        <v>38.333333333333336</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8">
         <f>'201201'!C43</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2369,11 +2485,11 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
-        <v>88.243333333333325</v>
+        <v>68.354444444444439</v>
       </c>
       <c r="D44" s="2">
         <v>8.41</v>
@@ -2383,23 +2499,23 @@
       </c>
       <c r="F44" s="9">
         <f>'201201'!D44</f>
-        <v>19.166666666666668</v>
+        <v>38.055555555555557</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="8">
         <f>'201201'!C44</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>69</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>38</v>
+      <c r="B45" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="2"/>
@@ -2424,8 +2540,8 @@
       <c r="A46" s="8">
         <v>77</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>39</v>
+      <c r="B46" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="C46" s="12">
         <f t="shared" si="2"/>
@@ -2447,15 +2563,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>86</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>40</v>
+      <c r="B47" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="C47" s="12">
         <f t="shared" si="2"/>
@@ -2481,7 +2597,7 @@
         <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C48" s="12">
         <f t="shared" si="2"/>
@@ -2503,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2511,7 +2627,7 @@
         <v>88</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
@@ -2533,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2541,11 +2657,11 @@
         <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
-        <v>53.099681020733641</v>
+        <v>33.210792131844755</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -2555,352 +2671,354 @@
       </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>129.90031897926636</v>
+        <v>148.78920786815524</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C51" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>97.694242424242432</v>
       </c>
       <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>34.770000000000003</v>
+      </c>
+      <c r="E51" s="2">
+        <v>100</v>
+      </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>0</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="8">
-        <v>99</v>
-      </c>
+      <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
-        <v>97.694242424242432</v>
+        <v>111.8609090909091</v>
       </c>
       <c r="D52" s="2">
-        <v>34.770000000000003</v>
+        <v>28.77</v>
       </c>
       <c r="E52" s="2">
         <v>100</v>
       </c>
       <c r="F52" s="9">
         <f>'201201'!D52</f>
-        <v>35.075757575757578</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8">
         <f>'201201'!C52</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>47</v>
+      <c r="B53" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="2"/>
-        <v>111.8609090909091</v>
+        <v>13.193333333333332</v>
       </c>
       <c r="D53" s="2">
-        <v>28.77</v>
-      </c>
-      <c r="E53" s="2">
-        <v>100</v>
-      </c>
+        <v>33.36</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="9">
         <f>'201201'!D53</f>
-        <v>15.909090909090908</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="8">
         <f>'201201'!C53</f>
         <v>1</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="2"/>
-        <v>13.193333333333332</v>
+        <v>72.86424242424242</v>
       </c>
       <c r="D54" s="2">
-        <v>33.36</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>9.94</v>
+      </c>
+      <c r="E54" s="2">
+        <v>100</v>
+      </c>
       <c r="F54" s="9">
         <f>'201201'!D54</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="8">
         <f>'201201'!C54</f>
-        <v>1</v>
-      </c>
-      <c r="I54" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
-        <v>72.86424242424242</v>
+        <v>42.86090909090909</v>
       </c>
       <c r="D55" s="2">
-        <v>9.94</v>
+        <v>20.27</v>
       </c>
       <c r="E55" s="2">
         <v>100</v>
       </c>
       <c r="F55" s="9">
         <f>'201201'!D55</f>
-        <v>35.075757575757578</v>
+        <v>73.409090909090907</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <f>'201201'!C55</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>50</v>
+      <c r="B56" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
-        <v>42.86090909090909</v>
+        <v>8.41</v>
       </c>
       <c r="D56" s="2">
-        <v>20.27</v>
-      </c>
-      <c r="E56" s="2">
-        <v>100</v>
-      </c>
+        <v>8.41</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="9">
         <f>'201201'!D56</f>
-        <v>73.409090909090907</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8">
         <f>'201201'!C56</f>
-        <v>4</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="2"/>
-        <v>8.41</v>
+        <v>88.521111111111111</v>
       </c>
       <c r="D57" s="2">
         <v>8.41</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>100</v>
+      </c>
       <c r="F57" s="9">
         <f>'201201'!D57</f>
-        <v>0</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="8">
         <f>'201201'!C57</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="2"/>
-        <v>8.41</v>
+        <v>40.786549707602333</v>
       </c>
       <c r="D58" s="2">
-        <v>8.41</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>100</v>
+      </c>
       <c r="F58" s="9">
         <f>'201201'!D58</f>
-        <v>0</v>
+        <v>56.213450292397667</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="8">
         <f>'201201'!C58</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>53</v>
+      <c r="B59" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="2"/>
-        <v>60.675438596491226</v>
+        <v>0.8421052631578938</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
       <c r="E59" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F59" s="9">
         <f>'201201'!D59</f>
-        <v>37.324561403508774</v>
+        <v>18.157894736842106</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="8">
         <f>'201201'!C59</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <v>50.675438596491226</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F60" s="9">
         <f>'201201'!D60</f>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="8">
         <f>'201201'!C60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
-      <c r="B61" s="8" t="s">
-        <v>55</v>
+      <c r="B61" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
-        <v>50.675438596491226</v>
+        <v>0.8421052631578938</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F61" s="9">
         <f>'201201'!D61</f>
-        <v>37.324561403508774</v>
+        <v>18.157894736842106</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="8">
         <f>'201201'!C61</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
-      <c r="B62" s="8" t="s">
-        <v>56</v>
+      <c r="B62" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <v>45.77</v>
       </c>
       <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2">
-        <v>20</v>
-      </c>
+        <v>45.77</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="9">
         <f>'201201'!D62</f>
-        <v>18.157894736842106</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="8">
         <f>'201201'!C62</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
-      <c r="B63" s="8" t="s">
-        <v>0</v>
+      <c r="B63" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="2"/>
-        <v>45.77</v>
+        <v>8.41</v>
       </c>
       <c r="D63" s="2">
-        <v>45.77</v>
+        <v>8.41</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="9">
@@ -2916,15 +3034,15 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
-      <c r="B64" s="8" t="s">
-        <v>63</v>
+      <c r="B64" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="2"/>
-        <v>8.41</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="D64" s="2">
-        <v>8.41</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="9">
@@ -2941,59 +3059,63 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
-        <v>8.4600000000000009</v>
+        <v>62.924242424242422</v>
       </c>
       <c r="D65" s="2">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>100</v>
+      </c>
       <c r="F65" s="9">
         <f>'201201'!D65</f>
-        <v>0</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="8">
         <f>'201201'!C65</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
-      <c r="B66" s="8" t="s">
-        <v>145</v>
+      <c r="B66" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="2"/>
-        <v>62.924242424242422</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F66" s="9">
         <f>'201201'!D66</f>
-        <v>35.075757575757578</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="8">
         <f>'201201'!C66</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
-        <v>162</v>
+      <c r="B67" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
@@ -3015,45 +3137,45 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="2"/>
-        <v>9.8333333333333321</v>
+        <v>59.944444444444443</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
       </c>
       <c r="E68" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F68" s="9">
         <f>'201201'!D68</f>
-        <v>19.166666666666668</v>
+        <v>38.055555555555557</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8">
         <f>'201201'!C68</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="2"/>
-        <v>79.833333333333329</v>
+        <v>43.035353535353536</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -3063,25 +3185,25 @@
       </c>
       <c r="F69" s="9">
         <f>'201201'!D69</f>
-        <v>19.166666666666668</v>
+        <v>53.964646464646464</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8">
         <f>'201201'!C69</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
-        <v>62.924242424242422</v>
+        <v>83.090909090909093</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -3091,25 +3213,25 @@
       </c>
       <c r="F70" s="9">
         <f>'201201'!D70</f>
-        <v>35.075757575757578</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8">
         <f>'201201'!C70</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="2"/>
-        <v>83.090909090909093</v>
+        <v>80.111111111111114</v>
       </c>
       <c r="D71" s="2">
         <v>0</v>
@@ -3119,7 +3241,7 @@
       </c>
       <c r="F71" s="9">
         <f>'201201'!D71</f>
-        <v>15.909090909090908</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="8">
@@ -3127,41 +3249,92 @@
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="9"/>
+      <c r="B72" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="2"/>
+        <v>80.111111111111114</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>100</v>
+      </c>
+      <c r="F72" s="9">
+        <f>'201201'!D72</f>
+        <v>18.888888888888889</v>
+      </c>
       <c r="G72" s="1"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="8">
+        <f>'201201'!C72</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="9"/>
+      <c r="B73" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="2"/>
+        <v>10.111111111111111</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>30</v>
+      </c>
+      <c r="F73" s="9">
+        <f>'201201'!D73</f>
+        <v>18.888888888888889</v>
+      </c>
       <c r="G73" s="1"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="8">
+        <f>'201201'!C73</f>
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="9"/>
+      <c r="B74" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="2"/>
+        <v>10.111111111111111</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>30</v>
+      </c>
+      <c r="F74" s="9">
+        <f>'201201'!D74</f>
+        <v>18.888888888888889</v>
+      </c>
       <c r="G74" s="1"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="8">
+        <f>'201201'!C74</f>
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
@@ -3427,17 +3600,6 @@
       <c r="H98" s="8"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3447,77 +3609,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:H60"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="27" customWidth="1"/>
     <col min="3" max="7" width="9" style="3"/>
     <col min="8" max="8" width="39.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>40442</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="26">
         <v>268</v>
       </c>
       <c r="C2" s="8">
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>40443</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="26">
         <v>100</v>
       </c>
       <c r="C3" s="8">
@@ -3525,16 +3687,16 @@
         <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -3542,7 +3704,7 @@
       <c r="A4" s="20">
         <v>41179</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="26">
         <v>100</v>
       </c>
       <c r="C4" s="8">
@@ -3550,16 +3712,16 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -3567,7 +3729,7 @@
       <c r="A5" s="20">
         <v>41179</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="26">
         <v>35</v>
       </c>
       <c r="C5" s="8">
@@ -3575,16 +3737,16 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -3592,7 +3754,7 @@
       <c r="A6" s="20">
         <v>41179</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="26">
         <v>100</v>
       </c>
       <c r="C6" s="8">
@@ -3600,16 +3762,16 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -3617,7 +3779,7 @@
       <c r="A7" s="20">
         <v>41179</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="26">
         <v>100</v>
       </c>
       <c r="C7" s="8">
@@ -3625,16 +3787,16 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -3642,7 +3804,7 @@
       <c r="A8" s="20">
         <v>41179</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="26">
         <v>100</v>
       </c>
       <c r="C8" s="8">
@@ -3650,16 +3812,16 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3667,7 +3829,7 @@
       <c r="A9" s="20">
         <v>41179</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="26">
         <v>40</v>
       </c>
       <c r="C9" s="8">
@@ -3675,16 +3837,16 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -3692,7 +3854,7 @@
       <c r="A10" s="20">
         <v>41179</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="26">
         <v>100</v>
       </c>
       <c r="C10" s="8">
@@ -3700,16 +3862,16 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3717,7 +3879,7 @@
       <c r="A11" s="20">
         <v>41179</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="26">
         <v>100</v>
       </c>
       <c r="C11" s="8">
@@ -3725,16 +3887,16 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -3742,7 +3904,7 @@
       <c r="A12" s="20">
         <v>41179</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="26">
         <v>100</v>
       </c>
       <c r="C12" s="8">
@@ -3750,16 +3912,16 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -3767,7 +3929,7 @@
       <c r="A13" s="20">
         <v>41179</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="26">
         <v>100</v>
       </c>
       <c r="C13" s="8">
@@ -3775,16 +3937,16 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -3792,7 +3954,7 @@
       <c r="A14" s="20">
         <v>41179</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="26">
         <v>100</v>
       </c>
       <c r="C14" s="8">
@@ -3800,16 +3962,16 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -3817,7 +3979,7 @@
       <c r="A15" s="20">
         <v>41179</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="26">
         <v>30</v>
       </c>
       <c r="C15" s="8">
@@ -3825,16 +3987,16 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -3842,7 +4004,7 @@
       <c r="A16" s="20">
         <v>41179</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="26">
         <v>100</v>
       </c>
       <c r="C16" s="8">
@@ -3850,16 +4012,16 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3867,7 +4029,7 @@
       <c r="A17" s="20">
         <v>41179</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="26">
         <v>100</v>
       </c>
       <c r="C17" s="8">
@@ -3875,16 +4037,16 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -3892,7 +4054,7 @@
       <c r="A18" s="20">
         <v>41179</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="26">
         <v>100</v>
       </c>
       <c r="C18" s="8">
@@ -3900,16 +4062,16 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -3917,7 +4079,7 @@
       <c r="A19" s="20">
         <v>41179</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="26">
         <v>100</v>
       </c>
       <c r="C19" s="8">
@@ -3925,16 +4087,16 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -3942,7 +4104,7 @@
       <c r="A20" s="20">
         <v>41179</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="26">
         <v>20</v>
       </c>
       <c r="C20" s="8">
@@ -3950,16 +4112,16 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -3967,7 +4129,7 @@
       <c r="A21" s="20">
         <v>41179</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="26">
         <v>-100</v>
       </c>
       <c r="C21" s="8">
@@ -3975,26 +4137,26 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="20">
         <v>41179</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="26">
         <v>-345</v>
       </c>
       <c r="C22" s="8">
@@ -4002,16 +4164,16 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -4019,7 +4181,7 @@
       <c r="A23" s="17">
         <v>41191</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="26">
         <v>100</v>
       </c>
       <c r="C23" s="8">
@@ -4027,16 +4189,16 @@
         <v>1448</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -4044,7 +4206,7 @@
       <c r="A24" s="17">
         <v>41191</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="26">
         <v>100</v>
       </c>
       <c r="C24" s="8">
@@ -4052,16 +4214,16 @@
         <v>1548</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -4069,7 +4231,7 @@
       <c r="A25" s="17">
         <v>41191</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="26">
         <v>100</v>
       </c>
       <c r="C25" s="8">
@@ -4077,16 +4239,16 @@
         <v>1648</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -4094,7 +4256,7 @@
       <c r="A26" s="17">
         <v>41191</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="26">
         <v>70</v>
       </c>
       <c r="C26" s="8">
@@ -4102,16 +4264,16 @@
         <v>1718</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -4119,7 +4281,7 @@
       <c r="A27" s="17">
         <v>41191</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="26">
         <v>100</v>
       </c>
       <c r="C27" s="8">
@@ -4127,16 +4289,16 @@
         <v>1818</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -4144,7 +4306,7 @@
       <c r="A28" s="17">
         <v>41191</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="26">
         <v>100</v>
       </c>
       <c r="C28" s="8">
@@ -4152,16 +4314,16 @@
         <v>1918</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -4169,7 +4331,7 @@
       <c r="A29" s="17">
         <v>41191</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="26">
         <v>100</v>
       </c>
       <c r="C29" s="8">
@@ -4177,16 +4339,16 @@
         <v>2018</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -4194,7 +4356,7 @@
       <c r="A30" s="17">
         <v>41191</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="26">
         <v>100</v>
       </c>
       <c r="C30" s="8">
@@ -4202,16 +4364,16 @@
         <v>2118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -4219,7 +4381,7 @@
       <c r="A31" s="17">
         <v>41191</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="26">
         <v>100</v>
       </c>
       <c r="C31" s="8">
@@ -4227,16 +4389,16 @@
         <v>2218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -4244,7 +4406,7 @@
       <c r="A32" s="17">
         <v>41191</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="26">
         <v>100</v>
       </c>
       <c r="C32" s="8">
@@ -4252,16 +4414,16 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -4269,7 +4431,7 @@
       <c r="A33" s="17">
         <v>41191</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="26">
         <v>-350</v>
       </c>
       <c r="C33" s="8">
@@ -4277,16 +4439,16 @@
         <v>1968</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H33" s="19"/>
     </row>
@@ -4294,7 +4456,7 @@
       <c r="A34" s="20">
         <v>41193</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="26">
         <v>100</v>
       </c>
       <c r="C34" s="8">
@@ -4302,16 +4464,16 @@
         <v>2068</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -4319,7 +4481,7 @@
       <c r="A35" s="20">
         <v>41193</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="26">
         <v>100</v>
       </c>
       <c r="C35" s="8">
@@ -4327,16 +4489,16 @@
         <v>2168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -4344,7 +4506,7 @@
       <c r="A36" s="20">
         <v>41193</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="26">
         <v>100</v>
       </c>
       <c r="C36" s="8">
@@ -4352,16 +4514,16 @@
         <v>2268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -4369,7 +4531,7 @@
       <c r="A37" s="20">
         <v>41193</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="26">
         <v>100</v>
       </c>
       <c r="C37" s="8">
@@ -4377,16 +4539,16 @@
         <v>2368</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -4394,7 +4556,7 @@
       <c r="A38" s="20">
         <v>41193</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="26">
         <v>100</v>
       </c>
       <c r="C38" s="8">
@@ -4402,16 +4564,16 @@
         <v>2468</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -4419,7 +4581,7 @@
       <c r="A39" s="20">
         <v>41193</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="26">
         <v>100</v>
       </c>
       <c r="C39" s="8">
@@ -4427,16 +4589,16 @@
         <v>2568</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H39" s="19"/>
     </row>
@@ -4444,7 +4606,7 @@
       <c r="A40" s="20">
         <v>41193</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="26">
         <v>-340</v>
       </c>
       <c r="C40" s="8">
@@ -4452,26 +4614,26 @@
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="17">
         <v>41198</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="26">
         <v>100</v>
       </c>
       <c r="C41" s="8">
@@ -4479,16 +4641,16 @@
         <v>2328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -4496,7 +4658,7 @@
       <c r="A42" s="17">
         <v>41198</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="26">
         <v>100</v>
       </c>
       <c r="C42" s="8">
@@ -4504,16 +4666,16 @@
         <v>2428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -4521,7 +4683,7 @@
       <c r="A43" s="17">
         <v>41198</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="26">
         <v>100</v>
       </c>
       <c r="C43" s="8">
@@ -4529,16 +4691,16 @@
         <v>2528</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -4546,7 +4708,7 @@
       <c r="A44" s="17">
         <v>41198</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="26">
         <v>100</v>
       </c>
       <c r="C44" s="8">
@@ -4554,16 +4716,16 @@
         <v>2628</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -4571,7 +4733,7 @@
       <c r="A45" s="17">
         <v>41198</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="26">
         <v>25</v>
       </c>
       <c r="C45" s="8">
@@ -4579,16 +4741,16 @@
         <v>2653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H45" s="19"/>
     </row>
@@ -4596,7 +4758,7 @@
       <c r="A46" s="17">
         <v>41198</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="26">
         <v>-345</v>
       </c>
       <c r="C46" s="8">
@@ -4604,16 +4766,16 @@
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -4621,7 +4783,7 @@
       <c r="A47" s="20">
         <v>41200</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="26">
         <v>200</v>
       </c>
       <c r="C47" s="8">
@@ -4629,16 +4791,16 @@
         <v>2508</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -4646,7 +4808,7 @@
       <c r="A48" s="20">
         <v>41200</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="26">
         <v>100</v>
       </c>
       <c r="C48" s="8">
@@ -4654,16 +4816,16 @@
         <v>2608</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -4671,7 +4833,7 @@
       <c r="A49" s="20">
         <v>41200</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="26">
         <v>100</v>
       </c>
       <c r="C49" s="8">
@@ -4679,16 +4841,16 @@
         <v>2708</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H49" s="1"/>
     </row>
@@ -4696,7 +4858,7 @@
       <c r="A50" s="20">
         <v>41200</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="26">
         <v>30</v>
       </c>
       <c r="C50" s="8">
@@ -4704,16 +4866,16 @@
         <v>2738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4721,7 +4883,7 @@
       <c r="A51" s="20">
         <v>41200</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="26">
         <v>100</v>
       </c>
       <c r="C51" s="8">
@@ -4729,26 +4891,26 @@
         <v>2838</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="20">
         <v>41200</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="26">
         <v>100</v>
       </c>
       <c r="C52" s="8">
@@ -4756,26 +4918,26 @@
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="20">
         <v>41200</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="26">
         <v>30</v>
       </c>
       <c r="C53" s="8">
@@ -4783,16 +4945,16 @@
         <v>2968</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H53" s="19"/>
     </row>
@@ -4800,7 +4962,7 @@
       <c r="A54" s="20">
         <v>41200</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="26">
         <v>-345</v>
       </c>
       <c r="C54" s="8">
@@ -4808,16 +4970,16 @@
         <v>2623</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H54" s="1"/>
     </row>
@@ -4825,7 +4987,7 @@
       <c r="A55" s="17">
         <v>41205</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="26">
         <v>100</v>
       </c>
       <c r="C55" s="8">
@@ -4833,16 +4995,16 @@
         <v>2723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H55" s="1"/>
     </row>
@@ -4850,7 +5012,7 @@
       <c r="A56" s="17">
         <v>41205</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="26">
         <v>100</v>
       </c>
       <c r="C56" s="8">
@@ -4858,16 +5020,16 @@
         <v>2823</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H56" s="1"/>
     </row>
@@ -4875,7 +5037,7 @@
       <c r="A57" s="17">
         <v>41205</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="26">
         <v>100</v>
       </c>
       <c r="C57" s="8">
@@ -4883,16 +5045,16 @@
         <v>2923</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H57" s="1"/>
     </row>
@@ -4900,7 +5062,7 @@
       <c r="A58" s="17">
         <v>41205</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="26">
         <v>100</v>
       </c>
       <c r="C58" s="8">
@@ -4908,16 +5070,16 @@
         <v>3023</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H58" s="1"/>
     </row>
@@ -4925,7 +5087,7 @@
       <c r="A59" s="17">
         <v>41205</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="26">
         <v>30</v>
       </c>
       <c r="C59" s="8">
@@ -4933,16 +5095,16 @@
         <v>3053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H59" s="19"/>
     </row>
@@ -4950,7 +5112,7 @@
       <c r="A60" s="17">
         <v>41205</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="26">
         <v>-320</v>
       </c>
       <c r="C60" s="8">
@@ -4958,19 +5120,171 @@
         <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B61" s="26">
+        <v>100</v>
+      </c>
+      <c r="C61" s="8">
+        <f t="shared" ref="C61:C66" si="5">C60+B61</f>
+        <v>2833</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B62" s="26">
+        <v>100</v>
+      </c>
+      <c r="C62" s="8">
+        <f t="shared" si="5"/>
+        <v>2933</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B63" s="26">
+        <v>100</v>
+      </c>
+      <c r="C63" s="8">
+        <f t="shared" si="5"/>
+        <v>3033</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B64" s="26">
+        <v>30</v>
+      </c>
+      <c r="C64" s="8">
+        <f t="shared" si="5"/>
+        <v>3063</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B65" s="26">
+        <v>30</v>
+      </c>
+      <c r="C65" s="8">
+        <f t="shared" si="5"/>
+        <v>3093</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="19"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B66" s="26">
+        <v>-340</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" si="5"/>
+        <v>2753</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +5298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4998,28 +5312,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5033,19 +5347,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5060,19 +5374,19 @@
         <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -5087,19 +5401,19 @@
         <v>760</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5371,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5388,21 +5702,21 @@
     <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -5425,10 +5739,13 @@
       <c r="K1" s="16">
         <v>41205</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="16">
+        <v>41207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5454,10 +5771,13 @@
       <c r="K2" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -5483,10 +5803,13 @@
       <c r="K3" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5516,19 +5839,23 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" ref="K4" si="1">K3/K2</f>
+        <f t="shared" ref="K4:L4" si="1">K3/K2</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="9">
+        <f t="shared" si="1"/>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f t="shared" ref="E5:J5" si="2">COUNT(E9:E99)</f>
+        <f t="shared" ref="E5:K5" si="2">COUNT(E9:E98)</f>
         <v>19</v>
       </c>
       <c r="F5" s="10">
@@ -5552,22 +5879,26 @@
         <v>18</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5" si="3">COUNT(K9:K99)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="10">
+        <f t="shared" ref="L5" si="3">COUNT(L9:L98)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:I6" si="4">SUM(C9:C99)</f>
-        <v>131</v>
+        <f t="shared" ref="C6:K6" si="4">SUM(C9:C98)</f>
+        <v>149</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="4"/>
-        <v>2419.9999999999995</v>
+        <v>2759.9999999999995</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="4"/>
@@ -5590,15 +5921,19 @@
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:K6" si="5">SUM(J9:J99)</f>
+        <f t="shared" si="4"/>
         <v>345.00000000000006</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>350.00000000000011</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="9">
+        <f t="shared" ref="L6" si="5">SUM(L9:L98)</f>
+        <v>340.00000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5610,8 +5945,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5623,8 +5959,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f>member!A9</f>
         <v>0</v>
@@ -5651,8 +5988,9 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f>member!A10</f>
         <v>1</v>
@@ -5679,8 +6017,9 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f>member!A11</f>
         <v>2</v>
@@ -5710,8 +6049,9 @@
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f>member!A12</f>
         <v>3</v>
@@ -5750,8 +6090,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f>member!A13</f>
         <v>4</v>
@@ -5787,8 +6128,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f>member!A14</f>
         <v>5</v>
@@ -5815,8 +6157,9 @@
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f>member!A15</f>
         <v>6</v>
@@ -5849,8 +6192,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>member!A16</f>
         <v>7</v>
@@ -5861,11 +6205,11 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="7"/>
-        <v>75.65789473684211</v>
+        <v>94.546783625730995</v>
       </c>
       <c r="E16" s="4">
         <f>E4</f>
@@ -5886,8 +6230,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f>member!A17</f>
         <v>8</v>
@@ -5917,8 +6265,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>member!A18</f>
         <v>9</v>
@@ -5929,11 +6278,11 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="7"/>
-        <v>56.491228070175438</v>
+        <v>75.380116959064324</v>
       </c>
       <c r="E18" s="4">
         <f>E4</f>
@@ -5951,8 +6300,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f>member!A19</f>
         <v>10</v>
@@ -5991,8 +6344,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>member!A20</f>
         <v>11</v>
@@ -6003,11 +6357,11 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="7"/>
-        <v>37.324561403508774</v>
+        <v>56.213450292397667</v>
       </c>
       <c r="E20" s="4">
         <f>E4</f>
@@ -6022,8 +6376,12 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f>member!A21</f>
         <v>12</v>
@@ -6034,11 +6392,11 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="7"/>
-        <v>38.333333333333336</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -6053,8 +6411,12 @@
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f>member!A22</f>
         <v>13</v>
@@ -6093,8 +6455,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f>member!A23</f>
         <v>14</v>
@@ -6118,8 +6481,9 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f>member!A24</f>
         <v>15</v>
@@ -6155,8 +6519,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f>member!A25</f>
         <v>16</v>
@@ -6192,8 +6557,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f>member!A26</f>
         <v>17</v>
@@ -6204,11 +6570,11 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="7"/>
-        <v>38.333333333333336</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -6223,8 +6589,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f>member!A27</f>
         <v>18</v>
@@ -6257,8 +6627,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>member!A28</f>
         <v>19</v>
@@ -6294,8 +6665,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>member!A29</f>
         <v>20</v>
@@ -6325,8 +6697,9 @@
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f>member!A30</f>
         <v>21</v>
@@ -6356,8 +6729,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f>member!A31</f>
         <v>22</v>
@@ -6384,8 +6758,9 @@
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f>member!A32</f>
         <v>23</v>
@@ -6409,8 +6784,9 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>member!A33</f>
         <v>24</v>
@@ -6437,8 +6813,9 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f>member!A34</f>
         <v>25</v>
@@ -6468,8 +6845,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f>member!A35</f>
         <v>26</v>
@@ -6505,8 +6883,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f>member!A36</f>
         <v>27</v>
@@ -6517,11 +6896,11 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="7"/>
-        <v>92.575757575757578</v>
+        <v>111.46464646464646</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
@@ -6545,8 +6924,12 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f>member!A37</f>
         <v>28</v>
@@ -6579,8 +6962,9 @@
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f>member!A38</f>
         <v>29</v>
@@ -6610,8 +6994,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f>member!A39</f>
         <v>30</v>
@@ -6647,8 +7032,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f>member!A40</f>
         <v>32</v>
@@ -6659,11 +7045,11 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="7"/>
-        <v>57.5</v>
+        <v>76.388888888888886</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
@@ -6681,8 +7067,12 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f>member!A41</f>
         <v>33</v>
@@ -6692,11 +7082,11 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C71" si="8">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C74" si="8">COUNT(E41:ZZ41)</f>
         <v>1</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D71" si="9">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D74" si="9">SUM(E41:ZZ41)</f>
         <v>15.909090909090908</v>
       </c>
       <c r="E41" s="4"/>
@@ -6709,8 +7099,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f>member!A42</f>
         <v>37</v>
@@ -6743,8 +7134,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K42" s="18"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f>member!A43</f>
         <v>45</v>
@@ -6755,11 +7147,11 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" si="9"/>
-        <v>38.333333333333336</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -6774,8 +7166,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K43" s="18"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>member!A44</f>
         <v>55</v>
@@ -6786,11 +7182,11 @@
       </c>
       <c r="C44" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="9"/>
-        <v>19.166666666666668</v>
+        <v>38.055555555555557</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -6802,8 +7198,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K44" s="18"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f>member!A45</f>
         <v>69</v>
@@ -6827,8 +7227,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f>member!A46</f>
         <v>77</v>
@@ -6855,8 +7256,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K46" s="18"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f>member!A47</f>
         <v>86</v>
@@ -6880,8 +7282,9 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>member!A48</f>
         <v>87</v>
@@ -6911,8 +7314,9 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>member!A49</f>
         <v>88</v>
@@ -6948,8 +7352,9 @@
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
         <v>97</v>
@@ -6960,11 +7365,11 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" si="9"/>
-        <v>129.90031897926636</v>
+        <v>148.78920786815524</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" ref="E50:J50" si="10">E4</f>
@@ -6991,71 +7396,77 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K50" s="18">
-        <f t="shared" ref="K50" si="11">K4</f>
+        <f t="shared" ref="K50:L50" si="11">K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50" s="18">
+        <f t="shared" si="11"/>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <f>member!A51</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="8" t="str">
         <f>member!B51</f>
-        <v>啪啪</v>
+        <v>陈磊</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="8">
-        <f>member!A52</f>
-        <v>99</v>
-      </c>
+      <c r="K51" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>member!B52</f>
-        <v>陈磊</v>
+        <v>Shenghak</v>
       </c>
       <c r="C52" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="9"/>
-        <v>35.075757575757578</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="18">
-        <f>H4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="18">
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
-        <v>Shenghak</v>
+        <v>张硕</v>
       </c>
       <c r="C53" s="8">
         <f t="shared" si="8"/>
@@ -7063,119 +7474,120 @@
       </c>
       <c r="D53" s="9">
         <f t="shared" si="9"/>
-        <v>15.909090909090908</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="7">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
-        <v>张硕</v>
+        <v>孙伟</v>
       </c>
       <c r="C54" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="9"/>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="7">
-        <f>H4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="G54" s="18">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="H54" s="18"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K54" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
-        <v>孙伟</v>
+        <v>小新</v>
       </c>
       <c r="C55" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" si="9"/>
-        <v>35.075757575757578</v>
+        <v>73.409090909090907</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G55" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H55" s="18"/>
+      <c r="H55" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="18">
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
-        <v>小新</v>
+        <v>祈网见</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="9"/>
-        <v>73.409090909090907</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4">
-        <f>F4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="G56" s="18">
-        <f>G4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="H56" s="18">
-        <f>H4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
-        <v>祈网见</v>
+        <v>小严</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -7184,70 +7596,82 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L57" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
-        <v>小严</v>
+        <v>懦夫</v>
       </c>
       <c r="C58" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+        <v>56.213450292397667</v>
+      </c>
+      <c r="E58" s="7">
+        <f>E4</f>
+        <v>18.157894736842106</v>
+      </c>
+      <c r="F58" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L58" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
-        <v>懦夫</v>
+        <v>徐老师</v>
       </c>
       <c r="C59" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="9"/>
-        <v>37.324561403508774</v>
-      </c>
-      <c r="E59" s="7">
+        <v>18.157894736842106</v>
+      </c>
+      <c r="E59" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F59" s="4">
-        <f>F4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
-        <v>徐老师</v>
+        <v>拉齐奥</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="9"/>
-        <v>18.157894736842106</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="E60" s="4">
         <f>E4</f>
@@ -7257,67 +7681,67 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J60" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
-        <v>拉齐奥</v>
+        <v>冬瓜</v>
       </c>
       <c r="C61" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" si="9"/>
-        <v>37.324561403508774</v>
+        <v>18.157894736842106</v>
       </c>
       <c r="E61" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="18">
-        <f>J4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L61" s="18"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
-        <v>冬瓜</v>
+        <v>狐狸</v>
       </c>
       <c r="C62" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" si="9"/>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="E62" s="4">
-        <f>E4</f>
-        <v>18.157894736842106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L62" s="18"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
-        <v>狐狸</v>
+        <v>AC</v>
       </c>
       <c r="C63" s="8">
         <f t="shared" si="8"/>
@@ -7334,12 +7758,13 @@
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>member!B64</f>
-        <v>AC</v>
+        <v>天赐</v>
       </c>
       <c r="C64" s="8">
         <f t="shared" si="8"/>
@@ -7356,62 +7781,68 @@
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L64" s="18"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>member!B65</f>
-        <v>天赐</v>
+        <v>小岭</v>
       </c>
       <c r="C65" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="I65" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K65" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L65" s="18"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>member!B66</f>
-        <v>小岭</v>
+        <v>孙硕</v>
       </c>
       <c r="C66" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="9"/>
-        <v>35.075757575757578</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="18">
-        <f>I4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I66" s="18"/>
+      <c r="J66" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>member!B67</f>
-        <v>孙硕</v>
+        <v>R2</v>
       </c>
       <c r="C67" s="8">
         <f t="shared" si="8"/>
@@ -7431,20 +7862,21 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L67" s="18"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>member!B68</f>
-        <v>R2</v>
+        <v>刘俊峰</v>
       </c>
       <c r="C68" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="9"/>
-        <v>19.166666666666668</v>
+        <v>38.055555555555557</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -7456,20 +7888,24 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L68" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>member!B69</f>
-        <v>刘俊峰</v>
+        <v>人在旅途</v>
       </c>
       <c r="C69" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="9"/>
-        <v>19.166666666666668</v>
+        <v>53.964646464646464</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -7480,41 +7916,46 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K69" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L69" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>member!B70</f>
-        <v>人在旅途</v>
+        <v>狮子少爷</v>
       </c>
       <c r="C70" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="9"/>
-        <v>35.075757575757578</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="18">
-        <f>J4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="J70" s="18"/>
       <c r="K70" s="18">
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L70" s="18"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>member!B71</f>
-        <v>狮子少爷</v>
+        <v>Edison</v>
       </c>
       <c r="C71" s="8">
         <f t="shared" si="8"/>
@@ -7522,24 +7963,34 @@
       </c>
       <c r="D71" s="9">
         <f t="shared" si="9"/>
-        <v>15.909090909090908</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
+      <c r="B72" s="8" t="str">
+        <f>member!B72</f>
+        <v>于博霏</v>
+      </c>
+      <c r="C72" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="9"/>
+        <v>18.888888888888889</v>
+      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
@@ -7547,12 +7998,25 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L72" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="8" t="str">
+        <f>member!B73</f>
+        <v>段晨</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="9">
+        <f t="shared" si="9"/>
+        <v>18.888888888888889</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="2"/>
@@ -7560,12 +8024,25 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L73" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
+      <c r="B74" s="8" t="str">
+        <f>member!B74</f>
+        <v>顾伟强</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="9"/>
+        <v>18.888888888888889</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="2"/>
@@ -7573,8 +8050,12 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L74" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -7586,8 +8067,9 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -7599,8 +8081,9 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7612,8 +8095,9 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7625,8 +8109,9 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7638,8 +8123,9 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -7651,8 +8137,9 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7664,8 +8151,9 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -7677,8 +8165,9 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7690,8 +8179,9 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7703,8 +8193,9 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7716,8 +8207,9 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7729,8 +8221,9 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7742,8 +8235,9 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7755,8 +8249,9 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7768,8 +8263,9 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7781,8 +8277,9 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7794,8 +8291,9 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7807,8 +8305,9 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7820,8 +8319,9 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7833,8 +8333,9 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7846,8 +8347,9 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7859,8 +8361,9 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7872,8 +8375,9 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7885,24 +8389,12 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
-      <c r="B102" s="3" t="s">
-        <v>60</v>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="200">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
   </si>
   <si>
     <t>行盛于言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,26 +465,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20(120920),30/50(120927),70/120(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20(120920),100/120(121009)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100(121009)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵聪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,59 +665,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈网见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈网见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
+    <t>小宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,55 +821,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次多收5块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930,360/5290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待缴</t>
+    <t>小郝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +834,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -975,13 +1011,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1299,7 +1335,7 @@
     <col min="6" max="6" width="8.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="88.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1307,25 +1343,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1344,7 +1380,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1357,7 +1393,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="8"/>
@@ -1370,7 +1406,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1383,7 +1419,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="8"/>
@@ -1396,7 +1432,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8"/>
@@ -1406,17 +1442,17 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C98)</f>
-        <v>3340.1300000000006</v>
+        <v>3405.1300000000006</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1424,11 +1460,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>5290</v>
+        <v>5720</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>2759.9999999999995</v>
+        <v>3104.9999999999991</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1436,10 +1472,10 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1469,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1477,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="1"/>
@@ -1499,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1529,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1541,7 +1577,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>96.586666666666673</v>
+        <v>78.336666666666673</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1551,15 +1587,15 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>95.833333333333343</v>
+        <v>113.08333333333334</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1571,7 +1607,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
-        <v>61.939681020733659</v>
+        <v>43.689681020733659</v>
       </c>
       <c r="D13" s="2">
         <v>18.34</v>
@@ -1581,15 +1617,15 @@
       </c>
       <c r="F13" s="9">
         <f>'201201'!D13</f>
-        <v>72.400318979266345</v>
+        <v>89.650318979266345</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8">
         <f>'201201'!C13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1597,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
@@ -1645,37 +1681,37 @@
         <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>188</v>
+      <c r="B16" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
-        <v>24.393216374269002</v>
+        <v>106.143216374269</v>
       </c>
       <c r="D16" s="2">
         <v>3.94</v>
       </c>
       <c r="E16" s="2">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="F16" s="9">
         <f>'201201'!D16</f>
-        <v>94.546783625730995</v>
+        <v>111.796783625731</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <f>'201201'!C16</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1705,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1717,7 +1753,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="1"/>
-        <v>52.169883040935687</v>
+        <v>33.919883040935687</v>
       </c>
       <c r="D18" s="2">
         <v>11.55</v>
@@ -1727,15 +1763,15 @@
       </c>
       <c r="F18" s="9">
         <f>'201201'!D18</f>
-        <v>75.380116959064324</v>
+        <v>92.630116959064324</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8">
         <f>'201201'!C18</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1747,7 +1783,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>72.123014354066981</v>
+        <v>53.873014354066981</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1757,15 +1793,15 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>91.566985645933016</v>
+        <v>108.81698564593302</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1795,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1825,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1855,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1911,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1919,7 +1955,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
@@ -1941,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1949,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
@@ -1971,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1983,7 +2019,7 @@
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
-        <v>54.56757575757576</v>
+        <v>36.317575757575753</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
@@ -1993,15 +2029,15 @@
       </c>
       <c r="F27" s="9">
         <f>'201201'!D27</f>
-        <v>54.242424242424242</v>
+        <v>71.492424242424249</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <f>'201201'!C27</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2013,7 +2049,7 @@
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
-        <v>81.649681020733667</v>
+        <v>63.399681020733667</v>
       </c>
       <c r="D28" s="2">
         <v>38.049999999999997</v>
@@ -2023,15 +2059,15 @@
       </c>
       <c r="F28" s="9">
         <f>'201201'!D28</f>
-        <v>72.400318979266345</v>
+        <v>89.650318979266345</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8">
         <f>'201201'!C28</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2039,7 +2075,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="1"/>
@@ -2061,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2091,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2099,7 +2135,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
@@ -2121,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2129,7 +2165,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -2177,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2207,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2219,7 +2255,7 @@
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
-        <v>112.94090909090909</v>
+        <v>94.690909090909088</v>
       </c>
       <c r="D35" s="2">
         <v>90.35</v>
@@ -2229,15 +2265,15 @@
       </c>
       <c r="F35" s="9">
         <f>'201201'!D35</f>
-        <v>73.409090909090907</v>
+        <v>90.659090909090907</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <f>'201201'!C35</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2267,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2279,7 +2315,7 @@
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
-        <v>93.62</v>
+        <v>75.37</v>
       </c>
       <c r="D37" s="2">
         <v>54.12</v>
@@ -2289,15 +2325,15 @@
       </c>
       <c r="F37" s="9">
         <f>'201201'!D37</f>
-        <v>57.5</v>
+        <v>74.75</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8">
         <f>'201201'!C37</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2327,37 +2363,37 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>30</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>163</v>
+      <c r="B39" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
-        <v>19.333333333333329</v>
+        <v>101.08333333333333</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F39" s="9">
         <f>'201201'!D39</f>
-        <v>76.666666666666671</v>
+        <v>93.916666666666671</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <f>'201201'!C39</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2387,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2398,8 +2434,8 @@
         <v>25</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C74" si="2">D41+E41+G41-F41-H41</f>
-        <v>86.470909090909089</v>
+        <f t="shared" ref="C41:C75" si="2">D41+E41+G41-F41-H41</f>
+        <v>68.220909090909089</v>
       </c>
       <c r="D41" s="2">
         <v>3.38</v>
@@ -2409,15 +2445,15 @@
       </c>
       <c r="F41" s="9">
         <f>'201201'!D41</f>
-        <v>15.909090909090908</v>
+        <v>33.159090909090907</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
         <f>'201201'!C41</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2447,19 +2483,19 @@
         <v>3</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>45</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>27</v>
+      <c r="B43" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
-        <v>39.777777777777771</v>
+        <v>21.527777777777771</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -2469,15 +2505,15 @@
       </c>
       <c r="F43" s="9">
         <f>'201201'!D43</f>
-        <v>57.222222222222229</v>
+        <v>74.472222222222229</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8">
         <f>'201201'!C43</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2489,7 +2525,7 @@
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
-        <v>68.354444444444439</v>
+        <v>50.104444444444439</v>
       </c>
       <c r="D44" s="2">
         <v>8.41</v>
@@ -2499,15 +2535,15 @@
       </c>
       <c r="F44" s="9">
         <f>'201201'!D44</f>
-        <v>38.055555555555557</v>
+        <v>55.305555555555557</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="8">
         <f>'201201'!C44</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2515,7 +2551,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="2"/>
@@ -2541,7 +2577,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C46" s="12">
         <f t="shared" si="2"/>
@@ -2563,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2597,7 +2633,7 @@
         <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="C48" s="12">
         <f t="shared" si="2"/>
@@ -2619,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2627,11 +2663,11 @@
         <v>88</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
-        <v>69.659681020733657</v>
+        <v>51.409681020733657</v>
       </c>
       <c r="D49" s="2">
         <v>26.06</v>
@@ -2641,15 +2677,15 @@
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>72.400318979266345</v>
+        <v>89.650318979266345</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2657,7 +2693,7 @@
         <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
@@ -2679,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2687,11 +2723,11 @@
         <v>99</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="12">
         <f t="shared" si="2"/>
-        <v>97.694242424242432</v>
+        <v>79.444242424242432</v>
       </c>
       <c r="D51" s="2">
         <v>34.770000000000003</v>
@@ -2701,25 +2737,25 @@
       </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>35.075757575757578</v>
+        <v>52.325757575757578</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
-        <v>111.8609090909091</v>
+        <v>93.610909090909104</v>
       </c>
       <c r="D52" s="2">
         <v>28.77</v>
@@ -2729,21 +2765,21 @@
       </c>
       <c r="F52" s="9">
         <f>'201201'!D52</f>
-        <v>15.909090909090908</v>
+        <v>33.159090909090907</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8">
         <f>'201201'!C52</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="2"/>
@@ -2767,7 +2803,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="2"/>
@@ -2789,41 +2825,41 @@
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
-        <v>42.86090909090909</v>
+        <v>124.6109090909091</v>
       </c>
       <c r="D55" s="2">
         <v>20.27</v>
       </c>
       <c r="E55" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F55" s="9">
         <f>'201201'!D55</f>
-        <v>73.409090909090907</v>
+        <v>90.659090909090907</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <f>'201201'!C55</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
@@ -2847,7 +2883,7 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="2"/>
@@ -2869,13 +2905,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="2"/>
@@ -2897,13 +2933,13 @@
         <v>3</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="2"/>
@@ -2925,13 +2961,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
@@ -2953,13 +2989,13 @@
         <v>2</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
@@ -2981,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="2"/>
@@ -3011,7 +3047,7 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="2"/>
@@ -3035,7 +3071,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="2"/>
@@ -3059,7 +3095,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
@@ -3081,13 +3117,13 @@
         <v>2</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="2"/>
@@ -3109,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
@@ -3137,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="2"/>
@@ -3165,17 +3201,17 @@
         <v>2</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="2"/>
-        <v>43.035353535353536</v>
+        <v>24.785353535353536</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -3185,21 +3221,21 @@
       </c>
       <c r="F69" s="9">
         <f>'201201'!D69</f>
-        <v>53.964646464646464</v>
+        <v>71.214646464646464</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8">
         <f>'201201'!C69</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
@@ -3221,13 +3257,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="2"/>
@@ -3249,13 +3285,13 @@
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C72" s="12">
         <f t="shared" si="2"/>
@@ -3277,41 +3313,41 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
-      <c r="B73" s="21" t="s">
-        <v>177</v>
+      <c r="B73" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C73" s="12">
         <f t="shared" si="2"/>
-        <v>10.111111111111111</v>
+        <v>91.861111111111114</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
       </c>
       <c r="E73" s="2">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F73" s="9">
         <f>'201201'!D73</f>
-        <v>18.888888888888889</v>
+        <v>36.138888888888886</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="8">
         <f>'201201'!C73</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C74" s="12">
         <f t="shared" si="2"/>
@@ -3333,19 +3369,36 @@
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="9"/>
+      <c r="B75" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>30</v>
+      </c>
+      <c r="F75" s="9">
+        <f>'201201'!D75</f>
+        <v>17.25</v>
+      </c>
       <c r="G75" s="1"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="8">
+        <f>'201201'!C75</f>
+        <v>1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
@@ -3609,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3625,28 +3678,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3660,19 +3713,19 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3690,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -3712,10 +3765,10 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -3737,10 +3790,10 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -3762,10 +3815,10 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -3787,10 +3840,10 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
@@ -3812,10 +3865,10 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -3837,10 +3890,10 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -3862,10 +3915,10 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -3887,10 +3940,10 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -3912,10 +3965,10 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -3937,10 +3990,10 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -3962,10 +4015,10 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -3987,10 +4040,10 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -4012,10 +4065,10 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -4037,10 +4090,10 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -4062,10 +4115,10 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -4087,10 +4140,10 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -4112,10 +4165,10 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -4137,19 +4190,19 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -4164,10 +4217,10 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -4189,10 +4242,10 @@
         <v>1448</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -4214,10 +4267,10 @@
         <v>1548</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -4239,10 +4292,10 @@
         <v>1648</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -4264,10 +4317,10 @@
         <v>1718</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -4289,10 +4342,10 @@
         <v>1818</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -4314,10 +4367,10 @@
         <v>1918</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -4339,10 +4392,10 @@
         <v>2018</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -4364,10 +4417,10 @@
         <v>2118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -4389,10 +4442,10 @@
         <v>2218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -4414,10 +4467,10 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -4439,10 +4492,10 @@
         <v>1968</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -4467,7 +4520,7 @@
         <v>27</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -4489,10 +4542,10 @@
         <v>2168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -4514,10 +4567,10 @@
         <v>2268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -4539,10 +4592,10 @@
         <v>2368</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -4567,7 +4620,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -4589,10 +4642,10 @@
         <v>2568</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -4614,11 +4667,11 @@
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
@@ -4626,7 +4679,7 @@
         <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -4641,10 +4694,10 @@
         <v>2328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -4669,7 +4722,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -4691,10 +4744,10 @@
         <v>2528</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -4716,10 +4769,10 @@
         <v>2628</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -4741,10 +4794,10 @@
         <v>2653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -4766,10 +4819,10 @@
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -4794,7 +4847,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -4819,7 +4872,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -4841,10 +4894,10 @@
         <v>2708</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -4866,10 +4919,10 @@
         <v>2738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -4891,10 +4944,10 @@
         <v>2838</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -4903,7 +4956,7 @@
         <v>9</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -4918,10 +4971,10 @@
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -4930,7 +4983,7 @@
         <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -4948,7 +5001,7 @@
         <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -4970,10 +5023,10 @@
         <v>2623</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -4995,10 +5048,10 @@
         <v>2723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -5020,10 +5073,10 @@
         <v>2823</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -5045,10 +5098,10 @@
         <v>2923</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -5070,10 +5123,10 @@
         <v>3023</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -5095,10 +5148,10 @@
         <v>3053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -5120,11 +5173,11 @@
         <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
       </c>
@@ -5132,25 +5185,25 @@
         <v>9</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="20">
-        <v>41205</v>
+        <v>41207</v>
       </c>
       <c r="B61" s="26">
         <v>100</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" ref="C61:C66" si="5">C60+B61</f>
+        <f t="shared" ref="C61:C72" si="5">C60+B61</f>
         <v>2833</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -5162,7 +5215,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="20">
-        <v>41205</v>
+        <v>41207</v>
       </c>
       <c r="B62" s="26">
         <v>100</v>
@@ -5172,10 +5225,10 @@
         <v>2933</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -5187,7 +5240,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="20">
-        <v>41205</v>
+        <v>41207</v>
       </c>
       <c r="B63" s="26">
         <v>100</v>
@@ -5197,10 +5250,10 @@
         <v>3033</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -5212,7 +5265,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="20">
-        <v>41205</v>
+        <v>41207</v>
       </c>
       <c r="B64" s="26">
         <v>30</v>
@@ -5222,10 +5275,10 @@
         <v>3063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -5237,7 +5290,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="20">
-        <v>41205</v>
+        <v>41207</v>
       </c>
       <c r="B65" s="26">
         <v>30</v>
@@ -5247,10 +5300,10 @@
         <v>3093</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -5262,7 +5315,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="20">
-        <v>41205</v>
+        <v>41207</v>
       </c>
       <c r="B66" s="26">
         <v>-340</v>
@@ -5272,11 +5325,11 @@
         <v>2753</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
       </c>
@@ -5284,8 +5337,158 @@
         <v>9</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="17">
+        <v>41214</v>
+      </c>
+      <c r="B67" s="26">
+        <v>100</v>
+      </c>
+      <c r="C67" s="8">
+        <f t="shared" si="5"/>
+        <v>2853</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="17">
+        <v>41214</v>
+      </c>
+      <c r="B68" s="26">
+        <v>100</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" si="5"/>
+        <v>2953</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="17">
+        <v>41214</v>
+      </c>
+      <c r="B69" s="26">
+        <v>100</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" si="5"/>
+        <v>3053</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="17">
+        <v>41214</v>
+      </c>
+      <c r="B70" s="26">
+        <v>100</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="5"/>
+        <v>3153</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="17">
+        <v>41214</v>
+      </c>
+      <c r="B71" s="26">
+        <v>30</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" si="5"/>
+        <v>3183</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="19"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="17">
+        <v>41214</v>
+      </c>
+      <c r="B72" s="26">
+        <v>-345</v>
+      </c>
+      <c r="C72" s="8">
+        <f t="shared" si="5"/>
+        <v>2838</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5312,28 +5515,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5347,19 +5550,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5374,19 +5577,19 @@
         <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -5401,19 +5604,19 @@
         <v>760</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5685,10 +5888,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5702,21 +5905,21 @@
     <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
-    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -5742,10 +5945,13 @@
       <c r="L1" s="16">
         <v>41207</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" s="16">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5774,10 +5980,13 @@
       <c r="L2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -5806,10 +6015,13 @@
       <c r="L3" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5846,94 +6058,106 @@
         <f t="shared" si="1"/>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="9">
+        <f t="shared" ref="M4" si="2">M3/M2</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f t="shared" ref="E5:K5" si="2">COUNT(E9:E98)</f>
+        <f t="shared" ref="E5:K5" si="3">COUNT(E9:E98)</f>
         <v>19</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ref="L5" si="3">COUNT(L9:L98)</f>
+        <f t="shared" ref="L5:M5" si="4">COUNT(L9:L98)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="10">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:K6" si="4">SUM(C9:C98)</f>
-        <v>149</v>
+        <f t="shared" ref="C6:K6" si="5">SUM(C9:C98)</f>
+        <v>169</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="4"/>
-        <v>2759.9999999999995</v>
+        <f t="shared" si="5"/>
+        <v>3104.9999999999991</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>344.99999999999994</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>345.00000000000006</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>350.00000000000011</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" ref="L6" si="5">SUM(L9:L98)</f>
+        <f t="shared" ref="L6:M6" si="6">SUM(L9:L98)</f>
         <v>340.00000000000011</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" s="9">
+        <f t="shared" si="6"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5946,8 +6170,9 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5960,8 +6185,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f>member!A9</f>
         <v>0</v>
@@ -5971,11 +6197,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="6">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="7">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="7">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="8">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -5989,8 +6215,9 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f>member!A10</f>
         <v>1</v>
@@ -6000,11 +6227,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -6018,8 +6245,9 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f>member!A11</f>
         <v>2</v>
@@ -6029,11 +6257,11 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E11" s="4">
@@ -6050,8 +6278,9 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f>member!A12</f>
         <v>3</v>
@@ -6061,12 +6290,12 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="7"/>
-        <v>95.833333333333343</v>
+        <f t="shared" si="8"/>
+        <v>113.08333333333334</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -6091,8 +6320,12 @@
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f>member!A13</f>
         <v>4</v>
@@ -6102,12 +6335,12 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="7"/>
-        <v>72.400318979266345</v>
+        <f t="shared" si="8"/>
+        <v>89.650318979266345</v>
       </c>
       <c r="E13" s="4">
         <f>E4</f>
@@ -6129,8 +6362,12 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f>member!A14</f>
         <v>5</v>
@@ -6140,11 +6377,11 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -6158,8 +6395,9 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f>member!A15</f>
         <v>6</v>
@@ -6169,11 +6407,11 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54.242424242424242</v>
       </c>
       <c r="E15" s="4"/>
@@ -6193,8 +6431,9 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>member!A16</f>
         <v>7</v>
@@ -6204,12 +6443,12 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="7"/>
-        <v>94.546783625730995</v>
+        <f t="shared" si="8"/>
+        <v>111.796783625731</v>
       </c>
       <c r="E16" s="4">
         <f>E4</f>
@@ -6234,8 +6473,12 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f>member!A17</f>
         <v>8</v>
@@ -6245,11 +6488,11 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E17" s="4">
@@ -6266,8 +6509,9 @@
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>member!A18</f>
         <v>9</v>
@@ -6277,12 +6521,12 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="7"/>
-        <v>75.380116959064324</v>
+        <f t="shared" si="8"/>
+        <v>92.630116959064324</v>
       </c>
       <c r="E18" s="4">
         <f>E4</f>
@@ -6304,8 +6548,12 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f>member!A19</f>
         <v>10</v>
@@ -6315,12 +6563,12 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="7"/>
-        <v>91.566985645933016</v>
+        <f t="shared" si="8"/>
+        <v>108.81698564593302</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
@@ -6345,8 +6593,12 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>member!A20</f>
         <v>11</v>
@@ -6356,11 +6608,11 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56.213450292397667</v>
       </c>
       <c r="E20" s="4">
@@ -6380,8 +6632,9 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f>member!A21</f>
         <v>12</v>
@@ -6391,11 +6644,11 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57.222222222222229</v>
       </c>
       <c r="E21" s="4"/>
@@ -6415,8 +6668,9 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f>member!A22</f>
         <v>13</v>
@@ -6426,11 +6680,11 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>92.575757575757578</v>
       </c>
       <c r="E22" s="4"/>
@@ -6456,8 +6710,9 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f>member!A23</f>
         <v>14</v>
@@ -6467,11 +6722,11 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -6482,8 +6737,9 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f>member!A24</f>
         <v>15</v>
@@ -6493,11 +6749,11 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73.409090909090907</v>
       </c>
       <c r="E24" s="4"/>
@@ -6520,8 +6776,9 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f>member!A25</f>
         <v>16</v>
@@ -6531,11 +6788,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -6558,8 +6815,9 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f>member!A26</f>
         <v>17</v>
@@ -6569,11 +6827,11 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57.222222222222229</v>
       </c>
       <c r="E26" s="4"/>
@@ -6593,8 +6851,9 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f>member!A27</f>
         <v>18</v>
@@ -6604,12 +6863,12 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="7"/>
-        <v>54.242424242424242</v>
+        <f t="shared" si="8"/>
+        <v>71.492424242424249</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -6628,8 +6887,12 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>member!A28</f>
         <v>19</v>
@@ -6639,12 +6902,12 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="7"/>
-        <v>72.400318979266345</v>
+        <f t="shared" si="8"/>
+        <v>89.650318979266345</v>
       </c>
       <c r="E28" s="4">
         <f>E4</f>
@@ -6666,8 +6929,12 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M28" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>member!A29</f>
         <v>20</v>
@@ -6677,11 +6944,11 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E29" s="4">
@@ -6698,8 +6965,9 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f>member!A30</f>
         <v>21</v>
@@ -6709,11 +6977,11 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E30" s="4"/>
@@ -6730,8 +6998,9 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f>member!A31</f>
         <v>22</v>
@@ -6741,11 +7010,11 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -6759,8 +7028,9 @@
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f>member!A32</f>
         <v>23</v>
@@ -6770,11 +7040,11 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
@@ -6785,8 +7055,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>member!A33</f>
         <v>24</v>
@@ -6796,11 +7067,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -6814,8 +7085,9 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f>member!A34</f>
         <v>25</v>
@@ -6825,11 +7097,11 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.066985645933016</v>
       </c>
       <c r="E34" s="7">
@@ -6846,8 +7118,9 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f>member!A35</f>
         <v>26</v>
@@ -6857,12 +7130,12 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="7"/>
-        <v>73.409090909090907</v>
+        <f t="shared" si="8"/>
+        <v>90.659090909090907</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
@@ -6884,8 +7157,12 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M35" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f>member!A36</f>
         <v>27</v>
@@ -6895,11 +7172,11 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>111.46464646464646</v>
       </c>
       <c r="E36" s="4"/>
@@ -6928,8 +7205,9 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f>member!A37</f>
         <v>28</v>
@@ -6939,12 +7217,12 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="7"/>
-        <v>57.5</v>
+        <f t="shared" si="8"/>
+        <v>74.75</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
@@ -6963,8 +7241,12 @@
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M37" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f>member!A38</f>
         <v>29</v>
@@ -6974,11 +7256,11 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E38" s="4"/>
@@ -6995,8 +7277,9 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f>member!A39</f>
         <v>30</v>
@@ -7006,12 +7289,12 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="7"/>
-        <v>76.666666666666671</v>
+        <f t="shared" si="8"/>
+        <v>93.916666666666671</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -7033,8 +7316,12 @@
       </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M39" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f>member!A40</f>
         <v>32</v>
@@ -7044,11 +7331,11 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>76.388888888888886</v>
       </c>
       <c r="E40" s="4"/>
@@ -7071,8 +7358,9 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f>member!A41</f>
         <v>33</v>
@@ -7082,12 +7370,12 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C74" si="8">COUNT(E41:ZZ41)</f>
-        <v>1</v>
+        <f t="shared" ref="C41:C75" si="9">COUNT(E41:ZZ41)</f>
+        <v>2</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D74" si="9">SUM(E41:ZZ41)</f>
-        <v>15.909090909090908</v>
+        <f t="shared" ref="D41:D75" si="10">SUM(E41:ZZ41)</f>
+        <v>33.159090909090907</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -7100,8 +7388,12 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M41" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f>member!A42</f>
         <v>37</v>
@@ -7111,11 +7403,11 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57.5</v>
       </c>
       <c r="E42" s="4"/>
@@ -7135,8 +7427,9 @@
       </c>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f>member!A43</f>
         <v>45</v>
@@ -7146,12 +7439,12 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="9"/>
-        <v>57.222222222222229</v>
+        <f t="shared" si="10"/>
+        <v>74.472222222222229</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -7170,8 +7463,12 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M43" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>member!A44</f>
         <v>55</v>
@@ -7181,12 +7478,12 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="9"/>
-        <v>38.055555555555557</v>
+        <f t="shared" si="10"/>
+        <v>55.305555555555557</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -7202,8 +7499,12 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M44" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f>member!A45</f>
         <v>69</v>
@@ -7213,11 +7514,11 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -7228,8 +7529,9 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f>member!A46</f>
         <v>77</v>
@@ -7239,11 +7541,11 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -7257,8 +7559,9 @@
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f>member!A47</f>
         <v>86</v>
@@ -7268,11 +7571,11 @@
         <v>行盛于言</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
@@ -7283,22 +7586,23 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>member!A48</f>
         <v>87</v>
       </c>
       <c r="B48" s="8" t="str">
         <f>member!B48</f>
-        <v>晨</v>
+        <v>刘晨</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E48" s="4">
@@ -7315,8 +7619,9 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>member!A49</f>
         <v>88</v>
@@ -7326,12 +7631,12 @@
         <v>拂晓</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="9"/>
-        <v>72.400318979266345</v>
+        <f t="shared" si="10"/>
+        <v>89.650318979266345</v>
       </c>
       <c r="E49" s="4">
         <f>E4</f>
@@ -7353,8 +7658,12 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M49" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
         <v>97</v>
@@ -7364,47 +7673,48 @@
         <v>R</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>148.78920786815524</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" ref="E50:J50" si="10">E4</f>
+        <f t="shared" ref="E50:J50" si="11">E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G50" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H50" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I50" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J50" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="K50" s="18">
-        <f t="shared" ref="K50:L50" si="11">K4</f>
+        <f t="shared" ref="K50:L50" si="12">K4</f>
         <v>15.909090909090908</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <f>member!A51</f>
         <v>99</v>
@@ -7414,12 +7724,12 @@
         <v>陈磊</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="9"/>
-        <v>35.075757575757578</v>
+        <f t="shared" si="10"/>
+        <v>52.325757575757578</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -7435,20 +7745,24 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M51" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>member!B52</f>
         <v>Shenghak</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="9"/>
-        <v>15.909090909090908</v>
+        <f t="shared" si="10"/>
+        <v>33.159090909090907</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -7461,19 +7775,23 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M52" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
         <v>张硕</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E53" s="4"/>
@@ -7487,19 +7805,20 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
         <v>孙伟</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E54" s="4"/>
@@ -7516,20 +7835,21 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
         <v>小新</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="9"/>
-        <v>73.409090909090907</v>
+        <f t="shared" si="10"/>
+        <v>90.659090909090907</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
@@ -7551,19 +7871,23 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M55" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
         <v>祈网见</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E56" s="4"/>
@@ -7574,19 +7898,20 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
         <v>小严</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E57" s="4"/>
@@ -7600,19 +7925,20 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
         <v>懦夫</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56.213450292397667</v>
       </c>
       <c r="E58" s="7">
@@ -7632,19 +7958,20 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
         <v>徐老师</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E59" s="4">
@@ -7658,19 +7985,20 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
         <v>拉齐奥</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E60" s="4">
@@ -7687,19 +8015,20 @@
       </c>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
         <v>冬瓜</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E61" s="4">
@@ -7713,19 +8042,20 @@
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
         <v>狐狸</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E62" s="4"/>
@@ -7736,19 +8066,20 @@
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
         <v>AC</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E63" s="4"/>
@@ -7759,19 +8090,20 @@
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M63" s="18"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>member!B64</f>
         <v>天赐</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E64" s="4"/>
@@ -7782,19 +8114,20 @@
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>member!B65</f>
         <v>小岭</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E65" s="4"/>
@@ -7811,19 +8144,20 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M65" s="18"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>member!B66</f>
         <v>孙硕</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E66" s="4"/>
@@ -7837,19 +8171,20 @@
       </c>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M66" s="18"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>member!B67</f>
         <v>R2</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E67" s="4"/>
@@ -7863,19 +8198,20 @@
       </c>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M67" s="18"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>member!B68</f>
         <v>刘俊峰</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.055555555555557</v>
       </c>
       <c r="E68" s="4"/>
@@ -7892,20 +8228,21 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M68" s="18"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>member!B69</f>
         <v>人在旅途</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="9"/>
-        <v>53.964646464646464</v>
+        <f t="shared" si="10"/>
+        <v>71.214646464646464</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -7924,19 +8261,23 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M69" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>member!B70</f>
         <v>狮子少爷</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.909090909090908</v>
       </c>
       <c r="E70" s="4"/>
@@ -7950,19 +8291,20 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>member!B71</f>
         <v>Edison</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D71" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E71" s="4"/>
@@ -7976,19 +8318,20 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="str">
         <f>member!B72</f>
         <v>于博霏</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D72" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E72" s="4"/>
@@ -8002,20 +8345,21 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="str">
         <f>member!B73</f>
         <v>段晨</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="D73" s="9">
-        <f t="shared" si="9"/>
-        <v>18.888888888888889</v>
+        <f t="shared" si="10"/>
+        <v>36.138888888888886</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -8028,19 +8372,23 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M73" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="str">
         <f>member!B74</f>
         <v>顾伟强</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D74" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E74" s="4"/>
@@ -8054,12 +8402,22 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="8" t="str">
+        <f>member!B75</f>
+        <v>小郝</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D75" s="9">
+        <f t="shared" si="10"/>
+        <v>17.25</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="2"/>
@@ -8068,8 +8426,12 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M75" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8082,8 +8444,9 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8096,8 +8459,9 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8110,8 +8474,9 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8124,8 +8489,9 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -8138,8 +8504,9 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -8152,8 +8519,9 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8166,8 +8534,9 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8180,8 +8549,9 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8194,8 +8564,9 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8208,8 +8579,9 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8222,8 +8594,9 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8236,8 +8609,9 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -8250,8 +8624,9 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -8264,8 +8639,9 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -8278,8 +8654,9 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -8292,8 +8669,9 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -8306,8 +8684,9 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -8320,8 +8699,9 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -8334,8 +8714,9 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -8348,8 +8729,9 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -8362,8 +8744,9 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -8376,8 +8759,9 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -8390,11 +8774,12 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M98" s="2"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="202">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小贝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +101,6 @@
   </si>
   <si>
     <t>狐狸涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清道夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -581,247 +565,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>70拉齐奥,30孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70R,30R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenhak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割除了另外一箱水钱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一箱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈网见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>人在旅途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>70拉齐奥,30孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70R,30R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shenhak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀割除了另外一箱水钱30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加一箱水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈网见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次多收5块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025),100/130(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小宋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
+    <t>Zigbeer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,25 +1351,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1380,7 +1388,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1393,7 +1401,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="8"/>
@@ -1406,7 +1414,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1419,7 +1427,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="8"/>
@@ -1432,7 +1440,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8"/>
@@ -1442,17 +1450,17 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C98)</f>
-        <v>3405.1300000000006</v>
+        <v>3142.1300000000006</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1460,11 +1468,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>5720</v>
+        <v>5820</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>3104.9999999999991</v>
+        <v>3449.9999999999986</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1472,10 +1480,10 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1505,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1513,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="1"/>
@@ -1535,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1565,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1577,7 +1585,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>78.336666666666673</v>
+        <v>58.170000000000016</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1587,15 +1595,15 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>113.08333333333334</v>
+        <v>132.25</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1625,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1633,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
@@ -1658,12 +1666,12 @@
       <c r="A15" s="8">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
+      <c r="B15" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
-        <v>48.217575757575752</v>
+        <v>28.050909090909087</v>
       </c>
       <c r="D15" s="2">
         <v>5.46</v>
@@ -1673,15 +1681,15 @@
       </c>
       <c r="F15" s="9">
         <f>'201201'!D15</f>
-        <v>54.242424242424242</v>
+        <v>73.409090909090907</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
         <f>'201201'!C15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1689,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
@@ -1711,7 +1719,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1719,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="1"/>
@@ -1741,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1749,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="1"/>
@@ -1771,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1779,11 +1787,11 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>53.873014354066981</v>
+        <v>33.70634768740031</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1793,15 +1801,15 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>108.81698564593302</v>
+        <v>127.98365231259969</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1809,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="1"/>
@@ -1831,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1839,41 +1847,41 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="1"/>
-        <v>39.777777777777771</v>
+        <v>119.6111111111111</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="9">
         <f>'201201'!D21</f>
-        <v>57.222222222222229</v>
+        <v>76.3888888888889</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8">
         <f>'201201'!C21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>12</v>
+      <c r="B22" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>37.914242424242431</v>
+        <v>17.74757575757576</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
@@ -1883,15 +1891,15 @@
       </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>92.575757575757578</v>
+        <v>111.74242424242425</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1899,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="1"/>
@@ -1925,11 +1933,11 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
-        <v>31.680909090909097</v>
+        <v>11.514242424242425</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
@@ -1939,15 +1947,15 @@
       </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>73.409090909090907</v>
+        <v>92.575757575757578</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1955,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
@@ -1977,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1985,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
@@ -2007,19 +2015,19 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>18</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
+      <c r="B27" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
-        <v>36.317575757575753</v>
+        <v>16.150909090909082</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
@@ -2029,15 +2037,15 @@
       </c>
       <c r="F27" s="9">
         <f>'201201'!D27</f>
-        <v>71.492424242424249</v>
+        <v>90.659090909090921</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <f>'201201'!C27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2045,11 +2053,11 @@
         <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
-        <v>63.399681020733667</v>
+        <v>43.233014354066995</v>
       </c>
       <c r="D28" s="2">
         <v>38.049999999999997</v>
@@ -2059,15 +2067,15 @@
       </c>
       <c r="F28" s="9">
         <f>'201201'!D28</f>
-        <v>89.650318979266345</v>
+        <v>108.81698564593302</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8">
         <f>'201201'!C28</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2075,7 +2083,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="1"/>
@@ -2097,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2105,11 +2113,11 @@
         <v>21</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>
-        <v>81.344242424242424</v>
+        <v>61.177575757575752</v>
       </c>
       <c r="D30" s="2">
         <v>18.420000000000002</v>
@@ -2119,15 +2127,15 @@
       </c>
       <c r="F30" s="9">
         <f>'201201'!D30</f>
-        <v>35.075757575757578</v>
+        <v>54.242424242424249</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8">
         <f>'201201'!C30</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2135,7 +2143,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
@@ -2157,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2165,7 +2173,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -2191,7 +2199,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="12">
         <f t="shared" si="1"/>
@@ -2213,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2221,7 +2229,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34" s="12">
         <f t="shared" si="1"/>
@@ -2243,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2251,11 +2259,11 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
-        <v>94.690909090909088</v>
+        <v>74.524242424242416</v>
       </c>
       <c r="D35" s="2">
         <v>90.35</v>
@@ -2265,15 +2273,15 @@
       </c>
       <c r="F35" s="9">
         <f>'201201'!D35</f>
-        <v>90.659090909090907</v>
+        <v>109.82575757575758</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <f>'201201'!C35</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2281,11 +2289,11 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>90.945353535353533</v>
+        <v>70.778686868686862</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
@@ -2295,15 +2303,15 @@
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>111.46464646464646</v>
+        <v>130.63131313131314</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2311,7 +2319,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
@@ -2333,7 +2341,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2341,7 +2349,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
@@ -2363,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2371,7 +2379,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
@@ -2393,19 +2401,19 @@
         <v>5</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>32</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>24</v>
+      <c r="B40" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
-        <v>35.271111111111111</v>
+        <v>15.104444444444439</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
@@ -2415,15 +2423,15 @@
       </c>
       <c r="F40" s="9">
         <f>'201201'!D40</f>
-        <v>76.388888888888886</v>
+        <v>95.555555555555557</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <f>'201201'!C40</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2431,11 +2439,11 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41" s="12">
         <f t="shared" ref="C41:C75" si="2">D41+E41+G41-F41-H41</f>
-        <v>68.220909090909089</v>
+        <v>48.054242424242418</v>
       </c>
       <c r="D41" s="2">
         <v>3.38</v>
@@ -2445,15 +2453,15 @@
       </c>
       <c r="F41" s="9">
         <f>'201201'!D41</f>
-        <v>33.159090909090907</v>
+        <v>52.325757575757578</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
         <f>'201201'!C41</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2461,7 +2469,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
@@ -2483,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2491,7 +2499,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
@@ -2513,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2521,7 +2529,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
@@ -2543,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2551,7 +2559,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="2"/>
@@ -2577,7 +2585,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C46" s="12">
         <f t="shared" si="2"/>
@@ -2599,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2607,7 +2615,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" s="12">
         <f t="shared" si="2"/>
@@ -2633,7 +2641,7 @@
         <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C48" s="12">
         <f t="shared" si="2"/>
@@ -2655,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2663,7 +2671,7 @@
         <v>88</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
@@ -2685,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2693,7 +2701,7 @@
         <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
@@ -2715,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2723,7 +2731,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C51" s="12">
         <f t="shared" si="2"/>
@@ -2745,13 +2753,13 @@
         <v>3</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
@@ -2773,13 +2781,13 @@
         <v>2</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="2"/>
@@ -2803,7 +2811,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="2"/>
@@ -2825,17 +2833,17 @@
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
-        <v>124.6109090909091</v>
+        <v>104.44424242424243</v>
       </c>
       <c r="D55" s="2">
         <v>20.27</v>
@@ -2845,21 +2853,21 @@
       </c>
       <c r="F55" s="9">
         <f>'201201'!D55</f>
-        <v>90.659090909090907</v>
+        <v>109.82575757575758</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <f>'201201'!C55</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
@@ -2883,7 +2891,7 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="2"/>
@@ -2905,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="2"/>
@@ -2933,13 +2941,13 @@
         <v>3</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="2"/>
@@ -2961,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
@@ -2989,13 +2997,13 @@
         <v>2</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
@@ -3017,13 +3025,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="2"/>
@@ -3047,7 +3055,7 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="2"/>
@@ -3071,7 +3079,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="2"/>
@@ -3095,11 +3103,11 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
-        <v>62.924242424242422</v>
+        <v>42.757575757575751</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -3109,21 +3117,21 @@
       </c>
       <c r="F65" s="9">
         <f>'201201'!D65</f>
-        <v>35.075757575757578</v>
+        <v>54.242424242424249</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="8">
         <f>'201201'!C65</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="2"/>
@@ -3145,13 +3153,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
@@ -3173,17 +3181,17 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="2"/>
-        <v>59.944444444444443</v>
+        <v>39.777777777777771</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -3193,25 +3201,25 @@
       </c>
       <c r="F68" s="9">
         <f>'201201'!D68</f>
-        <v>38.055555555555557</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8">
         <f>'201201'!C68</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
-        <v>139</v>
+      <c r="B69" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="2"/>
-        <v>24.785353535353536</v>
+        <v>4.618686868686865</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -3221,25 +3229,25 @@
       </c>
       <c r="F69" s="9">
         <f>'201201'!D69</f>
-        <v>71.214646464646464</v>
+        <v>90.381313131313135</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8">
         <f>'201201'!C69</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
-        <v>83.090909090909093</v>
+        <v>62.924242424242422</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -3249,21 +3257,21 @@
       </c>
       <c r="F70" s="9">
         <f>'201201'!D70</f>
-        <v>15.909090909090908</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8">
         <f>'201201'!C70</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="2"/>
@@ -3285,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C72" s="12">
         <f t="shared" si="2"/>
@@ -3313,13 +3321,13 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C73" s="12">
         <f t="shared" si="2"/>
@@ -3341,13 +3349,13 @@
         <v>2</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C74" s="12">
         <f t="shared" si="2"/>
@@ -3369,13 +3377,13 @@
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C75" s="12">
         <f t="shared" si="2"/>
@@ -3397,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
@@ -3662,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3678,28 +3686,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3713,19 +3721,19 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3740,16 +3748,16 @@
         <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -3765,16 +3773,16 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -3790,16 +3798,16 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -3815,16 +3823,16 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -3840,16 +3848,16 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -3865,16 +3873,16 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3890,16 +3898,16 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -3915,16 +3923,16 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3940,16 +3948,16 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -3965,16 +3973,16 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -3990,16 +3998,16 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -4015,16 +4023,16 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -4040,16 +4048,16 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -4065,16 +4073,16 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4090,16 +4098,16 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -4115,16 +4123,16 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -4140,16 +4148,16 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -4165,16 +4173,16 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -4190,19 +4198,19 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -4217,16 +4225,16 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -4242,16 +4250,16 @@
         <v>1448</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -4267,16 +4275,16 @@
         <v>1548</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -4292,16 +4300,16 @@
         <v>1648</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -4317,16 +4325,16 @@
         <v>1718</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -4342,16 +4350,16 @@
         <v>1818</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -4367,16 +4375,16 @@
         <v>1918</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -4392,16 +4400,16 @@
         <v>2018</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -4417,16 +4425,16 @@
         <v>2118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -4442,16 +4450,16 @@
         <v>2218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -4467,16 +4475,16 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -4492,16 +4500,16 @@
         <v>1968</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="19"/>
     </row>
@@ -4517,16 +4525,16 @@
         <v>2068</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -4542,16 +4550,16 @@
         <v>2168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -4567,16 +4575,16 @@
         <v>2268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -4592,16 +4600,16 @@
         <v>2368</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -4617,16 +4625,16 @@
         <v>2468</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -4642,16 +4650,16 @@
         <v>2568</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39" s="19"/>
     </row>
@@ -4667,19 +4675,19 @@
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -4694,16 +4702,16 @@
         <v>2328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -4719,16 +4727,16 @@
         <v>2428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -4744,16 +4752,16 @@
         <v>2528</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -4769,16 +4777,16 @@
         <v>2628</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -4794,16 +4802,16 @@
         <v>2653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" s="19"/>
     </row>
@@ -4819,16 +4827,16 @@
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -4844,16 +4852,16 @@
         <v>2508</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -4869,16 +4877,16 @@
         <v>2608</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -4894,16 +4902,16 @@
         <v>2708</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49" s="1"/>
     </row>
@@ -4919,16 +4927,16 @@
         <v>2738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4944,19 +4952,19 @@
         <v>2838</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -4971,19 +4979,19 @@
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -4998,16 +5006,16 @@
         <v>2968</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H53" s="19"/>
     </row>
@@ -5023,16 +5031,16 @@
         <v>2623</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H54" s="1"/>
     </row>
@@ -5048,16 +5056,16 @@
         <v>2723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H55" s="1"/>
     </row>
@@ -5073,16 +5081,16 @@
         <v>2823</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H56" s="1"/>
     </row>
@@ -5098,16 +5106,16 @@
         <v>2923</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H57" s="1"/>
     </row>
@@ -5123,16 +5131,16 @@
         <v>3023</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" s="1"/>
     </row>
@@ -5148,16 +5156,16 @@
         <v>3053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59" s="19"/>
     </row>
@@ -5173,19 +5181,19 @@
         <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -5200,16 +5208,16 @@
         <v>2833</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H61" s="1"/>
     </row>
@@ -5225,16 +5233,16 @@
         <v>2933</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H62" s="1"/>
     </row>
@@ -5250,16 +5258,16 @@
         <v>3033</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H63" s="1"/>
     </row>
@@ -5275,16 +5283,16 @@
         <v>3063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -5300,16 +5308,16 @@
         <v>3093</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H65" s="19"/>
     </row>
@@ -5325,19 +5333,19 @@
         <v>2753</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -5352,16 +5360,16 @@
         <v>2853</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H67" s="1"/>
     </row>
@@ -5377,16 +5385,16 @@
         <v>2953</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H68" s="1"/>
     </row>
@@ -5402,16 +5410,16 @@
         <v>3053</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H69" s="1"/>
     </row>
@@ -5427,16 +5435,16 @@
         <v>3153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H70" s="1"/>
     </row>
@@ -5452,16 +5460,16 @@
         <v>3183</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H71" s="19"/>
     </row>
@@ -5477,18 +5485,68 @@
         <v>2838</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="20">
+        <v>41219</v>
+      </c>
+      <c r="B73" s="26">
+        <v>100</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" ref="C73:C74" si="6">C72+B73</f>
+        <v>2938</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="19"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="20">
+        <v>41219</v>
+      </c>
+      <c r="B74" s="26">
+        <v>-345</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" si="6"/>
+        <v>2593</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5515,28 +5573,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5550,19 +5608,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5577,19 +5635,19 @@
         <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -5604,19 +5662,19 @@
         <v>760</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5888,10 +5946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5906,20 +5964,21 @@
     <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
     <col min="10" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -5948,10 +6007,13 @@
       <c r="M1" s="16">
         <v>41214</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" s="16">
+        <v>41219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5983,10 +6045,13 @@
       <c r="M2" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -6018,10 +6083,13 @@
       <c r="M3" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6059,13 +6127,17 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ref="M4" si="2">M3/M2</f>
+        <f t="shared" ref="M4:N4" si="2">M3/M2</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" s="9">
+        <f t="shared" si="2"/>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6106,58 +6178,66 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="10">
+        <f t="shared" ref="N5" si="5">COUNT(N9:N98)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:K6" si="5">SUM(C9:C98)</f>
-        <v>169</v>
+        <f t="shared" ref="C6:K6" si="6">SUM(C9:C98)</f>
+        <v>187</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="5"/>
-        <v>3104.9999999999991</v>
+        <f t="shared" si="6"/>
+        <v>3449.9999999999986</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>344.99999999999994</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350.00000000000011</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" ref="L6:M6" si="6">SUM(L9:L98)</f>
+        <f t="shared" ref="L6:M6" si="7">SUM(L9:L98)</f>
         <v>340.00000000000011</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>345</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="9">
+        <f t="shared" ref="N6" si="8">SUM(N9:N98)</f>
+        <v>345.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6171,8 +6251,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6186,8 +6267,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f>member!A9</f>
         <v>0</v>
@@ -6197,11 +6279,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="7">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="9">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="8">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="10">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -6216,8 +6298,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f>member!A10</f>
         <v>1</v>
@@ -6227,11 +6310,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -6246,8 +6329,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f>member!A11</f>
         <v>2</v>
@@ -6257,11 +6341,11 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E11" s="4">
@@ -6279,8 +6363,9 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f>member!A12</f>
         <v>3</v>
@@ -6290,12 +6375,12 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="8"/>
-        <v>113.08333333333334</v>
+        <f t="shared" si="10"/>
+        <v>132.25</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -6324,8 +6409,12 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f>member!A13</f>
         <v>4</v>
@@ -6335,11 +6424,11 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>89.650318979266345</v>
       </c>
       <c r="E13" s="4">
@@ -6366,8 +6455,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f>member!A14</f>
         <v>5</v>
@@ -6377,11 +6467,11 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -6396,8 +6486,9 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f>member!A15</f>
         <v>6</v>
@@ -6407,12 +6498,12 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="8"/>
-        <v>54.242424242424242</v>
+        <f t="shared" si="10"/>
+        <v>73.409090909090907</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -6432,8 +6523,12 @@
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>member!A16</f>
         <v>7</v>
@@ -6443,11 +6538,11 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>111.796783625731</v>
       </c>
       <c r="E16" s="4">
@@ -6477,8 +6572,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f>member!A17</f>
         <v>8</v>
@@ -6488,11 +6584,11 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E17" s="4">
@@ -6510,8 +6606,9 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>member!A18</f>
         <v>9</v>
@@ -6521,11 +6618,11 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92.630116959064324</v>
       </c>
       <c r="E18" s="4">
@@ -6552,8 +6649,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f>member!A19</f>
         <v>10</v>
@@ -6563,12 +6661,12 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="8"/>
-        <v>108.81698564593302</v>
+        <f t="shared" si="10"/>
+        <v>127.98365231259969</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
@@ -6597,8 +6695,12 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>member!A20</f>
         <v>11</v>
@@ -6608,11 +6710,11 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56.213450292397667</v>
       </c>
       <c r="E20" s="4">
@@ -6633,8 +6735,9 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M20" s="18"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f>member!A21</f>
         <v>12</v>
@@ -6644,12 +6747,12 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="8"/>
-        <v>57.222222222222229</v>
+        <f t="shared" si="10"/>
+        <v>76.3888888888889</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -6669,8 +6772,12 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f>member!A22</f>
         <v>13</v>
@@ -6680,12 +6787,12 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="8"/>
-        <v>92.575757575757578</v>
+        <f t="shared" si="10"/>
+        <v>111.74242424242425</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
@@ -6711,8 +6818,12 @@
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f>member!A23</f>
         <v>14</v>
@@ -6722,11 +6833,11 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -6738,8 +6849,9 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f>member!A24</f>
         <v>15</v>
@@ -6749,12 +6861,12 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="8"/>
-        <v>73.409090909090907</v>
+        <f t="shared" si="10"/>
+        <v>92.575757575757578</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -6777,8 +6889,12 @@
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N24" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f>member!A25</f>
         <v>16</v>
@@ -6788,11 +6904,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -6816,8 +6932,9 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f>member!A26</f>
         <v>17</v>
@@ -6827,11 +6944,11 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57.222222222222229</v>
       </c>
       <c r="E26" s="4"/>
@@ -6852,8 +6969,9 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M26" s="18"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f>member!A27</f>
         <v>18</v>
@@ -6863,12 +6981,12 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="8"/>
-        <v>71.492424242424249</v>
+        <f t="shared" si="10"/>
+        <v>90.659090909090921</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -6891,8 +7009,12 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N27" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>member!A28</f>
         <v>19</v>
@@ -6902,12 +7024,12 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="8"/>
-        <v>89.650318979266345</v>
+        <f t="shared" si="10"/>
+        <v>108.81698564593302</v>
       </c>
       <c r="E28" s="4">
         <f>E4</f>
@@ -6933,8 +7055,12 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N28" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>member!A29</f>
         <v>20</v>
@@ -6944,11 +7070,11 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E29" s="4">
@@ -6966,8 +7092,9 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f>member!A30</f>
         <v>21</v>
@@ -6977,12 +7104,12 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="8"/>
-        <v>35.075757575757578</v>
+        <f t="shared" si="10"/>
+        <v>54.242424242424249</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -6999,8 +7126,12 @@
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N30" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f>member!A31</f>
         <v>22</v>
@@ -7010,11 +7141,11 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -7029,8 +7160,9 @@
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f>member!A32</f>
         <v>23</v>
@@ -7040,11 +7172,11 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
@@ -7056,8 +7188,9 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>member!A33</f>
         <v>24</v>
@@ -7067,11 +7200,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -7086,8 +7219,9 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f>member!A34</f>
         <v>25</v>
@@ -7097,11 +7231,11 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34.066985645933016</v>
       </c>
       <c r="E34" s="7">
@@ -7119,8 +7253,9 @@
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f>member!A35</f>
         <v>26</v>
@@ -7130,12 +7265,12 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="8"/>
-        <v>90.659090909090907</v>
+        <f t="shared" si="10"/>
+        <v>109.82575757575758</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
@@ -7161,8 +7296,12 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N35" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f>member!A36</f>
         <v>27</v>
@@ -7172,12 +7311,12 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="8"/>
-        <v>111.46464646464646</v>
+        <f t="shared" si="10"/>
+        <v>130.63131313131314</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
@@ -7206,8 +7345,12 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M36" s="18"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N36" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f>member!A37</f>
         <v>28</v>
@@ -7217,11 +7360,11 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>74.75</v>
       </c>
       <c r="E37" s="4"/>
@@ -7245,8 +7388,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f>member!A38</f>
         <v>29</v>
@@ -7256,11 +7400,11 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E38" s="4"/>
@@ -7278,8 +7422,9 @@
       </c>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f>member!A39</f>
         <v>30</v>
@@ -7289,11 +7434,11 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>93.916666666666671</v>
       </c>
       <c r="E39" s="4"/>
@@ -7320,8 +7465,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f>member!A40</f>
         <v>32</v>
@@ -7331,12 +7477,12 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="8"/>
-        <v>76.388888888888886</v>
+        <f t="shared" si="10"/>
+        <v>95.555555555555557</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
@@ -7359,8 +7505,12 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M40" s="18"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N40" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f>member!A41</f>
         <v>33</v>
@@ -7370,12 +7520,12 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C75" si="9">COUNT(E41:ZZ41)</f>
-        <v>2</v>
+        <f t="shared" ref="C41:C75" si="11">COUNT(E41:ZZ41)</f>
+        <v>3</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D75" si="10">SUM(E41:ZZ41)</f>
-        <v>33.159090909090907</v>
+        <f t="shared" ref="D41:D75" si="12">SUM(E41:ZZ41)</f>
+        <v>52.325757575757578</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -7392,8 +7542,12 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N41" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f>member!A42</f>
         <v>37</v>
@@ -7403,11 +7557,11 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57.5</v>
       </c>
       <c r="E42" s="4"/>
@@ -7428,8 +7582,9 @@
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f>member!A43</f>
         <v>45</v>
@@ -7439,11 +7594,11 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>74.472222222222229</v>
       </c>
       <c r="E43" s="4"/>
@@ -7467,8 +7622,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>member!A44</f>
         <v>55</v>
@@ -7478,11 +7634,11 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>55.305555555555557</v>
       </c>
       <c r="E44" s="4"/>
@@ -7503,8 +7659,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f>member!A45</f>
         <v>69</v>
@@ -7514,11 +7671,11 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -7530,8 +7687,9 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f>member!A46</f>
         <v>77</v>
@@ -7541,11 +7699,11 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -7560,8 +7718,9 @@
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f>member!A47</f>
         <v>86</v>
@@ -7571,11 +7730,11 @@
         <v>行盛于言</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E47" s="4"/>
@@ -7587,8 +7746,9 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>member!A48</f>
         <v>87</v>
@@ -7598,11 +7758,11 @@
         <v>刘晨</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E48" s="4">
@@ -7620,8 +7780,9 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>member!A49</f>
         <v>88</v>
@@ -7631,11 +7792,11 @@
         <v>拂晓</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>89.650318979266345</v>
       </c>
       <c r="E49" s="4">
@@ -7662,8 +7823,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N49" s="18"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
         <v>97</v>
@@ -7673,48 +7835,49 @@
         <v>R</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>148.78920786815524</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" ref="E50:J50" si="11">E4</f>
+        <f t="shared" ref="E50:J50" si="13">E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G50" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H50" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I50" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J50" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19.166666666666668</v>
       </c>
       <c r="K50" s="18">
-        <f t="shared" ref="K50:L50" si="12">K4</f>
+        <f t="shared" ref="K50:L50" si="14">K4</f>
         <v>15.909090909090908</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.888888888888889</v>
       </c>
       <c r="M50" s="18"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N50" s="18"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <f>member!A51</f>
         <v>99</v>
@@ -7724,11 +7887,11 @@
         <v>陈磊</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>52.325757575757578</v>
       </c>
       <c r="E51" s="4"/>
@@ -7749,19 +7912,20 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N51" s="18"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>member!B52</f>
         <v>Shenghak</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>33.159090909090907</v>
       </c>
       <c r="E52" s="4"/>
@@ -7779,19 +7943,20 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N52" s="18"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
         <v>张硕</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E53" s="4"/>
@@ -7806,19 +7971,20 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
         <v>孙伟</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E54" s="4"/>
@@ -7836,20 +8002,21 @@
       </c>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
         <v>小新</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="10"/>
-        <v>90.659090909090907</v>
+        <f t="shared" si="12"/>
+        <v>109.82575757575758</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
@@ -7875,19 +8042,23 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N55" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
         <v>祈网见</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E56" s="4"/>
@@ -7899,19 +8070,20 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
         <v>小严</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E57" s="4"/>
@@ -7926,19 +8098,20 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M57" s="18"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N57" s="18"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
         <v>懦夫</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>56.213450292397667</v>
       </c>
       <c r="E58" s="7">
@@ -7959,19 +8132,20 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M58" s="18"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N58" s="18"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
         <v>徐老师</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E59" s="4">
@@ -7986,19 +8160,20 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
         <v>拉齐奥</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E60" s="4">
@@ -8016,19 +8191,20 @@
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N60" s="18"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
         <v>冬瓜</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E61" s="4">
@@ -8043,19 +8219,20 @@
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N61" s="18"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
         <v>狐狸</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E62" s="4"/>
@@ -8067,19 +8244,20 @@
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N62" s="18"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
         <v>AC</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E63" s="4"/>
@@ -8091,19 +8269,20 @@
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N63" s="18"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>member!B64</f>
         <v>天赐</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E64" s="4"/>
@@ -8115,20 +8294,21 @@
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N64" s="18"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>member!B65</f>
         <v>小岭</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="10"/>
-        <v>35.075757575757578</v>
+        <f t="shared" si="12"/>
+        <v>54.242424242424249</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -8145,19 +8325,23 @@
       </c>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N65" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>member!B66</f>
         <v>孙硕</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E66" s="4"/>
@@ -8172,19 +8356,20 @@
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N66" s="18"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>member!B67</f>
         <v>R2</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E67" s="4"/>
@@ -8199,20 +8384,21 @@
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N67" s="18"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>member!B68</f>
         <v>刘俊峰</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="10"/>
-        <v>38.055555555555557</v>
+        <f t="shared" si="12"/>
+        <v>57.222222222222229</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -8229,20 +8415,24 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M68" s="18"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N68" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>member!B69</f>
         <v>人在旅途</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="10"/>
-        <v>71.214646464646464</v>
+        <f t="shared" si="12"/>
+        <v>90.381313131313135</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -8265,20 +8455,24 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N69" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>member!B70</f>
         <v>狮子少爷</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" si="10"/>
-        <v>15.909090909090908</v>
+        <f t="shared" si="12"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -8292,19 +8486,23 @@
       </c>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N70" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>member!B71</f>
         <v>Edison</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D71" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E71" s="4"/>
@@ -8319,19 +8517,20 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M71" s="18"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N71" s="18"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="str">
         <f>member!B72</f>
         <v>于博霏</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D72" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E72" s="4"/>
@@ -8346,19 +8545,20 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M72" s="18"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N72" s="18"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="str">
         <f>member!B73</f>
         <v>段晨</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D73" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36.138888888888886</v>
       </c>
       <c r="E73" s="4"/>
@@ -8376,19 +8576,20 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N73" s="18"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="str">
         <f>member!B74</f>
         <v>顾伟强</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D74" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E74" s="4"/>
@@ -8403,19 +8604,20 @@
         <v>18.888888888888889</v>
       </c>
       <c r="M74" s="18"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N74" s="18"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="str">
         <f>member!B75</f>
         <v>小郝</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D75" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17.25</v>
       </c>
       <c r="E75" s="4"/>
@@ -8430,8 +8632,9 @@
         <f>M4</f>
         <v>17.25</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N75" s="18"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8445,8 +8648,9 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8460,8 +8664,9 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8475,8 +8680,9 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8490,8 +8696,9 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -8505,8 +8712,9 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -8520,8 +8728,9 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8535,8 +8744,9 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8550,8 +8760,9 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8565,8 +8776,9 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8580,8 +8792,9 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8595,8 +8808,9 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8610,8 +8824,9 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -8625,8 +8840,9 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -8640,8 +8856,9 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -8655,8 +8872,9 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -8670,8 +8888,9 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -8685,8 +8904,9 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -8700,8 +8920,9 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -8715,8 +8936,9 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -8730,8 +8952,9 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -8745,8 +8968,9 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -8760,8 +8984,9 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -8775,11 +9000,12 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N98" s="2"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="195">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
   </si>
   <si>
     <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行盛于言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20(120920)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100/120(120927)</t>
   </si>
   <si>
@@ -645,191 +637,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈网见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次多收5块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025),100/130(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小宋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清道夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zigbeer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,25 +1323,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1388,7 +1360,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1401,7 +1373,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="8"/>
@@ -1414,7 +1386,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1427,7 +1399,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="8"/>
@@ -1440,7 +1412,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8"/>
@@ -1450,40 +1422,40 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:H8" si="0">SUM(C9:C98)</f>
-        <v>3142.1300000000006</v>
+        <f>SUM(C9:C92)</f>
+        <v>3106.7557894736851</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>959.12999999999988</v>
+        <f>SUM(D9:D92)</f>
+        <v>925.43999999999994</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>5820</v>
+        <f>SUM(E9:E92)</f>
+        <v>5780</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>3449.9999999999986</v>
+        <f>SUM(F9:F92)</f>
+        <v>3413.6842105263145</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(G9:G92)</f>
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(H9:H92)</f>
+        <v>185</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1494,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" ref="C9:C40" si="1">D9+E9+G9-F9-H9</f>
+        <f t="shared" ref="C9:C40" si="0">D9+E9+G9-F9-H9</f>
         <v>22.882105263157893</v>
       </c>
       <c r="D9" s="2">
@@ -1513,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1521,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.833333333333332</v>
       </c>
       <c r="D10" s="2">
@@ -1543,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1554,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80.675438596491233</v>
       </c>
       <c r="D11" s="2">
@@ -1573,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1584,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58.170000000000016</v>
       </c>
       <c r="D12" s="2">
@@ -1603,7 +1575,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1614,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43.689681020733659</v>
       </c>
       <c r="D13" s="2">
@@ -1633,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1641,10 +1613,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.9933333333333323</v>
       </c>
       <c r="D14" s="2">
@@ -1667,10 +1639,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28.050909090909087</v>
       </c>
       <c r="D15" s="2">
@@ -1689,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1697,10 +1669,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>106.143216374269</v>
       </c>
       <c r="D16" s="2">
@@ -1719,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1730,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>183.03543859649125</v>
       </c>
       <c r="D17" s="2">
@@ -1749,18 +1721,18 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>9</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.919883040935687</v>
       </c>
       <c r="D18" s="2">
@@ -1779,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1790,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.70634768740031</v>
       </c>
       <c r="D19" s="2">
@@ -1809,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1820,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73.096549707602335</v>
       </c>
       <c r="D20" s="2">
@@ -1839,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1850,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119.6111111111111</v>
       </c>
       <c r="D21" s="2">
@@ -1869,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1877,10 +1849,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.74757575757576</v>
       </c>
       <c r="D22" s="2">
@@ -1899,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1910,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44.19</v>
       </c>
       <c r="D23" s="2">
@@ -1936,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.514242424242425</v>
       </c>
       <c r="D24" s="2">
@@ -1955,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1963,10 +1935,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55.702105263157904</v>
       </c>
       <c r="D25" s="2">
@@ -1985,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1993,10 +1965,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.797777777777782</v>
       </c>
       <c r="D26" s="2">
@@ -2015,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2023,10 +1995,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.150909090909082</v>
       </c>
       <c r="D27" s="2">
@@ -2045,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2056,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43.233014354066995</v>
       </c>
       <c r="D28" s="2">
@@ -2075,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2083,10 +2055,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.675438596491226</v>
       </c>
       <c r="D29" s="2">
@@ -2105,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2116,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61.177575757575752</v>
       </c>
       <c r="D30" s="2">
@@ -2135,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2143,10 +2115,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79.833333333333329</v>
       </c>
       <c r="D31" s="2">
@@ -2165,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2173,10 +2145,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28.96</v>
       </c>
       <c r="D32" s="2">
@@ -2202,7 +2174,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>99.803333333333327</v>
       </c>
       <c r="D33" s="2">
@@ -2221,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2232,7 +2204,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.933014354066984</v>
       </c>
       <c r="D34" s="2">
@@ -2251,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2262,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74.524242424242416</v>
       </c>
       <c r="D35" s="2">
@@ -2281,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2292,7 +2264,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70.778686868686862</v>
       </c>
       <c r="D36" s="2">
@@ -2311,7 +2283,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2322,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75.37</v>
       </c>
       <c r="D37" s="2">
@@ -2341,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2352,7 +2324,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.86424242424242</v>
       </c>
       <c r="D38" s="2">
@@ -2371,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2379,10 +2351,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>101.08333333333333</v>
       </c>
       <c r="D39" s="2">
@@ -2401,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2409,10 +2381,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.104444444444439</v>
       </c>
       <c r="D40" s="2">
@@ -2431,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2442,7 +2414,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C75" si="2">D41+E41+G41-F41-H41</f>
+        <f t="shared" ref="C41:C69" si="1">D41+E41+G41-F41-H41</f>
         <v>48.054242424242418</v>
       </c>
       <c r="D41" s="2">
@@ -2461,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2472,7 +2444,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44.2</v>
       </c>
       <c r="D42" s="2">
@@ -2491,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2499,10 +2471,10 @@
         <v>45</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21.527777777777771</v>
       </c>
       <c r="D43" s="2">
@@ -2521,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2532,7 +2504,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50.104444444444439</v>
       </c>
       <c r="D44" s="2">
@@ -2551,18 +2523,18 @@
         <v>3</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>69</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>155</v>
+      <c r="B45" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="C45" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
       <c r="D45" s="2">
@@ -2585,10 +2557,10 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C46" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5733333333333341</v>
       </c>
       <c r="D46" s="2">
@@ -2607,206 +2579,208 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
-        <v>86</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>26</v>
+        <v>87</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="C47" s="12">
-        <f t="shared" si="2"/>
-        <v>8.41</v>
+        <f t="shared" si="1"/>
+        <v>80.675438596491233</v>
       </c>
       <c r="D47" s="2">
-        <v>8.41</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>120</v>
+      </c>
       <c r="F47" s="9">
         <f>'201201'!D47</f>
-        <v>0</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="8">
         <f>'201201'!C47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" si="2"/>
-        <v>80.675438596491233</v>
+        <f t="shared" si="1"/>
+        <v>51.409681020733657</v>
       </c>
       <c r="D48" s="2">
-        <v>0</v>
+        <v>26.06</v>
       </c>
       <c r="E48" s="2">
         <v>120</v>
       </c>
       <c r="F48" s="9">
         <f>'201201'!D48</f>
-        <v>37.324561403508774</v>
+        <v>89.650318979266345</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="8">
         <f>'201201'!C48</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" si="2"/>
-        <v>51.409681020733657</v>
+        <f t="shared" si="1"/>
+        <v>33.210792131844755</v>
       </c>
       <c r="D49" s="2">
-        <v>26.06</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>89.650318979266345</v>
+        <v>148.78920786815524</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="12">
-        <f t="shared" si="2"/>
-        <v>33.210792131844755</v>
+        <f t="shared" si="1"/>
+        <v>79.444242424242432</v>
       </c>
       <c r="D50" s="2">
-        <v>0</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="E50" s="2">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F50" s="9">
         <f>'201201'!D50</f>
-        <v>148.78920786815524</v>
+        <v>52.325757575757578</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <f>'201201'!C50</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="8">
-        <v>99</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="2"/>
-        <v>79.444242424242432</v>
+        <f t="shared" si="1"/>
+        <v>93.610909090909104</v>
       </c>
       <c r="D51" s="2">
-        <v>34.770000000000003</v>
+        <v>28.77</v>
       </c>
       <c r="E51" s="2">
         <v>100</v>
       </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>52.325757575757578</v>
+        <v>33.159090909090907</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
-        <v>31</v>
+      <c r="B52" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="2"/>
-        <v>93.610909090909104</v>
+        <f t="shared" si="1"/>
+        <v>13.193333333333332</v>
       </c>
       <c r="D52" s="2">
-        <v>28.77</v>
-      </c>
-      <c r="E52" s="2">
-        <v>100</v>
-      </c>
+        <v>33.36</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="9">
         <f>'201201'!D52</f>
-        <v>33.159090909090907</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8">
         <f>'201201'!C52</f>
-        <v>2</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
-      <c r="B53" s="21" t="s">
-        <v>157</v>
+      <c r="B53" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="2"/>
-        <v>13.193333333333332</v>
+        <f t="shared" si="1"/>
+        <v>72.86424242424242</v>
       </c>
       <c r="D53" s="2">
-        <v>33.36</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>9.94</v>
+      </c>
+      <c r="E53" s="2">
+        <v>100</v>
+      </c>
       <c r="F53" s="9">
         <f>'201201'!D53</f>
-        <v>19.166666666666668</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="8">
         <f>'201201'!C53</f>
-        <v>1</v>
-      </c>
-      <c r="I53" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
@@ -2814,210 +2788,210 @@
         <v>32</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="2"/>
-        <v>72.86424242424242</v>
+        <f t="shared" si="1"/>
+        <v>104.44424242424243</v>
       </c>
       <c r="D54" s="2">
-        <v>9.94</v>
+        <v>20.27</v>
       </c>
       <c r="E54" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="9">
         <f>'201201'!D54</f>
-        <v>35.075757575757578</v>
+        <v>109.82575757575758</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="8">
         <f>'201201'!C54</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" si="2"/>
-        <v>104.44424242424243</v>
+        <f t="shared" si="1"/>
+        <v>88.521111111111111</v>
       </c>
       <c r="D55" s="2">
-        <v>20.27</v>
+        <v>8.41</v>
       </c>
       <c r="E55" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F55" s="9">
         <f>'201201'!D55</f>
-        <v>109.82575757575758</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <f>'201201'!C55</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="24" t="s">
-        <v>158</v>
+      <c r="B56" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" si="2"/>
-        <v>8.41</v>
+        <f t="shared" si="1"/>
+        <v>40.786549707602333</v>
       </c>
       <c r="D56" s="2">
-        <v>8.41</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>100</v>
+      </c>
       <c r="F56" s="9">
         <f>'201201'!D56</f>
-        <v>0</v>
+        <v>56.213450292397667</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8">
         <f>'201201'!C56</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="C57" s="12">
-        <f t="shared" si="2"/>
-        <v>88.521111111111111</v>
+        <f t="shared" si="1"/>
+        <v>50.675438596491226</v>
       </c>
       <c r="D57" s="2">
-        <v>8.41</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F57" s="9">
         <f>'201201'!D57</f>
-        <v>18.888888888888889</v>
+        <v>37.324561403508774</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="8">
         <f>'201201'!C57</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
-        <v>34</v>
+      <c r="B58" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" si="2"/>
-        <v>40.786549707602333</v>
+        <f t="shared" si="1"/>
+        <v>45.77</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2">
-        <v>100</v>
-      </c>
+        <v>45.77</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="9">
         <f>'201201'!D58</f>
-        <v>56.213450292397667</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="8">
         <f>'201201'!C58</f>
-        <v>3</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
-      <c r="B59" s="24" t="s">
-        <v>160</v>
+      <c r="B59" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <f t="shared" si="1"/>
+        <v>42.757575757575751</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
       <c r="E59" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F59" s="9">
         <f>'201201'!D59</f>
-        <v>18.157894736842106</v>
+        <v>54.242424242424249</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="8">
         <f>'201201'!C59</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
-        <v>35</v>
+      <c r="B60" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="C60" s="12">
-        <f t="shared" si="2"/>
-        <v>50.675438596491226</v>
+        <f t="shared" si="1"/>
+        <v>9.8333333333333321</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F60" s="9">
         <f>'201201'!D60</f>
-        <v>37.324561403508774</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="8">
         <f>'201201'!C60</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
-      <c r="B61" s="24" t="s">
-        <v>165</v>
+      <c r="B61" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C61" s="12">
-        <f t="shared" si="2"/>
-        <v>0.8421052631578938</v>
+        <f t="shared" si="1"/>
+        <v>9.8333333333333321</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F61" s="9">
         <f>'201201'!D61</f>
-        <v>18.157894736842106</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="8">
@@ -3025,89 +2999,101 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
-      <c r="B62" s="23" t="s">
-        <v>164</v>
+      <c r="B62" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C62" s="12">
-        <f t="shared" si="2"/>
-        <v>45.77</v>
+        <f t="shared" si="1"/>
+        <v>39.777777777777771</v>
       </c>
       <c r="D62" s="2">
-        <v>45.77</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>100</v>
+      </c>
       <c r="F62" s="9">
         <f>'201201'!D62</f>
-        <v>0</v>
+        <v>57.222222222222229</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="8">
         <f>'201201'!C62</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
-      <c r="B63" s="24" t="s">
-        <v>159</v>
+      <c r="B63" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="C63" s="12">
-        <f t="shared" si="2"/>
-        <v>8.41</v>
+        <f t="shared" si="1"/>
+        <v>4.618686868686865</v>
       </c>
       <c r="D63" s="2">
-        <v>8.41</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>100</v>
+      </c>
       <c r="F63" s="9">
         <f>'201201'!D63</f>
-        <v>0</v>
+        <v>90.381313131313135</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="8">
         <f>'201201'!C63</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
-      <c r="B64" s="24" t="s">
-        <v>161</v>
+      <c r="B64" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C64" s="12">
-        <f t="shared" si="2"/>
-        <v>8.4600000000000009</v>
+        <f t="shared" si="1"/>
+        <v>62.924242424242422</v>
       </c>
       <c r="D64" s="2">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>100</v>
+      </c>
       <c r="F64" s="9">
         <f>'201201'!D64</f>
-        <v>0</v>
+        <v>35.075757575757578</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="8">
         <f>'201201'!C64</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="C65" s="12">
-        <f t="shared" si="2"/>
-        <v>42.757575757575751</v>
+        <f t="shared" si="1"/>
+        <v>80.111111111111114</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -3117,35 +3103,35 @@
       </c>
       <c r="F65" s="9">
         <f>'201201'!D65</f>
-        <v>54.242424242424249</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="8">
         <f>'201201'!C65</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
-      <c r="B66" s="21" t="s">
-        <v>162</v>
+      <c r="B66" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" si="2"/>
-        <v>9.8333333333333321</v>
+        <f t="shared" si="1"/>
+        <v>80.111111111111114</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F66" s="9">
         <f>'201201'!D66</f>
-        <v>19.166666666666668</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="8">
@@ -3153,260 +3139,158 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
-      <c r="B67" s="21" t="s">
-        <v>163</v>
+      <c r="B67" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C67" s="12">
-        <f t="shared" si="2"/>
-        <v>9.8333333333333321</v>
+        <f t="shared" si="1"/>
+        <v>91.861111111111114</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F67" s="9">
         <f>'201201'!D67</f>
-        <v>19.166666666666668</v>
+        <v>36.138888888888886</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="8">
         <f>'201201'!C67</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
-      <c r="B68" s="8" t="s">
-        <v>133</v>
+      <c r="B68" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" si="2"/>
-        <v>39.777777777777771</v>
+        <f t="shared" si="1"/>
+        <v>10.111111111111111</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
       </c>
       <c r="E68" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F68" s="9">
         <f>'201201'!D68</f>
-        <v>57.222222222222229</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8">
         <f>'201201'!C68</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="21" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C69" s="12">
-        <f t="shared" si="2"/>
-        <v>4.618686868686865</v>
+        <f t="shared" si="1"/>
+        <v>11.75</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
       </c>
       <c r="E69" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F69" s="9">
         <f>'201201'!D69</f>
-        <v>90.381313131313135</v>
+        <v>17.25</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8">
         <f>'201201'!C69</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="12">
-        <f t="shared" si="2"/>
-        <v>62.924242424242422</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2">
-        <v>100</v>
-      </c>
-      <c r="F70" s="9">
-        <f>'201201'!D70</f>
-        <v>35.075757575757578</v>
-      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="8">
-        <f>'201201'!C70</f>
-        <v>2</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="12">
-        <f t="shared" si="2"/>
-        <v>80.111111111111114</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2">
-        <v>100</v>
-      </c>
-      <c r="F71" s="9">
-        <f>'201201'!D71</f>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="8">
-        <f>'201201'!C71</f>
-        <v>1</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="12">
-        <f t="shared" si="2"/>
-        <v>80.111111111111114</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2">
-        <v>100</v>
-      </c>
-      <c r="F72" s="9">
-        <f>'201201'!D72</f>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="8">
-        <f>'201201'!C72</f>
-        <v>1</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C73" s="12">
-        <f t="shared" si="2"/>
-        <v>91.861111111111114</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2">
-        <v>130</v>
-      </c>
-      <c r="F73" s="9">
-        <f>'201201'!D73</f>
-        <v>36.138888888888886</v>
-      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="8">
-        <f>'201201'!C73</f>
-        <v>2</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
-      <c r="B74" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="12">
-        <f t="shared" si="2"/>
-        <v>10.111111111111111</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2">
-        <v>30</v>
-      </c>
-      <c r="F74" s="9">
-        <f>'201201'!D74</f>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="8">
-        <f>'201201'!C74</f>
-        <v>1</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
-      <c r="B75" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="12">
-        <f t="shared" si="2"/>
-        <v>11.75</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2">
-        <v>30</v>
-      </c>
-      <c r="F75" s="9">
-        <f>'201201'!D75</f>
-        <v>17.25</v>
-      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="8">
-        <f>'201201'!C75</f>
-        <v>1</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
@@ -3594,72 +3478,6 @@
       <c r="G92" s="1"/>
       <c r="H92" s="8"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3672,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
@@ -3686,28 +3504,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3721,19 +3539,19 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3751,7 +3569,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -3773,10 +3591,10 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -3798,10 +3616,10 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -3823,10 +3641,10 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -3848,10 +3666,10 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -3873,10 +3691,10 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
@@ -3898,10 +3716,10 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -3923,10 +3741,10 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -3948,10 +3766,10 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -3973,10 +3791,10 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -3998,10 +3816,10 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -4023,10 +3841,10 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
@@ -4048,10 +3866,10 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
@@ -4073,10 +3891,10 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -4098,10 +3916,10 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -4123,10 +3941,10 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
@@ -4148,10 +3966,10 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>8</v>
@@ -4173,10 +3991,10 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
@@ -4198,19 +4016,19 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -4225,10 +4043,10 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>8</v>
@@ -4250,10 +4068,10 @@
         <v>1448</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -4275,10 +4093,10 @@
         <v>1548</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
@@ -4300,10 +4118,10 @@
         <v>1648</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
@@ -4325,10 +4143,10 @@
         <v>1718</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -4350,10 +4168,10 @@
         <v>1818</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>8</v>
@@ -4375,10 +4193,10 @@
         <v>1918</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
@@ -4400,10 +4218,10 @@
         <v>2018</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>8</v>
@@ -4425,10 +4243,10 @@
         <v>2118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
@@ -4450,10 +4268,10 @@
         <v>2218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
@@ -4475,10 +4293,10 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>8</v>
@@ -4500,10 +4318,10 @@
         <v>1968</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>8</v>
@@ -4528,7 +4346,7 @@
         <v>23</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -4550,10 +4368,10 @@
         <v>2168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>8</v>
@@ -4575,10 +4393,10 @@
         <v>2268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
@@ -4600,10 +4418,10 @@
         <v>2368</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
@@ -4628,7 +4446,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
@@ -4650,10 +4468,10 @@
         <v>2568</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>8</v>
@@ -4675,11 +4493,11 @@
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
@@ -4687,7 +4505,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -4702,10 +4520,10 @@
         <v>2328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>8</v>
@@ -4730,7 +4548,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
@@ -4752,10 +4570,10 @@
         <v>2528</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>8</v>
@@ -4777,10 +4595,10 @@
         <v>2628</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>8</v>
@@ -4802,10 +4620,10 @@
         <v>2653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>8</v>
@@ -4827,10 +4645,10 @@
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>8</v>
@@ -4855,7 +4673,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>8</v>
@@ -4880,7 +4698,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>8</v>
@@ -4902,10 +4720,10 @@
         <v>2708</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>8</v>
@@ -4927,10 +4745,10 @@
         <v>2738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>8</v>
@@ -4952,10 +4770,10 @@
         <v>2838</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
@@ -4964,7 +4782,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -4979,10 +4797,10 @@
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
@@ -4991,7 +4809,7 @@
         <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -5009,7 +4827,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
@@ -5031,10 +4849,10 @@
         <v>2623</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>8</v>
@@ -5056,10 +4874,10 @@
         <v>2723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
@@ -5081,10 +4899,10 @@
         <v>2823</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>8</v>
@@ -5106,10 +4924,10 @@
         <v>2923</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>8</v>
@@ -5131,10 +4949,10 @@
         <v>3023</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>8</v>
@@ -5156,10 +4974,10 @@
         <v>3053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>8</v>
@@ -5181,11 +4999,11 @@
         <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>8</v>
       </c>
@@ -5193,7 +5011,7 @@
         <v>8</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -5208,10 +5026,10 @@
         <v>2833</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>8</v>
@@ -5233,10 +5051,10 @@
         <v>2933</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>8</v>
@@ -5258,10 +5076,10 @@
         <v>3033</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>8</v>
@@ -5283,10 +5101,10 @@
         <v>3063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>8</v>
@@ -5308,10 +5126,10 @@
         <v>3093</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>8</v>
@@ -5333,11 +5151,11 @@
         <v>2753</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>8</v>
       </c>
@@ -5345,7 +5163,7 @@
         <v>8</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -5360,10 +5178,10 @@
         <v>2853</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>8</v>
@@ -5385,10 +5203,10 @@
         <v>2953</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
@@ -5410,10 +5228,10 @@
         <v>3053</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>8</v>
@@ -5435,10 +5253,10 @@
         <v>3153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>8</v>
@@ -5460,10 +5278,10 @@
         <v>3183</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>8</v>
@@ -5485,10 +5303,10 @@
         <v>2838</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>8</v>
@@ -5510,10 +5328,10 @@
         <v>2938</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
@@ -5535,10 +5353,10 @@
         <v>2593</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>8</v>
@@ -5573,28 +5391,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5608,19 +5426,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5635,19 +5453,19 @@
         <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -5662,19 +5480,19 @@
         <v>760</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5946,10 +5764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5969,16 +5787,16 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -6013,7 +5831,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -6051,7 +5869,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -6089,7 +5907,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6137,103 +5955,103 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f t="shared" ref="E5:K5" si="3">COUNT(E9:E98)</f>
-        <v>19</v>
+        <f>COUNT(E9:E92)</f>
+        <v>17</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="3"/>
+        <f>COUNT(F9:F92)</f>
         <v>18</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="3"/>
+        <f>COUNT(G9:G92)</f>
         <v>18</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="3"/>
+        <f>COUNT(H9:H92)</f>
         <v>18</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="3"/>
+        <f>COUNT(I9:I92)</f>
         <v>18</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="3"/>
+        <f>COUNT(J9:J92)</f>
         <v>18</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" si="3"/>
+        <f>COUNT(K9:K92)</f>
         <v>22</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ref="L5:M5" si="4">COUNT(L9:L98)</f>
+        <f>COUNT(L9:L92)</f>
         <v>18</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="4"/>
+        <f>COUNT(M9:M92)</f>
         <v>20</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" ref="N5" si="5">COUNT(N9:N98)</f>
+        <f>COUNT(N9:N92)</f>
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:K6" si="6">SUM(C9:C98)</f>
-        <v>187</v>
+        <f>SUM(C9:C92)</f>
+        <v>185</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="6"/>
-        <v>3449.9999999999986</v>
+        <f>SUM(D9:D92)</f>
+        <v>3413.6842105263145</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="6"/>
-        <v>344.99999999999994</v>
+        <f>SUM(E9:E92)</f>
+        <v>308.68421052631578</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="6"/>
+        <f>SUM(F9:F92)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="6"/>
+        <f>SUM(G9:G92)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="6"/>
+        <f>SUM(H9:H92)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="6"/>
+        <f>SUM(I9:I92)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="6"/>
+        <f>SUM(J9:J92)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="6"/>
+        <f>SUM(K9:K92)</f>
         <v>350.00000000000011</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" ref="L6:M6" si="7">SUM(L9:L98)</f>
+        <f>SUM(L9:L92)</f>
         <v>340.00000000000011</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(M9:M92)</f>
         <v>345</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" ref="N6" si="8">SUM(N9:N98)</f>
+        <f>SUM(N9:N92)</f>
         <v>345.00000000000006</v>
       </c>
     </row>
@@ -6279,11 +6097,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="9">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="3">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="10">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="4">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -6310,11 +6128,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -6341,11 +6159,11 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E11" s="4">
@@ -6375,11 +6193,11 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>132.25</v>
       </c>
       <c r="E12" s="4"/>
@@ -6424,11 +6242,11 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>89.650318979266345</v>
       </c>
       <c r="E13" s="4">
@@ -6467,11 +6285,11 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -6498,11 +6316,11 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>73.409090909090907</v>
       </c>
       <c r="E15" s="4"/>
@@ -6538,11 +6356,11 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>111.796783625731</v>
       </c>
       <c r="E16" s="4">
@@ -6584,11 +6402,11 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E17" s="4">
@@ -6618,11 +6436,11 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>92.630116959064324</v>
       </c>
       <c r="E18" s="4">
@@ -6661,11 +6479,11 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>127.98365231259969</v>
       </c>
       <c r="E19" s="4">
@@ -6710,11 +6528,11 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>56.213450292397667</v>
       </c>
       <c r="E20" s="4">
@@ -6747,11 +6565,11 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>76.3888888888889</v>
       </c>
       <c r="E21" s="4"/>
@@ -6787,11 +6605,11 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>111.74242424242425</v>
       </c>
       <c r="E22" s="4"/>
@@ -6833,11 +6651,11 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -6861,11 +6679,11 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>92.575757575757578</v>
       </c>
       <c r="E24" s="4"/>
@@ -6904,11 +6722,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -6944,11 +6762,11 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>57.222222222222229</v>
       </c>
       <c r="E26" s="4"/>
@@ -6981,11 +6799,11 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>90.659090909090921</v>
       </c>
       <c r="E27" s="4"/>
@@ -7024,11 +6842,11 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>108.81698564593302</v>
       </c>
       <c r="E28" s="4">
@@ -7070,11 +6888,11 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E29" s="4">
@@ -7104,11 +6922,11 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>54.242424242424249</v>
       </c>
       <c r="E30" s="4"/>
@@ -7141,11 +6959,11 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -7172,11 +6990,11 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
@@ -7200,11 +7018,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -7231,11 +7049,11 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>34.066985645933016</v>
       </c>
       <c r="E34" s="7">
@@ -7265,11 +7083,11 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>109.82575757575758</v>
       </c>
       <c r="E35" s="4"/>
@@ -7311,11 +7129,11 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>130.63131313131314</v>
       </c>
       <c r="E36" s="4"/>
@@ -7360,11 +7178,11 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>74.75</v>
       </c>
       <c r="E37" s="4"/>
@@ -7400,11 +7218,11 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E38" s="4"/>
@@ -7434,11 +7252,11 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>93.916666666666671</v>
       </c>
       <c r="E39" s="4"/>
@@ -7477,11 +7295,11 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>95.555555555555557</v>
       </c>
       <c r="E40" s="4"/>
@@ -7520,11 +7338,11 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C75" si="11">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C69" si="5">COUNT(E41:ZZ41)</f>
         <v>3</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D75" si="12">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D69" si="6">SUM(E41:ZZ41)</f>
         <v>52.325757575757578</v>
       </c>
       <c r="E41" s="4"/>
@@ -7557,11 +7375,11 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="E42" s="4"/>
@@ -7594,11 +7412,11 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>74.472222222222229</v>
       </c>
       <c r="E43" s="4"/>
@@ -7634,11 +7452,11 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>55.305555555555557</v>
       </c>
       <c r="E44" s="4"/>
@@ -7671,11 +7489,11 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -7699,11 +7517,11 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -7723,24 +7541,30 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f>member!A47</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="8" t="str">
         <f>member!B47</f>
-        <v>行盛于言</v>
+        <v>刘晨</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="4"/>
+        <f t="shared" si="6"/>
+        <v>37.324561403508774</v>
+      </c>
+      <c r="E47" s="4">
+        <f>E4</f>
+        <v>18.157894736842106</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -7751,156 +7575,153 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>member!A48</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="8" t="str">
         <f>member!B48</f>
-        <v>刘晨</v>
+        <v>拂晓</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="12"/>
-        <v>37.324561403508774</v>
+        <f t="shared" si="6"/>
+        <v>89.650318979266345</v>
       </c>
       <c r="E48" s="4">
         <f>E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="18">
-        <f>H4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="G48" s="18">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="H48" s="18"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="J48" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="K48" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+      <c r="N48" s="18"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>member!A49</f>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B49" s="8" t="str">
         <f>member!B49</f>
-        <v>拂晓</v>
+        <v>R</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="12"/>
-        <v>89.650318979266345</v>
+        <f t="shared" si="6"/>
+        <v>148.78920786815524</v>
       </c>
       <c r="E49" s="4">
-        <f>E4</f>
+        <f t="shared" ref="E49:J49" si="7">E4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4">
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G49" s="18">
-        <f>G4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="2"/>
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="I49" s="18">
+        <f t="shared" si="7"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="J49" s="18">
-        <f>J4</f>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="K49" s="18">
-        <f>K4</f>
+        <f t="shared" ref="K49:L49" si="8">K4</f>
         <v>15.909090909090908</v>
       </c>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
+      <c r="L49" s="18">
+        <f t="shared" si="8"/>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="M49" s="18"/>
       <c r="N49" s="18"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="8" t="str">
         <f>member!B50</f>
-        <v>R</v>
+        <v>陈磊</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="12"/>
-        <v>148.78920786815524</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" ref="E50:J50" si="13">E4</f>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="F50" s="4">
-        <f t="shared" si="13"/>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="G50" s="18">
-        <f t="shared" si="13"/>
-        <v>19.166666666666668</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>52.325757575757578</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="18">
-        <f t="shared" si="13"/>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="I50" s="18">
-        <f t="shared" si="13"/>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="J50" s="18">
-        <f t="shared" si="13"/>
-        <v>19.166666666666668</v>
-      </c>
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="18">
-        <f t="shared" ref="K50:L50" si="14">K4</f>
+        <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-      <c r="L50" s="18">
-        <f t="shared" si="14"/>
-        <v>18.888888888888889</v>
-      </c>
-      <c r="M50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
       <c r="N50" s="18"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="8">
-        <f>member!A51</f>
-        <v>99</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>member!B51</f>
-        <v>陈磊</v>
+        <v>Shenghak</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="12"/>
-        <v>52.325757575757578</v>
+        <f t="shared" si="6"/>
+        <v>33.159090909090907</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="18">
-        <f>H4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="18">
@@ -7918,82 +7739,88 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>member!B52</f>
-        <v>Shenghak</v>
+        <v>张硕</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="12"/>
-        <v>33.159090909090907</v>
+        <f t="shared" si="6"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="7">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
-      <c r="N52" s="18"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
-        <v>张硕</v>
+        <v>孙伟</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="12"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="6"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="7">
-        <f>H4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="G53" s="18">
+        <f>G4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="H53" s="18"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="K53" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
-        <v>孙伟</v>
+        <v>小新</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="12"/>
-        <v>35.075757575757578</v>
+        <f t="shared" si="6"/>
+        <v>109.82575757575758</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G54" s="18">
         <f>G4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="H54" s="18"/>
+      <c r="H54" s="18">
+        <f>H4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="18">
@@ -8001,102 +7828,105 @@
         <v>15.909090909090908</v>
       </c>
       <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
+      <c r="M54" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+      <c r="N54" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
-        <v>小新</v>
+        <v>小严</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="12"/>
-        <v>109.82575757575758</v>
+        <f t="shared" si="6"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4">
-        <f>F4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="G55" s="18">
-        <f>G4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="H55" s="18">
-        <f>H4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
-      <c r="N55" s="18">
-        <f>N4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
-        <v>祈网见</v>
+        <v>懦夫</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+        <f t="shared" si="6"/>
+        <v>56.213450292397667</v>
+      </c>
+      <c r="E56" s="7">
+        <f>E4</f>
+        <v>18.157894736842106</v>
+      </c>
+      <c r="F56" s="4">
+        <f>F4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="L56" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
-        <v>小严</v>
+        <v>拉齐奥</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="12"/>
-        <v>18.888888888888889</v>
-      </c>
-      <c r="E57" s="4"/>
+        <f t="shared" si="6"/>
+        <v>37.324561403508774</v>
+      </c>
+      <c r="E57" s="4">
+        <f>E4</f>
+        <v>18.157894736842106</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="J57" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
     </row>
@@ -8104,33 +7934,24 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
-        <v>懦夫</v>
+        <v>狐狸</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="12"/>
-        <v>56.213450292397667</v>
-      </c>
-      <c r="E58" s="7">
-        <f>E4</f>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="F58" s="4">
-        <f>F4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
     </row>
@@ -8138,52 +7959,55 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
-        <v>徐老师</v>
+        <v>小岭</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="12"/>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="E59" s="4">
-        <f>E4</f>
-        <v>18.157894736842106</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>54.242424242424249</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18">
+        <f>I4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
-        <v>拉齐奥</v>
+        <v>孙硕</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="12"/>
-        <v>37.324561403508774</v>
-      </c>
-      <c r="E60" s="4">
-        <f>E4</f>
-        <v>18.157894736842106</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="18">
         <f>J4</f>
         <v>19.166666666666668</v>
@@ -8197,25 +8021,25 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
-        <v>冬瓜</v>
+        <v>R2</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="12"/>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="E61" s="4">
-        <f>E4</f>
-        <v>18.157894736842106</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -8225,65 +8049,89 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
-        <v>狐狸</v>
+        <v>刘俊峰</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>57.222222222222229</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="J62" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
+      <c r="L62" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
       <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
+      <c r="N62" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
-        <v>AC</v>
+        <v>人在旅途</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>90.381313131313135</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
+      <c r="J63" s="18">
+        <f>J4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="K63" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
+      <c r="L63" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="M63" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
+      <c r="N63" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>member!B64</f>
-        <v>天赐</v>
+        <v>狮子少爷</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35.075757575757578</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -8291,70 +8139,70 @@
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
+      <c r="K64" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
+      <c r="N64" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>member!B65</f>
-        <v>小岭</v>
+        <v>Edison</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="12"/>
-        <v>54.242424242424249</v>
+        <f t="shared" si="6"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18">
-        <f>I4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-      <c r="L65" s="18"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
       <c r="M65" s="18"/>
-      <c r="N65" s="18">
-        <f>N4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="N65" s="18"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>member!B66</f>
-        <v>孙硕</v>
+        <v>于博霏</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="12"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="6"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18">
-        <f>J4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
     </row>
@@ -8362,149 +8210,110 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>member!B67</f>
-        <v>R2</v>
+        <v>段晨</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="12"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="6"/>
+        <v>36.138888888888886</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18">
-        <f>J4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="M67" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
       <c r="N67" s="18"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>member!B68</f>
-        <v>刘俊峰</v>
+        <v>顾伟强</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="12"/>
-        <v>57.222222222222229</v>
+        <f t="shared" si="6"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18">
-        <f>J4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="K68" s="18"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="18">
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
       <c r="M68" s="18"/>
-      <c r="N68" s="18">
-        <f>N4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="N68" s="18"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>member!B69</f>
-        <v>人在旅途</v>
+        <v>小郝</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="12"/>
-        <v>90.381313131313135</v>
+        <f t="shared" si="6"/>
+        <v>17.25</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18">
-        <f>J4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="K69" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-      <c r="L69" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="18">
         <f>M4</f>
         <v>17.25</v>
       </c>
-      <c r="N69" s="18">
-        <f>N4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="N69" s="18"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="8" t="str">
-        <f>member!B70</f>
-        <v>狮子少爷</v>
-      </c>
-      <c r="C70" s="8">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D70" s="9">
-        <f t="shared" si="12"/>
-        <v>35.075757575757578</v>
-      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18">
-        <f>N4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="8" t="str">
-        <f>member!B71</f>
-        <v>Edison</v>
-      </c>
-      <c r="C71" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D71" s="9">
-        <f t="shared" si="12"/>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
@@ -8512,27 +8321,15 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
-      <c r="B72" s="8" t="str">
-        <f>member!B72</f>
-        <v>于博霏</v>
-      </c>
-      <c r="C72" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D72" s="9">
-        <f t="shared" si="12"/>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
@@ -8540,27 +8337,15 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
-      <c r="B73" s="8" t="str">
-        <f>member!B73</f>
-        <v>段晨</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="D73" s="9">
-        <f t="shared" si="12"/>
-        <v>36.138888888888886</v>
-      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="2"/>
@@ -8568,30 +8353,15 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
-      <c r="M73" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
-      <c r="N73" s="18"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
-      <c r="B74" s="8" t="str">
-        <f>member!B74</f>
-        <v>顾伟强</v>
-      </c>
-      <c r="C74" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D74" s="9">
-        <f t="shared" si="12"/>
-        <v>18.888888888888889</v>
-      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="2"/>
@@ -8599,27 +8369,15 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
-      <c r="B75" s="8" t="str">
-        <f>member!B75</f>
-        <v>小郝</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D75" s="9">
-        <f t="shared" si="12"/>
-        <v>17.25</v>
-      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="2"/>
@@ -8628,11 +8386,8 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
-      <c r="N75" s="18"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
@@ -8906,106 +8661,10 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-    </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A101" s="6"/>
-      <c r="B101" s="3" t="s">
-        <v>39</v>
+      <c r="A95" s="6"/>
+      <c r="B95" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="202">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>度日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>古轮木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小宋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +109,6 @@
   </si>
   <si>
     <t>拂晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,9 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100/120(120927)</t>
-  </si>
-  <si>
     <t>温涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,10 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20(120920),25/45(121016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100(121016)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,131 +598,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>暂离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/100(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),25/45(121016),100/145(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011),100/200(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101),30/60(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018),30(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
+-40/5780(121106调),390/6170(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古轮木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>m8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次多收5块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025),100/130(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,51 +823,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清道夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zigbeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿</t>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸凡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -998,6 +1028,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,25 +1356,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1360,7 +1393,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1373,7 +1406,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="8"/>
@@ -1386,7 +1419,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1399,7 +1432,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="8"/>
@@ -1412,7 +1445,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8"/>
@@ -1422,40 +1455,40 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
-        <f>SUM(C9:C92)</f>
-        <v>3106.7557894736851</v>
+        <f t="shared" ref="C8:H8" si="0">SUM(C9:C92)</f>
+        <v>3133.755789473686</v>
       </c>
       <c r="D8" s="8">
-        <f>SUM(D9:D92)</f>
+        <f t="shared" si="0"/>
         <v>925.43999999999994</v>
       </c>
       <c r="E8" s="8">
-        <f>SUM(E9:E92)</f>
-        <v>5780</v>
+        <f t="shared" si="0"/>
+        <v>6170</v>
       </c>
       <c r="F8" s="9">
-        <f>SUM(F9:F92)</f>
-        <v>3413.6842105263145</v>
+        <f t="shared" si="0"/>
+        <v>3758.6842105263136</v>
       </c>
       <c r="G8" s="8">
-        <f>SUM(G9:G92)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <f>SUM(H9:H92)</f>
-        <v>185</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>187</v>
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1466,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" ref="C9:C40" si="0">D9+E9+G9-F9-H9</f>
+        <f t="shared" ref="C9:C40" si="1">D9+E9+G9-F9-H9</f>
         <v>22.882105263157893</v>
       </c>
       <c r="D9" s="2">
@@ -1485,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1493,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.833333333333332</v>
       </c>
       <c r="D10" s="2">
@@ -1515,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1526,8 +1559,8 @@
         <v>3</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>80.675438596491233</v>
+        <f t="shared" si="1"/>
+        <v>60.508771929824562</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1537,15 +1570,15 @@
       </c>
       <c r="F11" s="9">
         <f>'201201'!D11</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="8">
         <f>'201201'!C11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1556,8 +1589,8 @@
         <v>4</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>58.170000000000016</v>
+        <f t="shared" si="1"/>
+        <v>38.003333333333359</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1567,27 +1600,27 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>132.25</v>
+        <v>151.41666666666666</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
+      <c r="B13" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>43.689681020733659</v>
+        <f t="shared" si="1"/>
+        <v>23.523014354066987</v>
       </c>
       <c r="D13" s="2">
         <v>18.34</v>
@@ -1597,15 +1630,15 @@
       </c>
       <c r="F13" s="9">
         <f>'201201'!D13</f>
-        <v>89.650318979266345</v>
+        <v>108.81698564593302</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8">
         <f>'201201'!C13</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1613,10 +1646,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9933333333333323</v>
       </c>
       <c r="D14" s="2">
@@ -1639,10 +1672,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.050909090909087</v>
       </c>
       <c r="D15" s="2">
@@ -1661,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1669,11 +1702,11 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>106.143216374269</v>
+        <f t="shared" si="1"/>
+        <v>85.976549707602345</v>
       </c>
       <c r="D16" s="2">
         <v>3.94</v>
@@ -1683,15 +1716,15 @@
       </c>
       <c r="F16" s="9">
         <f>'201201'!D16</f>
-        <v>111.796783625731</v>
+        <v>130.96345029239765</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <f>'201201'!C16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1699,11 +1732,11 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="0"/>
-        <v>183.03543859649125</v>
+        <f t="shared" si="1"/>
+        <v>162.86877192982456</v>
       </c>
       <c r="D17" s="2">
         <v>2.36</v>
@@ -1713,15 +1746,15 @@
       </c>
       <c r="F17" s="9">
         <f>'201201'!D17</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8">
         <f>'201201'!C17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1729,10 +1762,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.919883040935687</v>
       </c>
       <c r="D18" s="2">
@@ -1751,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1759,10 +1792,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.70634768740031</v>
       </c>
       <c r="D19" s="2">
@@ -1781,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1789,11 +1822,11 @@
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="0"/>
-        <v>73.096549707602335</v>
+        <f t="shared" si="1"/>
+        <v>52.929883040935664</v>
       </c>
       <c r="D20" s="2">
         <v>12.31</v>
@@ -1803,15 +1836,15 @@
       </c>
       <c r="F20" s="9">
         <f>'201201'!D20</f>
-        <v>56.213450292397667</v>
+        <v>75.380116959064338</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8">
         <f>'201201'!C20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1819,10 +1852,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119.6111111111111</v>
       </c>
       <c r="D21" s="2">
@@ -1841,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1849,10 +1882,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.74757575757576</v>
       </c>
       <c r="D22" s="2">
@@ -1871,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1879,10 +1912,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.19</v>
       </c>
       <c r="D23" s="2">
@@ -1904,11 +1937,11 @@
       <c r="A24" s="8">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>12</v>
+      <c r="B24" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.514242424242425</v>
       </c>
       <c r="D24" s="2">
@@ -1927,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1935,10 +1968,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.702105263157904</v>
       </c>
       <c r="D25" s="2">
@@ -1957,37 +1990,37 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>17</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>170</v>
+      <c r="B26" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" si="0"/>
-        <v>20.797777777777782</v>
+        <f t="shared" si="1"/>
+        <v>30.63111111111111</v>
       </c>
       <c r="D26" s="2">
         <v>51.02</v>
       </c>
       <c r="E26" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F26" s="9">
         <f>'201201'!D26</f>
-        <v>57.222222222222229</v>
+        <v>76.3888888888889</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8">
         <f>'201201'!C26</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1995,10 +2028,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.150909090909082</v>
       </c>
       <c r="D27" s="2">
@@ -2017,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2025,10 +2058,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.233014354066995</v>
       </c>
       <c r="D28" s="2">
@@ -2047,37 +2080,37 @@
         <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>20</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>150</v>
+      <c r="B29" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="0"/>
-        <v>5.675438596491226</v>
+        <f t="shared" si="1"/>
+        <v>85.508771929824562</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="F29" s="9">
         <f>'201201'!D29</f>
-        <v>37.324561403508774</v>
+        <v>56.491228070175438</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="8">
         <f>'201201'!C29</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2085,10 +2118,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.177575757575752</v>
       </c>
       <c r="D30" s="2">
@@ -2107,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2115,10 +2148,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.833333333333329</v>
       </c>
       <c r="D31" s="2">
@@ -2137,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2145,10 +2178,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.96</v>
       </c>
       <c r="D32" s="2">
@@ -2171,10 +2204,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.803333333333327</v>
       </c>
       <c r="D33" s="2">
@@ -2193,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2201,10 +2234,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.933014354066984</v>
       </c>
       <c r="D34" s="2">
@@ -2223,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2231,10 +2264,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.524242424242416</v>
       </c>
       <c r="D35" s="2">
@@ -2253,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2261,10 +2294,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.778686868686862</v>
       </c>
       <c r="D36" s="2">
@@ -2283,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2291,10 +2324,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.37</v>
       </c>
       <c r="D37" s="2">
@@ -2313,7 +2346,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2321,10 +2354,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.86424242424242</v>
       </c>
       <c r="D38" s="2">
@@ -2343,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2351,11 +2384,11 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C39" s="12">
-        <f t="shared" si="0"/>
-        <v>101.08333333333333</v>
+        <f t="shared" si="1"/>
+        <v>80.916666666666657</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -2365,15 +2398,15 @@
       </c>
       <c r="F39" s="9">
         <f>'201201'!D39</f>
-        <v>93.916666666666671</v>
+        <v>113.08333333333334</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <f>'201201'!C39</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2381,10 +2414,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C40" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.104444444444439</v>
       </c>
       <c r="D40" s="2">
@@ -2403,19 +2436,19 @@
         <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>33</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>21</v>
+      <c r="B41" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C69" si="1">D41+E41+G41-F41-H41</f>
-        <v>48.054242424242418</v>
+        <f t="shared" ref="C41:C71" si="2">D41+E41+G41-F41-H41</f>
+        <v>27.887575757575746</v>
       </c>
       <c r="D41" s="2">
         <v>3.38</v>
@@ -2425,27 +2458,27 @@
       </c>
       <c r="F41" s="9">
         <f>'201201'!D41</f>
-        <v>52.325757575757578</v>
+        <v>71.492424242424249</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
         <f>'201201'!C41</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>37</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>22</v>
+      <c r="B42" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="C42" s="12">
-        <f t="shared" si="1"/>
-        <v>44.2</v>
+        <f t="shared" si="2"/>
+        <v>24.033333333333331</v>
       </c>
       <c r="D42" s="2">
         <v>4.7</v>
@@ -2455,45 +2488,45 @@
       </c>
       <c r="F42" s="9">
         <f>'201201'!D42</f>
-        <v>57.5</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8">
         <f>'201201'!C42</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>45</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>182</v>
+      <c r="B43" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" si="1"/>
-        <v>21.527777777777771</v>
+        <f t="shared" si="2"/>
+        <v>101.3611111111111</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="9">
         <f>'201201'!D43</f>
-        <v>74.472222222222229</v>
+        <v>93.6388888888889</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8">
         <f>'201201'!C43</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2501,29 +2534,29 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C44" s="12">
-        <f t="shared" si="1"/>
-        <v>50.104444444444439</v>
+        <f t="shared" si="2"/>
+        <v>129.93777777777777</v>
       </c>
       <c r="D44" s="2">
         <v>8.41</v>
       </c>
       <c r="E44" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="9">
         <f>'201201'!D44</f>
-        <v>55.305555555555557</v>
+        <v>74.472222222222229</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="8">
         <f>'201201'!C44</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2531,10 +2564,10 @@
         <v>69</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
       <c r="D45" s="2">
@@ -2557,10 +2590,10 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5733333333333341</v>
       </c>
       <c r="D46" s="2">
@@ -2579,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2587,10 +2620,10 @@
         <v>87</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.675438596491233</v>
       </c>
       <c r="D47" s="2">
@@ -2609,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2617,10 +2650,10 @@
         <v>88</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.409681020733657</v>
       </c>
       <c r="D48" s="2">
@@ -2639,19 +2672,19 @@
         <v>5</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>97</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>27</v>
+      <c r="B49" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" si="1"/>
-        <v>33.210792131844755</v>
+        <f t="shared" si="2"/>
+        <v>13.044125465178098</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -2661,15 +2694,15 @@
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>148.78920786815524</v>
+        <v>167.9558745348219</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2677,10 +2710,10 @@
         <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.444242424242432</v>
       </c>
       <c r="D50" s="2">
@@ -2699,17 +2732,17 @@
         <v>3</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="1"/>
-        <v>93.610909090909104</v>
+        <f t="shared" si="2"/>
+        <v>73.444242424242432</v>
       </c>
       <c r="D51" s="2">
         <v>28.77</v>
@@ -2719,24 +2752,24 @@
       </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>33.159090909090907</v>
+        <v>52.325757575757578</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.193333333333332</v>
       </c>
       <c r="D52" s="2">
@@ -2757,10 +2790,10 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.86424242424242</v>
       </c>
       <c r="D53" s="2">
@@ -2779,16 +2812,16 @@
         <v>2</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104.44424242424243</v>
       </c>
       <c r="D54" s="2">
@@ -2807,16 +2840,16 @@
         <v>6</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.521111111111111</v>
       </c>
       <c r="D55" s="2">
@@ -2835,16 +2868,16 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.786549707602333</v>
       </c>
       <c r="D56" s="2">
@@ -2863,16 +2896,16 @@
         <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C57" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.675438596491226</v>
       </c>
       <c r="D57" s="2">
@@ -2891,16 +2924,16 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.77</v>
       </c>
       <c r="D58" s="2">
@@ -2921,10 +2954,10 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.757575757575751</v>
       </c>
       <c r="D59" s="2">
@@ -2943,16 +2976,16 @@
         <v>3</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C60" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8333333333333321</v>
       </c>
       <c r="D60" s="2">
@@ -2971,16 +3004,16 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C61" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8333333333333321</v>
       </c>
       <c r="D61" s="2">
@@ -2999,16 +3032,16 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C62" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.777777777777771</v>
       </c>
       <c r="D62" s="2">
@@ -3027,16 +3060,16 @@
         <v>3</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="21" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C63" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.618686868686865</v>
       </c>
       <c r="D63" s="2">
@@ -3055,16 +3088,16 @@
         <v>5</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C64" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62.924242424242422</v>
       </c>
       <c r="D64" s="2">
@@ -3083,17 +3116,17 @@
         <v>2</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C65" s="12">
-        <f t="shared" si="1"/>
-        <v>80.111111111111114</v>
+        <f t="shared" si="2"/>
+        <v>59.944444444444443</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -3103,24 +3136,24 @@
       </c>
       <c r="F65" s="9">
         <f>'201201'!D65</f>
-        <v>18.888888888888889</v>
+        <v>38.055555555555557</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="8">
         <f>'201201'!C65</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.111111111111114</v>
       </c>
       <c r="D66" s="2">
@@ -3139,16 +3172,16 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C67" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.861111111111114</v>
       </c>
       <c r="D67" s="2">
@@ -3167,16 +3200,16 @@
         <v>2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
-      <c r="B68" s="21" t="s">
-        <v>161</v>
+      <c r="B68" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.111111111111111</v>
       </c>
       <c r="D68" s="2">
@@ -3195,57 +3228,87 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="21" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C69" s="12">
-        <f t="shared" si="1"/>
-        <v>11.75</v>
+        <f t="shared" si="2"/>
+        <v>21.583333333333329</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
       </c>
       <c r="E69" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F69" s="9">
         <f>'201201'!D69</f>
-        <v>17.25</v>
+        <v>36.416666666666671</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8">
         <f>'201201'!C69</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="9"/>
+      <c r="B70" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="2"/>
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>30</v>
+      </c>
+      <c r="F70" s="9">
+        <f>'201201'!D70</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="8">
+        <f>'201201'!C70</f>
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="2"/>
+      <c r="B71" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="9"/>
+      <c r="F71" s="9">
+        <f>'201201'!D71</f>
+        <v>0</v>
+      </c>
       <c r="G71" s="1"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="8">
+        <f>'201201'!C71</f>
+        <v>0</v>
+      </c>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -3488,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3504,28 +3567,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3539,19 +3602,19 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3566,16 +3629,16 @@
         <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -3591,16 +3654,16 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -3616,16 +3679,16 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -3641,16 +3704,16 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -3666,16 +3729,16 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -3691,16 +3754,16 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3716,16 +3779,16 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -3741,16 +3804,16 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3766,16 +3829,16 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -3791,16 +3854,16 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -3816,16 +3879,16 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -3841,16 +3904,16 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -3866,16 +3929,16 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -3891,16 +3954,16 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3916,16 +3979,16 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -3941,16 +4004,16 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -3966,16 +4029,16 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -3991,16 +4054,16 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -4016,19 +4079,19 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -4043,16 +4106,16 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -4068,16 +4131,16 @@
         <v>1448</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -4093,16 +4156,16 @@
         <v>1548</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -4118,16 +4181,16 @@
         <v>1648</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -4143,16 +4206,16 @@
         <v>1718</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -4168,16 +4231,16 @@
         <v>1818</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -4193,16 +4256,16 @@
         <v>1918</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -4218,16 +4281,16 @@
         <v>2018</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -4243,16 +4306,16 @@
         <v>2118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -4268,16 +4331,16 @@
         <v>2218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -4293,16 +4356,16 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -4318,16 +4381,16 @@
         <v>1968</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="19"/>
     </row>
@@ -4343,16 +4406,16 @@
         <v>2068</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -4368,16 +4431,16 @@
         <v>2168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -4393,16 +4456,16 @@
         <v>2268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -4418,16 +4481,16 @@
         <v>2368</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -4443,16 +4506,16 @@
         <v>2468</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -4468,16 +4531,16 @@
         <v>2568</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="19"/>
     </row>
@@ -4493,19 +4556,19 @@
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -4520,16 +4583,16 @@
         <v>2328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -4545,16 +4608,16 @@
         <v>2428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -4570,16 +4633,16 @@
         <v>2528</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -4595,16 +4658,16 @@
         <v>2628</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -4620,16 +4683,16 @@
         <v>2653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="19"/>
     </row>
@@ -4645,16 +4708,16 @@
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -4670,16 +4733,16 @@
         <v>2508</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -4695,16 +4758,16 @@
         <v>2608</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -4720,16 +4783,16 @@
         <v>2708</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="1"/>
     </row>
@@ -4745,16 +4808,16 @@
         <v>2738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4770,19 +4833,19 @@
         <v>2838</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -4797,19 +4860,19 @@
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -4824,16 +4887,16 @@
         <v>2968</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="19"/>
     </row>
@@ -4849,16 +4912,16 @@
         <v>2623</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="1"/>
     </row>
@@ -4874,16 +4937,16 @@
         <v>2723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="1"/>
     </row>
@@ -4899,16 +4962,16 @@
         <v>2823</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56" s="1"/>
     </row>
@@ -4924,16 +4987,16 @@
         <v>2923</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="1"/>
     </row>
@@ -4949,16 +5012,16 @@
         <v>3023</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="1"/>
     </row>
@@ -4974,16 +5037,16 @@
         <v>3053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" s="19"/>
     </row>
@@ -4999,19 +5062,19 @@
         <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -5026,16 +5089,16 @@
         <v>2833</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="1"/>
     </row>
@@ -5051,16 +5114,16 @@
         <v>2933</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="1"/>
     </row>
@@ -5076,16 +5139,16 @@
         <v>3033</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63" s="1"/>
     </row>
@@ -5101,16 +5164,16 @@
         <v>3063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -5126,16 +5189,16 @@
         <v>3093</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="19"/>
     </row>
@@ -5151,19 +5214,19 @@
         <v>2753</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -5178,16 +5241,16 @@
         <v>2853</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="1"/>
     </row>
@@ -5203,16 +5266,16 @@
         <v>2953</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H68" s="1"/>
     </row>
@@ -5228,16 +5291,16 @@
         <v>3053</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="1"/>
     </row>
@@ -5253,16 +5316,16 @@
         <v>3153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70" s="1"/>
     </row>
@@ -5278,16 +5341,16 @@
         <v>3183</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" s="19"/>
     </row>
@@ -5303,16 +5366,16 @@
         <v>2838</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H72" s="1"/>
     </row>
@@ -5324,20 +5387,20 @@
         <v>100</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" ref="C73:C74" si="6">C72+B73</f>
+        <f t="shared" ref="C73:C79" si="6">C72+B73</f>
         <v>2938</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H73" s="19"/>
     </row>
@@ -5353,18 +5416,193 @@
         <v>2593</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B75" s="26">
+        <v>100</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" si="6"/>
+        <v>2693</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B76" s="26">
+        <v>100</v>
+      </c>
+      <c r="C76" s="8">
+        <f t="shared" si="6"/>
+        <v>2793</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B77" s="26">
+        <v>100</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" si="6"/>
+        <v>2893</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B78" s="26">
+        <v>30</v>
+      </c>
+      <c r="C78" s="8">
+        <f t="shared" si="6"/>
+        <v>2923</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B79" s="26">
+        <v>30</v>
+      </c>
+      <c r="C79" s="8">
+        <f t="shared" si="6"/>
+        <v>2953</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B80" s="26">
+        <v>30</v>
+      </c>
+      <c r="C80" s="8">
+        <f t="shared" ref="C80:C81" si="7">C79+B80</f>
+        <v>2983</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="19"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B81" s="26">
+        <v>-345</v>
+      </c>
+      <c r="C81" s="8">
+        <f t="shared" si="7"/>
+        <v>2638</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5378,7 +5616,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5391,28 +5629,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5426,19 +5664,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5453,19 +5691,19 @@
         <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -5480,19 +5718,19 @@
         <v>760</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -5764,10 +6002,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5782,21 +6020,21 @@
     <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
     <col min="10" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -5828,10 +6066,13 @@
       <c r="N1" s="16">
         <v>41219</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="16">
+        <v>41221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5866,10 +6107,13 @@
       <c r="N2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -5904,10 +6148,13 @@
       <c r="N3" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5952,110 +6199,122 @@
         <f t="shared" si="2"/>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4" s="9">
+        <f t="shared" ref="O4" si="3">O3/O2</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f>COUNT(E9:E92)</f>
+        <f t="shared" ref="E5:N5" si="4">COUNT(E9:E92)</f>
         <v>17</v>
       </c>
       <c r="F5" s="10">
-        <f>COUNT(F9:F92)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G5" s="10">
-        <f>COUNT(G9:G92)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="H5" s="10">
-        <f>COUNT(H9:H92)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I5" s="10">
-        <f>COUNT(I9:I92)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="J5" s="10">
-        <f>COUNT(J9:J92)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="K5" s="10">
-        <f>COUNT(K9:K92)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="L5" s="10">
-        <f>COUNT(L9:L92)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="M5" s="10">
-        <f>COUNT(M9:M92)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N5" s="10">
-        <f>COUNT(N9:N92)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5" s="10">
+        <f t="shared" ref="O5" si="5">COUNT(O9:O92)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
-        <f>SUM(C9:C92)</f>
-        <v>185</v>
+        <f t="shared" ref="C6:N6" si="6">SUM(C9:C92)</f>
+        <v>203</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(D9:D92)</f>
-        <v>3413.6842105263145</v>
+        <f t="shared" si="6"/>
+        <v>3758.6842105263136</v>
       </c>
       <c r="E6" s="9">
-        <f>SUM(E9:E92)</f>
+        <f t="shared" si="6"/>
         <v>308.68421052631578</v>
       </c>
       <c r="F6" s="9">
-        <f>SUM(F9:F92)</f>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f>SUM(G9:G92)</f>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(H9:H92)</f>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f>SUM(I9:I92)</f>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f>SUM(J9:J92)</f>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
       <c r="K6" s="9">
-        <f>SUM(K9:K92)</f>
+        <f t="shared" si="6"/>
         <v>350.00000000000011</v>
       </c>
       <c r="L6" s="9">
-        <f>SUM(L9:L92)</f>
+        <f t="shared" si="6"/>
         <v>340.00000000000011</v>
       </c>
       <c r="M6" s="9">
-        <f>SUM(M9:M92)</f>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="N6" s="9">
-        <f>SUM(N9:N92)</f>
+        <f t="shared" si="6"/>
         <v>345.00000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6" s="9">
+        <f t="shared" ref="O6" si="7">SUM(O9:O92)</f>
+        <v>345.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6070,8 +6329,9 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6086,8 +6346,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f>member!A9</f>
         <v>0</v>
@@ -6097,11 +6358,11 @@
         <v>家宁</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="3">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="8">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="4">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="9">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -6117,8 +6378,9 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f>member!A10</f>
         <v>1</v>
@@ -6128,11 +6390,11 @@
         <v>小白</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -6148,8 +6410,9 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f>member!A11</f>
         <v>2</v>
@@ -6159,12 +6422,12 @@
         <v>狼</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="4"/>
-        <v>37.324561403508774</v>
+        <f t="shared" si="9"/>
+        <v>56.491228070175438</v>
       </c>
       <c r="E11" s="4">
         <f>E4</f>
@@ -6182,8 +6445,12 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f>member!A12</f>
         <v>3</v>
@@ -6193,12 +6460,12 @@
         <v>西北</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="4"/>
-        <v>132.25</v>
+        <f t="shared" si="9"/>
+        <v>151.41666666666666</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -6231,8 +6498,12 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f>member!A13</f>
         <v>4</v>
@@ -6242,12 +6513,12 @@
         <v>度日</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="4"/>
-        <v>89.650318979266345</v>
+        <f t="shared" si="9"/>
+        <v>108.81698564593302</v>
       </c>
       <c r="E13" s="4">
         <f>E4</f>
@@ -6274,8 +6545,12 @@
         <v>17.25</v>
       </c>
       <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f>member!A14</f>
         <v>5</v>
@@ -6285,11 +6560,11 @@
         <v>李正</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -6305,8 +6580,9 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f>member!A15</f>
         <v>6</v>
@@ -6316,11 +6592,11 @@
         <v>小磊</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>73.409090909090907</v>
       </c>
       <c r="E15" s="4"/>
@@ -6345,8 +6621,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>member!A16</f>
         <v>7</v>
@@ -6356,12 +6633,12 @@
         <v>蚕豆</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="4"/>
-        <v>111.796783625731</v>
+        <f t="shared" si="9"/>
+        <v>130.96345029239765</v>
       </c>
       <c r="E16" s="4">
         <f>E4</f>
@@ -6391,8 +6668,12 @@
         <v>17.25</v>
       </c>
       <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f>member!A17</f>
         <v>8</v>
@@ -6402,12 +6683,12 @@
         <v>菜菜</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="4"/>
-        <v>37.324561403508774</v>
+        <f t="shared" si="9"/>
+        <v>56.491228070175438</v>
       </c>
       <c r="E17" s="4">
         <f>E4</f>
@@ -6425,8 +6706,12 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O17" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>member!A18</f>
         <v>9</v>
@@ -6436,11 +6721,11 @@
         <v>老A</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92.630116959064324</v>
       </c>
       <c r="E18" s="4">
@@ -6468,8 +6753,9 @@
         <v>17.25</v>
       </c>
       <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f>member!A19</f>
         <v>10</v>
@@ -6479,11 +6765,11 @@
         <v>幸福</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>127.98365231259969</v>
       </c>
       <c r="E19" s="4">
@@ -6517,8 +6803,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>member!A20</f>
         <v>11</v>
@@ -6528,12 +6815,12 @@
         <v>鲜明</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="4"/>
-        <v>56.213450292397667</v>
+        <f t="shared" si="9"/>
+        <v>75.380116959064338</v>
       </c>
       <c r="E20" s="4">
         <f>E4</f>
@@ -6554,8 +6841,12 @@
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O20" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f>member!A21</f>
         <v>12</v>
@@ -6565,11 +6856,11 @@
         <v>Zigbeer</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>76.3888888888889</v>
       </c>
       <c r="E21" s="4"/>
@@ -6594,8 +6885,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f>member!A22</f>
         <v>13</v>
@@ -6605,11 +6897,11 @@
         <v>侯盟</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>111.74242424242425</v>
       </c>
       <c r="E22" s="4"/>
@@ -6640,8 +6932,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f>member!A23</f>
         <v>14</v>
@@ -6651,11 +6944,11 @@
         <v>小贝</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -6668,8 +6961,9 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f>member!A24</f>
         <v>15</v>
@@ -6679,11 +6973,11 @@
         <v>古轮木</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92.575757575757578</v>
       </c>
       <c r="E24" s="4"/>
@@ -6711,8 +7005,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f>member!A25</f>
         <v>16</v>
@@ -6722,11 +7017,11 @@
         <v>虫子</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E25" s="4">
@@ -6751,8 +7046,9 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f>member!A26</f>
         <v>17</v>
@@ -6762,12 +7058,12 @@
         <v>4号</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="4"/>
-        <v>57.222222222222229</v>
+        <f t="shared" si="9"/>
+        <v>76.3888888888889</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -6788,8 +7084,12 @@
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O26" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f>member!A27</f>
         <v>18</v>
@@ -6799,11 +7099,11 @@
         <v>刀</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>90.659090909090921</v>
       </c>
       <c r="E27" s="4"/>
@@ -6831,8 +7131,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O27" s="18"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>member!A28</f>
         <v>19</v>
@@ -6842,11 +7143,11 @@
         <v>活了</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>108.81698564593302</v>
       </c>
       <c r="E28" s="4">
@@ -6877,8 +7178,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>member!A29</f>
         <v>20</v>
@@ -6888,12 +7190,12 @@
         <v>m8</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="4"/>
-        <v>37.324561403508774</v>
+        <f t="shared" si="9"/>
+        <v>56.491228070175438</v>
       </c>
       <c r="E29" s="4">
         <f>E4</f>
@@ -6911,8 +7213,12 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O29" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f>member!A30</f>
         <v>21</v>
@@ -6922,11 +7228,11 @@
         <v>贰壹</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>54.242424242424249</v>
       </c>
       <c r="E30" s="4"/>
@@ -6948,8 +7254,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f>member!A31</f>
         <v>22</v>
@@ -6959,11 +7266,11 @@
         <v>温涛</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -6979,8 +7286,9 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f>member!A32</f>
         <v>23</v>
@@ -6990,11 +7298,11 @@
         <v>Sam</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E32" s="4"/>
@@ -7007,8 +7315,9 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>member!A33</f>
         <v>24</v>
@@ -7018,11 +7327,11 @@
         <v>杨光</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E33" s="4"/>
@@ -7038,8 +7347,9 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f>member!A34</f>
         <v>25</v>
@@ -7049,11 +7359,11 @@
         <v>红星</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>34.066985645933016</v>
       </c>
       <c r="E34" s="7">
@@ -7072,8 +7382,9 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f>member!A35</f>
         <v>26</v>
@@ -7083,11 +7394,11 @@
         <v>方亚</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>109.82575757575758</v>
       </c>
       <c r="E35" s="4"/>
@@ -7118,8 +7429,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f>member!A36</f>
         <v>27</v>
@@ -7129,11 +7441,11 @@
         <v>戒影</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>130.63131313131314</v>
       </c>
       <c r="E36" s="4"/>
@@ -7167,8 +7479,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f>member!A37</f>
         <v>28</v>
@@ -7178,11 +7491,11 @@
         <v>尚峰</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>74.75</v>
       </c>
       <c r="E37" s="4"/>
@@ -7207,8 +7520,9 @@
         <v>17.25</v>
       </c>
       <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f>member!A38</f>
         <v>29</v>
@@ -7218,11 +7532,11 @@
         <v>狐狸涛</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E38" s="4"/>
@@ -7241,8 +7555,9 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f>member!A39</f>
         <v>30</v>
@@ -7252,12 +7567,12 @@
         <v>小天</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="4"/>
-        <v>93.916666666666671</v>
+        <f t="shared" si="9"/>
+        <v>113.08333333333334</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -7284,8 +7599,12 @@
         <v>17.25</v>
       </c>
       <c r="N39" s="18"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O39" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f>member!A40</f>
         <v>32</v>
@@ -7295,11 +7614,11 @@
         <v>清道夫</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.555555555555557</v>
       </c>
       <c r="E40" s="4"/>
@@ -7327,8 +7646,9 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f>member!A41</f>
         <v>33</v>
@@ -7338,12 +7658,12 @@
         <v>超</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C69" si="5">COUNT(E41:ZZ41)</f>
-        <v>3</v>
+        <f t="shared" ref="C41:C71" si="10">COUNT(E41:ZZ41)</f>
+        <v>4</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D69" si="6">SUM(E41:ZZ41)</f>
-        <v>52.325757575757578</v>
+        <f t="shared" ref="D41:D71" si="11">SUM(E41:ZZ41)</f>
+        <v>71.492424242424249</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -7364,8 +7684,12 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O41" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f>member!A42</f>
         <v>37</v>
@@ -7375,12 +7699,12 @@
         <v>Smile</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="6"/>
-        <v>57.5</v>
+        <f t="shared" si="11"/>
+        <v>76.666666666666671</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
@@ -7401,8 +7725,12 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O42" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f>member!A43</f>
         <v>45</v>
@@ -7412,12 +7740,12 @@
         <v>小宋</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="6"/>
-        <v>74.472222222222229</v>
+        <f t="shared" si="11"/>
+        <v>93.6388888888889</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -7441,8 +7769,12 @@
         <v>17.25</v>
       </c>
       <c r="N43" s="18"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O43" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>member!A44</f>
         <v>55</v>
@@ -7452,12 +7784,12 @@
         <v>赵聪</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="6"/>
-        <v>55.305555555555557</v>
+        <f t="shared" si="11"/>
+        <v>74.472222222222229</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -7478,8 +7810,12 @@
         <v>17.25</v>
       </c>
       <c r="N44" s="18"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O44" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f>member!A45</f>
         <v>69</v>
@@ -7489,11 +7825,11 @@
         <v>腿</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -7506,8 +7842,9 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f>member!A46</f>
         <v>77</v>
@@ -7517,11 +7854,11 @@
         <v>更心</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -7537,8 +7874,9 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O46" s="18"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f>member!A47</f>
         <v>87</v>
@@ -7548,11 +7886,11 @@
         <v>刘晨</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E47" s="4">
@@ -7571,8 +7909,9 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>member!A48</f>
         <v>88</v>
@@ -7582,11 +7921,11 @@
         <v>拂晓</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>89.650318979266345</v>
       </c>
       <c r="E48" s="4">
@@ -7614,8 +7953,9 @@
         <v>17.25</v>
       </c>
       <c r="N48" s="18"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>member!A49</f>
         <v>97</v>
@@ -7625,49 +7965,53 @@
         <v>R</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="6"/>
-        <v>148.78920786815524</v>
+        <f t="shared" si="11"/>
+        <v>167.9558745348219</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" ref="E49:J49" si="7">E4</f>
+        <f t="shared" ref="E49:J49" si="12">E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H49" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I49" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J49" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="K49" s="18">
-        <f t="shared" ref="K49:L49" si="8">K4</f>
+        <f t="shared" ref="K49:L49" si="13">K4</f>
         <v>15.909090909090908</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>18.888888888888889</v>
       </c>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O49" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
         <v>99</v>
@@ -7677,11 +8021,11 @@
         <v>陈磊</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>52.325757575757578</v>
       </c>
       <c r="E50" s="4"/>
@@ -7703,20 +8047,21 @@
         <v>17.25</v>
       </c>
       <c r="N50" s="18"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O50" s="18"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>member!B51</f>
         <v>Shenghak</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="6"/>
-        <v>33.159090909090907</v>
+        <f t="shared" si="11"/>
+        <v>52.325757575757578</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -7734,19 +8079,23 @@
         <v>17.25</v>
       </c>
       <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O51" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>member!B52</f>
         <v>张硕</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
@@ -7762,19 +8111,20 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
         <v>孙伟</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E53" s="4"/>
@@ -7793,19 +8143,20 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O53" s="18"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
         <v>小新</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>109.82575757575758</v>
       </c>
       <c r="E54" s="4"/>
@@ -7836,19 +8187,20 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O54" s="18"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
         <v>小严</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E55" s="4"/>
@@ -7864,19 +8216,20 @@
       </c>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O55" s="18"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
         <v>懦夫</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>56.213450292397667</v>
       </c>
       <c r="E56" s="7">
@@ -7898,19 +8251,20 @@
       </c>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O56" s="18"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
         <v>拉齐奥</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E57" s="4">
@@ -7929,19 +8283,20 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O57" s="18"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
         <v>狐狸</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
@@ -7954,19 +8309,20 @@
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O58" s="18"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
         <v>小岭</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>54.242424242424249</v>
       </c>
       <c r="E59" s="4"/>
@@ -7988,19 +8344,20 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O59" s="18"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
         <v>孙硕</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E60" s="4"/>
@@ -8016,19 +8373,20 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O60" s="18"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
         <v>R2</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E61" s="4"/>
@@ -8044,19 +8402,20 @@
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O61" s="18"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
         <v>刘俊峰</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>57.222222222222229</v>
       </c>
       <c r="E62" s="4"/>
@@ -8078,19 +8437,20 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O62" s="18"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
         <v>人在旅途</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>90.381313131313135</v>
       </c>
       <c r="E63" s="4"/>
@@ -8118,19 +8478,20 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O63" s="18"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>member!B64</f>
         <v>狮子少爷</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E64" s="4"/>
@@ -8149,20 +8510,21 @@
         <f>N4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O64" s="18"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>member!B65</f>
         <v>Edison</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="6"/>
-        <v>18.888888888888889</v>
+        <f t="shared" si="11"/>
+        <v>38.055555555555557</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -8177,19 +8539,23 @@
       </c>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O65" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>member!B66</f>
         <v>于博霏</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E66" s="4"/>
@@ -8205,19 +8571,20 @@
       </c>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O66" s="18"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>member!B67</f>
         <v>段晨</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>36.138888888888886</v>
       </c>
       <c r="E67" s="4"/>
@@ -8236,19 +8603,20 @@
         <v>17.25</v>
       </c>
       <c r="N67" s="18"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O67" s="18"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>member!B68</f>
         <v>顾伟强</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E68" s="4"/>
@@ -8264,20 +8632,21 @@
       </c>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O68" s="18"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>member!B69</f>
         <v>小郝</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="6"/>
-        <v>17.25</v>
+        <f t="shared" si="11"/>
+        <v>36.416666666666671</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -8292,12 +8661,25 @@
         <v>17.25</v>
       </c>
       <c r="N69" s="18"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O69" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
+      <c r="B70" s="8" t="str">
+        <f>member!B70</f>
+        <v>压岁钱</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="11"/>
+        <v>19.166666666666668</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="2"/>
@@ -8308,12 +8690,25 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O70" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="8" t="str">
+        <f>member!B71</f>
+        <v>逸凡</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
@@ -8324,8 +8719,9 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8340,8 +8736,9 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8356,8 +8753,9 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8372,8 +8770,9 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8388,8 +8787,9 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8404,8 +8804,9 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8420,8 +8821,9 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8436,8 +8838,9 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8452,8 +8855,9 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -8468,8 +8872,9 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -8484,8 +8889,9 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8500,8 +8906,9 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8516,8 +8923,9 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8532,8 +8940,9 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8548,8 +8957,9 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8564,8 +8974,9 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8580,8 +8991,9 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -8596,8 +9008,9 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -8612,8 +9025,9 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -8628,8 +9042,9 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -8644,8 +9059,9 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -8660,11 +9076,12 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O92" s="2"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="207">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
   </si>
   <si>
     <t>狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,22 +410,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20(120920),100/120(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100(121009)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20(120920),100/120(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵聪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,316 +514,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70拉齐奥,30孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70R,30R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenhak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割除了另外一箱水钱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一箱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/100(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),25/45(121016),100/145(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011),100/200(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101),30/60(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018),30(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古轮木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121018),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
+-40/5780(121106调),390/6170(121108),400/6570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>刘俊峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70拉齐奥,30孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70R,30R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shenhak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀割除了另外一箱水钱30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加一箱水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次多收5块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025),100/130(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清道夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人在旅途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zigbeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100/100(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压岁钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),25/45(121016),100/145(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121011),100/200(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121101),30/60(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121018),30(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
--40/5780(121106调),390/6170(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古轮木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小宋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压岁钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逸凡</t>
+    <t>幸福</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1356,25 +1376,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1393,7 +1413,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1406,7 +1426,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="8"/>
@@ -1419,7 +1439,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1432,7 +1452,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="8"/>
@@ -1445,7 +1465,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8"/>
@@ -1455,17 +1475,17 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C92)</f>
-        <v>3133.755789473686</v>
+        <v>3170.7557894736851</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1473,11 +1493,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>6170</v>
+        <v>6570</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>3758.6842105263136</v>
+        <v>4103.684210526314</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1485,10 +1505,10 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1518,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1526,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="1"/>
@@ -1548,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1578,19 +1598,19 @@
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
+      <c r="B12" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>38.003333333333359</v>
+        <v>17.836666666666702</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1600,15 +1620,15 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>151.41666666666666</v>
+        <v>170.58333333333331</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1616,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
@@ -1638,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1646,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
@@ -1671,30 +1691,30 @@
       <c r="A15" s="8">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>176</v>
+      <c r="B15" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
-        <v>28.050909090909087</v>
+        <v>107.88424242424243</v>
       </c>
       <c r="D15" s="2">
         <v>5.46</v>
       </c>
       <c r="E15" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="9">
         <f>'201201'!D15</f>
-        <v>73.409090909090907</v>
+        <v>92.575757575757578</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
         <f>'201201'!C15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1702,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
@@ -1724,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1732,11 +1752,11 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="1"/>
-        <v>162.86877192982456</v>
+        <v>142.7021052631579</v>
       </c>
       <c r="D17" s="2">
         <v>2.36</v>
@@ -1746,15 +1766,15 @@
       </c>
       <c r="F17" s="9">
         <f>'201201'!D17</f>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8">
         <f>'201201'!C17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1762,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="1"/>
@@ -1784,19 +1804,19 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
+      <c r="B19" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>33.70634768740031</v>
+        <v>13.539681020733639</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1806,15 +1826,15 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>127.98365231259969</v>
+        <v>147.15031897926636</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1822,7 +1842,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="1"/>
@@ -1844,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1852,11 +1872,11 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="1"/>
-        <v>119.6111111111111</v>
+        <v>99.444444444444429</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1866,45 +1886,45 @@
       </c>
       <c r="F21" s="9">
         <f>'201201'!D21</f>
-        <v>76.3888888888889</v>
+        <v>95.555555555555571</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8">
         <f>'201201'!C21</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>13</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>177</v>
+      <c r="B22" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>17.74757575757576</v>
+        <v>97.580909090909103</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
       </c>
       <c r="E22" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>111.74242424242425</v>
+        <v>130.90909090909091</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1912,7 +1932,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" si="1"/>
@@ -1937,12 +1957,12 @@
       <c r="A24" s="8">
         <v>15</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>193</v>
+      <c r="B24" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
-        <v>11.514242424242425</v>
+        <v>-8.6524242424242459</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
@@ -1952,15 +1972,15 @@
       </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>92.575757575757578</v>
+        <v>111.74242424242425</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1968,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
@@ -1990,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1998,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
@@ -2020,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2028,29 +2048,29 @@
         <v>18</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
-        <v>16.150909090909082</v>
+        <v>95.98424242424241</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
       </c>
       <c r="E27" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="9">
         <f>'201201'!D27</f>
-        <v>90.659090909090921</v>
+        <v>109.82575757575759</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <f>'201201'!C27</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2058,7 +2078,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
@@ -2080,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2088,11 +2108,11 @@
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="1"/>
-        <v>85.508771929824562</v>
+        <v>65.34210526315789</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -2102,15 +2122,15 @@
       </c>
       <c r="F29" s="9">
         <f>'201201'!D29</f>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="8">
         <f>'201201'!C29</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2118,11 +2138,11 @@
         <v>21</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>
-        <v>61.177575757575752</v>
+        <v>41.010909090909081</v>
       </c>
       <c r="D30" s="2">
         <v>18.420000000000002</v>
@@ -2132,15 +2152,15 @@
       </c>
       <c r="F30" s="9">
         <f>'201201'!D30</f>
-        <v>54.242424242424249</v>
+        <v>73.409090909090921</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8">
         <f>'201201'!C30</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2148,7 +2168,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
@@ -2170,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2178,7 +2198,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -2204,7 +2224,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="12">
         <f t="shared" si="1"/>
@@ -2226,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2234,7 +2254,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="12">
         <f t="shared" si="1"/>
@@ -2256,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2264,11 +2284,11 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
-        <v>74.524242424242416</v>
+        <v>54.357575757575745</v>
       </c>
       <c r="D35" s="2">
         <v>90.35</v>
@@ -2278,15 +2298,15 @@
       </c>
       <c r="F35" s="9">
         <f>'201201'!D35</f>
-        <v>109.82575757575758</v>
+        <v>128.99242424242425</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <f>'201201'!C35</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2294,11 +2314,11 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>70.778686868686862</v>
+        <v>50.612020202020204</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
@@ -2308,15 +2328,15 @@
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>130.63131313131314</v>
+        <v>149.79797979797979</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2324,7 +2344,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
@@ -2346,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2354,7 +2374,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
@@ -2376,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2384,11 +2404,11 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
-        <v>80.916666666666657</v>
+        <v>60.75</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -2398,15 +2418,15 @@
       </c>
       <c r="F39" s="9">
         <f>'201201'!D39</f>
-        <v>113.08333333333334</v>
+        <v>132.25</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <f>'201201'!C39</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2414,7 +2434,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
@@ -2436,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2444,11 +2464,11 @@
         <v>33</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C41" s="12">
         <f t="shared" ref="C41:C71" si="2">D41+E41+G41-F41-H41</f>
-        <v>27.887575757575746</v>
+        <v>7.7209090909090747</v>
       </c>
       <c r="D41" s="2">
         <v>3.38</v>
@@ -2458,15 +2478,15 @@
       </c>
       <c r="F41" s="9">
         <f>'201201'!D41</f>
-        <v>71.492424242424249</v>
+        <v>90.659090909090921</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
         <f>'201201'!C41</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2474,7 +2494,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
@@ -2496,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2504,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
@@ -2526,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2534,7 +2554,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
@@ -2556,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2564,7 +2584,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="2"/>
@@ -2590,7 +2610,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12">
         <f t="shared" si="2"/>
@@ -2612,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2620,7 +2640,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C47" s="12">
         <f t="shared" si="2"/>
@@ -2642,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2650,7 +2670,7 @@
         <v>88</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="12">
         <f t="shared" si="2"/>
@@ -2672,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2680,7 +2700,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
@@ -2702,7 +2722,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2710,7 +2730,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
@@ -2732,17 +2752,17 @@
         <v>3</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="12">
         <f t="shared" si="2"/>
-        <v>73.444242424242432</v>
+        <v>53.277575757575761</v>
       </c>
       <c r="D51" s="2">
         <v>28.77</v>
@@ -2752,21 +2772,21 @@
       </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>52.325757575757578</v>
+        <v>71.492424242424249</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
@@ -2790,11 +2810,11 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="2"/>
-        <v>72.86424242424242</v>
+        <v>52.697575757575748</v>
       </c>
       <c r="D53" s="2">
         <v>9.94</v>
@@ -2804,21 +2824,21 @@
       </c>
       <c r="F53" s="9">
         <f>'201201'!D53</f>
-        <v>35.075757575757578</v>
+        <v>54.242424242424249</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="8">
         <f>'201201'!C53</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="2"/>
@@ -2840,13 +2860,13 @@
         <v>6</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
@@ -2868,13 +2888,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
@@ -2896,13 +2916,13 @@
         <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="2"/>
@@ -2924,13 +2944,13 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="2"/>
@@ -2954,7 +2974,7 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="2"/>
@@ -2976,13 +2996,13 @@
         <v>3</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
@@ -3004,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
@@ -3032,17 +3052,17 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
-      <c r="B62" s="8" t="s">
-        <v>124</v>
+      <c r="B62" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="2"/>
-        <v>39.777777777777771</v>
+        <v>19.6111111111111</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -3052,49 +3072,49 @@
       </c>
       <c r="F62" s="9">
         <f>'201201'!D62</f>
-        <v>57.222222222222229</v>
+        <v>76.3888888888889</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="8">
         <f>'201201'!C62</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
-      <c r="B63" s="21" t="s">
-        <v>180</v>
+      <c r="B63" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="2"/>
-        <v>4.618686868686865</v>
+        <v>84.452020202020194</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
       </c>
       <c r="E63" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F63" s="9">
         <f>'201201'!D63</f>
-        <v>90.381313131313135</v>
+        <v>109.54797979797981</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="8">
         <f>'201201'!C63</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="2"/>
@@ -3116,13 +3136,13 @@
         <v>2</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
@@ -3144,13 +3164,13 @@
         <v>2</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="2"/>
@@ -3172,13 +3192,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
@@ -3200,13 +3220,13 @@
         <v>2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="2"/>
@@ -3228,13 +3248,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="2"/>
@@ -3256,13 +3276,13 @@
         <v>2</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
@@ -3284,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="2"/>
@@ -3551,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3567,28 +3587,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3602,19 +3622,19 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3629,16 +3649,16 @@
         <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -3654,16 +3674,16 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -3679,16 +3699,16 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -3704,16 +3724,16 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -3729,16 +3749,16 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -3754,16 +3774,16 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3779,16 +3799,16 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -3804,16 +3824,16 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3829,16 +3849,16 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -3854,16 +3874,16 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -3879,16 +3899,16 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -3904,16 +3924,16 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -3929,16 +3949,16 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -3954,16 +3974,16 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3979,16 +3999,16 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -4004,16 +4024,16 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -4029,16 +4049,16 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -4054,16 +4074,16 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -4079,19 +4099,19 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -4106,16 +4126,16 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -4131,16 +4151,16 @@
         <v>1448</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -4156,16 +4176,16 @@
         <v>1548</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -4181,16 +4201,16 @@
         <v>1648</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -4206,16 +4226,16 @@
         <v>1718</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -4231,16 +4251,16 @@
         <v>1818</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -4256,16 +4276,16 @@
         <v>1918</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -4281,16 +4301,16 @@
         <v>2018</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -4306,16 +4326,16 @@
         <v>2118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -4331,16 +4351,16 @@
         <v>2218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -4356,16 +4376,16 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -4381,16 +4401,16 @@
         <v>1968</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H33" s="19"/>
     </row>
@@ -4406,16 +4426,16 @@
         <v>2068</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -4431,16 +4451,16 @@
         <v>2168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -4456,16 +4476,16 @@
         <v>2268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -4481,16 +4501,16 @@
         <v>2368</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -4506,16 +4526,16 @@
         <v>2468</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -4531,16 +4551,16 @@
         <v>2568</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" s="19"/>
     </row>
@@ -4556,19 +4576,19 @@
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -4583,16 +4603,16 @@
         <v>2328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -4608,16 +4628,16 @@
         <v>2428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -4633,16 +4653,16 @@
         <v>2528</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -4658,16 +4678,16 @@
         <v>2628</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -4683,16 +4703,16 @@
         <v>2653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H45" s="19"/>
     </row>
@@ -4708,16 +4728,16 @@
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -4733,16 +4753,16 @@
         <v>2508</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -4758,16 +4778,16 @@
         <v>2608</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -4783,16 +4803,16 @@
         <v>2708</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H49" s="1"/>
     </row>
@@ -4808,16 +4828,16 @@
         <v>2738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4833,19 +4853,19 @@
         <v>2838</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -4860,19 +4880,19 @@
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -4887,16 +4907,16 @@
         <v>2968</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H53" s="19"/>
     </row>
@@ -4912,16 +4932,16 @@
         <v>2623</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H54" s="1"/>
     </row>
@@ -4937,16 +4957,16 @@
         <v>2723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H55" s="1"/>
     </row>
@@ -4962,16 +4982,16 @@
         <v>2823</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H56" s="1"/>
     </row>
@@ -4987,16 +5007,16 @@
         <v>2923</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" s="1"/>
     </row>
@@ -5012,16 +5032,16 @@
         <v>3023</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H58" s="1"/>
     </row>
@@ -5037,16 +5057,16 @@
         <v>3053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H59" s="19"/>
     </row>
@@ -5062,19 +5082,19 @@
         <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -5089,16 +5109,16 @@
         <v>2833</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H61" s="1"/>
     </row>
@@ -5114,16 +5134,16 @@
         <v>2933</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H62" s="1"/>
     </row>
@@ -5139,16 +5159,16 @@
         <v>3033</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H63" s="1"/>
     </row>
@@ -5164,16 +5184,16 @@
         <v>3063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -5189,16 +5209,16 @@
         <v>3093</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65" s="19"/>
     </row>
@@ -5214,19 +5234,19 @@
         <v>2753</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -5241,16 +5261,16 @@
         <v>2853</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H67" s="1"/>
     </row>
@@ -5266,16 +5286,16 @@
         <v>2953</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H68" s="1"/>
     </row>
@@ -5291,16 +5311,16 @@
         <v>3053</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H69" s="1"/>
     </row>
@@ -5316,16 +5336,16 @@
         <v>3153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H70" s="1"/>
     </row>
@@ -5341,16 +5361,16 @@
         <v>3183</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H71" s="19"/>
     </row>
@@ -5366,16 +5386,16 @@
         <v>2838</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H72" s="1"/>
     </row>
@@ -5391,16 +5411,16 @@
         <v>2938</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H73" s="19"/>
     </row>
@@ -5416,16 +5436,16 @@
         <v>2593</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" s="1"/>
     </row>
@@ -5441,16 +5461,16 @@
         <v>2693</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H75" s="1"/>
     </row>
@@ -5466,16 +5486,16 @@
         <v>2793</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H76" s="1"/>
     </row>
@@ -5491,16 +5511,16 @@
         <v>2893</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H77" s="1"/>
     </row>
@@ -5516,16 +5536,16 @@
         <v>2923</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H78" s="1"/>
     </row>
@@ -5541,16 +5561,16 @@
         <v>2953</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H79" s="19"/>
     </row>
@@ -5562,20 +5582,20 @@
         <v>30</v>
       </c>
       <c r="C80" s="8">
-        <f t="shared" ref="C80:C81" si="7">C79+B80</f>
+        <f t="shared" ref="C80:C86" si="7">C79+B80</f>
         <v>2983</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H80" s="19"/>
     </row>
@@ -5591,18 +5611,143 @@
         <v>2638</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="20">
+        <v>41226</v>
+      </c>
+      <c r="B82" s="26">
+        <v>100</v>
+      </c>
+      <c r="C82" s="8">
+        <f t="shared" si="7"/>
+        <v>2738</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="20">
+        <v>41226</v>
+      </c>
+      <c r="B83" s="26">
+        <v>100</v>
+      </c>
+      <c r="C83" s="8">
+        <f t="shared" si="7"/>
+        <v>2838</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="20">
+        <v>41226</v>
+      </c>
+      <c r="B84" s="26">
+        <v>100</v>
+      </c>
+      <c r="C84" s="8">
+        <f t="shared" si="7"/>
+        <v>2938</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="20">
+        <v>41226</v>
+      </c>
+      <c r="B85" s="26">
+        <v>100</v>
+      </c>
+      <c r="C85" s="8">
+        <f t="shared" si="7"/>
+        <v>3038</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="19"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="20">
+        <v>41226</v>
+      </c>
+      <c r="B86" s="26">
+        <v>-345</v>
+      </c>
+      <c r="C86" s="8">
+        <f t="shared" si="7"/>
+        <v>2693</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5629,28 +5774,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5664,19 +5809,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5691,19 +5836,19 @@
         <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -5718,19 +5863,19 @@
         <v>760</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6002,39 +6147,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
-    <col min="10" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -6069,10 +6217,13 @@
       <c r="O1" s="16">
         <v>41221</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P1" s="16">
+        <v>41226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -6110,10 +6261,13 @@
       <c r="O2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -6151,10 +6305,13 @@
       <c r="O3" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P3" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6200,13 +6357,17 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4" si="3">O3/O2</f>
-        <v>19.166666666666668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" ref="O4:P4" si="3">O3/O2</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="3"/>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6252,22 +6413,26 @@
         <v>18</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" ref="O5" si="5">COUNT(O9:O92)</f>
+        <f t="shared" ref="O5:P5" si="5">COUNT(O9:O92)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5" s="10">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10">
         <f t="shared" ref="C6:N6" si="6">SUM(C9:C92)</f>
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="6"/>
-        <v>3758.6842105263136</v>
+        <v>4103.684210526314</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="6"/>
@@ -6310,11 +6475,15 @@
         <v>345.00000000000006</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6" si="7">SUM(O9:O92)</f>
+        <f t="shared" ref="O6:P6" si="7">SUM(O9:O92)</f>
         <v>345.00000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6" s="9">
+        <f t="shared" si="7"/>
+        <v>345.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6330,8 +6499,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6347,8 +6517,9 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f>member!A9</f>
         <v>0</v>
@@ -6379,8 +6550,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f>member!A10</f>
         <v>1</v>
@@ -6411,8 +6583,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f>member!A11</f>
         <v>2</v>
@@ -6449,8 +6622,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f>member!A12</f>
         <v>3</v>
@@ -6461,11 +6635,11 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="9"/>
-        <v>151.41666666666666</v>
+        <v>170.58333333333331</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -6502,8 +6676,12 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f>member!A13</f>
         <v>4</v>
@@ -6549,8 +6727,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f>member!A14</f>
         <v>5</v>
@@ -6581,8 +6760,9 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f>member!A15</f>
         <v>6</v>
@@ -6593,11 +6773,11 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="9"/>
-        <v>73.409090909090907</v>
+        <v>92.575757575757578</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -6622,8 +6802,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P15" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>member!A16</f>
         <v>7</v>
@@ -6672,8 +6856,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f>member!A17</f>
         <v>8</v>
@@ -6684,11 +6869,11 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="9"/>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="E17" s="4">
         <f>E4</f>
@@ -6710,8 +6895,12 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f>member!A18</f>
         <v>9</v>
@@ -6754,8 +6943,9 @@
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f>member!A19</f>
         <v>10</v>
@@ -6766,11 +6956,11 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="9"/>
-        <v>127.98365231259969</v>
+        <v>147.15031897926636</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
@@ -6804,8 +6994,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P19" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>member!A20</f>
         <v>11</v>
@@ -6845,8 +7039,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f>member!A21</f>
         <v>12</v>
@@ -6857,11 +7052,11 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="9"/>
-        <v>76.3888888888889</v>
+        <v>95.555555555555571</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -6886,8 +7081,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O21" s="18"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f>member!A22</f>
         <v>13</v>
@@ -6898,11 +7097,11 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="9"/>
-        <v>111.74242424242425</v>
+        <v>130.90909090909091</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
@@ -6933,8 +7132,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f>member!A23</f>
         <v>14</v>
@@ -6962,8 +7165,9 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f>member!A24</f>
         <v>15</v>
@@ -6974,11 +7178,11 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="9"/>
-        <v>92.575757575757578</v>
+        <v>111.74242424242425</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -7006,8 +7210,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O24" s="18"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f>member!A25</f>
         <v>16</v>
@@ -7047,8 +7255,9 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f>member!A26</f>
         <v>17</v>
@@ -7088,8 +7297,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f>member!A27</f>
         <v>18</v>
@@ -7100,11 +7310,11 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="9"/>
-        <v>90.659090909090921</v>
+        <v>109.82575757575759</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -7132,8 +7342,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O27" s="18"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>member!A28</f>
         <v>19</v>
@@ -7179,8 +7393,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O28" s="18"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P28" s="18"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>member!A29</f>
         <v>20</v>
@@ -7191,11 +7406,11 @@
       </c>
       <c r="C29" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="9"/>
-        <v>56.491228070175438</v>
+        <v>75.65789473684211</v>
       </c>
       <c r="E29" s="4">
         <f>E4</f>
@@ -7217,8 +7432,12 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P29" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f>member!A30</f>
         <v>21</v>
@@ -7229,11 +7448,11 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="9"/>
-        <v>54.242424242424249</v>
+        <v>73.409090909090921</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -7255,8 +7474,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O30" s="18"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f>member!A31</f>
         <v>22</v>
@@ -7287,8 +7510,9 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P31" s="18"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f>member!A32</f>
         <v>23</v>
@@ -7316,8 +7540,9 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>member!A33</f>
         <v>24</v>
@@ -7348,8 +7573,9 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f>member!A34</f>
         <v>25</v>
@@ -7383,8 +7609,9 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34" s="18"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f>member!A35</f>
         <v>26</v>
@@ -7395,11 +7622,11 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" si="9"/>
-        <v>109.82575757575758</v>
+        <v>128.99242424242425</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
@@ -7430,8 +7657,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f>member!A36</f>
         <v>27</v>
@@ -7442,11 +7673,11 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="9"/>
-        <v>130.63131313131314</v>
+        <v>149.79797979797979</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
@@ -7480,8 +7711,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O36" s="18"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f>member!A37</f>
         <v>28</v>
@@ -7521,8 +7756,9 @@
       </c>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f>member!A38</f>
         <v>29</v>
@@ -7556,8 +7792,9 @@
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f>member!A39</f>
         <v>30</v>
@@ -7568,11 +7805,11 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="9">
         <f t="shared" si="9"/>
-        <v>113.08333333333334</v>
+        <v>132.25</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -7603,8 +7840,12 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P39" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f>member!A40</f>
         <v>32</v>
@@ -7647,8 +7888,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O40" s="18"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P40" s="18"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f>member!A41</f>
         <v>33</v>
@@ -7659,11 +7901,11 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" ref="C41:C71" si="10">COUNT(E41:ZZ41)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ref="D41:D71" si="11">SUM(E41:ZZ41)</f>
-        <v>71.492424242424249</v>
+        <v>90.659090909090921</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -7688,8 +7930,12 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P41" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f>member!A42</f>
         <v>37</v>
@@ -7729,8 +7975,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P42" s="18"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f>member!A43</f>
         <v>45</v>
@@ -7773,8 +8020,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P43" s="18"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>member!A44</f>
         <v>55</v>
@@ -7814,8 +8062,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P44" s="18"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f>member!A45</f>
         <v>69</v>
@@ -7843,8 +8092,9 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f>member!A46</f>
         <v>77</v>
@@ -7875,8 +8125,9 @@
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f>member!A47</f>
         <v>87</v>
@@ -7910,8 +8161,9 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>member!A48</f>
         <v>88</v>
@@ -7954,8 +8206,9 @@
       </c>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>member!A49</f>
         <v>97</v>
@@ -8010,8 +8263,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P49" s="18"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f>member!A50</f>
         <v>99</v>
@@ -8048,8 +8302,9 @@
       </c>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P50" s="18"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>member!B51</f>
@@ -8057,11 +8312,11 @@
       </c>
       <c r="C51" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="11"/>
-        <v>52.325757575757578</v>
+        <v>71.492424242424249</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -8083,8 +8338,12 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P51" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>member!B52</f>
@@ -8112,8 +8371,9 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>member!B53</f>
@@ -8121,11 +8381,11 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" si="11"/>
-        <v>35.075757575757578</v>
+        <v>54.242424242424249</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -8144,8 +8404,12 @@
       <c r="M53" s="18"/>
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P53" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>member!B54</f>
@@ -8188,8 +8452,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O54" s="18"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P54" s="18"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>member!B55</f>
@@ -8217,8 +8482,9 @@
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P55" s="18"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>member!B56</f>
@@ -8252,8 +8518,9 @@
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P56" s="18"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>member!B57</f>
@@ -8284,8 +8551,9 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P57" s="18"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>member!B58</f>
@@ -8310,8 +8578,9 @@
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P58" s="18"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>member!B59</f>
@@ -8345,8 +8614,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O59" s="18"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P59" s="18"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>member!B60</f>
@@ -8374,8 +8644,9 @@
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P60" s="18"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>member!B61</f>
@@ -8403,8 +8674,9 @@
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
       <c r="O61" s="18"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P61" s="18"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>member!B62</f>
@@ -8412,11 +8684,11 @@
       </c>
       <c r="C62" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" si="11"/>
-        <v>57.222222222222229</v>
+        <v>76.3888888888889</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -8438,8 +8710,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O62" s="18"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P62" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>member!B63</f>
@@ -8447,11 +8723,11 @@
       </c>
       <c r="C63" s="8">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" si="11"/>
-        <v>90.381313131313135</v>
+        <v>109.54797979797981</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -8479,8 +8755,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O63" s="18"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P63" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>member!B64</f>
@@ -8511,8 +8791,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="O64" s="18"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P64" s="18"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>member!B65</f>
@@ -8543,8 +8824,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P65" s="18"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>member!B66</f>
@@ -8572,8 +8854,9 @@
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P66" s="18"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>member!B67</f>
@@ -8604,8 +8887,9 @@
       </c>
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P67" s="18"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>member!B68</f>
@@ -8633,8 +8917,9 @@
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P68" s="18"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>member!B69</f>
@@ -8665,8 +8950,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P69" s="18"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>member!B70</f>
@@ -8694,8 +8980,9 @@
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P70" s="18"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>member!B71</f>
@@ -8720,8 +9007,9 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8737,8 +9025,9 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8754,8 +9043,9 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8771,8 +9061,9 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8788,8 +9079,9 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8805,8 +9097,9 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8822,8 +9115,9 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8839,8 +9133,9 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8856,8 +9151,9 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -8873,8 +9169,9 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -8890,8 +9187,9 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8907,8 +9205,9 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8924,8 +9223,9 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8941,8 +9241,9 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8958,8 +9259,9 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8975,8 +9277,9 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8992,8 +9295,9 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -9009,8 +9313,9 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -9026,8 +9331,9 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -9043,8 +9349,9 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -9060,8 +9367,9 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -9077,11 +9385,12 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P92" s="2"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="215">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,10 @@
   </si>
   <si>
     <t>懦夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正球衣不要,暂时充公</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3617,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5970,6 +5974,33 @@
       </c>
       <c r="H93" s="1" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="17">
+        <v>41232</v>
+      </c>
+      <c r="B94" s="26">
+        <v>-65</v>
+      </c>
+      <c r="C94" s="8">
+        <f t="shared" ref="C94" si="10">C93+B94</f>
+        <v>2573</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="220">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>小贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,18 +259,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20(120920),100/120(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>100(120927)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20(120920),100/120(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虫子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40(120927),100/140(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20(120920),100/120(121009)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,436 +443,468 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小岭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100(121016)</t>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),200/220(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),70/90(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70拉齐奥,30孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70R,30R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenhak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割除了另外一箱水钱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一箱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/100(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),25/45(121016),100/145(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011),100/200(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121018),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120922),100/220(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101),30/60(121108),100/160(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公款支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温涛骨折,买点水果看望一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018),30/60(121108),30/90(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懦夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正球衣不要,暂时充公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40(120927),100/140(121009),100/240(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120927),100/220(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023),100/200(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009),79/199(121018),100/299(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
+-40/5780(121106调),390/6170(121108),500/6670(121113),260/6930(121115),500/7430(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古轮木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘俊峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),200/220(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),70/90(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70拉齐奥,30孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70R,30R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shenhak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀割除了另外一箱水钱30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加一箱水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次多收5块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025),100/130(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zigbeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100/100(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压岁钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),25/45(121016),100/145(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121011),100/200(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古轮木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小宋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压岁钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逸凡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121018),100/200(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘俊峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(120922),100/220(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清道夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121101),30/60(121108),100/160(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121009),79/199(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公款支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温涛骨折,买点水果看望一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121018),30/60(121108),30/90(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
--40/5780(121106调),390/6170(121108),500/6670(121113),260/6930(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懦夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李正球衣不要,暂时充公</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1387,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,25 +1429,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1446,7 +1466,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1459,7 +1479,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="8"/>
@@ -1472,7 +1492,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1485,7 +1505,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="8"/>
@@ -1498,7 +1518,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8"/>
@@ -1508,17 +1528,17 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C92)</f>
-        <v>3166.755789473686</v>
+        <v>3327.7557894736865</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1526,11 +1546,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>6930</v>
+        <v>7430</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>4448.6842105263158</v>
+        <v>4768.6842105263158</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1538,10 +1558,10 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1571,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1579,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="1"/>
@@ -1601,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1631,67 +1651,67 @@
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>191</v>
+      <c r="B12" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
-        <v>17.836666666666702</v>
+        <v>99.994561403508811</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
       </c>
       <c r="E12" s="2">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>170.58333333333331</v>
+        <v>187.4254385964912</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>177</v>
+      <c r="B13" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
-        <v>23.523014354066987</v>
+        <v>105.6809090909091</v>
       </c>
       <c r="D13" s="2">
         <v>18.34</v>
       </c>
       <c r="E13" s="2">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="F13" s="9">
         <f>'201201'!D13</f>
-        <v>108.81698564593302</v>
+        <v>125.65909090909091</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8">
         <f>'201201'!C13</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1699,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
@@ -1725,11 +1745,11 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
-        <v>107.88424242424243</v>
+        <v>90.04213716108454</v>
       </c>
       <c r="D15" s="2">
         <v>5.46</v>
@@ -1739,15 +1759,15 @@
       </c>
       <c r="F15" s="9">
         <f>'201201'!D15</f>
-        <v>92.575757575757578</v>
+        <v>109.41786283891547</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
         <f>'201201'!C15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1755,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
@@ -1777,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1789,7 +1809,7 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="1"/>
-        <v>123.54421052631579</v>
+        <v>105.7021052631579</v>
       </c>
       <c r="D17" s="2">
         <v>2.36</v>
@@ -1799,15 +1819,15 @@
       </c>
       <c r="F17" s="9">
         <f>'201201'!D17</f>
-        <v>93.81578947368422</v>
+        <v>110.65789473684211</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8">
         <f>'201201'!C17</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1837,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1845,11 +1865,11 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
-        <v>94.381786283891529</v>
+        <v>76.539681020733639</v>
       </c>
       <c r="D19" s="2">
         <v>48.69</v>
@@ -1859,15 +1879,15 @@
       </c>
       <c r="F19" s="9">
         <f>'201201'!D19</f>
-        <v>165.30821371610847</v>
+        <v>182.15031897926636</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <f>'201201'!C19</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1897,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1909,7 +1929,7 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" si="1"/>
-        <v>99.444444444444429</v>
+        <v>81.602339181286538</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1919,15 +1939,15 @@
       </c>
       <c r="F21" s="9">
         <f>'201201'!D21</f>
-        <v>95.555555555555571</v>
+        <v>112.39766081871346</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8">
         <f>'201201'!C21</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1935,11 +1955,11 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
-        <v>97.580909090909103</v>
+        <v>79.738803827751212</v>
       </c>
       <c r="D22" s="2">
         <v>35.49</v>
@@ -1949,15 +1969,15 @@
       </c>
       <c r="F22" s="9">
         <f>'201201'!D22</f>
-        <v>130.90909090909091</v>
+        <v>147.7511961722488</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <f>'201201'!C22</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1990,38 +2010,38 @@
       <c r="A24" s="8">
         <v>15</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>178</v>
+      <c r="B24" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
-        <v>-8.6524242424242459</v>
+        <v>73.505470494417864</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
       </c>
       <c r="E24" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>111.74242424242425</v>
+        <v>128.58452950558214</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>16</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>145</v>
+      <c r="B25" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
@@ -2043,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -2051,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
@@ -2073,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2081,11 +2101,11 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
-        <v>76.8263476874003</v>
+        <v>58.98424242424241</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
@@ -2095,27 +2115,27 @@
       </c>
       <c r="F27" s="9">
         <f>'201201'!D27</f>
-        <v>127.9836523125997</v>
+        <v>144.82575757575759</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <f>'201201'!C27</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>19</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>10</v>
+      <c r="B28" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
-        <v>43.233014354066995</v>
+        <v>25.390909090909105</v>
       </c>
       <c r="D28" s="2">
         <v>38.049999999999997</v>
@@ -2125,15 +2145,15 @@
       </c>
       <c r="F28" s="9">
         <f>'201201'!D28</f>
-        <v>108.81698564593302</v>
+        <v>125.65909090909091</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8">
         <f>'201201'!C28</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2141,7 +2161,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="1"/>
@@ -2163,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2171,11 +2191,11 @@
         <v>21</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>
-        <v>41.010909090909081</v>
+        <v>23.168803827751191</v>
       </c>
       <c r="D30" s="2">
         <v>18.420000000000002</v>
@@ -2185,15 +2205,15 @@
       </c>
       <c r="F30" s="9">
         <f>'201201'!D30</f>
-        <v>73.409090909090921</v>
+        <v>90.251196172248811</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8">
         <f>'201201'!C30</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2201,7 +2221,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
@@ -2223,15 +2243,15 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>23</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>138</v>
+      <c r="B32" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -2257,7 +2277,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="12">
         <f t="shared" si="1"/>
@@ -2279,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2287,7 +2307,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="12">
         <f t="shared" si="1"/>
@@ -2309,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2317,7 +2337,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="12">
         <f t="shared" si="1"/>
@@ -2339,7 +2359,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2347,11 +2367,11 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
-        <v>50.612020202020204</v>
+        <v>32.769914938862314</v>
       </c>
       <c r="D36" s="2">
         <v>8.41</v>
@@ -2361,15 +2381,15 @@
       </c>
       <c r="F36" s="9">
         <f>'201201'!D36</f>
-        <v>149.79797979797979</v>
+        <v>166.64008506113768</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <f>'201201'!C36</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2377,7 +2397,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="12">
         <f t="shared" si="1"/>
@@ -2399,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2407,7 +2427,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
@@ -2429,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2437,7 +2457,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
@@ -2459,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2467,11 +2487,11 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
-        <v>95.94654970760233</v>
+        <v>78.104444444444425</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
@@ -2481,45 +2501,45 @@
       </c>
       <c r="F40" s="9">
         <f>'201201'!D40</f>
-        <v>113.71345029239767</v>
+        <v>130.55555555555557</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <f>'201201'!C40</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>33</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>181</v>
+      <c r="B41" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="C41" s="12">
         <f t="shared" ref="C41:C72" si="2">D41+E41+G41-F41-H41</f>
-        <v>7.7209090909090747</v>
+        <v>89.878803827751184</v>
       </c>
       <c r="D41" s="2">
         <v>3.38</v>
       </c>
       <c r="E41" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="9">
         <f>'201201'!D41</f>
-        <v>90.659090909090921</v>
+        <v>107.50119617224881</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
         <f>'201201'!C41</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2527,7 +2547,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
@@ -2549,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2557,7 +2577,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
@@ -2579,7 +2599,7 @@
         <v>6</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2587,7 +2607,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="12">
         <f t="shared" si="2"/>
@@ -2609,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2617,7 +2637,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="2"/>
@@ -2643,7 +2663,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C46" s="12">
         <f t="shared" si="2"/>
@@ -2665,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2673,7 +2693,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C47" s="12">
         <f t="shared" si="2"/>
@@ -2695,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2703,7 +2723,7 @@
         <v>88</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="12">
         <f t="shared" si="2"/>
@@ -2725,37 +2745,37 @@
         <v>5</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>97</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>207</v>
+      <c r="B49" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
-        <v>2.8862307283359883</v>
+        <v>85.044125465178098</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>186.11376927166401</v>
+        <v>202.9558745348219</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2763,7 +2783,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="12">
         <f t="shared" si="2"/>
@@ -2785,17 +2805,17 @@
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="12">
         <f t="shared" si="2"/>
-        <v>53.277575757575761</v>
+        <v>35.435470494417871</v>
       </c>
       <c r="D51" s="2">
         <v>28.77</v>
@@ -2805,21 +2825,21 @@
       </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>71.492424242424249</v>
+        <v>88.33452950558214</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
@@ -2843,7 +2863,7 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="2"/>
@@ -2865,17 +2885,17 @@
         <v>3</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="2"/>
-        <v>104.44424242424243</v>
+        <v>86.602137161084542</v>
       </c>
       <c r="D54" s="2">
         <v>20.27</v>
@@ -2885,21 +2905,21 @@
       </c>
       <c r="F54" s="9">
         <f>'201201'!D54</f>
-        <v>109.82575757575758</v>
+        <v>126.66786283891547</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="8">
         <f>'201201'!C54</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
@@ -2921,13 +2941,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="21" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
@@ -2949,13 +2969,13 @@
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="2"/>
@@ -2977,13 +2997,13 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="2"/>
@@ -3006,12 +3026,12 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>107</v>
+      <c r="B59" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="2"/>
-        <v>42.757575757575751</v>
+        <v>24.91547049441786</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -3021,21 +3041,21 @@
       </c>
       <c r="F59" s="9">
         <f>'201201'!D59</f>
-        <v>54.242424242424249</v>
+        <v>71.08452950558214</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="8">
         <f>'201201'!C59</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
@@ -3057,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
@@ -3085,13 +3105,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="21" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="2"/>
@@ -3113,13 +3133,13 @@
         <v>4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="2"/>
@@ -3141,17 +3161,17 @@
         <v>7</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="2"/>
-        <v>62.924242424242422</v>
+        <v>45.082137161084532</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -3161,21 +3181,21 @@
       </c>
       <c r="F64" s="9">
         <f>'201201'!D64</f>
-        <v>35.075757575757578</v>
+        <v>51.917862838915468</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="8">
         <f>'201201'!C64</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
@@ -3197,13 +3217,13 @@
         <v>3</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="2"/>
@@ -3225,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
@@ -3253,13 +3273,13 @@
         <v>2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="2"/>
@@ -3281,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="2"/>
@@ -3309,13 +3329,13 @@
         <v>3</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="21" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
@@ -3337,13 +3357,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="2"/>
@@ -3367,7 +3387,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C72" s="12">
         <f t="shared" si="2"/>
@@ -3389,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -3621,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3637,28 +3657,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3672,19 +3692,19 @@
         <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3702,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -3724,10 +3744,10 @@
         <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3749,10 +3769,10 @@
         <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3774,10 +3794,10 @@
         <v>603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3799,10 +3819,10 @@
         <v>703</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3824,10 +3844,10 @@
         <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -3849,10 +3869,10 @@
         <v>843</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -3874,10 +3894,10 @@
         <v>943</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3899,10 +3919,10 @@
         <v>1043</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -3924,10 +3944,10 @@
         <v>1143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -3949,10 +3969,10 @@
         <v>1243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -3974,10 +3994,10 @@
         <v>1343</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -3999,10 +4019,10 @@
         <v>1373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -4024,10 +4044,10 @@
         <v>1473</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
@@ -4049,10 +4069,10 @@
         <v>1573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -4074,10 +4094,10 @@
         <v>1673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -4099,10 +4119,10 @@
         <v>1773</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -4124,10 +4144,10 @@
         <v>1793</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -4149,19 +4169,19 @@
         <v>1693</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -4176,10 +4196,10 @@
         <v>1348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -4201,10 +4221,10 @@
         <v>1448</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -4226,10 +4246,10 @@
         <v>1548</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -4251,10 +4271,10 @@
         <v>1648</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -4276,10 +4296,10 @@
         <v>1718</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
@@ -4301,10 +4321,10 @@
         <v>1818</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -4326,10 +4346,10 @@
         <v>1918</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -4351,10 +4371,10 @@
         <v>2018</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -4376,10 +4396,10 @@
         <v>2118</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -4401,10 +4421,10 @@
         <v>2218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -4426,10 +4446,10 @@
         <v>2318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4451,10 +4471,10 @@
         <v>1968</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -4476,10 +4496,10 @@
         <v>2068</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -4501,10 +4521,10 @@
         <v>2168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -4526,10 +4546,10 @@
         <v>2268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
@@ -4551,10 +4571,10 @@
         <v>2368</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
@@ -4576,10 +4596,10 @@
         <v>2468</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
@@ -4601,10 +4621,10 @@
         <v>2568</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
@@ -4626,10 +4646,10 @@
         <v>2228</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -4638,7 +4658,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -4653,10 +4673,10 @@
         <v>2328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -4678,10 +4698,10 @@
         <v>2428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
@@ -4703,10 +4723,10 @@
         <v>2528</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
@@ -4728,10 +4748,10 @@
         <v>2628</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>6</v>
@@ -4753,10 +4773,10 @@
         <v>2653</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
@@ -4778,10 +4798,10 @@
         <v>2308</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>6</v>
@@ -4806,7 +4826,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>6</v>
@@ -4828,10 +4848,10 @@
         <v>2608</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
@@ -4853,10 +4873,10 @@
         <v>2708</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
@@ -4878,10 +4898,10 @@
         <v>2738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
@@ -4903,10 +4923,10 @@
         <v>2838</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -4915,7 +4935,7 @@
         <v>6</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -4930,10 +4950,10 @@
         <v>2938</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -4942,7 +4962,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -4957,10 +4977,10 @@
         <v>2968</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
@@ -4982,10 +5002,10 @@
         <v>2623</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -5007,10 +5027,10 @@
         <v>2723</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
@@ -5032,10 +5052,10 @@
         <v>2823</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
@@ -5057,10 +5077,10 @@
         <v>2923</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -5082,10 +5102,10 @@
         <v>3023</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -5107,10 +5127,10 @@
         <v>3053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
@@ -5132,10 +5152,10 @@
         <v>2733</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>6</v>
@@ -5144,7 +5164,7 @@
         <v>6</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -5159,10 +5179,10 @@
         <v>2833</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
@@ -5184,10 +5204,10 @@
         <v>2933</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
@@ -5209,10 +5229,10 @@
         <v>3033</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
@@ -5234,10 +5254,10 @@
         <v>3063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
@@ -5259,10 +5279,10 @@
         <v>3093</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -5284,10 +5304,10 @@
         <v>2753</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
@@ -5296,7 +5316,7 @@
         <v>6</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -5311,10 +5331,10 @@
         <v>2853</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
@@ -5336,10 +5356,10 @@
         <v>2953</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
@@ -5361,10 +5381,10 @@
         <v>3053</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
@@ -5386,10 +5406,10 @@
         <v>3153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>6</v>
@@ -5411,10 +5431,10 @@
         <v>3183</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>6</v>
@@ -5436,10 +5456,10 @@
         <v>2838</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>6</v>
@@ -5461,10 +5481,10 @@
         <v>2938</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>6</v>
@@ -5486,10 +5506,10 @@
         <v>2593</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>6</v>
@@ -5511,10 +5531,10 @@
         <v>2693</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>6</v>
@@ -5536,10 +5556,10 @@
         <v>2793</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>6</v>
@@ -5561,10 +5581,10 @@
         <v>2893</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
@@ -5586,10 +5606,10 @@
         <v>2923</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
@@ -5611,10 +5631,10 @@
         <v>2953</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
@@ -5636,10 +5656,10 @@
         <v>2983</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>6</v>
@@ -5661,10 +5681,10 @@
         <v>2638</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>6</v>
@@ -5686,10 +5706,10 @@
         <v>2738</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>6</v>
@@ -5711,10 +5731,10 @@
         <v>2838</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>6</v>
@@ -5736,10 +5756,10 @@
         <v>2938</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>6</v>
@@ -5761,10 +5781,10 @@
         <v>3038</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>6</v>
@@ -5789,7 +5809,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>6</v>
@@ -5811,10 +5831,10 @@
         <v>2793</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>6</v>
@@ -5836,10 +5856,10 @@
         <v>2893</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>6</v>
@@ -5861,10 +5881,10 @@
         <v>2993</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>6</v>
@@ -5886,10 +5906,10 @@
         <v>3023</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>6</v>
@@ -5911,10 +5931,10 @@
         <v>3053</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>6</v>
@@ -5936,10 +5956,10 @@
         <v>2708</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>6</v>
@@ -5964,7 +5984,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>6</v>
@@ -5973,7 +5993,7 @@
         <v>6</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
@@ -5984,14 +6004,14 @@
         <v>-65</v>
       </c>
       <c r="C94" s="8">
-        <f t="shared" ref="C94" si="10">C93+B94</f>
+        <f t="shared" ref="C94:C98" si="10">C93+B94</f>
         <v>2573</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>6</v>
@@ -6000,8 +6020,158 @@
         <v>6</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="20">
+        <v>41233</v>
+      </c>
+      <c r="B95" s="26">
+        <v>100</v>
+      </c>
+      <c r="C95" s="8">
+        <f t="shared" si="10"/>
+        <v>2673</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="20">
+        <v>41233</v>
+      </c>
+      <c r="B96" s="26">
+        <v>100</v>
+      </c>
+      <c r="C96" s="8">
+        <f t="shared" si="10"/>
+        <v>2773</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="20">
+        <v>41233</v>
+      </c>
+      <c r="B97" s="26">
+        <v>100</v>
+      </c>
+      <c r="C97" s="8">
+        <f t="shared" si="10"/>
+        <v>2873</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="20">
+        <v>41233</v>
+      </c>
+      <c r="B98" s="26">
+        <v>100</v>
+      </c>
+      <c r="C98" s="8">
+        <f t="shared" si="10"/>
+        <v>2973</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="20">
+        <v>41233</v>
+      </c>
+      <c r="B99" s="26">
+        <v>100</v>
+      </c>
+      <c r="C99" s="8">
+        <f>C98+B99</f>
+        <v>3073</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="20">
+        <v>41233</v>
+      </c>
+      <c r="B100" s="26">
+        <v>-320</v>
+      </c>
+      <c r="C100" s="8">
+        <f>C99+B100</f>
+        <v>2753</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6028,28 +6198,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6063,19 +6233,19 @@
         <v>810</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -6090,19 +6260,19 @@
         <v>790</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -6117,19 +6287,19 @@
         <v>760</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6401,11 +6571,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6425,20 +6595,21 @@
     <col min="14" max="15" width="10.125" customWidth="1"/>
     <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.75" customWidth="1"/>
+    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -6479,10 +6650,13 @@
       <c r="Q1" s="16">
         <v>41228</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" s="16">
+        <v>41233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -6526,10 +6700,13 @@
       <c r="Q2" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R2" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -6573,10 +6750,13 @@
       <c r="Q3" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R3" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -6630,13 +6810,17 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" ref="Q4" si="4">Q3/Q2</f>
+        <f t="shared" ref="Q4:R4" si="4">Q3/Q2</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R4" s="9">
+        <f t="shared" si="4"/>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -6690,22 +6874,26 @@
         <v>18</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" ref="Q5" si="7">COUNT(Q9:Q92)</f>
+        <f t="shared" ref="Q5:R5" si="7">COUNT(Q9:Q92)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R5" s="10">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="10">
         <f t="shared" ref="C6:N6" si="8">SUM(C9:C92)</f>
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="8"/>
-        <v>4448.6842105263158</v>
+        <v>4768.6842105263158</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="8"/>
@@ -6756,11 +6944,15 @@
         <v>345.00000000000006</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" ref="Q6" si="10">SUM(Q9:Q92)</f>
+        <f t="shared" ref="Q6:R6" si="10">SUM(Q9:Q92)</f>
         <v>344.99999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R6" s="9">
+        <f t="shared" si="10"/>
+        <v>320.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -6778,8 +6970,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -6797,8 +6990,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="str">
         <f>member!B9</f>
         <v>家宁</v>
@@ -6831,8 +7025,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="str">
         <f>member!B10</f>
         <v>小白</v>
@@ -6865,8 +7060,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="str">
         <f>member!B11</f>
         <v>狼</v>
@@ -6905,8 +7101,9 @@
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="str">
         <f>member!B12</f>
         <v>西北</v>
@@ -6917,11 +7114,11 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="12"/>
-        <v>170.58333333333331</v>
+        <v>187.4254385964912</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -6963,8 +7160,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q12" s="18"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R12" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="str">
         <f>member!B13</f>
         <v>度日</v>
@@ -6975,11 +7176,11 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="12"/>
-        <v>108.81698564593302</v>
+        <v>125.65909090909091</v>
       </c>
       <c r="E13" s="4">
         <f>E4</f>
@@ -7012,8 +7213,12 @@
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R13" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="str">
         <f>member!B14</f>
         <v>李正</v>
@@ -7046,8 +7251,9 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="str">
         <f>member!B15</f>
         <v>小磊</v>
@@ -7058,11 +7264,11 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="12"/>
-        <v>92.575757575757578</v>
+        <v>109.41786283891547</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -7092,8 +7298,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R15" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="str">
         <f>member!B16</f>
         <v>蚕豆</v>
@@ -7147,8 +7357,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="str">
         <f>member!B17</f>
         <v>菜菜</v>
@@ -7159,11 +7370,11 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="12"/>
-        <v>93.81578947368422</v>
+        <v>110.65789473684211</v>
       </c>
       <c r="E17" s="4">
         <f>E4</f>
@@ -7193,8 +7404,12 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R17" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="str">
         <f>member!B18</f>
         <v>老A</v>
@@ -7239,8 +7454,9 @@
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="str">
         <f>member!B19</f>
         <v>幸福</v>
@@ -7251,11 +7467,11 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="12"/>
-        <v>165.30821371610847</v>
+        <v>182.15031897926636</v>
       </c>
       <c r="E19" s="4">
         <f>E4</f>
@@ -7297,8 +7513,12 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R19" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="str">
         <f>member!B20</f>
         <v>鲜明</v>
@@ -7343,8 +7563,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="str">
         <f>member!B21</f>
         <v>Zigbeer</v>
@@ -7355,11 +7576,11 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="12"/>
-        <v>95.555555555555571</v>
+        <v>112.39766081871346</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -7389,8 +7610,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R21" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="str">
         <f>member!B22</f>
         <v>侯盟</v>
@@ -7401,11 +7626,11 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="12"/>
-        <v>130.90909090909091</v>
+        <v>147.7511961722488</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
@@ -7441,8 +7666,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q22" s="18"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R22" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="str">
         <f>member!B23</f>
         <v>小贝</v>
@@ -7472,8 +7701,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="str">
         <f>member!B24</f>
         <v>古轮木</v>
@@ -7484,11 +7714,11 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="12"/>
-        <v>111.74242424242425</v>
+        <v>128.58452950558214</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -7521,8 +7751,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R24" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="str">
         <f>member!B25</f>
         <v>虫子</v>
@@ -7564,8 +7798,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="str">
         <f>member!B26</f>
         <v>4号</v>
@@ -7610,8 +7845,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="str">
         <f>member!B27</f>
         <v>刀</v>
@@ -7622,11 +7858,11 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="12"/>
-        <v>127.9836523125997</v>
+        <v>144.82575757575759</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -7662,8 +7898,12 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R27" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="str">
         <f>member!B28</f>
         <v>活了</v>
@@ -7674,11 +7914,11 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="12"/>
-        <v>108.81698564593302</v>
+        <v>125.65909090909091</v>
       </c>
       <c r="E28" s="4">
         <f>E4</f>
@@ -7711,8 +7951,12 @@
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R28" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="str">
         <f>member!B29</f>
         <v>m8</v>
@@ -7754,8 +7998,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q29" s="18"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="str">
         <f>member!B30</f>
         <v>贰壹</v>
@@ -7766,11 +8011,11 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="12"/>
-        <v>73.409090909090921</v>
+        <v>90.251196172248811</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -7797,8 +8042,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R30" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="str">
         <f>member!B31</f>
         <v>温涛</v>
@@ -7831,8 +8080,9 @@
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="str">
         <f>member!B32</f>
         <v>Sam</v>
@@ -7865,8 +8115,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="str">
         <f>member!B33</f>
         <v>杨光</v>
@@ -7902,8 +8153,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="str">
         <f>member!B34</f>
         <v>红星</v>
@@ -7939,8 +8191,9 @@
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="str">
         <f>member!B35</f>
         <v>方亚</v>
@@ -7991,8 +8244,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q35" s="18"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="str">
         <f>member!B36</f>
         <v>戒影</v>
@@ -8003,11 +8257,11 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="12"/>
-        <v>149.79797979797979</v>
+        <v>166.64008506113768</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
@@ -8046,8 +8300,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q36" s="18"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R36" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="str">
         <f>member!B37</f>
         <v>尚峰</v>
@@ -8089,8 +8347,9 @@
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R37" s="18"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="str">
         <f>member!B38</f>
         <v>狐狸涛</v>
@@ -8126,8 +8385,9 @@
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R38" s="18"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="str">
         <f>member!B39</f>
         <v>小天</v>
@@ -8178,8 +8438,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q39" s="18"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R39" s="18"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="str">
         <f>member!B40</f>
         <v>清道夫</v>
@@ -8190,11 +8451,11 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="12"/>
-        <v>113.71345029239767</v>
+        <v>130.55555555555557</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
@@ -8227,8 +8488,12 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R40" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="str">
         <f>member!B41</f>
         <v>超</v>
@@ -8239,11 +8504,11 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" ref="C41:C72" si="13">COUNT(E41:ZZ41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ref="D41:D72" si="14">SUM(E41:ZZ41)</f>
-        <v>90.659090909090921</v>
+        <v>107.50119617224881</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -8273,8 +8538,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q41" s="18"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R41" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="str">
         <f>member!B42</f>
         <v>Smile</v>
@@ -8319,8 +8588,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="str">
         <f>member!B43</f>
         <v>小宋</v>
@@ -8368,8 +8638,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R43" s="18"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="str">
         <f>member!B44</f>
         <v>赵聪</v>
@@ -8414,8 +8685,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R44" s="18"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="str">
         <f>member!B45</f>
         <v>腿</v>
@@ -8445,8 +8717,9 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="str">
         <f>member!B46</f>
         <v>更心</v>
@@ -8479,8 +8752,9 @@
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R46" s="18"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="str">
         <f>member!B47</f>
         <v>刘晨</v>
@@ -8516,8 +8790,9 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="str">
         <f>member!B48</f>
         <v>拂晓</v>
@@ -8562,8 +8837,9 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R48" s="18"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="str">
         <f>member!B49</f>
         <v>R</v>
@@ -8574,11 +8850,11 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" s="9">
         <f t="shared" si="14"/>
-        <v>186.11376927166401</v>
+        <v>202.9558745348219</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" ref="E49:J49" si="15">E4</f>
@@ -8623,8 +8899,12 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R49" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="str">
         <f>member!B50</f>
         <v>陈磊</v>
@@ -8666,8 +8946,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="str">
         <f>member!B51</f>
         <v>Shenghak</v>
@@ -8675,11 +8956,11 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="14"/>
-        <v>71.492424242424249</v>
+        <v>88.33452950558214</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -8706,8 +8987,12 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q51" s="18"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R51" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="str">
         <f>member!B52</f>
         <v>张硕</v>
@@ -8737,8 +9022,9 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="str">
         <f>member!B53</f>
         <v>孙伟</v>
@@ -8774,8 +9060,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q53" s="18"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R53" s="18"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="str">
         <f>member!B54</f>
         <v>小新</v>
@@ -8783,11 +9070,11 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="14"/>
-        <v>109.82575757575758</v>
+        <v>126.66786283891547</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
@@ -8820,8 +9107,12 @@
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R54" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="str">
         <f>member!B55</f>
         <v>小严</v>
@@ -8851,8 +9142,9 @@
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="str">
         <f>member!B56</f>
         <v>懦夫</v>
@@ -8891,8 +9183,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="str">
         <f>member!B57</f>
         <v>拉齐奥</v>
@@ -8925,8 +9218,9 @@
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="18"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R57" s="18"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="str">
         <f>member!B58</f>
         <v>狐狸</v>
@@ -8953,8 +9247,9 @@
       <c r="O58" s="18"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="str">
         <f>member!B59</f>
         <v>小岭</v>
@@ -8962,11 +9257,11 @@
       <c r="B59" s="8"/>
       <c r="C59" s="8">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="14"/>
-        <v>54.242424242424249</v>
+        <v>71.08452950558214</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -8990,8 +9285,12 @@
       <c r="O59" s="18"/>
       <c r="P59" s="18"/>
       <c r="Q59" s="18"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R59" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="str">
         <f>member!B60</f>
         <v>孙硕</v>
@@ -9021,8 +9320,9 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R60" s="18"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="str">
         <f>member!B61</f>
         <v>R2</v>
@@ -9052,8 +9352,9 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
       <c r="Q61" s="18"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R61" s="18"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="str">
         <f>member!B62</f>
         <v>刘俊峰</v>
@@ -9092,8 +9393,9 @@
         <v>19.166666666666668</v>
       </c>
       <c r="Q62" s="18"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R62" s="18"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="str">
         <f>member!B63</f>
         <v>人在旅途</v>
@@ -9141,8 +9443,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R63" s="18"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="str">
         <f>member!B64</f>
         <v>狮子少爷</v>
@@ -9150,11 +9453,11 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="14"/>
-        <v>35.075757575757578</v>
+        <v>51.917862838915468</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -9175,8 +9478,12 @@
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
       <c r="Q64" s="18"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R64" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="str">
         <f>member!B65</f>
         <v>Edison</v>
@@ -9212,8 +9519,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R65" s="18"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="str">
         <f>member!B66</f>
         <v>于博霏</v>
@@ -9243,8 +9551,9 @@
       <c r="O66" s="18"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="18"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R66" s="18"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="str">
         <f>member!B67</f>
         <v>段晨</v>
@@ -9277,8 +9586,9 @@
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
       <c r="Q67" s="18"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R67" s="18"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="str">
         <f>member!B68</f>
         <v>顾伟强</v>
@@ -9308,8 +9618,9 @@
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R68" s="18"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="str">
         <f>member!B69</f>
         <v>小郝</v>
@@ -9345,8 +9656,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R69" s="18"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="str">
         <f>member!B70</f>
         <v>压岁钱</v>
@@ -9376,8 +9688,9 @@
       </c>
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R70" s="18"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="str">
         <f>member!B71</f>
         <v>逸凡</v>
@@ -9404,8 +9717,9 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R71" s="2"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="str">
         <f>member!B72</f>
         <v>TOTO</v>
@@ -9435,8 +9749,9 @@
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R72" s="18"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9454,8 +9769,9 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R73" s="2"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9473,8 +9789,9 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9492,8 +9809,9 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9511,8 +9829,9 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9530,8 +9849,9 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9549,8 +9869,9 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9568,8 +9889,9 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R79" s="2"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9587,8 +9909,9 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9606,8 +9929,9 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R81" s="2"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -9625,8 +9949,9 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -9644,8 +9969,9 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R83" s="2"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -9663,8 +9989,9 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -9682,8 +10009,9 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R85" s="2"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -9701,8 +10029,9 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -9720,8 +10049,9 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R87" s="2"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -9739,8 +10069,9 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R88" s="2"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -9758,8 +10089,9 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R89" s="2"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -9777,8 +10109,9 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R90" s="2"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -9796,8 +10129,9 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R91" s="2"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -9815,10 +10149,11 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R92" s="2"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" s="6"/>
     </row>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="221">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,6 +905,10 @@
   </si>
   <si>
     <t>小岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贰壹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1407,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2190,8 +2194,8 @@
       <c r="A30" s="8">
         <v>21</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>10</v>
+      <c r="B30" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="227">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,18 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20(120920)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,681 +222,720 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>补场地费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农大西校区友谊赛,少收20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懦夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古轮木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交之前下雨踢球一个小时费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次缴纳金额[/累计缴纳金额](日期),…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.10.9 多缴纳5元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121006)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),200/220(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),70/90(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70拉齐奥,30孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70R,30R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子少爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenhak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割除了另外一箱水钱30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一箱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次多收5块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于博霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待缴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigbeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/100(120927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),25/45(121016),100/145(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011),100/200(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾伟强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压岁钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121018),100/200(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人在旅途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120922),100/220(121113)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清道夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101),30/60(121108),100/160(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21(121018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公款支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温涛骨折,买点水果看望一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018),30/60(121108),30/90(121115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懦夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正球衣不要,暂时充公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40(120927),100/140(121009),100/240(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120927),100/220(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121023),100/200(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009),79/199(121018),100/299(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
+-40/5780(121106调),390/6170(121108),500/6670(121113),260/6930(121115),500/7430(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古轮木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贰壹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀哥账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可支配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴纳
+费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动
+支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>个人
 账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>补场地费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农大西校区友谊赛,少收20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清道夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懦夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古轮木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补交之前下雨踢球一个小时费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次缴纳金额[/累计缴纳金额](日期),…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拂晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zigbeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.10.9 多缴纳5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121011)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121006)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘俊峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),200/220(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),70/90(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70拉齐奥,30孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70R,30R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子少爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shenhak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀割除了另外一箱水钱30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加一箱水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙硕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次多收5块钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于博霏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小严</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待缴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121025),100/130(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zigbeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100/100(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压岁钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),25/45(121016),100/145(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121011),100/200(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾伟强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小宋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压岁钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逸凡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121009),100/200(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121018),100/200(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘俊峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人在旅途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(120922),100/220(121113)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清道夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121101),30/60(121108),100/160(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小郝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公款支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温涛骨折,买点水果看望一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(121018),30/60(121108),30/90(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懦夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李正球衣不要,暂时充公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40(120927),100/140(121009),100/240(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(120927),100/220(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121023),100/200(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121009),79/199(121018),100/299(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
--40/5780(121106调),390/6170(121108),500/6670(121113),260/6930(121115),500/7430(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古轮木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贰壹</t>
+    <t>额外
+缴纳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,6 +1029,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1030,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1107,6 +1140,15 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,16 +1453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
@@ -1436,22 +1478,22 @@
         <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1470,7 +1512,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1483,11 +1525,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="30">
+        <f>幸福!B2</f>
+        <v>2753</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>219</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1496,11 +1543,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="30">
+        <f>刀哥!B2</f>
+        <v>760</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>220</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1509,11 +1561,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="24"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="30">
+        <f>C8</f>
+        <v>3327.7557894736865</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>221</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1522,25 +1579,30 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="30">
+        <f>C4+C5-C6</f>
+        <v>185.24421052631351</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>222</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <f t="shared" ref="C8:H8" si="0">SUM(C9:C92)</f>
         <v>3327.7557894736865</v>
       </c>
@@ -1565,7 +1627,7 @@
         <v>259</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1595,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1603,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="1"/>
@@ -1625,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1655,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1663,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="1"/>
@@ -1685,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1693,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="1"/>
@@ -1715,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1723,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
@@ -1749,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="1"/>
@@ -1771,7 +1833,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1779,7 +1841,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="1"/>
@@ -1801,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1831,7 +1893,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1861,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1869,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="1"/>
@@ -1891,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1921,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1951,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1959,7 +2021,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="1"/>
@@ -1981,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -2015,7 +2077,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" si="1"/>
@@ -2037,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2045,7 +2107,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="1"/>
@@ -2067,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -2075,7 +2137,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="1"/>
@@ -2097,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2105,7 +2167,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="1"/>
@@ -2127,7 +2189,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2135,7 +2197,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="1"/>
@@ -2157,7 +2219,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2165,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="1"/>
@@ -2187,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2195,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C30" s="12">
         <f t="shared" si="1"/>
@@ -2217,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2225,7 +2287,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="1"/>
@@ -2247,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2255,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -2303,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2333,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2363,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2393,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2423,7 +2485,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2453,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2461,7 +2523,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="1"/>
@@ -2483,7 +2545,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2491,7 +2553,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="1"/>
@@ -2513,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2521,7 +2583,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C41" s="12">
         <f t="shared" ref="C41:C72" si="2">D41+E41+G41-F41-H41</f>
@@ -2543,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2551,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="2"/>
@@ -2573,7 +2635,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2581,7 +2643,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="2"/>
@@ -2603,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2633,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2641,7 +2703,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C45" s="12">
         <f t="shared" si="2"/>
@@ -2667,7 +2729,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C46" s="12">
         <f t="shared" si="2"/>
@@ -2689,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2697,7 +2759,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C47" s="12">
         <f t="shared" si="2"/>
@@ -2719,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2749,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2757,7 +2819,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C49" s="12">
         <f t="shared" si="2"/>
@@ -2779,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2809,7 +2871,7 @@
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2837,13 +2899,13 @@
         <v>5</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="2"/>
@@ -2889,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2917,13 +2979,13 @@
         <v>7</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="2"/>
@@ -2945,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="2"/>
@@ -2973,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -3001,13 +3063,13 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="2"/>
@@ -3031,7 +3093,7 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="2"/>
@@ -3053,13 +3115,13 @@
         <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="2"/>
@@ -3081,13 +3143,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="2"/>
@@ -3109,13 +3171,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="2"/>
@@ -3137,13 +3199,13 @@
         <v>4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="2"/>
@@ -3165,13 +3227,13 @@
         <v>7</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="2"/>
@@ -3193,13 +3255,13 @@
         <v>3</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="2"/>
@@ -3221,13 +3283,13 @@
         <v>3</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="2"/>
@@ -3249,13 +3311,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="2"/>
@@ -3277,13 +3339,13 @@
         <v>2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="2"/>
@@ -3305,13 +3367,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="2"/>
@@ -3333,13 +3395,13 @@
         <v>3</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="2"/>
@@ -3361,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="2"/>
@@ -3391,7 +3453,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C72" s="12">
         <f t="shared" si="2"/>
@@ -3413,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -3645,10 +3707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3661,97 +3723,87 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>40442</v>
-      </c>
-      <c r="B2" s="26">
-        <v>268</v>
-      </c>
-      <c r="C2" s="8">
-        <v>268</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="14">
+        <f>SUM(B3:B350)</f>
+        <v>2753</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
+        <v>40442</v>
+      </c>
+      <c r="B3" s="26">
+        <v>268</v>
+      </c>
+      <c r="C3" s="8">
+        <v>268</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
         <v>40443</v>
-      </c>
-      <c r="B3" s="26">
-        <v>100</v>
-      </c>
-      <c r="C3" s="8">
-        <f t="shared" ref="C3:C33" si="0">C2+B3</f>
-        <v>368</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="20">
-        <v>41179</v>
       </c>
       <c r="B4" s="26">
         <v>100</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" si="0"/>
-        <v>468</v>
+        <f t="shared" ref="C4:C34" si="0">C3+B4</f>
+        <v>368</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3766,17 +3818,17 @@
         <v>41179</v>
       </c>
       <c r="B5" s="26">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3791,17 +3843,17 @@
         <v>41179</v>
       </c>
       <c r="B6" s="26">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>603</v>
+        <v>503</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3820,13 +3872,13 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>703</v>
+        <v>603</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3845,13 +3897,13 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>803</v>
+        <v>703</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -3866,17 +3918,17 @@
         <v>41179</v>
       </c>
       <c r="B9" s="26">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>843</v>
+        <v>803</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -3891,17 +3943,17 @@
         <v>41179</v>
       </c>
       <c r="B10" s="26">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>943</v>
+        <v>843</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3920,13 +3972,13 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>1043</v>
+        <v>943</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -3945,13 +3997,13 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>1143</v>
+        <v>1043</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -3970,13 +4022,13 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>1243</v>
+        <v>1143</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -3995,13 +4047,13 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>1343</v>
+        <v>1243</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -4016,17 +4068,17 @@
         <v>41179</v>
       </c>
       <c r="B15" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>1373</v>
+        <v>1343</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -4041,17 +4093,17 @@
         <v>41179</v>
       </c>
       <c r="B16" s="26">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>1473</v>
+        <v>1373</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
@@ -4070,13 +4122,13 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>1573</v>
+        <v>1473</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -4095,13 +4147,13 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>1673</v>
+        <v>1573</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -4120,13 +4172,13 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>1773</v>
+        <v>1673</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -4141,17 +4193,17 @@
         <v>41179</v>
       </c>
       <c r="B20" s="26">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>1793</v>
+        <v>1773</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -4166,17 +4218,17 @@
         <v>41179</v>
       </c>
       <c r="B21" s="26">
-        <v>-100</v>
+        <v>20</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>1693</v>
+        <v>1793</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -4184,26 +4236,24 @@
       <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="20">
         <v>41179</v>
       </c>
       <c r="B22" s="26">
-        <v>-345</v>
+        <v>-100</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>1348</v>
+        <v>1693</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -4211,24 +4261,26 @@
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
-        <v>41191</v>
+      <c r="A23" s="20">
+        <v>41179</v>
       </c>
       <c r="B23" s="26">
-        <v>100</v>
+        <v>-345</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
-        <v>1448</v>
+        <v>1348</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -4247,13 +4299,13 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>1548</v>
+        <v>1448</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -4272,13 +4324,13 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="0"/>
-        <v>1648</v>
+        <v>1548</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -4293,17 +4345,17 @@
         <v>41191</v>
       </c>
       <c r="B26" s="26">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" si="0"/>
-        <v>1718</v>
+        <v>1648</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
@@ -4318,17 +4370,17 @@
         <v>41191</v>
       </c>
       <c r="B27" s="26">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="0"/>
-        <v>1818</v>
+        <v>1718</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -4347,13 +4399,13 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="0"/>
-        <v>1918</v>
+        <v>1818</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -4372,13 +4424,13 @@
       </c>
       <c r="C29" s="8">
         <f t="shared" si="0"/>
-        <v>2018</v>
+        <v>1918</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -4397,13 +4449,13 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="0"/>
-        <v>2118</v>
+        <v>2018</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -4422,13 +4474,13 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="0"/>
-        <v>2218</v>
+        <v>2118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -4447,13 +4499,13 @@
       </c>
       <c r="C32" s="8">
         <f t="shared" si="0"/>
-        <v>2318</v>
+        <v>2218</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4468,42 +4520,42 @@
         <v>41191</v>
       </c>
       <c r="B33" s="26">
-        <v>-350</v>
+        <v>100</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="0"/>
+        <v>2318</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
+        <v>41191</v>
+      </c>
+      <c r="B34" s="26">
+        <v>-350</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="20">
-        <v>41193</v>
-      </c>
-      <c r="B34" s="26">
-        <v>100</v>
-      </c>
-      <c r="C34" s="8">
-        <f t="shared" ref="C34:C39" si="1">C33+B34</f>
-        <v>2068</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -4511,7 +4563,7 @@
       <c r="G34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="20">
@@ -4521,14 +4573,14 @@
         <v>100</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="1"/>
-        <v>2168</v>
+        <f t="shared" ref="C35:C40" si="1">C34+B35</f>
+        <v>2068</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -4547,13 +4599,13 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="1"/>
-        <v>2268</v>
+        <v>2168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
@@ -4572,13 +4624,13 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" si="1"/>
-        <v>2368</v>
+        <v>2268</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
@@ -4597,13 +4649,13 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" si="1"/>
-        <v>2468</v>
+        <v>2368</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
@@ -4622,13 +4674,13 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="1"/>
-        <v>2568</v>
+        <v>2468</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
@@ -4636,51 +4688,49 @@
       <c r="G39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="20">
         <v>41193</v>
       </c>
       <c r="B40" s="26">
+        <v>100</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="20">
+        <v>41193</v>
+      </c>
+      <c r="B41" s="26">
         <v>-340</v>
       </c>
-      <c r="C40" s="8">
-        <f t="shared" ref="C40:C45" si="2">C39+B40</f>
+      <c r="C41" s="8">
+        <f t="shared" ref="C41:C46" si="2">C40+B41</f>
         <v>2228</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="17">
-        <v>41198</v>
-      </c>
-      <c r="B41" s="26">
-        <v>100</v>
-      </c>
-      <c r="C41" s="8">
-        <f t="shared" si="2"/>
-        <v>2328</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -4688,7 +4738,9 @@
       <c r="G41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="17">
@@ -4699,13 +4751,13 @@
       </c>
       <c r="C42" s="8">
         <f t="shared" si="2"/>
-        <v>2428</v>
+        <v>2328</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
@@ -4724,13 +4776,13 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" si="2"/>
-        <v>2528</v>
+        <v>2428</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
@@ -4749,13 +4801,13 @@
       </c>
       <c r="C44" s="8">
         <f t="shared" si="2"/>
-        <v>2628</v>
+        <v>2528</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>6</v>
@@ -4770,17 +4822,17 @@
         <v>41198</v>
       </c>
       <c r="B45" s="26">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C45" s="8">
         <f t="shared" si="2"/>
-        <v>2653</v>
+        <v>2628</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
@@ -4788,49 +4840,49 @@
       <c r="G45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="17">
         <v>41198</v>
       </c>
       <c r="B46" s="26">
+        <v>25</v>
+      </c>
+      <c r="C46" s="8">
+        <f t="shared" si="2"/>
+        <v>2653</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="17">
+        <v>41198</v>
+      </c>
+      <c r="B47" s="26">
         <v>-345</v>
       </c>
-      <c r="C46" s="8">
-        <f t="shared" ref="C46:C51" si="3">C45+B46</f>
+      <c r="C47" s="8">
+        <f t="shared" ref="C47:C52" si="3">C46+B47</f>
         <v>2308</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="20">
-        <v>41200</v>
-      </c>
-      <c r="B47" s="26">
-        <v>200</v>
-      </c>
-      <c r="C47" s="8">
-        <f t="shared" si="3"/>
-        <v>2508</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>6</v>
@@ -4845,17 +4897,17 @@
         <v>41200</v>
       </c>
       <c r="B48" s="26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C48" s="8">
         <f t="shared" si="3"/>
-        <v>2608</v>
+        <v>2508</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
@@ -4874,13 +4926,13 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="3"/>
-        <v>2708</v>
+        <v>2608</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
@@ -4895,17 +4947,17 @@
         <v>41200</v>
       </c>
       <c r="B50" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C50" s="8">
         <f t="shared" si="3"/>
-        <v>2738</v>
+        <v>2708</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
@@ -4920,17 +4972,17 @@
         <v>41200</v>
       </c>
       <c r="B51" s="26">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" si="3"/>
-        <v>2838</v>
+        <v>2738</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -4938,9 +4990,7 @@
       <c r="G51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="20">
@@ -4950,14 +5000,14 @@
         <v>100</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" ref="C52:C60" si="4">C51+B52</f>
-        <v>2938</v>
+        <f t="shared" si="3"/>
+        <v>2838</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -4966,7 +5016,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -4974,17 +5024,17 @@
         <v>41200</v>
       </c>
       <c r="B53" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="4"/>
-        <v>2968</v>
+        <f t="shared" ref="C53:C61" si="4">C52+B53</f>
+        <v>2938</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
@@ -4992,24 +5042,26 @@
       <c r="G53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="19"/>
+      <c r="H53" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="20">
         <v>41200</v>
       </c>
       <c r="B54" s="26">
-        <v>-345</v>
+        <v>30</v>
       </c>
       <c r="C54" s="8">
         <f t="shared" si="4"/>
-        <v>2623</v>
+        <v>2968</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -5017,24 +5069,24 @@
       <c r="G54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="17">
-        <v>41205</v>
+      <c r="A55" s="20">
+        <v>41200</v>
       </c>
       <c r="B55" s="26">
-        <v>100</v>
+        <v>-345</v>
       </c>
       <c r="C55" s="8">
         <f t="shared" si="4"/>
-        <v>2723</v>
+        <v>2623</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
@@ -5053,13 +5105,13 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" si="4"/>
-        <v>2823</v>
+        <v>2723</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
@@ -5078,13 +5130,13 @@
       </c>
       <c r="C57" s="8">
         <f t="shared" si="4"/>
-        <v>2923</v>
+        <v>2823</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -5103,13 +5155,13 @@
       </c>
       <c r="C58" s="8">
         <f t="shared" si="4"/>
-        <v>3023</v>
+        <v>2923</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -5124,17 +5176,17 @@
         <v>41205</v>
       </c>
       <c r="B59" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C59" s="8">
         <f t="shared" si="4"/>
-        <v>3053</v>
+        <v>3023</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
@@ -5142,51 +5194,49 @@
       <c r="G59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="19"/>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="17">
         <v>41205</v>
       </c>
       <c r="B60" s="26">
-        <v>-320</v>
+        <v>30</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" si="4"/>
+        <v>3053</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="17">
+        <v>41205</v>
+      </c>
+      <c r="B61" s="26">
+        <v>-320</v>
+      </c>
+      <c r="C61" s="8">
+        <f t="shared" si="4"/>
         <v>2733</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="20">
-        <v>41207</v>
-      </c>
-      <c r="B61" s="26">
-        <v>100</v>
-      </c>
-      <c r="C61" s="8">
-        <f t="shared" ref="C61:C72" si="5">C60+B61</f>
-        <v>2833</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
@@ -5194,7 +5244,9 @@
       <c r="G61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="20">
@@ -5204,14 +5256,14 @@
         <v>100</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="5"/>
-        <v>2933</v>
+        <f t="shared" ref="C62:C73" si="5">C61+B62</f>
+        <v>2833</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
@@ -5230,13 +5282,13 @@
       </c>
       <c r="C63" s="8">
         <f t="shared" si="5"/>
-        <v>3033</v>
+        <v>2933</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
@@ -5251,17 +5303,17 @@
         <v>41207</v>
       </c>
       <c r="B64" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C64" s="8">
         <f t="shared" si="5"/>
-        <v>3063</v>
+        <v>3033</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
@@ -5280,13 +5332,13 @@
       </c>
       <c r="C65" s="8">
         <f t="shared" si="5"/>
-        <v>3093</v>
+        <v>3063</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -5294,24 +5346,24 @@
       <c r="G65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="19"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="20">
         <v>41207</v>
       </c>
       <c r="B66" s="26">
-        <v>-340</v>
+        <v>30</v>
       </c>
       <c r="C66" s="8">
         <f t="shared" si="5"/>
-        <v>2753</v>
+        <v>3093</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
@@ -5319,26 +5371,24 @@
       <c r="G66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="17">
-        <v>41214</v>
+      <c r="A67" s="20">
+        <v>41207</v>
       </c>
       <c r="B67" s="26">
-        <v>100</v>
+        <v>-340</v>
       </c>
       <c r="C67" s="8">
         <f t="shared" si="5"/>
-        <v>2853</v>
+        <v>2753</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
@@ -5346,7 +5396,9 @@
       <c r="G67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
@@ -5357,13 +5409,13 @@
       </c>
       <c r="C68" s="8">
         <f t="shared" si="5"/>
-        <v>2953</v>
+        <v>2853</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
@@ -5382,13 +5434,13 @@
       </c>
       <c r="C69" s="8">
         <f t="shared" si="5"/>
-        <v>3053</v>
+        <v>2953</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
@@ -5407,13 +5459,13 @@
       </c>
       <c r="C70" s="8">
         <f t="shared" si="5"/>
-        <v>3153</v>
+        <v>3053</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>6</v>
@@ -5428,17 +5480,17 @@
         <v>41214</v>
       </c>
       <c r="B71" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C71" s="8">
         <f t="shared" si="5"/>
-        <v>3183</v>
+        <v>3153</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>6</v>
@@ -5446,49 +5498,49 @@
       <c r="G71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H71" s="19"/>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="17">
         <v>41214</v>
       </c>
       <c r="B72" s="26">
-        <v>-345</v>
+        <v>30</v>
       </c>
       <c r="C72" s="8">
         <f t="shared" si="5"/>
+        <v>3183</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="19"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="17">
+        <v>41214</v>
+      </c>
+      <c r="B73" s="26">
+        <v>-345</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" si="5"/>
         <v>2838</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="20">
-        <v>41219</v>
-      </c>
-      <c r="B73" s="26">
-        <v>100</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" ref="C73:C79" si="6">C72+B73</f>
-        <v>2938</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>6</v>
@@ -5496,49 +5548,49 @@
       <c r="G73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="19"/>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="20">
         <v>41219</v>
       </c>
       <c r="B74" s="26">
+        <v>100</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" ref="C74:C80" si="6">C73+B74</f>
+        <v>2938</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="19"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="20">
+        <v>41219</v>
+      </c>
+      <c r="B75" s="26">
         <v>-345</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C75" s="8">
         <f t="shared" si="6"/>
         <v>2593</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="17">
-        <v>41221</v>
-      </c>
-      <c r="B75" s="26">
-        <v>100</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" si="6"/>
-        <v>2693</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>6</v>
@@ -5557,13 +5609,13 @@
       </c>
       <c r="C76" s="8">
         <f t="shared" si="6"/>
-        <v>2793</v>
+        <v>2693</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>6</v>
@@ -5582,13 +5634,13 @@
       </c>
       <c r="C77" s="8">
         <f t="shared" si="6"/>
-        <v>2893</v>
+        <v>2793</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
@@ -5603,17 +5655,17 @@
         <v>41221</v>
       </c>
       <c r="B78" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C78" s="8">
         <f t="shared" si="6"/>
-        <v>2923</v>
+        <v>2893</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
@@ -5632,13 +5684,13 @@
       </c>
       <c r="C79" s="8">
         <f t="shared" si="6"/>
-        <v>2953</v>
+        <v>2923</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
@@ -5646,7 +5698,7 @@
       <c r="G79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H79" s="19"/>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="17">
@@ -5656,14 +5708,14 @@
         <v>30</v>
       </c>
       <c r="C80" s="8">
-        <f t="shared" ref="C80:C85" si="7">C79+B80</f>
-        <v>2983</v>
+        <f t="shared" si="6"/>
+        <v>2953</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>6</v>
@@ -5678,42 +5730,42 @@
         <v>41221</v>
       </c>
       <c r="B81" s="26">
+        <v>30</v>
+      </c>
+      <c r="C81" s="8">
+        <f t="shared" ref="C81:C86" si="7">C80+B81</f>
+        <v>2983</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="17">
+        <v>41221</v>
+      </c>
+      <c r="B82" s="26">
         <v>-345</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C82" s="8">
         <f t="shared" si="7"/>
         <v>2638</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82" s="20">
-        <v>41226</v>
-      </c>
-      <c r="B82" s="26">
-        <v>100</v>
-      </c>
-      <c r="C82" s="8">
-        <f t="shared" si="7"/>
-        <v>2738</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>6</v>
@@ -5732,13 +5784,13 @@
       </c>
       <c r="C83" s="8">
         <f t="shared" si="7"/>
-        <v>2838</v>
+        <v>2738</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>6</v>
@@ -5757,13 +5809,13 @@
       </c>
       <c r="C84" s="8">
         <f t="shared" si="7"/>
-        <v>2938</v>
+        <v>2838</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>6</v>
@@ -5782,13 +5834,13 @@
       </c>
       <c r="C85" s="8">
         <f t="shared" si="7"/>
-        <v>3038</v>
+        <v>2938</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>6</v>
@@ -5796,7 +5848,7 @@
       <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="19"/>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="20">
@@ -5806,14 +5858,14 @@
         <v>100</v>
       </c>
       <c r="C86" s="8">
-        <f>C85+B86</f>
-        <v>3138</v>
+        <f t="shared" si="7"/>
+        <v>3038</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>6</v>
@@ -5821,24 +5873,24 @@
       <c r="G86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="20">
         <v>41226</v>
       </c>
       <c r="B87" s="26">
-        <v>-345</v>
+        <v>100</v>
       </c>
       <c r="C87" s="8">
         <f>C86+B87</f>
-        <v>2793</v>
+        <v>3138</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>6</v>
@@ -5849,21 +5901,21 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="17">
-        <v>41228</v>
+      <c r="A88" s="20">
+        <v>41226</v>
       </c>
       <c r="B88" s="26">
-        <v>100</v>
+        <v>-345</v>
       </c>
       <c r="C88" s="8">
         <f>C87+B88</f>
-        <v>2893</v>
+        <v>2793</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>6</v>
@@ -5881,14 +5933,14 @@
         <v>100</v>
       </c>
       <c r="C89" s="8">
-        <f t="shared" ref="C89:C92" si="8">C88+B89</f>
-        <v>2993</v>
+        <f>C88+B89</f>
+        <v>2893</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>6</v>
@@ -5903,17 +5955,17 @@
         <v>41228</v>
       </c>
       <c r="B90" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C90" s="8">
-        <f t="shared" si="8"/>
-        <v>3023</v>
+        <f t="shared" ref="C90:C93" si="8">C89+B90</f>
+        <v>2993</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>6</v>
@@ -5921,7 +5973,7 @@
       <c r="G90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="19"/>
+      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
@@ -5932,13 +5984,13 @@
       </c>
       <c r="C91" s="8">
         <f t="shared" si="8"/>
-        <v>3053</v>
+        <v>3023</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>6</v>
@@ -5953,17 +6005,17 @@
         <v>41228</v>
       </c>
       <c r="B92" s="26">
-        <v>-345</v>
+        <v>30</v>
       </c>
       <c r="C92" s="8">
         <f t="shared" si="8"/>
-        <v>2708</v>
+        <v>3053</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>6</v>
@@ -5971,24 +6023,24 @@
       <c r="G92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="19"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>41228</v>
       </c>
       <c r="B93" s="26">
-        <v>-70</v>
+        <v>-345</v>
       </c>
       <c r="C93" s="8">
-        <f t="shared" ref="C93" si="9">C92+B93</f>
-        <v>2638</v>
+        <f t="shared" si="8"/>
+        <v>2708</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>6</v>
@@ -5996,61 +6048,61 @@
       <c r="G93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
+        <v>41228</v>
+      </c>
+      <c r="B94" s="26">
+        <v>-70</v>
+      </c>
+      <c r="C94" s="8">
+        <f t="shared" ref="C94" si="9">C93+B94</f>
+        <v>2638</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="17">
         <v>41232</v>
       </c>
-      <c r="B94" s="26">
+      <c r="B95" s="26">
         <v>-65</v>
       </c>
-      <c r="C94" s="8">
-        <f t="shared" ref="C94:C98" si="10">C93+B94</f>
+      <c r="C95" s="8">
+        <f t="shared" ref="C95:C99" si="10">C94+B95</f>
         <v>2573</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A95" s="20">
-        <v>41233</v>
-      </c>
-      <c r="B95" s="26">
-        <v>100</v>
-      </c>
-      <c r="C95" s="8">
-        <f t="shared" si="10"/>
-        <v>2673</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="20">
@@ -6061,13 +6113,13 @@
       </c>
       <c r="C96" s="8">
         <f t="shared" si="10"/>
-        <v>2773</v>
+        <v>2673</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>6</v>
@@ -6086,13 +6138,13 @@
       </c>
       <c r="C97" s="8">
         <f t="shared" si="10"/>
-        <v>2873</v>
+        <v>2773</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>6</v>
@@ -6111,13 +6163,13 @@
       </c>
       <c r="C98" s="8">
         <f t="shared" si="10"/>
-        <v>2973</v>
+        <v>2873</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>6</v>
@@ -6125,7 +6177,7 @@
       <c r="G98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="19"/>
+      <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="20">
@@ -6135,14 +6187,14 @@
         <v>100</v>
       </c>
       <c r="C99" s="8">
-        <f>C98+B99</f>
-        <v>3073</v>
+        <f t="shared" si="10"/>
+        <v>2973</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>6</v>
@@ -6150,32 +6202,57 @@
       <c r="G99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="19"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="20">
         <v>41233</v>
       </c>
       <c r="B100" s="26">
-        <v>-320</v>
+        <v>100</v>
       </c>
       <c r="C100" s="8">
         <f>C99+B100</f>
+        <v>3073</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="20">
+        <v>41233</v>
+      </c>
+      <c r="B101" s="26">
+        <v>-320</v>
+      </c>
+      <c r="C101" s="8">
+        <f>C100+B101</f>
         <v>2753</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H100" s="1"/>
+      <c r="D101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6186,10 +6263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6202,119 +6279,124 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>40442</v>
-      </c>
-      <c r="B2" s="18">
-        <v>810</v>
-      </c>
-      <c r="C2" s="8">
-        <v>810</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="29">
+        <f>SUM(B3:B350)</f>
+        <v>760</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
-        <v>40443</v>
+        <v>40442</v>
       </c>
       <c r="B3" s="18">
-        <v>-20</v>
+        <v>810</v>
       </c>
       <c r="C3" s="8">
-        <f>C2+B3</f>
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
+        <v>40443</v>
+      </c>
+      <c r="B4" s="18">
+        <v>-20</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3+B4</f>
+        <v>790</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
         <v>41205</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B5" s="18">
         <v>-30</v>
       </c>
-      <c r="C4" s="8">
-        <f t="shared" ref="C4" si="0">C3+B4</f>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5" si="0">C4+B5</f>
         <v>760</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
@@ -6565,6 +6647,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6607,10 +6699,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>28</v>
@@ -6710,7 +6802,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -6760,7 +6852,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -6824,7 +6916,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="228">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +48,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鲜明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zigbeer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贰壹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +101,6 @@
   </si>
   <si>
     <t>参加人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shenghak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -558,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,10 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小宋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,10 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逸凡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旅途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,10 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21(121018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TOTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,10 +782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30(121018),30/60(121108),30/90(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>懦夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,15 +811,6 @@
   </si>
   <si>
     <t>100(121023),100/200(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121009),79/199(121018),100/299(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
--40/5780(121106调),390/6170(121108),500/6670(121113),260/6930(121115),500/7430(121120)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -936,6 +895,52 @@
   <si>
     <t>额外
 缴纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121018),30/60(121108),30/90(121115),30/120(121122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜菜外交部报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shenghak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009),100/220(121018),100/320(121120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660/4500(121018),430/4930(121023),360/5290(121025),430/5720(121101),100/5820(121106),
+-40/5780(121106调),390/6170(121108),500/6670(121113),260/6930(121115),500/7430(121120),
+230/7660(121122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小贝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1475,25 +1480,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>0</v>
@@ -1512,7 +1517,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1525,15 +1530,15 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="30">
         <f>幸福!B2</f>
-        <v>2753</v>
+        <v>3663</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1543,7 +1548,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="30">
@@ -1551,7 +1556,7 @@
         <v>760</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1561,15 +1566,15 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="30">
         <f>C8</f>
-        <v>3327.7557894736865</v>
+        <v>3221.7557894736856</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1579,55 +1584,55 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="30">
         <f>C4+C5-C6</f>
-        <v>185.24421052631351</v>
+        <v>1201.2442105263144</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="12">
-        <f t="shared" ref="C8:H8" si="0">SUM(C9:C92)</f>
-        <v>3327.7557894736865</v>
+        <f>SUM(C9:C90)</f>
+        <v>3221.7557894736856</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:D90)</f>
         <v>925.43999999999994</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>7430</v>
+        <f>SUM(E9:E90)</f>
+        <v>7660</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>4768.6842105263158</v>
+        <f>SUM(F9:F90)</f>
+        <v>5088.6842105263158</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(G9:G90)</f>
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>259</v>
+        <f>SUM(H9:H90)</f>
+        <v>275</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1638,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" ref="C9:C40" si="1">D9+E9+G9-F9-H9</f>
+        <f t="shared" ref="C9:C40" si="0">D9+E9+G9-F9-H9</f>
         <v>22.882105263157893</v>
       </c>
       <c r="D9" s="2">
@@ -1657,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1665,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.833333333333332</v>
       </c>
       <c r="D10" s="2">
@@ -1687,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1698,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60.508771929824562</v>
       </c>
       <c r="D11" s="2">
@@ -1717,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1725,11 +1730,11 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" si="1"/>
-        <v>99.994561403508811</v>
+        <f t="shared" si="0"/>
+        <v>63.43900584795324</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1739,15 +1744,15 @@
       </c>
       <c r="F12" s="9">
         <f>'201201'!D12</f>
-        <v>187.4254385964912</v>
+        <v>222.98099415204678</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>'201201'!C12</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1755,10 +1760,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>105.6809090909091</v>
       </c>
       <c r="D13" s="2">
@@ -1777,7 +1782,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1785,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.9933333333333323</v>
       </c>
       <c r="D14" s="2">
@@ -1811,10 +1816,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90.04213716108454</v>
       </c>
       <c r="D15" s="2">
@@ -1833,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1841,11 +1846,11 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" si="1"/>
-        <v>66.818654970760235</v>
+        <f t="shared" si="0"/>
+        <v>48.040877192982464</v>
       </c>
       <c r="D16" s="2">
         <v>3.94</v>
@@ -1855,15 +1860,15 @@
       </c>
       <c r="F16" s="9">
         <f>'201201'!D16</f>
-        <v>149.12134502923976</v>
+        <v>166.89912280701753</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <f>'201201'!C16</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1874,8 +1879,8 @@
         <v>4</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="1"/>
-        <v>105.7021052631579</v>
+        <f t="shared" si="0"/>
+        <v>86.924327485380132</v>
       </c>
       <c r="D17" s="2">
         <v>2.36</v>
@@ -1885,15 +1890,15 @@
       </c>
       <c r="F17" s="9">
         <f>'201201'!D17</f>
-        <v>110.65789473684211</v>
+        <v>128.43567251461988</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8">
         <f>'201201'!C17</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1904,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.919883040935687</v>
       </c>
       <c r="D18" s="2">
@@ -1923,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1931,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>76.539681020733639</v>
       </c>
       <c r="D19" s="2">
@@ -1953,19 +1958,19 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
+      <c r="B20" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="1"/>
-        <v>33.771988304093554</v>
+        <f t="shared" si="0"/>
+        <v>14.994210526315783</v>
       </c>
       <c r="D20" s="2">
         <v>12.31</v>
@@ -1975,15 +1980,15 @@
       </c>
       <c r="F20" s="9">
         <f>'201201'!D20</f>
-        <v>93.538011695906448</v>
+        <v>111.31578947368422</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8">
         <f>'201201'!C20</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1991,10 +1996,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81.602339181286538</v>
       </c>
       <c r="D21" s="2">
@@ -2013,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -2021,10 +2026,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79.738803827751212</v>
       </c>
       <c r="D22" s="2">
@@ -2043,18 +2048,18 @@
         <v>8</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>14</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
+      <c r="B23" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44.19</v>
       </c>
       <c r="D23" s="2">
@@ -2077,11 +2082,11 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" si="1"/>
-        <v>73.505470494417864</v>
+        <f t="shared" si="0"/>
+        <v>54.727692716640092</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
@@ -2091,15 +2096,15 @@
       </c>
       <c r="F24" s="9">
         <f>'201201'!D24</f>
-        <v>128.58452950558214</v>
+        <v>146.36230728335991</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <f>'201201'!C24</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2107,11 +2112,11 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" si="1"/>
-        <v>55.702105263157904</v>
+        <f t="shared" si="0"/>
+        <v>36.924327485380132</v>
       </c>
       <c r="D25" s="2">
         <v>15.36</v>
@@ -2121,15 +2126,15 @@
       </c>
       <c r="F25" s="9">
         <f>'201201'!D25</f>
-        <v>75.65789473684211</v>
+        <v>93.435672514619881</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="8">
         <f>'201201'!C25</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -2137,29 +2142,29 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" si="1"/>
-        <v>41.473216374269001</v>
+        <f t="shared" si="0"/>
+        <v>52.695438596491215</v>
       </c>
       <c r="D26" s="2">
         <v>51.02</v>
       </c>
       <c r="E26" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F26" s="9">
         <f>'201201'!D26</f>
-        <v>94.54678362573101</v>
+        <v>112.3245614035088</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8">
         <f>'201201'!C26</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2167,10 +2172,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58.98424242424241</v>
       </c>
       <c r="D27" s="2">
@@ -2189,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2197,10 +2202,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25.390909090909105</v>
       </c>
       <c r="D28" s="2">
@@ -2219,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2227,10 +2232,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65.34210526315789</v>
       </c>
       <c r="D29" s="2">
@@ -2249,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2257,10 +2262,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.168803827751191</v>
       </c>
       <c r="D30" s="2">
@@ -2279,18 +2284,18 @@
         <v>5</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>22</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>77</v>
+      <c r="B31" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79.833333333333329</v>
       </c>
       <c r="D31" s="2">
@@ -2309,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2317,36 +2322,40 @@
         <v>23</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" si="1"/>
-        <v>9.8021052631578947</v>
+        <f t="shared" si="0"/>
+        <v>91.024327485380127</v>
       </c>
       <c r="D32" s="2">
         <v>28.96</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>100</v>
+      </c>
       <c r="F32" s="9">
         <f>'201201'!D32</f>
-        <v>18.157894736842106</v>
+        <v>35.935672514619881</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="8">
         <f>'201201'!C32</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80.645438596491232</v>
       </c>
       <c r="D33" s="2">
@@ -2365,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2373,10 +2382,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.933014354066984</v>
       </c>
       <c r="D34" s="2">
@@ -2395,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2403,10 +2412,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54.357575757575745</v>
       </c>
       <c r="D35" s="2">
@@ -2425,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2433,10 +2442,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32.769914938862314</v>
       </c>
       <c r="D36" s="2">
@@ -2455,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2463,10 +2472,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75.37</v>
       </c>
       <c r="D37" s="2">
@@ -2485,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2493,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.86424242424242</v>
       </c>
       <c r="D38" s="2">
@@ -2515,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2523,10 +2532,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60.75</v>
       </c>
       <c r="D39" s="2">
@@ -2545,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2553,11 +2562,11 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C40" s="12">
-        <f t="shared" si="1"/>
-        <v>78.104444444444425</v>
+        <f t="shared" si="0"/>
+        <v>59.326666666666654</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
@@ -2567,15 +2576,15 @@
       </c>
       <c r="F40" s="9">
         <f>'201201'!D40</f>
-        <v>130.55555555555557</v>
+        <v>148.33333333333334</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <f>'201201'!C40</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2583,10 +2592,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C72" si="2">D41+E41+G41-F41-H41</f>
+        <f t="shared" ref="C41:C70" si="1">D41+E41+G41-F41-H41</f>
         <v>89.878803827751184</v>
       </c>
       <c r="D41" s="2">
@@ -2605,37 +2614,37 @@
         <v>6</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>37</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>170</v>
+      <c r="B42" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="C42" s="12">
-        <f t="shared" si="2"/>
-        <v>4.8754385964912217</v>
+        <f t="shared" si="1"/>
+        <v>86.097660818713422</v>
       </c>
       <c r="D42" s="2">
         <v>4.7</v>
       </c>
       <c r="E42" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F42" s="9">
         <f>'201201'!D42</f>
-        <v>94.824561403508781</v>
+        <v>112.60233918128657</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8">
         <f>'201201'!C42</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2643,11 +2652,11 @@
         <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" si="2"/>
-        <v>82.20321637426899</v>
+        <f t="shared" si="1"/>
+        <v>63.425438596491205</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -2657,15 +2666,15 @@
       </c>
       <c r="F43" s="9">
         <f>'201201'!D43</f>
-        <v>111.79678362573101</v>
+        <v>129.5745614035088</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8">
         <f>'201201'!C43</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2673,10 +2682,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110.77988304093566</v>
       </c>
       <c r="D44" s="2">
@@ -2695,7 +2704,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2703,10 +2712,10 @@
         <v>69</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C45" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
       <c r="D45" s="2">
@@ -2729,10 +2738,10 @@
         <v>77</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5733333333333341</v>
       </c>
       <c r="D46" s="2">
@@ -2751,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2759,10 +2768,10 @@
         <v>87</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C47" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80.675438596491233</v>
       </c>
       <c r="D47" s="2">
@@ -2781,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2789,11 +2798,11 @@
         <v>88</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" si="2"/>
-        <v>51.409681020733657</v>
+        <f t="shared" si="1"/>
+        <v>32.631903242955872</v>
       </c>
       <c r="D48" s="2">
         <v>26.06</v>
@@ -2803,15 +2812,15 @@
       </c>
       <c r="F48" s="9">
         <f>'201201'!D48</f>
-        <v>89.650318979266345</v>
+        <v>107.42809675704413</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="8">
         <f>'201201'!C48</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2819,29 +2828,29 @@
         <v>97</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" si="2"/>
-        <v>85.044125465178098</v>
+        <f t="shared" si="1"/>
+        <v>68.099681020733669</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F49" s="9">
         <f>'201201'!D49</f>
-        <v>202.9558745348219</v>
+        <v>239.90031897926633</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <f>'201201'!C49</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2849,10 +2858,10 @@
         <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60.286347687400323</v>
       </c>
       <c r="D50" s="2">
@@ -2871,17 +2880,17 @@
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
-        <v>23</v>
+      <c r="B51" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="2"/>
-        <v>35.435470494417871</v>
+        <f t="shared" si="1"/>
+        <v>16.657692716640099</v>
       </c>
       <c r="D51" s="2">
         <v>28.77</v>
@@ -2891,24 +2900,24 @@
       </c>
       <c r="F51" s="9">
         <f>'201201'!D51</f>
-        <v>88.33452950558214</v>
+        <v>106.11230728335991</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <f>'201201'!C51</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.193333333333332</v>
       </c>
       <c r="D52" s="2">
@@ -2929,10 +2938,10 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52.697575757575748</v>
       </c>
       <c r="D53" s="2">
@@ -2951,16 +2960,16 @@
         <v>3</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86.602137161084542</v>
       </c>
       <c r="D54" s="2">
@@ -2979,17 +2988,17 @@
         <v>7</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" si="2"/>
-        <v>88.521111111111111</v>
+        <f t="shared" si="1"/>
+        <v>69.743333333333325</v>
       </c>
       <c r="D55" s="2">
         <v>8.41</v>
@@ -2999,25 +3008,25 @@
       </c>
       <c r="F55" s="9">
         <f>'201201'!D55</f>
-        <v>18.888888888888889</v>
+        <v>36.666666666666671</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <f>'201201'!C55</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" si="2"/>
-        <v>21.628654970760223</v>
+        <f t="shared" si="1"/>
+        <v>2.8508771929824377</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -3027,24 +3036,24 @@
       </c>
       <c r="F56" s="9">
         <f>'201201'!D56</f>
-        <v>74.371345029239777</v>
+        <v>92.149122807017562</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="8">
         <f>'201201'!C56</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C57" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50.675438596491226</v>
       </c>
       <c r="D57" s="2">
@@ -3063,16 +3072,16 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45.77</v>
       </c>
       <c r="D58" s="2">
@@ -3093,10 +3102,10 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="21" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24.91547049441786</v>
       </c>
       <c r="D59" s="2">
@@ -3115,16 +3124,16 @@
         <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C60" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.8333333333333321</v>
       </c>
       <c r="D60" s="2">
@@ -3143,101 +3152,101 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="21" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C61" s="12">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333215</v>
+        <f t="shared" si="1"/>
+        <v>19.6111111111111</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="F61" s="9">
         <f>'201201'!D61</f>
-        <v>19.166666666666668</v>
+        <v>76.3888888888889</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="8">
         <f>'201201'!C61</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
-      <c r="B62" s="21" t="s">
-        <v>181</v>
+      <c r="B62" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C62" s="12">
-        <f t="shared" si="2"/>
-        <v>19.6111111111111</v>
+        <f t="shared" si="1"/>
+        <v>65.294125465178084</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
       </c>
       <c r="E62" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F62" s="9">
         <f>'201201'!D62</f>
-        <v>76.3888888888889</v>
+        <v>127.70587453482192</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="8">
         <f>'201201'!C62</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C63" s="12">
-        <f t="shared" si="2"/>
-        <v>65.294125465178084</v>
+        <f t="shared" si="1"/>
+        <v>45.082137161084532</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
       </c>
       <c r="E63" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F63" s="9">
         <f>'201201'!D63</f>
-        <v>127.70587453482192</v>
+        <v>51.917862838915468</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="8">
         <f>'201201'!C63</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C64" s="12">
-        <f t="shared" si="2"/>
-        <v>45.082137161084532</v>
+        <f t="shared" si="1"/>
+        <v>40.786549707602333</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -3247,7 +3256,7 @@
       </c>
       <c r="F64" s="9">
         <f>'201201'!D64</f>
-        <v>51.917862838915468</v>
+        <v>56.213450292397667</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="8">
@@ -3255,17 +3264,17 @@
         <v>3</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C65" s="12">
-        <f t="shared" si="2"/>
-        <v>40.786549707602333</v>
+        <f t="shared" si="1"/>
+        <v>80.111111111111114</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -3275,137 +3284,137 @@
       </c>
       <c r="F65" s="9">
         <f>'201201'!D65</f>
-        <v>56.213450292397667</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="8">
         <f>'201201'!C65</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" si="2"/>
-        <v>80.111111111111114</v>
+        <f t="shared" si="1"/>
+        <v>91.861111111111114</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F66" s="9">
         <f>'201201'!D66</f>
-        <v>18.888888888888889</v>
+        <v>36.138888888888886</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="8">
         <f>'201201'!C66</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
-        <v>157</v>
+      <c r="B67" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="C67" s="12">
-        <f t="shared" si="2"/>
-        <v>91.861111111111114</v>
+        <f t="shared" si="1"/>
+        <v>10.111111111111111</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F67" s="9">
         <f>'201201'!D67</f>
-        <v>36.138888888888886</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="8">
         <f>'201201'!C67</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
-      <c r="B68" s="23" t="s">
-        <v>165</v>
+      <c r="B68" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" si="2"/>
-        <v>10.111111111111111</v>
+        <f t="shared" si="1"/>
+        <v>83.647660818713433</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
       </c>
       <c r="E68" s="2">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="F68" s="9">
         <f>'201201'!D68</f>
-        <v>18.888888888888889</v>
+        <v>72.352339181286567</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="8">
         <f>'201201'!C68</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
-        <v>189</v>
+      <c r="B69" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="C69" s="12">
-        <f t="shared" si="2"/>
-        <v>102.42543859649122</v>
+        <f t="shared" si="1"/>
+        <v>9.8333333333333321</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
       </c>
       <c r="E69" s="2">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F69" s="9">
         <f>'201201'!D69</f>
-        <v>54.574561403508781</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="8">
         <f>'201201'!C69</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="21" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C70" s="12">
-        <f t="shared" si="2"/>
-        <v>9.8333333333333321</v>
+        <f t="shared" si="1"/>
+        <v>10.842105263157894</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -3415,7 +3424,7 @@
       </c>
       <c r="F70" s="9">
         <f>'201201'!D70</f>
-        <v>19.166666666666668</v>
+        <v>18.157894736842106</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="8">
@@ -3423,60 +3432,30 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="9">
-        <f>'201201'!D71</f>
-        <v>0</v>
-      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="8">
-        <f>'201201'!C71</f>
-        <v>0</v>
-      </c>
+      <c r="H71" s="8"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
-      <c r="B72" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" s="12">
-        <f t="shared" si="2"/>
-        <v>10.842105263157894</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2">
-        <v>30</v>
-      </c>
-      <c r="F72" s="9">
-        <f>'201201'!D72</f>
-        <v>18.157894736842106</v>
-      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="8">
-        <f>'201201'!C72</f>
-        <v>1</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
@@ -3676,28 +3655,6 @@
       <c r="H90" s="8"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3707,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3723,37 +3680,37 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(B3:B350)</f>
-        <v>2753</v>
+        <v>3663</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -3773,10 +3730,10 @@
         <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -3785,7 +3742,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3803,7 +3760,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3825,10 +3782,10 @@
         <v>468</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3850,10 +3807,10 @@
         <v>503</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3875,10 +3832,10 @@
         <v>603</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3900,10 +3857,10 @@
         <v>703</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -3925,10 +3882,10 @@
         <v>803</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -3950,10 +3907,10 @@
         <v>843</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3975,10 +3932,10 @@
         <v>943</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -4000,10 +3957,10 @@
         <v>1043</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -4025,10 +3982,10 @@
         <v>1143</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -4050,10 +4007,10 @@
         <v>1243</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -4075,10 +4032,10 @@
         <v>1343</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -4100,10 +4057,10 @@
         <v>1373</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
@@ -4125,10 +4082,10 @@
         <v>1473</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -4150,10 +4107,10 @@
         <v>1573</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -4175,10 +4132,10 @@
         <v>1673</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -4200,10 +4157,10 @@
         <v>1773</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -4225,10 +4182,10 @@
         <v>1793</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -4250,10 +4207,10 @@
         <v>1693</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -4262,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -4277,10 +4234,10 @@
         <v>1348</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -4302,10 +4259,10 @@
         <v>1448</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -4327,10 +4284,10 @@
         <v>1548</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -4352,10 +4309,10 @@
         <v>1648</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
@@ -4377,10 +4334,10 @@
         <v>1718</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -4402,10 +4359,10 @@
         <v>1818</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -4427,10 +4384,10 @@
         <v>1918</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -4452,10 +4409,10 @@
         <v>2018</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -4477,10 +4434,10 @@
         <v>2118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -4502,10 +4459,10 @@
         <v>2218</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4527,10 +4484,10 @@
         <v>2318</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -4552,10 +4509,10 @@
         <v>1968</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -4577,10 +4534,10 @@
         <v>2068</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -4602,10 +4559,10 @@
         <v>2168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
@@ -4627,10 +4584,10 @@
         <v>2268</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
@@ -4652,10 +4609,10 @@
         <v>2368</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
@@ -4677,10 +4634,10 @@
         <v>2468</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
@@ -4702,10 +4659,10 @@
         <v>2568</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -4727,10 +4684,10 @@
         <v>2228</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
@@ -4739,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -4754,10 +4711,10 @@
         <v>2328</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>6</v>
@@ -4779,10 +4736,10 @@
         <v>2428</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>6</v>
@@ -4804,10 +4761,10 @@
         <v>2528</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>6</v>
@@ -4829,10 +4786,10 @@
         <v>2628</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>6</v>
@@ -4854,10 +4811,10 @@
         <v>2653</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>6</v>
@@ -4879,10 +4836,10 @@
         <v>2308</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>6</v>
@@ -4907,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>6</v>
@@ -4929,10 +4886,10 @@
         <v>2608</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>6</v>
@@ -4954,10 +4911,10 @@
         <v>2708</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>6</v>
@@ -4979,10 +4936,10 @@
         <v>2738</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -5004,10 +4961,10 @@
         <v>2838</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -5016,7 +4973,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -5031,10 +4988,10 @@
         <v>2938</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
@@ -5043,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -5058,10 +5015,10 @@
         <v>2968</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -5083,10 +5040,10 @@
         <v>2623</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>6</v>
@@ -5108,10 +5065,10 @@
         <v>2723</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>6</v>
@@ -5133,10 +5090,10 @@
         <v>2823</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -5158,10 +5115,10 @@
         <v>2923</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -5183,10 +5140,10 @@
         <v>3023</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>6</v>
@@ -5208,10 +5165,10 @@
         <v>3053</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>6</v>
@@ -5233,10 +5190,10 @@
         <v>2733</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>6</v>
@@ -5245,7 +5202,7 @@
         <v>6</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -5260,10 +5217,10 @@
         <v>2833</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>6</v>
@@ -5285,10 +5242,10 @@
         <v>2933</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>6</v>
@@ -5310,10 +5267,10 @@
         <v>3033</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>6</v>
@@ -5335,10 +5292,10 @@
         <v>3063</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
@@ -5360,10 +5317,10 @@
         <v>3093</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>6</v>
@@ -5385,10 +5342,10 @@
         <v>2753</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>6</v>
@@ -5397,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -5412,10 +5369,10 @@
         <v>2853</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>6</v>
@@ -5437,10 +5394,10 @@
         <v>2953</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>6</v>
@@ -5462,10 +5419,10 @@
         <v>3053</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>6</v>
@@ -5487,10 +5444,10 @@
         <v>3153</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>6</v>
@@ -5512,10 +5469,10 @@
         <v>3183</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>6</v>
@@ -5537,10 +5494,10 @@
         <v>2838</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>6</v>
@@ -5562,10 +5519,10 @@
         <v>2938</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>6</v>
@@ -5587,10 +5544,10 @@
         <v>2593</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>6</v>
@@ -5612,10 +5569,10 @@
         <v>2693</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>6</v>
@@ -5637,10 +5594,10 @@
         <v>2793</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>6</v>
@@ -5662,10 +5619,10 @@
         <v>2893</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
@@ -5687,10 +5644,10 @@
         <v>2923</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
@@ -5712,10 +5669,10 @@
         <v>2953</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>6</v>
@@ -5737,10 +5694,10 @@
         <v>2983</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>6</v>
@@ -5762,10 +5719,10 @@
         <v>2638</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>6</v>
@@ -5787,10 +5744,10 @@
         <v>2738</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>6</v>
@@ -5812,10 +5769,10 @@
         <v>2838</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>6</v>
@@ -5837,10 +5794,10 @@
         <v>2938</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>6</v>
@@ -5862,10 +5819,10 @@
         <v>3038</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>6</v>
@@ -5890,7 +5847,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>6</v>
@@ -5912,10 +5869,10 @@
         <v>2793</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>6</v>
@@ -5937,10 +5894,10 @@
         <v>2893</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>6</v>
@@ -5962,10 +5919,10 @@
         <v>2993</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>6</v>
@@ -5987,10 +5944,10 @@
         <v>3023</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>6</v>
@@ -6012,10 +5969,10 @@
         <v>3053</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>6</v>
@@ -6037,10 +5994,10 @@
         <v>2708</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>6</v>
@@ -6065,7 +6022,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>6</v>
@@ -6074,7 +6031,7 @@
         <v>6</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
@@ -6092,7 +6049,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>6</v>
@@ -6101,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
@@ -6116,10 +6073,10 @@
         <v>2673</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>6</v>
@@ -6141,10 +6098,10 @@
         <v>2773</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>6</v>
@@ -6166,10 +6123,10 @@
         <v>2873</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>6</v>
@@ -6191,10 +6148,10 @@
         <v>2973</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>6</v>
@@ -6216,10 +6173,10 @@
         <v>3073</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>6</v>
@@ -6241,10 +6198,10 @@
         <v>2753</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>6</v>
@@ -6253,6 +6210,133 @@
         <v>6</v>
       </c>
       <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="17">
+        <v>41235</v>
+      </c>
+      <c r="B102" s="26">
+        <v>100</v>
+      </c>
+      <c r="C102" s="8">
+        <f>C101+B102</f>
+        <v>2853</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="17">
+        <v>41235</v>
+      </c>
+      <c r="B103" s="26">
+        <v>100</v>
+      </c>
+      <c r="C103" s="8">
+        <f t="shared" ref="C103:C106" si="11">C102+B103</f>
+        <v>2953</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="17">
+        <v>41235</v>
+      </c>
+      <c r="B104" s="26">
+        <v>30</v>
+      </c>
+      <c r="C104" s="8">
+        <f t="shared" si="11"/>
+        <v>2983</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="17">
+        <v>41235</v>
+      </c>
+      <c r="B105" s="26">
+        <v>-320</v>
+      </c>
+      <c r="C105" s="8">
+        <f t="shared" si="11"/>
+        <v>2663</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="17">
+        <v>41235</v>
+      </c>
+      <c r="B106" s="26">
+        <v>1000</v>
+      </c>
+      <c r="C106" s="8">
+        <f t="shared" si="11"/>
+        <v>3663</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6279,33 +6363,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B2" s="29">
         <f>SUM(B3:B350)</f>
@@ -6329,19 +6413,19 @@
         <v>810</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -6356,19 +6440,19 @@
         <v>790</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -6383,19 +6467,19 @@
         <v>760</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -6667,11 +6751,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R66" sqref="R66"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6691,21 +6775,21 @@
     <col min="14" max="15" width="10.125" customWidth="1"/>
     <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.75" customWidth="1"/>
-    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="16">
         <v>41172</v>
@@ -6749,10 +6833,13 @@
       <c r="R1" s="16">
         <v>41233</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" s="16">
+        <v>41235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -6799,10 +6886,13 @@
       <c r="R2" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -6849,10 +6939,13 @@
       <c r="R3" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S3" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -6913,142 +7006,154 @@
         <f t="shared" si="4"/>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S4" s="9">
+        <f t="shared" ref="S4" si="5">S3/S2</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f t="shared" ref="E5:N5" si="5">COUNT(E9:E92)</f>
+        <f>COUNT(E9:E90)</f>
         <v>17</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="5"/>
+        <f>COUNT(F9:F90)</f>
         <v>18</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="5"/>
+        <f>COUNT(G9:G90)</f>
         <v>18</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="5"/>
+        <f>COUNT(H9:H90)</f>
         <v>18</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="5"/>
+        <f>COUNT(I9:I90)</f>
         <v>18</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="5"/>
+        <f>COUNT(J9:J90)</f>
+        <v>17</v>
+      </c>
+      <c r="K5" s="10">
+        <f>COUNT(K9:K90)</f>
+        <v>22</v>
+      </c>
+      <c r="L5" s="10">
+        <f>COUNT(L9:L90)</f>
         <v>18</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="L5" s="10">
-        <f t="shared" si="5"/>
+      <c r="M5" s="10">
+        <f>COUNT(M9:M90)</f>
+        <v>20</v>
+      </c>
+      <c r="N5" s="10">
+        <f>COUNT(N9:N90)</f>
         <v>18</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="5"/>
+      <c r="O5" s="10">
+        <f>COUNT(O9:O90)</f>
         <v>18</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" ref="O5:P5" si="6">COUNT(O9:O92)</f>
+      <c r="P5" s="10">
+        <f>COUNT(P9:P90)</f>
         <v>18</v>
       </c>
-      <c r="P5" s="10">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
       <c r="Q5" s="10">
-        <f t="shared" ref="Q5:R5" si="7">COUNT(Q9:Q92)</f>
+        <f>COUNT(Q9:Q90)</f>
         <v>19</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" si="7"/>
+        <f>COUNT(R9:R90)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S5" s="10">
+        <f>COUNT(S9:S90)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:N6" si="8">SUM(C9:C92)</f>
-        <v>259</v>
+        <f>SUM(C9:C90)</f>
+        <v>275</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="8"/>
-        <v>4768.6842105263158</v>
+        <f>SUM(D9:D90)</f>
+        <v>5088.6842105263158</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(E9:E90)</f>
         <v>308.68421052631578</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(F9:F90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(G9:G90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(H9:H90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(I9:I90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(J9:J90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(K9:K90)</f>
         <v>350.00000000000011</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(L9:L90)</f>
         <v>340.00000000000011</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(M9:M90)</f>
         <v>345</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="8"/>
+        <f>SUM(N9:N90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:P6" si="9">SUM(O9:O92)</f>
+        <f>SUM(O9:O90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="9"/>
+        <f>SUM(P9:P90)</f>
         <v>345.00000000000006</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" ref="Q6:R6" si="10">SUM(Q9:Q92)</f>
+        <f>SUM(Q9:Q90)</f>
         <v>344.99999999999994</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="10"/>
+        <f>SUM(R9:R90)</f>
         <v>320.00000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S6" s="9">
+        <f>SUM(S9:S90)</f>
+        <v>319.99999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -7067,8 +7172,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -7087,8 +7193,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="str">
         <f>member!B9</f>
         <v>家宁</v>
@@ -7098,11 +7205,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="11">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="6">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="12">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="7">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -7122,8 +7229,9 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="str">
         <f>member!B10</f>
         <v>小白</v>
@@ -7133,11 +7241,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -7157,8 +7265,9 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="str">
         <f>member!B11</f>
         <v>狼</v>
@@ -7168,11 +7277,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E11" s="4">
@@ -7198,8 +7307,9 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="str">
         <f>member!B12</f>
         <v>西北</v>
@@ -7209,12 +7319,12 @@
         <v>3</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="12"/>
-        <v>187.4254385964912</v>
+        <f t="shared" si="7"/>
+        <v>222.98099415204678</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -7260,8 +7370,12 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S12" s="18">
+        <f>S4 *2</f>
+        <v>35.555555555555557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="str">
         <f>member!B13</f>
         <v>度日</v>
@@ -7271,11 +7385,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>125.65909090909091</v>
       </c>
       <c r="E13" s="4">
@@ -7313,8 +7427,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="str">
         <f>member!B14</f>
         <v>李正</v>
@@ -7324,11 +7439,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -7348,8 +7463,9 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="str">
         <f>member!B15</f>
         <v>小磊</v>
@@ -7359,11 +7475,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>109.41786283891547</v>
       </c>
       <c r="E15" s="4"/>
@@ -7398,8 +7514,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="str">
         <f>member!B16</f>
         <v>蚕豆</v>
@@ -7409,12 +7526,12 @@
         <v>7</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="12"/>
-        <v>149.12134502923976</v>
+        <f t="shared" si="7"/>
+        <v>166.89912280701753</v>
       </c>
       <c r="E16" s="4">
         <f>E4</f>
@@ -7454,8 +7571,12 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S16" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="str">
         <f>member!B17</f>
         <v>菜菜</v>
@@ -7465,12 +7586,12 @@
         <v>8</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="12"/>
-        <v>110.65789473684211</v>
+        <f t="shared" si="7"/>
+        <v>128.43567251461988</v>
       </c>
       <c r="E17" s="4">
         <f>E4</f>
@@ -7504,8 +7625,12 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S17" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="str">
         <f>member!B18</f>
         <v>老A</v>
@@ -7515,11 +7640,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>92.630116959064324</v>
       </c>
       <c r="E18" s="4">
@@ -7551,8 +7676,9 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="str">
         <f>member!B19</f>
         <v>幸福</v>
@@ -7562,11 +7688,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>182.15031897926636</v>
       </c>
       <c r="E19" s="4">
@@ -7613,8 +7739,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="str">
         <f>member!B20</f>
         <v>鲜明</v>
@@ -7624,12 +7751,12 @@
         <v>11</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="12"/>
-        <v>93.538011695906448</v>
+        <f t="shared" si="7"/>
+        <v>111.31578947368422</v>
       </c>
       <c r="E20" s="4">
         <f>E4</f>
@@ -7660,8 +7787,12 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S20" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="str">
         <f>member!B21</f>
         <v>Zigbeer</v>
@@ -7671,11 +7802,11 @@
         <v>12</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>112.39766081871346</v>
       </c>
       <c r="E21" s="4"/>
@@ -7710,8 +7841,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="str">
         <f>member!B22</f>
         <v>侯盟</v>
@@ -7721,11 +7853,11 @@
         <v>13</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>147.7511961722488</v>
       </c>
       <c r="E22" s="4"/>
@@ -7766,8 +7898,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="str">
         <f>member!B23</f>
         <v>小贝</v>
@@ -7777,11 +7910,11 @@
         <v>14</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -7798,8 +7931,9 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="str">
         <f>member!B24</f>
         <v>古轮木</v>
@@ -7809,12 +7943,12 @@
         <v>15</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="12"/>
-        <v>128.58452950558214</v>
+        <f t="shared" si="7"/>
+        <v>146.36230728335991</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -7851,8 +7985,12 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S24" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="str">
         <f>member!B25</f>
         <v>虫子</v>
@@ -7862,12 +8000,12 @@
         <v>16</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="12"/>
-        <v>75.65789473684211</v>
+        <f t="shared" si="7"/>
+        <v>93.435672514619881</v>
       </c>
       <c r="E25" s="4">
         <f>E4</f>
@@ -7895,8 +8033,12 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S25" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="str">
         <f>member!B26</f>
         <v>4号</v>
@@ -7906,12 +8048,12 @@
         <v>17</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="12"/>
-        <v>94.54678362573101</v>
+        <f t="shared" si="7"/>
+        <v>112.3245614035088</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -7942,8 +8084,12 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R26" s="18"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S26" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="str">
         <f>member!B27</f>
         <v>刀</v>
@@ -7953,11 +8099,11 @@
         <v>18</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>144.82575757575759</v>
       </c>
       <c r="E27" s="4"/>
@@ -7998,8 +8144,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="str">
         <f>member!B28</f>
         <v>活了</v>
@@ -8009,11 +8156,11 @@
         <v>19</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>125.65909090909091</v>
       </c>
       <c r="E28" s="4">
@@ -8051,8 +8198,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="str">
         <f>member!B29</f>
         <v>m8</v>
@@ -8062,11 +8210,11 @@
         <v>20</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E29" s="4">
@@ -8095,8 +8243,9 @@
       </c>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="str">
         <f>member!B30</f>
         <v>贰壹</v>
@@ -8106,11 +8255,11 @@
         <v>21</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>90.251196172248811</v>
       </c>
       <c r="E30" s="4"/>
@@ -8142,8 +8291,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="str">
         <f>member!B31</f>
         <v>温涛</v>
@@ -8153,11 +8303,11 @@
         <v>22</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -8177,8 +8327,9 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="str">
         <f>member!B32</f>
         <v>Sam</v>
@@ -8188,12 +8339,12 @@
         <v>23</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="12"/>
-        <v>18.157894736842106</v>
+        <f t="shared" si="7"/>
+        <v>35.935672514619881</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -8212,8 +8363,12 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R32" s="18"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S32" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="str">
         <f>member!B33</f>
         <v>杨光</v>
@@ -8223,11 +8378,11 @@
         <v>24</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E33" s="4"/>
@@ -8250,8 +8405,9 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R33" s="18"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="str">
         <f>member!B34</f>
         <v>红星</v>
@@ -8261,11 +8417,11 @@
         <v>25</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>34.066985645933016</v>
       </c>
       <c r="E34" s="7">
@@ -8288,8 +8444,9 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="str">
         <f>member!B35</f>
         <v>方亚</v>
@@ -8299,11 +8456,11 @@
         <v>26</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>128.99242424242425</v>
       </c>
       <c r="E35" s="4"/>
@@ -8341,8 +8498,9 @@
       </c>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="str">
         <f>member!B36</f>
         <v>戒影</v>
@@ -8352,11 +8510,11 @@
         <v>27</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>166.64008506113768</v>
       </c>
       <c r="E36" s="4"/>
@@ -8400,8 +8558,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="str">
         <f>member!B37</f>
         <v>尚峰</v>
@@ -8411,11 +8570,11 @@
         <v>28</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>74.75</v>
       </c>
       <c r="E37" s="4"/>
@@ -8444,8 +8603,9 @@
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="str">
         <f>member!B38</f>
         <v>狐狸涛</v>
@@ -8455,11 +8615,11 @@
         <v>29</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E38" s="4"/>
@@ -8482,8 +8642,9 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S38" s="18"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="str">
         <f>member!B39</f>
         <v>小天</v>
@@ -8493,11 +8654,11 @@
         <v>30</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>132.25</v>
       </c>
       <c r="E39" s="4"/>
@@ -8535,8 +8696,9 @@
       </c>
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="str">
         <f>member!B40</f>
         <v>清道夫</v>
@@ -8546,12 +8708,12 @@
         <v>32</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="12"/>
-        <v>130.55555555555557</v>
+        <f t="shared" si="7"/>
+        <v>148.33333333333334</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
@@ -8588,8 +8750,12 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S40" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="str">
         <f>member!B41</f>
         <v>超</v>
@@ -8599,11 +8765,11 @@
         <v>33</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C72" si="13">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C70" si="8">COUNT(E41:ZZ41)</f>
         <v>6</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D72" si="14">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D70" si="9">SUM(E41:ZZ41)</f>
         <v>107.50119617224881</v>
       </c>
       <c r="E41" s="4"/>
@@ -8638,8 +8804,9 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S41" s="18"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="str">
         <f>member!B42</f>
         <v>Smile</v>
@@ -8649,12 +8816,12 @@
         <v>37</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="14"/>
-        <v>94.824561403508781</v>
+        <f t="shared" si="9"/>
+        <v>112.60233918128657</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
@@ -8685,8 +8852,12 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R42" s="18"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S42" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="str">
         <f>member!B43</f>
         <v>小宋</v>
@@ -8696,12 +8867,12 @@
         <v>45</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="14"/>
-        <v>111.79678362573101</v>
+        <f t="shared" si="9"/>
+        <v>129.5745614035088</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -8735,8 +8906,12 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R43" s="18"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S43" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="str">
         <f>member!B44</f>
         <v>赵聪</v>
@@ -8746,11 +8921,11 @@
         <v>55</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>92.630116959064338</v>
       </c>
       <c r="E44" s="4"/>
@@ -8782,8 +8957,9 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R44" s="18"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S44" s="18"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="str">
         <f>member!B45</f>
         <v>腿</v>
@@ -8793,11 +8969,11 @@
         <v>69</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -8814,8 +8990,9 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="str">
         <f>member!B46</f>
         <v>更心</v>
@@ -8825,11 +9002,11 @@
         <v>77</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -8849,8 +9026,9 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="str">
         <f>member!B47</f>
         <v>刘晨</v>
@@ -8860,11 +9038,11 @@
         <v>87</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E47" s="4">
@@ -8887,8 +9065,9 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="str">
         <f>member!B48</f>
         <v>拂晓</v>
@@ -8898,12 +9077,12 @@
         <v>88</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="14"/>
-        <v>89.650318979266345</v>
+        <f t="shared" si="9"/>
+        <v>107.42809675704413</v>
       </c>
       <c r="E48" s="4">
         <f>E4</f>
@@ -8934,8 +9113,12 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S48" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="str">
         <f>member!B49</f>
         <v>R</v>
@@ -8945,43 +9128,43 @@
         <v>97</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="14"/>
-        <v>202.9558745348219</v>
+        <f t="shared" si="9"/>
+        <v>239.90031897926633</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" ref="E49:J49" si="15">E4</f>
+        <f t="shared" ref="E49:I49" si="10">E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H49" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I49" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J49" s="18">
-        <f t="shared" si="15"/>
-        <v>19.166666666666668</v>
+        <f>J4 * 2</f>
+        <v>38.333333333333336</v>
       </c>
       <c r="K49" s="18">
-        <f t="shared" ref="K49:L49" si="16">K4</f>
+        <f t="shared" ref="K49:L49" si="11">K4</f>
         <v>15.909090909090908</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>18.888888888888889</v>
       </c>
       <c r="M49" s="18"/>
@@ -8999,8 +9182,12 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S49" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="str">
         <f>member!B50</f>
         <v>陈磊</v>
@@ -9010,11 +9197,11 @@
         <v>99</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>70.483652312599688</v>
       </c>
       <c r="E50" s="4"/>
@@ -9043,20 +9230,21 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="str">
         <f>member!B51</f>
         <v>Shenghak</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="14"/>
-        <v>88.33452950558214</v>
+        <f t="shared" si="9"/>
+        <v>106.11230728335991</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -9087,19 +9275,23 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S51" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="str">
         <f>member!B52</f>
         <v>张硕</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
@@ -9119,19 +9311,20 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="str">
         <f>member!B53</f>
         <v>孙伟</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>54.242424242424249</v>
       </c>
       <c r="E53" s="4"/>
@@ -9157,19 +9350,20 @@
       </c>
       <c r="Q53" s="18"/>
       <c r="R53" s="18"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S53" s="18"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="str">
         <f>member!B54</f>
         <v>小新</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>126.66786283891547</v>
       </c>
       <c r="E54" s="4"/>
@@ -9207,20 +9401,21 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S54" s="18"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="str">
         <f>member!B55</f>
         <v>小严</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="14"/>
-        <v>18.888888888888889</v>
+        <f t="shared" si="9"/>
+        <v>36.666666666666671</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -9239,20 +9434,24 @@
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S55" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="str">
         <f>member!B56</f>
         <v>懦夫</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="14"/>
-        <v>74.371345029239777</v>
+        <f t="shared" si="9"/>
+        <v>92.149122807017562</v>
       </c>
       <c r="E56" s="7">
         <f>E4</f>
@@ -9280,19 +9479,23 @@
         <v>18.157894736842106</v>
       </c>
       <c r="R56" s="18"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S56" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="str">
         <f>member!B57</f>
         <v>拉齐奥</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E57" s="4">
@@ -9315,19 +9518,20 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S57" s="18"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="str">
         <f>member!B58</f>
         <v>狐狸</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
@@ -9344,19 +9548,20 @@
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S58" s="18"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="str">
         <f>member!B59</f>
         <v>小岭</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>71.08452950558214</v>
       </c>
       <c r="E59" s="4"/>
@@ -9385,19 +9590,20 @@
         <f>R4</f>
         <v>16.842105263157894</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S59" s="18"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="str">
         <f>member!B60</f>
         <v>孙硕</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E60" s="4"/>
@@ -9417,20 +9623,21 @@
       <c r="P60" s="18"/>
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S60" s="18"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="str">
         <f>member!B61</f>
-        <v>R2</v>
+        <v>刘俊峰</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="14"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="9"/>
+        <v>76.3888888888889</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -9442,27 +9649,37 @@
         <v>19.166666666666668</v>
       </c>
       <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
+      <c r="L61" s="18">
+        <f>L4</f>
+        <v>18.888888888888889</v>
+      </c>
       <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
+      <c r="N61" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
+      <c r="P61" s="18">
+        <f>P4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="Q61" s="18"/>
       <c r="R61" s="18"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S61" s="18"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="str">
         <f>member!B62</f>
-        <v>刘俊峰</v>
+        <v>人在旅途</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="14"/>
-        <v>76.3888888888889</v>
+        <f t="shared" si="9"/>
+        <v>127.70587453482192</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -9473,12 +9690,18 @@
         <f>J4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="K62" s="18"/>
+      <c r="K62" s="18">
+        <f>K4</f>
+        <v>15.909090909090908</v>
+      </c>
       <c r="L62" s="18">
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-      <c r="M62" s="18"/>
+      <c r="M62" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
       <c r="N62" s="18">
         <f>N4</f>
         <v>19.166666666666668</v>
@@ -9488,110 +9711,104 @@
         <f>P4</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="Q62" s="18"/>
+      <c r="Q62" s="18">
+        <f>Q4</f>
+        <v>18.157894736842106</v>
+      </c>
       <c r="R62" s="18"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S62" s="18"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="str">
         <f>member!B63</f>
-        <v>人在旅途</v>
+        <v>狮子少爷</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="14"/>
-        <v>127.70587453482192</v>
+        <f t="shared" si="9"/>
+        <v>51.917862838915468</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="18">
-        <f>J4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="J63" s="18"/>
       <c r="K63" s="18">
         <f>K4</f>
         <v>15.909090909090908</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18">
+        <f>N4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18">
+        <f>R4</f>
+        <v>16.842105263157894</v>
+      </c>
+      <c r="S63" s="18"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="str">
+        <f>member!B64</f>
+        <v>Edison</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="9"/>
+        <v>56.213450292397667</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="18">
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-      <c r="M63" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
-      <c r="N63" s="18">
-        <f>N4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18">
-        <f>P4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="Q63" s="18">
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18">
         <f>Q4</f>
         <v>18.157894736842106</v>
       </c>
-      <c r="R63" s="18"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="str">
-        <f>member!B64</f>
-        <v>狮子少爷</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="D64" s="9">
-        <f t="shared" si="14"/>
-        <v>51.917862838915468</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18">
-        <f>K4</f>
-        <v>15.909090909090908</v>
-      </c>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18">
-        <f>N4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18">
-        <f>R4</f>
-        <v>16.842105263157894</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="str">
         <f>member!B65</f>
-        <v>Edison</v>
+        <v>于博霏</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="14"/>
-        <v>56.213450292397667</v>
+        <f t="shared" si="9"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -9606,30 +9823,25 @@
       </c>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
-      <c r="O65" s="18">
-        <f>O4</f>
-        <v>19.166666666666668</v>
-      </c>
+      <c r="O65" s="18"/>
       <c r="P65" s="18"/>
-      <c r="Q65" s="18">
-        <f>Q4</f>
-        <v>18.157894736842106</v>
-      </c>
+      <c r="Q65" s="18"/>
       <c r="R65" s="18"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S65" s="18"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="str">
         <f>member!B66</f>
-        <v>于博霏</v>
+        <v>段晨</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="14"/>
-        <v>18.888888888888889</v>
+        <f t="shared" si="9"/>
+        <v>36.138888888888886</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -9642,26 +9854,30 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-      <c r="M66" s="18"/>
+      <c r="M66" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="18"/>
       <c r="R66" s="18"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S66" s="18"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="str">
         <f>member!B67</f>
-        <v>段晨</v>
+        <v>顾伟强</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="14"/>
-        <v>36.138888888888886</v>
+        <f t="shared" si="9"/>
+        <v>18.888888888888889</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -9674,29 +9890,27 @@
         <f>L4</f>
         <v>18.888888888888889</v>
       </c>
-      <c r="M67" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
+      <c r="M67" s="18"/>
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
       <c r="Q67" s="18"/>
       <c r="R67" s="18"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S67" s="18"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="str">
         <f>member!B68</f>
-        <v>顾伟强</v>
+        <v>小郝</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="14"/>
-        <v>18.888888888888889</v>
+        <f t="shared" si="9"/>
+        <v>72.352339181286567</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -9705,30 +9919,40 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="18">
-        <f>L4</f>
-        <v>18.888888888888889</v>
-      </c>
-      <c r="M68" s="18"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="18">
+        <f>M4</f>
+        <v>17.25</v>
+      </c>
       <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
+      <c r="O68" s="18">
+        <f>O4</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
+      <c r="Q68" s="18">
+        <f>Q4</f>
+        <v>18.157894736842106</v>
+      </c>
       <c r="R68" s="18"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S68" s="18">
+        <f>S4</f>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="str">
         <f>member!B69</f>
-        <v>小郝</v>
+        <v>压岁钱</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="14"/>
-        <v>54.574561403508781</v>
+        <f t="shared" si="9"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -9738,35 +9962,30 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="18">
-        <f>M4</f>
-        <v>17.25</v>
-      </c>
-      <c r="N69" s="18"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" s="18">
         <f>O4</f>
         <v>19.166666666666668</v>
       </c>
       <c r="P69" s="18"/>
-      <c r="Q69" s="18">
-        <f>Q4</f>
-        <v>18.157894736842106</v>
-      </c>
+      <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S69" s="18"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="str">
         <f>member!B70</f>
-        <v>压岁钱</v>
+        <v>TOTO</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" si="14"/>
-        <v>19.166666666666668</v>
+        <f t="shared" si="9"/>
+        <v>18.157894736842106</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -9778,28 +9997,20 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
-      <c r="O70" s="18">
-        <f>O4</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="18">
+        <f>Q4</f>
+        <v>18.157894736842106</v>
+      </c>
       <c r="R70" s="18"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="str">
-        <f>member!B71</f>
-        <v>逸凡</v>
-      </c>
+      <c r="S70" s="18"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A71" s="8"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D71" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
@@ -9814,21 +10025,13 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="str">
-        <f>member!B72</f>
-        <v>TOTO</v>
-      </c>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A72" s="8"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="8">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D72" s="9">
-        <f t="shared" si="14"/>
-        <v>18.157894736842106</v>
-      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
@@ -9841,13 +10044,11 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="18">
-        <f>Q4</f>
-        <v>18.157894736842106</v>
-      </c>
-      <c r="R72" s="18"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9866,8 +10067,9 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9886,8 +10088,9 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9906,8 +10109,9 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9926,8 +10130,9 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9946,8 +10151,9 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9966,8 +10172,9 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9986,8 +10193,9 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S79" s="2"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -10006,8 +10214,9 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -10026,8 +10235,9 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S81" s="2"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -10046,8 +10256,9 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S82" s="2"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -10066,8 +10277,9 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -10086,8 +10298,9 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S84" s="2"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -10106,8 +10319,9 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S85" s="2"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -10126,8 +10340,9 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -10146,8 +10361,9 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -10166,8 +10382,9 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S88" s="2"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -10186,8 +10403,9 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S89" s="2"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -10206,52 +10424,13 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" s="6"/>
+      <c r="S90" s="2"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="230">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -895,14 +895,6 @@
   <si>
     <t>额外
 缴纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(121122)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121122)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -941,6 +933,22 @@
   </si>
   <si>
     <t>小贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121122),10(121122返)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121122),10(121122返)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值一次奖励10元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1458,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,7 +1543,7 @@
       <c r="B4" s="21"/>
       <c r="C4" s="30">
         <f>幸福!B2</f>
-        <v>3663</v>
+        <v>3643</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>209</v>
@@ -1571,7 +1579,7 @@
       <c r="B6" s="24"/>
       <c r="C6" s="30">
         <f>C8</f>
-        <v>3221.7557894736856</v>
+        <v>3241.7557894736856</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>211</v>
@@ -1589,7 +1597,7 @@
       <c r="B7" s="23"/>
       <c r="C7" s="30">
         <f>C4+C5-C6</f>
-        <v>1201.2442105263144</v>
+        <v>1161.2442105263144</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>212</v>
@@ -1608,31 +1616,31 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="12">
-        <f>SUM(C9:C90)</f>
-        <v>3221.7557894736856</v>
+        <f t="shared" ref="C8:H8" si="0">SUM(C9:C90)</f>
+        <v>3241.7557894736856</v>
       </c>
       <c r="D8" s="8">
-        <f>SUM(D9:D90)</f>
+        <f t="shared" si="0"/>
         <v>925.43999999999994</v>
       </c>
       <c r="E8" s="8">
-        <f>SUM(E9:E90)</f>
+        <f t="shared" si="0"/>
         <v>7660</v>
       </c>
       <c r="F8" s="9">
-        <f>SUM(F9:F90)</f>
+        <f t="shared" si="0"/>
         <v>5088.6842105263158</v>
       </c>
       <c r="G8" s="8">
-        <f>SUM(G9:G90)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H8" s="8">
-        <f>SUM(H9:H90)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1643,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" ref="C9:C40" si="0">D9+E9+G9-F9-H9</f>
+        <f t="shared" ref="C9:C40" si="1">D9+E9+G9-F9-H9</f>
         <v>22.882105263157893</v>
       </c>
       <c r="D9" s="2">
@@ -1673,7 +1681,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.833333333333332</v>
       </c>
       <c r="D10" s="2">
@@ -1703,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.508771929824562</v>
       </c>
       <c r="D11" s="2">
@@ -1733,7 +1741,7 @@
         <v>197</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.43900584795324</v>
       </c>
       <c r="D12" s="2">
@@ -1763,7 +1771,7 @@
         <v>198</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105.6809090909091</v>
       </c>
       <c r="D13" s="2">
@@ -1793,7 +1801,7 @@
         <v>125</v>
       </c>
       <c r="C14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9933333333333323</v>
       </c>
       <c r="D14" s="2">
@@ -1819,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.04213716108454</v>
       </c>
       <c r="D15" s="2">
@@ -1849,7 +1857,7 @@
         <v>150</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.040877192982464</v>
       </c>
       <c r="D16" s="2">
@@ -1879,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86.924327485380132</v>
       </c>
       <c r="D17" s="2">
@@ -1909,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.919883040935687</v>
       </c>
       <c r="D18" s="2">
@@ -1939,7 +1947,7 @@
         <v>179</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.539681020733639</v>
       </c>
       <c r="D19" s="2">
@@ -1966,10 +1974,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.994210526315783</v>
       </c>
       <c r="D20" s="2">
@@ -1999,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.602339181286538</v>
       </c>
       <c r="D21" s="2">
@@ -2029,7 +2037,7 @@
         <v>174</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.738803827751212</v>
       </c>
       <c r="D22" s="2">
@@ -2056,10 +2064,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.19</v>
       </c>
       <c r="D23" s="2">
@@ -2085,7 +2093,7 @@
         <v>199</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.727692716640092</v>
       </c>
       <c r="D24" s="2">
@@ -2115,7 +2123,7 @@
         <v>200</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.924327485380132</v>
       </c>
       <c r="D25" s="2">
@@ -2145,7 +2153,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.695438596491215</v>
       </c>
       <c r="D26" s="2">
@@ -2164,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2175,7 +2183,7 @@
         <v>177</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.98424242424241</v>
       </c>
       <c r="D27" s="2">
@@ -2205,7 +2213,7 @@
         <v>202</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.390909090909105</v>
       </c>
       <c r="D28" s="2">
@@ -2235,7 +2243,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.34210526315789</v>
       </c>
       <c r="D29" s="2">
@@ -2265,7 +2273,7 @@
         <v>206</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.168803827751191</v>
       </c>
       <c r="D30" s="2">
@@ -2295,7 +2303,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79.833333333333329</v>
       </c>
       <c r="D31" s="2">
@@ -2321,12 +2329,12 @@
       <c r="A32" s="8">
         <v>23</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" si="0"/>
-        <v>91.024327485380127</v>
+        <f t="shared" si="1"/>
+        <v>101.02432748538013</v>
       </c>
       <c r="D32" s="2">
         <v>28.96</v>
@@ -2338,13 +2346,15 @@
         <f>'201201'!D32</f>
         <v>35.935672514619881</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
       <c r="H32" s="8">
         <f>'201201'!C32</f>
         <v>2</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2355,7 +2365,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.645438596491232</v>
       </c>
       <c r="D33" s="2">
@@ -2385,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.933014354066984</v>
       </c>
       <c r="D34" s="2">
@@ -2415,7 +2425,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.357575757575745</v>
       </c>
       <c r="D35" s="2">
@@ -2445,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.769914938862314</v>
       </c>
       <c r="D36" s="2">
@@ -2475,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.37</v>
       </c>
       <c r="D37" s="2">
@@ -2505,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.86424242424242</v>
       </c>
       <c r="D38" s="2">
@@ -2535,7 +2545,7 @@
         <v>151</v>
       </c>
       <c r="C39" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.75</v>
       </c>
       <c r="D39" s="2">
@@ -2565,7 +2575,7 @@
         <v>181</v>
       </c>
       <c r="C40" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.326666666666654</v>
       </c>
       <c r="D40" s="2">
@@ -2595,7 +2605,7 @@
         <v>203</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C70" si="1">D41+E41+G41-F41-H41</f>
+        <f t="shared" ref="C41:C70" si="2">D41+E41+G41-F41-H41</f>
         <v>89.878803827751184</v>
       </c>
       <c r="D41" s="2">
@@ -2622,11 +2632,11 @@
         <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C42" s="12">
-        <f t="shared" si="1"/>
-        <v>86.097660818713422</v>
+        <f t="shared" si="2"/>
+        <v>96.097660818713422</v>
       </c>
       <c r="D42" s="2">
         <v>4.7</v>
@@ -2638,13 +2648,15 @@
         <f>'201201'!D42</f>
         <v>112.60233918128657</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
       <c r="H42" s="8">
         <f>'201201'!C42</f>
         <v>6</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2655,7 +2667,7 @@
         <v>166</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.425438596491205</v>
       </c>
       <c r="D43" s="2">
@@ -2685,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110.77988304093566</v>
       </c>
       <c r="D44" s="2">
@@ -2715,7 +2727,7 @@
         <v>156</v>
       </c>
       <c r="C45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
       <c r="D45" s="2">
@@ -2741,7 +2753,7 @@
         <v>127</v>
       </c>
       <c r="C46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5733333333333341</v>
       </c>
       <c r="D46" s="2">
@@ -2771,7 +2783,7 @@
         <v>152</v>
       </c>
       <c r="C47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.675438596491233</v>
       </c>
       <c r="D47" s="2">
@@ -2801,7 +2813,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.631903242955872</v>
       </c>
       <c r="D48" s="2">
@@ -2831,7 +2843,7 @@
         <v>204</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.099681020733669</v>
       </c>
       <c r="D49" s="2">
@@ -2850,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2861,7 +2873,7 @@
         <v>19</v>
       </c>
       <c r="C50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.286347687400323</v>
       </c>
       <c r="D50" s="2">
@@ -2886,10 +2898,10 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.657692716640099</v>
       </c>
       <c r="D51" s="2">
@@ -2917,7 +2929,7 @@
         <v>128</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.193333333333332</v>
       </c>
       <c r="D52" s="2">
@@ -2941,7 +2953,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.697575757575748</v>
       </c>
       <c r="D53" s="2">
@@ -2969,7 +2981,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.602137161084542</v>
       </c>
       <c r="D54" s="2">
@@ -2997,7 +3009,7 @@
         <v>141</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.743333333333325</v>
       </c>
       <c r="D55" s="2">
@@ -3025,7 +3037,7 @@
         <v>189</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8508771929824377</v>
       </c>
       <c r="D56" s="2">
@@ -3053,7 +3065,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.675438596491226</v>
       </c>
       <c r="D57" s="2">
@@ -3081,7 +3093,7 @@
         <v>130</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.77</v>
       </c>
       <c r="D58" s="2">
@@ -3105,7 +3117,7 @@
         <v>205</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.91547049441786</v>
       </c>
       <c r="D59" s="2">
@@ -3133,7 +3145,7 @@
         <v>129</v>
       </c>
       <c r="C60" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8333333333333321</v>
       </c>
       <c r="D60" s="2">
@@ -3161,7 +3173,7 @@
         <v>175</v>
       </c>
       <c r="C61" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.6111111111111</v>
       </c>
       <c r="D61" s="2">
@@ -3189,7 +3201,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.294125465178084</v>
       </c>
       <c r="D62" s="2">
@@ -3217,7 +3229,7 @@
         <v>111</v>
       </c>
       <c r="C63" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.082137161084532</v>
       </c>
       <c r="D63" s="2">
@@ -3245,7 +3257,7 @@
         <v>139</v>
       </c>
       <c r="C64" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.786549707602333</v>
       </c>
       <c r="D64" s="2">
@@ -3273,7 +3285,7 @@
         <v>140</v>
       </c>
       <c r="C65" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.111111111111114</v>
       </c>
       <c r="D65" s="2">
@@ -3301,7 +3313,7 @@
         <v>153</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.861111111111114</v>
       </c>
       <c r="D66" s="2">
@@ -3329,7 +3341,7 @@
         <v>161</v>
       </c>
       <c r="C67" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.111111111111111</v>
       </c>
       <c r="D67" s="2">
@@ -3357,7 +3369,7 @@
         <v>183</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.647660818713433</v>
       </c>
       <c r="D68" s="2">
@@ -3385,7 +3397,7 @@
         <v>167</v>
       </c>
       <c r="C69" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8333333333333321</v>
       </c>
       <c r="D69" s="2">
@@ -3413,7 +3425,7 @@
         <v>185</v>
       </c>
       <c r="C70" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.842105263157894</v>
       </c>
       <c r="D70" s="2">
@@ -3664,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3678,7 +3690,7 @@
     <col min="8" max="8" width="39.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -3703,14 +3715,15 @@
       <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(B3:B350)</f>
-        <v>3663</v>
+        <v>3643</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -3718,8 +3731,9 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>40442</v>
       </c>
@@ -3744,8 +3758,9 @@
       <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>40443</v>
       </c>
@@ -3769,8 +3784,9 @@
         <v>6</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="20">
         <v>41179</v>
       </c>
@@ -3794,8 +3810,9 @@
         <v>6</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="20">
         <v>41179</v>
       </c>
@@ -3819,8 +3836,9 @@
         <v>6</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20">
         <v>41179</v>
       </c>
@@ -3844,8 +3862,9 @@
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
         <v>41179</v>
       </c>
@@ -3869,8 +3888,9 @@
         <v>6</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
         <v>41179</v>
       </c>
@@ -3894,8 +3914,9 @@
         <v>6</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="20">
         <v>41179</v>
       </c>
@@ -3919,8 +3940,9 @@
         <v>6</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="20">
         <v>41179</v>
       </c>
@@ -3944,8 +3966,9 @@
         <v>6</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
         <v>41179</v>
       </c>
@@ -3969,8 +3992,9 @@
         <v>6</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
         <v>41179</v>
       </c>
@@ -3994,8 +4018,9 @@
         <v>6</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="20">
         <v>41179</v>
       </c>
@@ -4019,8 +4044,9 @@
         <v>6</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <v>41179</v>
       </c>
@@ -4044,8 +4070,9 @@
         <v>6</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
         <v>41179</v>
       </c>
@@ -4069,8 +4096,9 @@
         <v>6</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
         <v>41179</v>
       </c>
@@ -4094,8 +4122,9 @@
         <v>6</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
         <v>41179</v>
       </c>
@@ -4119,8 +4148,9 @@
         <v>6</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
         <v>41179</v>
       </c>
@@ -4144,8 +4174,9 @@
         <v>6</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="20">
         <v>41179</v>
       </c>
@@ -4169,8 +4200,9 @@
         <v>6</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="20">
         <v>41179</v>
       </c>
@@ -4194,8 +4226,9 @@
         <v>6</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="20">
         <v>41179</v>
       </c>
@@ -4221,8 +4254,9 @@
       <c r="H22" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="20">
         <v>41179</v>
       </c>
@@ -4246,8 +4280,9 @@
         <v>6</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>41191</v>
       </c>
@@ -4271,8 +4306,9 @@
         <v>6</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>41191</v>
       </c>
@@ -4296,8 +4332,9 @@
         <v>6</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>41191</v>
       </c>
@@ -4321,8 +4358,9 @@
         <v>6</v>
       </c>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>41191</v>
       </c>
@@ -4346,8 +4384,9 @@
         <v>6</v>
       </c>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>41191</v>
       </c>
@@ -4371,8 +4410,9 @@
         <v>6</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>41191</v>
       </c>
@@ -4396,8 +4436,9 @@
         <v>6</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>41191</v>
       </c>
@@ -4421,8 +4462,9 @@
         <v>6</v>
       </c>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>41191</v>
       </c>
@@ -4446,8 +4488,9 @@
         <v>6</v>
       </c>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>41191</v>
       </c>
@@ -4471,8 +4514,9 @@
         <v>6</v>
       </c>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="17">
         <v>41191</v>
       </c>
@@ -4496,8 +4540,9 @@
         <v>6</v>
       </c>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="17">
         <v>41191</v>
       </c>
@@ -4521,8 +4566,9 @@
         <v>6</v>
       </c>
       <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="20">
         <v>41193</v>
       </c>
@@ -4546,8 +4592,9 @@
         <v>6</v>
       </c>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="20">
         <v>41193</v>
       </c>
@@ -4571,8 +4618,9 @@
         <v>6</v>
       </c>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="20">
         <v>41193</v>
       </c>
@@ -4596,8 +4644,9 @@
         <v>6</v>
       </c>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="20">
         <v>41193</v>
       </c>
@@ -4621,8 +4670,9 @@
         <v>6</v>
       </c>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="20">
         <v>41193</v>
       </c>
@@ -4646,8 +4696,9 @@
         <v>6</v>
       </c>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="20">
         <v>41193</v>
       </c>
@@ -4671,8 +4722,9 @@
         <v>6</v>
       </c>
       <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="20">
         <v>41193</v>
       </c>
@@ -4698,8 +4750,9 @@
       <c r="H41" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="17">
         <v>41198</v>
       </c>
@@ -4723,8 +4776,9 @@
         <v>6</v>
       </c>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="17">
         <v>41198</v>
       </c>
@@ -4748,8 +4802,9 @@
         <v>6</v>
       </c>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <v>41198</v>
       </c>
@@ -4773,8 +4828,9 @@
         <v>6</v>
       </c>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="17">
         <v>41198</v>
       </c>
@@ -4798,8 +4854,9 @@
         <v>6</v>
       </c>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="17">
         <v>41198</v>
       </c>
@@ -4823,8 +4880,9 @@
         <v>6</v>
       </c>
       <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="17">
         <v>41198</v>
       </c>
@@ -4848,8 +4906,9 @@
         <v>6</v>
       </c>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="20">
         <v>41200</v>
       </c>
@@ -4873,8 +4932,9 @@
         <v>6</v>
       </c>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="20">
         <v>41200</v>
       </c>
@@ -4898,8 +4958,9 @@
         <v>6</v>
       </c>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="20">
         <v>41200</v>
       </c>
@@ -4923,8 +4984,9 @@
         <v>6</v>
       </c>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="20">
         <v>41200</v>
       </c>
@@ -4948,8 +5010,9 @@
         <v>6</v>
       </c>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="20">
         <v>41200</v>
       </c>
@@ -4975,8 +5038,9 @@
       <c r="H52" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="20">
         <v>41200</v>
       </c>
@@ -5002,8 +5066,9 @@
       <c r="H53" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="20">
         <v>41200</v>
       </c>
@@ -5027,8 +5092,9 @@
         <v>6</v>
       </c>
       <c r="H54" s="19"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="20">
         <v>41200</v>
       </c>
@@ -5052,8 +5118,9 @@
         <v>6</v>
       </c>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="17">
         <v>41205</v>
       </c>
@@ -5077,8 +5144,9 @@
         <v>6</v>
       </c>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="17">
         <v>41205</v>
       </c>
@@ -5102,8 +5170,9 @@
         <v>6</v>
       </c>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="17">
         <v>41205</v>
       </c>
@@ -5127,8 +5196,9 @@
         <v>6</v>
       </c>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="17">
         <v>41205</v>
       </c>
@@ -5152,8 +5222,9 @@
         <v>6</v>
       </c>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="17">
         <v>41205</v>
       </c>
@@ -5177,8 +5248,9 @@
         <v>6</v>
       </c>
       <c r="H60" s="19"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="17">
         <v>41205</v>
       </c>
@@ -5204,8 +5276,9 @@
       <c r="H61" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="20">
         <v>41207</v>
       </c>
@@ -5229,8 +5302,9 @@
         <v>6</v>
       </c>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="20">
         <v>41207</v>
       </c>
@@ -5254,8 +5328,9 @@
         <v>6</v>
       </c>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="20">
         <v>41207</v>
       </c>
@@ -5279,8 +5354,9 @@
         <v>6</v>
       </c>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="20">
         <v>41207</v>
       </c>
@@ -5304,8 +5380,9 @@
         <v>6</v>
       </c>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="20">
         <v>41207</v>
       </c>
@@ -5329,8 +5406,9 @@
         <v>6</v>
       </c>
       <c r="H66" s="19"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="20">
         <v>41207</v>
       </c>
@@ -5356,8 +5434,9 @@
       <c r="H67" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
         <v>41214</v>
       </c>
@@ -5381,8 +5460,9 @@
         <v>6</v>
       </c>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="17">
         <v>41214</v>
       </c>
@@ -5406,8 +5486,9 @@
         <v>6</v>
       </c>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="17">
         <v>41214</v>
       </c>
@@ -5431,8 +5512,9 @@
         <v>6</v>
       </c>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="17">
         <v>41214</v>
       </c>
@@ -5456,8 +5538,9 @@
         <v>6</v>
       </c>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="17">
         <v>41214</v>
       </c>
@@ -5481,8 +5564,9 @@
         <v>6</v>
       </c>
       <c r="H72" s="19"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I72" s="19"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="17">
         <v>41214</v>
       </c>
@@ -5506,8 +5590,9 @@
         <v>6</v>
       </c>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="20">
         <v>41219</v>
       </c>
@@ -5531,8 +5616,9 @@
         <v>6</v>
       </c>
       <c r="H74" s="19"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I74" s="19"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="20">
         <v>41219</v>
       </c>
@@ -5556,8 +5642,9 @@
         <v>6</v>
       </c>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="17">
         <v>41221</v>
       </c>
@@ -5581,8 +5668,9 @@
         <v>6</v>
       </c>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="17">
         <v>41221</v>
       </c>
@@ -5606,8 +5694,9 @@
         <v>6</v>
       </c>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="17">
         <v>41221</v>
       </c>
@@ -5631,8 +5720,9 @@
         <v>6</v>
       </c>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
         <v>41221</v>
       </c>
@@ -5656,8 +5746,9 @@
         <v>6</v>
       </c>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="17">
         <v>41221</v>
       </c>
@@ -5681,8 +5772,9 @@
         <v>6</v>
       </c>
       <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
         <v>41221</v>
       </c>
@@ -5706,8 +5798,9 @@
         <v>6</v>
       </c>
       <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
         <v>41221</v>
       </c>
@@ -5731,8 +5824,9 @@
         <v>6</v>
       </c>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="20">
         <v>41226</v>
       </c>
@@ -5756,8 +5850,9 @@
         <v>6</v>
       </c>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="20">
         <v>41226</v>
       </c>
@@ -5781,8 +5876,9 @@
         <v>6</v>
       </c>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="20">
         <v>41226</v>
       </c>
@@ -5806,8 +5902,9 @@
         <v>6</v>
       </c>
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="20">
         <v>41226</v>
       </c>
@@ -5831,8 +5928,9 @@
         <v>6</v>
       </c>
       <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I86" s="19"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="20">
         <v>41226</v>
       </c>
@@ -5856,8 +5954,9 @@
         <v>6</v>
       </c>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="20">
         <v>41226</v>
       </c>
@@ -5881,8 +5980,9 @@
         <v>6</v>
       </c>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>41228</v>
       </c>
@@ -5906,8 +6006,9 @@
         <v>6</v>
       </c>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>41228</v>
       </c>
@@ -5931,8 +6032,9 @@
         <v>6</v>
       </c>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>41228</v>
       </c>
@@ -5956,8 +6058,9 @@
         <v>6</v>
       </c>
       <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I91" s="19"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="17">
         <v>41228</v>
       </c>
@@ -5981,8 +6084,9 @@
         <v>6</v>
       </c>
       <c r="H92" s="19"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>41228</v>
       </c>
@@ -6006,8 +6110,9 @@
         <v>6</v>
       </c>
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>41228</v>
       </c>
@@ -6033,8 +6138,9 @@
       <c r="H94" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>41232</v>
       </c>
@@ -6060,8 +6166,9 @@
       <c r="H95" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="20">
         <v>41233</v>
       </c>
@@ -6085,8 +6192,9 @@
         <v>6</v>
       </c>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="20">
         <v>41233</v>
       </c>
@@ -6110,8 +6218,9 @@
         <v>6</v>
       </c>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="20">
         <v>41233</v>
       </c>
@@ -6135,8 +6244,9 @@
         <v>6</v>
       </c>
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="20">
         <v>41233</v>
       </c>
@@ -6160,8 +6270,9 @@
         <v>6</v>
       </c>
       <c r="H99" s="19"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I99" s="19"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="20">
         <v>41233</v>
       </c>
@@ -6185,8 +6296,9 @@
         <v>6</v>
       </c>
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="20">
         <v>41233</v>
       </c>
@@ -6210,8 +6322,9 @@
         <v>6</v>
       </c>
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>41235</v>
       </c>
@@ -6235,8 +6348,9 @@
         <v>6</v>
       </c>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>41235</v>
       </c>
@@ -6260,8 +6374,9 @@
         <v>6</v>
       </c>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="17">
         <v>41235</v>
       </c>
@@ -6285,8 +6400,9 @@
         <v>6</v>
       </c>
       <c r="H104" s="19"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>41235</v>
       </c>
@@ -6310,8 +6426,9 @@
         <v>6</v>
       </c>
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>41235</v>
       </c>
@@ -6326,7 +6443,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>6</v>
@@ -6335,7 +6452,66 @@
         <v>6</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="17">
+        <v>41235</v>
+      </c>
+      <c r="B107" s="26">
+        <v>-10</v>
+      </c>
+      <c r="C107" s="8">
+        <f t="shared" ref="C107" si="12">C106+B107</f>
+        <v>3653</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="17">
+        <v>41235</v>
+      </c>
+      <c r="B108" s="26">
+        <v>-10</v>
+      </c>
+      <c r="C108" s="8">
+        <f t="shared" ref="C108" si="13">C107+B108</f>
+        <v>3643</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I108" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7019,63 +7195,63 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
-        <f>COUNT(E9:E90)</f>
+        <f t="shared" ref="E5:S5" si="6">COUNT(E9:E90)</f>
         <v>17</v>
       </c>
       <c r="F5" s="10">
-        <f>COUNT(F9:F90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="G5" s="10">
-        <f>COUNT(G9:G90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="H5" s="10">
-        <f>COUNT(H9:H90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I5" s="10">
-        <f>COUNT(I9:I90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="J5" s="10">
-        <f>COUNT(J9:J90)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="K5" s="10">
-        <f>COUNT(K9:K90)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="L5" s="10">
-        <f>COUNT(L9:L90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="M5" s="10">
-        <f>COUNT(M9:M90)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N5" s="10">
-        <f>COUNT(N9:N90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="O5" s="10">
-        <f>COUNT(O9:O90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="P5" s="10">
-        <f>COUNT(P9:P90)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Q5" s="10">
-        <f>COUNT(Q9:Q90)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="R5" s="10">
-        <f>COUNT(R9:R90)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="S5" s="10">
-        <f>COUNT(S9:S90)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -7085,71 +7261,71 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="10">
-        <f>SUM(C9:C90)</f>
+        <f t="shared" ref="C6:S6" si="7">SUM(C9:C90)</f>
         <v>275</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(D9:D90)</f>
+        <f t="shared" si="7"/>
         <v>5088.6842105263158</v>
       </c>
       <c r="E6" s="9">
-        <f>SUM(E9:E90)</f>
+        <f t="shared" si="7"/>
         <v>308.68421052631578</v>
       </c>
       <c r="F6" s="9">
-        <f>SUM(F9:F90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="G6" s="9">
-        <f>SUM(G9:G90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(H9:H90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="I6" s="9">
-        <f>SUM(I9:I90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="J6" s="9">
-        <f>SUM(J9:J90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="K6" s="9">
-        <f>SUM(K9:K90)</f>
+        <f t="shared" si="7"/>
         <v>350.00000000000011</v>
       </c>
       <c r="L6" s="9">
-        <f>SUM(L9:L90)</f>
+        <f t="shared" si="7"/>
         <v>340.00000000000011</v>
       </c>
       <c r="M6" s="9">
-        <f>SUM(M9:M90)</f>
+        <f t="shared" si="7"/>
         <v>345</v>
       </c>
       <c r="N6" s="9">
-        <f>SUM(N9:N90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="O6" s="9">
-        <f>SUM(O9:O90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="P6" s="9">
-        <f>SUM(P9:P90)</f>
+        <f t="shared" si="7"/>
         <v>345.00000000000006</v>
       </c>
       <c r="Q6" s="9">
-        <f>SUM(Q9:Q90)</f>
+        <f t="shared" si="7"/>
         <v>344.99999999999994</v>
       </c>
       <c r="R6" s="9">
-        <f>SUM(R9:R90)</f>
+        <f t="shared" si="7"/>
         <v>320.00000000000006</v>
       </c>
       <c r="S6" s="9">
-        <f>SUM(S9:S90)</f>
+        <f t="shared" si="7"/>
         <v>319.99999999999994</v>
       </c>
     </row>
@@ -7205,11 +7381,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:C40" si="6">COUNT(E9:ZZ9)</f>
+        <f t="shared" ref="C9:C40" si="8">COUNT(E9:ZZ9)</f>
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ref="D9:D40" si="7">SUM(E9:ZZ9)</f>
+        <f t="shared" ref="D9:D40" si="9">SUM(E9:ZZ9)</f>
         <v>18.157894736842106</v>
       </c>
       <c r="E9" s="4">
@@ -7241,11 +7417,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E10" s="4"/>
@@ -7277,11 +7453,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>56.491228070175438</v>
       </c>
       <c r="E11" s="4">
@@ -7319,11 +7495,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>222.98099415204678</v>
       </c>
       <c r="E12" s="4"/>
@@ -7385,11 +7561,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125.65909090909091</v>
       </c>
       <c r="E13" s="4">
@@ -7439,11 +7615,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E14" s="4"/>
@@ -7475,11 +7651,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>109.41786283891547</v>
       </c>
       <c r="E15" s="4"/>
@@ -7526,11 +7702,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>166.89912280701753</v>
       </c>
       <c r="E16" s="4">
@@ -7586,11 +7762,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>128.43567251461988</v>
       </c>
       <c r="E17" s="4">
@@ -7640,11 +7816,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>92.630116959064324</v>
       </c>
       <c r="E18" s="4">
@@ -7688,11 +7864,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>182.15031897926636</v>
       </c>
       <c r="E19" s="4">
@@ -7751,11 +7927,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>111.31578947368422</v>
       </c>
       <c r="E20" s="4">
@@ -7802,11 +7978,11 @@
         <v>12</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.39766081871346</v>
       </c>
       <c r="E21" s="4"/>
@@ -7853,11 +8029,11 @@
         <v>13</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>147.7511961722488</v>
       </c>
       <c r="E22" s="4"/>
@@ -7910,11 +8086,11 @@
         <v>14</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E23" s="4"/>
@@ -7943,11 +8119,11 @@
         <v>15</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>146.36230728335991</v>
       </c>
       <c r="E24" s="4"/>
@@ -8000,11 +8176,11 @@
         <v>16</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>93.435672514619881</v>
       </c>
       <c r="E25" s="4">
@@ -8048,11 +8224,11 @@
         <v>17</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112.3245614035088</v>
       </c>
       <c r="E26" s="4"/>
@@ -8099,11 +8275,11 @@
         <v>18</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>144.82575757575759</v>
       </c>
       <c r="E27" s="4"/>
@@ -8156,11 +8332,11 @@
         <v>19</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>125.65909090909091</v>
       </c>
       <c r="E28" s="4">
@@ -8210,11 +8386,11 @@
         <v>20</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>75.65789473684211</v>
       </c>
       <c r="E29" s="4">
@@ -8255,11 +8431,11 @@
         <v>21</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>90.251196172248811</v>
       </c>
       <c r="E30" s="4"/>
@@ -8303,11 +8479,11 @@
         <v>22</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E31" s="4"/>
@@ -8339,11 +8515,11 @@
         <v>23</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35.935672514619881</v>
       </c>
       <c r="E32" s="4"/>
@@ -8378,11 +8554,11 @@
         <v>24</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E33" s="4"/>
@@ -8417,11 +8593,11 @@
         <v>25</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34.066985645933016</v>
       </c>
       <c r="E34" s="7">
@@ -8456,11 +8632,11 @@
         <v>26</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>128.99242424242425</v>
       </c>
       <c r="E35" s="4"/>
@@ -8510,11 +8686,11 @@
         <v>27</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>166.64008506113768</v>
       </c>
       <c r="E36" s="4"/>
@@ -8570,11 +8746,11 @@
         <v>28</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>74.75</v>
       </c>
       <c r="E37" s="4"/>
@@ -8615,11 +8791,11 @@
         <v>29</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35.075757575757578</v>
       </c>
       <c r="E38" s="4"/>
@@ -8654,11 +8830,11 @@
         <v>30</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>132.25</v>
       </c>
       <c r="E39" s="4"/>
@@ -8708,11 +8884,11 @@
         <v>32</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>148.33333333333334</v>
       </c>
       <c r="E40" s="4"/>
@@ -8765,11 +8941,11 @@
         <v>33</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C70" si="8">COUNT(E41:ZZ41)</f>
+        <f t="shared" ref="C41:C70" si="10">COUNT(E41:ZZ41)</f>
         <v>6</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:D70" si="9">SUM(E41:ZZ41)</f>
+        <f t="shared" ref="D41:D70" si="11">SUM(E41:ZZ41)</f>
         <v>107.50119617224881</v>
       </c>
       <c r="E41" s="4"/>
@@ -8816,11 +8992,11 @@
         <v>37</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>112.60233918128657</v>
       </c>
       <c r="E42" s="4"/>
@@ -8867,11 +9043,11 @@
         <v>45</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>129.5745614035088</v>
       </c>
       <c r="E43" s="4"/>
@@ -8921,11 +9097,11 @@
         <v>55</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>92.630116959064338</v>
       </c>
       <c r="E44" s="4"/>
@@ -8969,11 +9145,11 @@
         <v>69</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E45" s="4"/>
@@ -9002,11 +9178,11 @@
         <v>77</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E46" s="4"/>
@@ -9038,11 +9214,11 @@
         <v>87</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E47" s="4">
@@ -9077,11 +9253,11 @@
         <v>88</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>107.42809675704413</v>
       </c>
       <c r="E48" s="4">
@@ -9128,31 +9304,31 @@
         <v>97</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>239.90031897926633</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" ref="E49:I49" si="10">E4</f>
+        <f t="shared" ref="E49:I49" si="12">E4</f>
         <v>18.157894736842106</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="H49" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="I49" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19.166666666666668</v>
       </c>
       <c r="J49" s="18">
@@ -9160,11 +9336,11 @@
         <v>38.333333333333336</v>
       </c>
       <c r="K49" s="18">
-        <f t="shared" ref="K49:L49" si="11">K4</f>
+        <f t="shared" ref="K49:L49" si="13">K4</f>
         <v>15.909090909090908</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.888888888888889</v>
       </c>
       <c r="M49" s="18"/>
@@ -9197,11 +9373,11 @@
         <v>99</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>70.483652312599688</v>
       </c>
       <c r="E50" s="4"/>
@@ -9239,11 +9415,11 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>106.11230728335991</v>
       </c>
       <c r="E51" s="4"/>
@@ -9287,11 +9463,11 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E52" s="4"/>
@@ -9320,11 +9496,11 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>54.242424242424249</v>
       </c>
       <c r="E53" s="4"/>
@@ -9359,11 +9535,11 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>126.66786283891547</v>
       </c>
       <c r="E54" s="4"/>
@@ -9410,11 +9586,11 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36.666666666666671</v>
       </c>
       <c r="E55" s="4"/>
@@ -9446,11 +9622,11 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>92.149122807017562</v>
       </c>
       <c r="E56" s="7">
@@ -9491,11 +9667,11 @@
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37.324561403508774</v>
       </c>
       <c r="E57" s="4">
@@ -9527,11 +9703,11 @@
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E58" s="4"/>
@@ -9557,11 +9733,11 @@
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71.08452950558214</v>
       </c>
       <c r="E59" s="4"/>
@@ -9599,11 +9775,11 @@
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E60" s="4"/>
@@ -9632,11 +9808,11 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>76.3888888888889</v>
       </c>
       <c r="E61" s="4"/>
@@ -9674,11 +9850,11 @@
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>127.70587453482192</v>
       </c>
       <c r="E62" s="4"/>
@@ -9725,11 +9901,11 @@
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51.917862838915468</v>
       </c>
       <c r="E63" s="4"/>
@@ -9764,11 +9940,11 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>56.213450292397667</v>
       </c>
       <c r="E64" s="4"/>
@@ -9803,11 +9979,11 @@
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E65" s="4"/>
@@ -9836,11 +10012,11 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36.138888888888886</v>
       </c>
       <c r="E66" s="4"/>
@@ -9872,11 +10048,11 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.888888888888889</v>
       </c>
       <c r="E67" s="4"/>
@@ -9905,11 +10081,11 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>72.352339181286567</v>
       </c>
       <c r="E68" s="4"/>
@@ -9947,11 +10123,11 @@
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.166666666666668</v>
       </c>
       <c r="E69" s="4"/>
@@ -9980,11 +10156,11 @@
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.157894736842106</v>
       </c>
       <c r="E70" s="4"/>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -3679,7 +3679,7 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6496,7 +6496,7 @@
         <v>3643</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>228</v>

--- a/house/上地蓝色狂飙足球部落活动记录_new.xlsx
+++ b/house/上地蓝色狂飙足球部落活动记录_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12375" yWindow="615" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="236">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>尚峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐狸涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张硕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,10 +602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30(121025),100/130(121101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20(120920),30/50(120927),70/120(121009),100/220(121101)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,10 +642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100/100(120927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压岁钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,10 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100(121011),100/200(121108)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顾伟强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,26 +726,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100(120927),100/200(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清道夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30(121101),30/60(121108),100/160(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小郝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30(121115)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TOTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,18 +763,6 @@
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40(120927),100/140(121009),100/240(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(120927),100/220(121120)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100(120927),100/200(121120)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -919,10 +875,6 @@
   </si>
   <si>
     <t>Shenghak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20(120920),100/120(121009),100/220(121018),100/320(121120)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -936,10 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100(121122),10(121122返)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100(120927),100/200(121122),10(121122返)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,6 +897,83 @@
   </si>
   <si>
     <t>充值一次奖励10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外
+支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(121009),100/220(121018),100/320(121120),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121122),10(121122返),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121120),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121009),100/200(121113),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40(120927),100/140(121009),100/240(121120),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121101),30/60(121108),100/160(121115),-10(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/100(120927),-10(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121025),100/130(121101),-10(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121011),100/200(121108),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(120927),100/200(121115),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100(121025),-10(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(121115),-10(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(120920),100/120(120927),100/220(121120),-12(121123坎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网购号坎,Sam(23),古轮木(15),R(97),刀(18),西北(3),小郝,懦夫,段晨,小宋(45),赵聪(55),清道夫L(32),小严,TOTO,度日(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,40 +1504,44 @@
     <col min="5" max="5" width="5.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="88.75" customWidth="1"/>
+    <col min="8" max="8" width="5.25" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="8"/>
@@ -1521,11 +1550,12 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="8"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8"/>
@@ -1534,29 +1564,31 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="8"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="30">
         <f>幸福!B2</f>
-        <v>3643</v>
+        <v>3489</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I4" s="8"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="30">
@@ -1564,35 +1596,37 @@
         <v>760</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="8"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="30">
         <f>C8</f>
-        <v>3241.7557894736856</v>
+        <v>3087.7557894736856</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" s="8"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="30">
@@ -1600,24 +1634,25 @@
         <v>1161.2442105263144</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="8"/>
+      <c r="J7" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="12">
-        <f t="shared" ref="C8:H8" si="0">SUM(C9:C90)</f>
-        <v>3241.7557894736856</v>
+        <f t="shared" ref="C8:I8" si="0">SUM(C9:C90)</f>
+        <v>3087.7557894736856</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
@@ -1637,13 +1672,17 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>0</v>
       </c>
@@ -1651,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" ref="C9:C40" si="1">D9+E9+G9-F9-H9</f>
+        <f>D9+E9+G9-F9-I9-H9</f>
         <v>22.882105263157893</v>
       </c>
       <c r="D9" s="2">
@@ -1665,23 +1704,24 @@
         <v>18.157894736842106</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="8">
+      <c r="H9" s="1"/>
+      <c r="I9" s="8">
         <f>'201201'!C9</f>
         <v>1</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" si="1"/>
+        <f>D10+E10+G10-F10-I10-H10</f>
         <v>14.833333333333332</v>
       </c>
       <c r="D10" s="2">
@@ -1695,15 +1735,16 @@
         <v>19.166666666666668</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="8">
+      <c r="H10" s="2"/>
+      <c r="I10" s="8">
         <f>'201201'!C10</f>
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -1711,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" si="1"/>
+        <f>D11+E11+G11-F11-I11-H11</f>
         <v>60.508771929824562</v>
       </c>
       <c r="D11" s="2">
@@ -1725,24 +1766,25 @@
         <v>56.491228070175438</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="8">
+      <c r="H11" s="2"/>
+      <c r="I11" s="8">
         <f>'201201'!C11</f>
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" si="1"/>
-        <v>63.43900584795324</v>
+        <f>D12+E12+G12-F12-I12-H12</f>
+        <v>51.43900584795324</v>
       </c>
       <c r="D12" s="2">
         <v>57.42</v>
@@ -1755,24 +1797,27 @@
         <v>222.98099415204678</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="8">
+      <c r="H12" s="2">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8">
         <f>'201201'!C12</f>
         <v>11</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" si="1"/>
-        <v>105.6809090909091</v>
+        <f>D13+E13+G13-F13-I13-H13</f>
+        <v>93.680909090909097</v>
       </c>
       <c r="D13" s="2">
         <v>18.34</v>
@@ -1785,23 +1830,26 @@
         <v>125.65909090909091</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="8">
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8">
         <f>'201201'!C13</f>
         <v>7</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="12">
-        <f t="shared" si="1"/>
+        <f>D14+E14+G14-F14-I14-H14</f>
         <v>8.9933333333333323</v>
       </c>
       <c r="D14" s="2">
@@ -1813,21 +1861,22 @@
         <v>19.166666666666668</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="8">
+      <c r="H14" s="2"/>
+      <c r="I14" s="8">
         <f>'201201'!C14</f>
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="1"/>
+        <f>D15+E15+G15-F15-I15-H15</f>
         <v>90.04213716108454</v>
       </c>
       <c r="D15" s="2">
@@ -1841,23 +1890,24 @@
         <v>109.41786283891547</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="8">
+      <c r="H15" s="2"/>
+      <c r="I15" s="8">
         <f>'201201'!C15</f>
         <v>6</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" si="1"/>
+        <f>D16+E16+G16-F16-I16-H16</f>
         <v>48.040877192982464</v>
       </c>
       <c r="D16" s="2">
@@ -1871,15 +1921,16 @@
         <v>166.89912280701753</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="8">
+      <c r="H16" s="2"/>
+      <c r="I16" s="8">
         <f>'201201'!C16</f>
         <v>9</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>8</v>
       </c>
@@ -1887,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="1"/>
+        <f>D17+E17+G17-F17-I17-H17</f>
         <v>86.924327485380132</v>
       </c>
       <c r="D17" s="2">
@@ -1901,15 +1952,16 @@
         <v>128.43567251461988</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="8">
+      <c r="H17" s="2"/>
+      <c r="I17" s="8">
         <f>'201201'!C17</f>
         <v>7</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>9</v>
       </c>
@@ -1917,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="1"/>
+        <f>D18+E18+G18-F18-I18-H18</f>
         <v>33.919883040935687</v>
       </c>
       <c r="D18" s="2">
@@ -1931,23 +1983,24 @@
         <v>92.630116959064324</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="8">
+      <c r="H18" s="2"/>
+      <c r="I18" s="8">
         <f>'201201'!C18</f>
         <v>5</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="1"/>
+        <f>D19+E19+G19-F19-I19-H19</f>
         <v>76.539681020733639</v>
       </c>
       <c r="D19" s="2">
@@ -1961,23 +2014,24 @@
         <v>182.15031897926636</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="8">
+      <c r="H19" s="2"/>
+      <c r="I19" s="8">
         <f>'201201'!C19</f>
         <v>10</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="1"/>
+        <f>D20+E20+G20-F20-I20-H20</f>
         <v>14.994210526315783</v>
       </c>
       <c r="D20" s="2">
@@ -1991,15 +2045,16 @@
         <v>111.31578947368422</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="8">
+      <c r="H20" s="2"/>
+      <c r="I20" s="8">
         <f>'201201'!C20</f>
         <v>6</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>12</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" si="1"/>
+        <f>D21+E21+G21-F21-I21-H21</f>
         <v>81.602339181286538</v>
       </c>
       <c r="D21" s="2">
@@ -2021,23 +2076,24 @@
         <v>112.39766081871346</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="8">
+      <c r="H21" s="2"/>
+      <c r="I21" s="8">
         <f>'201201'!C21</f>
         <v>6</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="1"/>
+        <f>D22+E22+G22-F22-I22-H22</f>
         <v>79.738803827751212</v>
       </c>
       <c r="D22" s="2">
@@ -2051,23 +2107,24 @@
         <v>147.7511961722488</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="8">
+      <c r="H22" s="2"/>
+      <c r="I22" s="8">
         <f>'201201'!C22</f>
         <v>8</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>14</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" si="1"/>
+        <f>D23+E23+G23-F23-I23-H23</f>
         <v>44.19</v>
       </c>
       <c r="D23" s="2">
@@ -2079,22 +2136,23 @@
         <v>0</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="8">
+      <c r="H23" s="2"/>
+      <c r="I23" s="8">
         <f>'201201'!C23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" si="1"/>
-        <v>54.727692716640092</v>
+        <f>D24+E24+G24-F24-I24-H24</f>
+        <v>42.727692716640092</v>
       </c>
       <c r="D24" s="2">
         <v>9.09</v>
@@ -2107,23 +2165,26 @@
         <v>146.36230728335991</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="8">
+      <c r="H24" s="2">
+        <v>12</v>
+      </c>
+      <c r="I24" s="8">
         <f>'201201'!C24</f>
         <v>8</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" si="1"/>
+        <f>D25+E25+G25-F25-I25-H25</f>
         <v>36.924327485380132</v>
       </c>
       <c r="D25" s="2">
@@ -2137,23 +2198,24 @@
         <v>93.435672514619881</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="8">
+      <c r="H25" s="2"/>
+      <c r="I25" s="8">
         <f>'201201'!C25</f>
         <v>5</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C26" s="12">
-        <f t="shared" si="1"/>
+        <f>D26+E26+G26-F26-I26-H26</f>
         <v>52.695438596491215</v>
       </c>
       <c r="D26" s="2">
@@ -2167,24 +2229,25 @@
         <v>112.3245614035088</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="8">
+      <c r="H26" s="2"/>
+      <c r="I26" s="8">
         <f>'201201'!C26</f>
         <v>6</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" si="1"/>
-        <v>58.98424242424241</v>
+        <f>D27+E27+G27-F27-I27-H27</f>
+        <v>46.98424242424241</v>
       </c>
       <c r="D27" s="2">
         <v>11.81</v>
@@ -2197,23 +2260,26 @@
         <v>144.82575757575759</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="8">
+      <c r="H27" s="2">
+        <v>12</v>
+      </c>
+      <c r="I27" s="8">
         <f>'201201'!C27</f>
         <v>8</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J27" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>19</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="1"/>
+        <f>D28+E28+G28-F28-I28-H28</f>
         <v>25.390909090909105</v>
       </c>
       <c r="D28" s="2">
@@ -2227,23 +2293,24 @@
         <v>125.65909090909091</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="8">
+      <c r="H28" s="2"/>
+      <c r="I28" s="8">
         <f>'201201'!C28</f>
         <v>7</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="1"/>
+        <f>D29+E29+G29-F29-I29-H29</f>
         <v>65.34210526315789</v>
       </c>
       <c r="D29" s="2">
@@ -2257,23 +2324,24 @@
         <v>75.65789473684211</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="8">
+      <c r="H29" s="2"/>
+      <c r="I29" s="8">
         <f>'201201'!C29</f>
         <v>4</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>21</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" si="1"/>
+        <f>D30+E30+G30-F30-I30-H30</f>
         <v>23.168803827751191</v>
       </c>
       <c r="D30" s="2">
@@ -2287,23 +2355,24 @@
         <v>90.251196172248811</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="8">
+      <c r="H30" s="2"/>
+      <c r="I30" s="8">
         <f>'201201'!C30</f>
         <v>5</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>22</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" si="1"/>
+        <f>D31+E31+G31-F31-I31-H31</f>
         <v>79.833333333333329</v>
       </c>
       <c r="D31" s="2">
@@ -2317,24 +2386,25 @@
         <v>19.166666666666668</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="8">
+      <c r="H31" s="2"/>
+      <c r="I31" s="8">
         <f>'201201'!C31</f>
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>23</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" si="1"/>
-        <v>101.02432748538013</v>
+        <f>D32+E32+G32-F32-I32-H32</f>
+        <v>89.024327485380127</v>
       </c>
       <c r="D32" s="2">
         <v>28.96</v>
@@ -2349,15 +2419,18 @@
       <c r="G32" s="2">
         <v>10</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="2">
+        <v>12</v>
+      </c>
+      <c r="I32" s="8">
         <f>'201201'!C32</f>
         <v>2</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>24</v>
       </c>
@@ -2365,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="12">
-        <f t="shared" si="1"/>
+        <f>D33+E33+G33-F33-I33-H33</f>
         <v>80.645438596491232</v>
       </c>
       <c r="D33" s="2">
@@ -2379,15 +2452,16 @@
         <v>37.324561403508774</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="8">
+      <c r="H33" s="2"/>
+      <c r="I33" s="8">
         <f>'201201'!C33</f>
         <v>2</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>25</v>
       </c>
@@ -2395,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" si="1"/>
+        <f>D34+E34+G34-F34-I34-H34</f>
         <v>11.933014354066984</v>
       </c>
       <c r="D34" s="2">
@@ -2409,15 +2483,16 @@
         <v>34.066985645933016</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="8">
+      <c r="H34" s="2"/>
+      <c r="I34" s="8">
         <f>'201201'!C34</f>
         <v>2</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>26</v>
       </c>
@@ -2425,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="12">
-        <f t="shared" si="1"/>
+        <f>D35+E35+G35-F35-I35-H35</f>
         <v>54.357575757575745</v>
       </c>
       <c r="D35" s="2">
@@ -2439,15 +2514,16 @@
         <v>128.99242424242425</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="8">
+      <c r="H35" s="2"/>
+      <c r="I35" s="8">
         <f>'201201'!C35</f>
         <v>7</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>27</v>
       </c>
@@ -2455,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="12">
-        <f t="shared" si="1"/>
+        <f>D36+E36+G36-F36-I36-H36</f>
         <v>32.769914938862314</v>
       </c>
       <c r="D36" s="2">
@@ -2469,15 +2545,16 @@
         <v>166.64008506113768</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="8">
+      <c r="H36" s="2"/>
+      <c r="I36" s="8">
         <f>'201201'!C36</f>
         <v>9</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>28</v>
       </c>
@@ -2485,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="12">
-        <f t="shared" si="1"/>
+        <f>D37+E37+G37-F37-I37-H37</f>
         <v>75.37</v>
       </c>
       <c r="D37" s="2">
@@ -2499,23 +2576,24 @@
         <v>74.75</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="8">
+      <c r="H37" s="2"/>
+      <c r="I37" s="8">
         <f>'201201'!C37</f>
         <v>4</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" si="1"/>
+        <f>D38+E38+G38-F38-I38-H38</f>
         <v>92.86424242424242</v>
       </c>
       <c r="D38" s="2">
@@ -2529,23 +2607,24 @@
         <v>35.075757575757578</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="8">
+      <c r="H38" s="2"/>
+      <c r="I38" s="8">
         <f>'201201'!C38</f>
         <v>2</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C39" s="12">
-        <f t="shared" si="1"/>
+        <f>D39+E39+G39-F39-I39-H39</f>
         <v>60.75</v>
       </c>
       <c r="D39" s="2">
@@ -2559,24 +2638,25 @@
         <v>132.25</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="8">
+      <c r="H39" s="2"/>
+      <c r="I39" s="8">
         <f>'201201'!C39</f>
         <v>7</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J39" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C40" s="12">
-        <f t="shared" si="1"/>
-        <v>59.326666666666654</v>
+        <f>D40+E40+G40-F40-I40-H40</f>
+        <v>47.326666666666654</v>
       </c>
       <c r="D40" s="2">
         <v>15.66</v>
@@ -2589,23 +2669,26 @@
         <v>148.33333333333334</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="8">
+      <c r="H40" s="2">
+        <v>12</v>
+      </c>
+      <c r="I40" s="8">
         <f>'201201'!C40</f>
         <v>8</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J40" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C41" s="12">
-        <f t="shared" ref="C41:C70" si="2">D41+E41+G41-F41-H41</f>
+        <f>D41+E41+G41-F41-I41-H41</f>
         <v>89.878803827751184</v>
       </c>
       <c r="D41" s="2">
@@ -2619,23 +2702,24 @@
         <v>107.50119617224881</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="8">
+      <c r="H41" s="2"/>
+      <c r="I41" s="8">
         <f>'201201'!C41</f>
         <v>6</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>37</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C42" s="12">
-        <f t="shared" si="2"/>
+        <f>D42+E42+G42-F42-I42-H42</f>
         <v>96.097660818713422</v>
       </c>
       <c r="D42" s="2">
@@ -2651,24 +2735,25 @@
       <c r="G42" s="2">
         <v>10</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="2"/>
+      <c r="I42" s="8">
         <f>'201201'!C42</f>
         <v>6</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J42" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" si="2"/>
-        <v>63.425438596491205</v>
+        <f>D43+E43+G43-F43-I43-H43</f>
+        <v>53.425438596491205</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -2681,24 +2766,27 @@
         <v>129.5745614035088</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="8">
+      <c r="H43" s="2">
+        <v>10</v>
+      </c>
+      <c r="I43" s="8">
         <f>'201201'!C43</f>
         <v>7</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J43" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="12">
-        <f t="shared" si="2"/>
-        <v>110.77988304093566</v>
+        <f>D44+E44+G44-F44-I44-H44</f>
+        <v>100.77988304093566</v>
       </c>
       <c r="D44" s="2">
         <v>8.41</v>
@@ -2711,23 +2799,26 @@
         <v>92.630116959064338</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="8">
+      <c r="H44" s="2">
+        <v>10</v>
+      </c>
+      <c r="I44" s="8">
         <f>'201201'!C44</f>
         <v>5</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J44" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>69</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C45" s="12">
-        <f t="shared" si="2"/>
+        <f>D45+E45+G45-F45-I45-H45</f>
         <v>5.75</v>
       </c>
       <c r="D45" s="2">
@@ -2739,21 +2830,22 @@
         <v>0</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="8">
+      <c r="H45" s="2"/>
+      <c r="I45" s="8">
         <f>'201201'!C45</f>
         <v>0</v>
       </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <v>77</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>127</v>
+      <c r="B46" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="C46" s="12">
-        <f t="shared" si="2"/>
+        <f>D46+E46+G46-F46-I46-H46</f>
         <v>5.5733333333333341</v>
       </c>
       <c r="D46" s="2">
@@ -2767,23 +2859,24 @@
         <v>19.166666666666668</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="8">
+      <c r="H46" s="2"/>
+      <c r="I46" s="8">
         <f>'201201'!C46</f>
         <v>1</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J46" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>87</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C47" s="12">
-        <f t="shared" si="2"/>
+        <f>D47+E47+G47-F47-I47-H47</f>
         <v>80.675438596491233</v>
       </c>
       <c r="D47" s="2">
@@ -2797,23 +2890,24 @@
         <v>37.324561403508774</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="8">
+      <c r="H47" s="2"/>
+      <c r="I47" s="8">
         <f>'201201'!C47</f>
         <v>2</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <v>88</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" si="2"/>
+        <f>D48+E48+G48-F48-I48-H48</f>
         <v>32.631903242955872</v>
       </c>
       <c r="D48" s="2">
@@ -2827,24 +2921,25 @@
         <v>107.42809675704413</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="8">
+      <c r="H48" s="2"/>
+      <c r="I48" s="8">
         <f>'201201'!C48</f>
         <v>6</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J48" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>97</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" si="2"/>
-        <v>68.099681020733669</v>
+        <f>D49+E49+G49-F49-I49-H49</f>
+        <v>56.099681020733669</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -2857,23 +2952,26 @@
         <v>239.90031897926633</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="8">
+      <c r="H49" s="2">
+        <v>12</v>
+      </c>
+      <c r="I49" s="8">
         <f>'201201'!C49</f>
         <v>12</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J49" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="12">
-        <f t="shared" si="2"/>
+        <f>D50+E50+G50-F50-I50-H50</f>
         <v>60.286347687400323</v>
       </c>
       <c r="D50" s="2">
@@ -2887,21 +2985,22 @@
         <v>70.483652312599688</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="8">
+      <c r="H50" s="2"/>
+      <c r="I50" s="8">
         <f>'201201'!C50</f>
         <v>4</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="21" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="2"/>
+        <f>D51+E51+G51-F51-I51-H51</f>
         <v>16.657692716640099</v>
       </c>
       <c r="D51" s="2">
@@ -2915,21 +3014,22 @@
         <v>106.11230728335991</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="8">
+      <c r="H51" s="2"/>
+      <c r="I51" s="8">
         <f>'201201'!C51</f>
         <v>6</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J51" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="2"/>
+        <f>D52+E52+G52-F52-I52-H52</f>
         <v>13.193333333333332</v>
       </c>
       <c r="D52" s="2">
@@ -2941,19 +3041,20 @@
         <v>19.166666666666668</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="8">
+      <c r="H52" s="2"/>
+      <c r="I52" s="8">
         <f>'201201'!C52</f>
         <v>1</v>
       </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="2"/>
+        <f>D53+E53+G53-F53-I53-H53</f>
         <v>52.697575757575748</v>
       </c>
       <c r="D53" s="2">
@@ -2967,21 +3068,22 @@
         <v>54.242424242424249</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="8">
+      <c r="H53" s="2"/>
+      <c r="I53" s="8">
         <f>'201201'!C53</f>
         <v>3</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J53" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="2"/>
+        <f>D54+E54+G54-F54-I54-H54</f>
         <v>86.602137161084542</v>
       </c>
       <c r="D54" s="2">
@@ -2995,22 +3097,23 @@
         <v>126.66786283891547</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="8">
+      <c r="H54" s="2"/>
+      <c r="I54" s="8">
         <f>'201201'!C54</f>
         <v>7</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" si="2"/>
-        <v>69.743333333333325</v>
+        <f>D55+E55+G55-F55-I55-H55</f>
+        <v>59.743333333333325</v>
       </c>
       <c r="D55" s="2">
         <v>8.41</v>
@@ -3023,22 +3126,25 @@
         <v>36.666666666666671</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="8">
+      <c r="H55" s="2">
+        <v>10</v>
+      </c>
+      <c r="I55" s="8">
         <f>'201201'!C55</f>
         <v>2</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J55" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="21" t="s">
-        <v>189</v>
+      <c r="B56" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" si="2"/>
-        <v>2.8508771929824377</v>
+        <f>D56+E56+G56-F56-I56-H56</f>
+        <v>-7.1491228070175623</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -3051,21 +3157,24 @@
         <v>92.149122807017562</v>
       </c>
       <c r="G56" s="1"/>
-      <c r="H56" s="8">
+      <c r="H56" s="2">
+        <v>10</v>
+      </c>
+      <c r="I56" s="8">
         <f>'201201'!C56</f>
         <v>5</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="12">
-        <f t="shared" si="2"/>
+        <f>D57+E57+G57-F57-I57-H57</f>
         <v>50.675438596491226</v>
       </c>
       <c r="D57" s="2">
@@ -3079,21 +3188,22 @@
         <v>37.324561403508774</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="8">
+      <c r="H57" s="2"/>
+      <c r="I57" s="8">
         <f>'201201'!C57</f>
         <v>2</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" si="2"/>
+        <f>D58+E58+G58-F58-I58-H58</f>
         <v>45.77</v>
       </c>
       <c r="D58" s="2">
@@ -3105,19 +3215,20 @@
         <v>0</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="8">
+      <c r="H58" s="2"/>
+      <c r="I58" s="8">
         <f>'201201'!C58</f>
         <v>0</v>
       </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" si="2"/>
+        <f>D59+E59+G59-F59-I59-H59</f>
         <v>24.91547049441786</v>
       </c>
       <c r="D59" s="2">
@@ -3131,21 +3242,22 @@
         <v>71.08452950558214</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="8">
+      <c r="H59" s="2"/>
+      <c r="I59" s="8">
         <f>'201201'!C59</f>
         <v>4</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J59" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" s="12">
-        <f t="shared" si="2"/>
+        <f>D60+E60+G60-F60-I60-H60</f>
         <v>9.8333333333333321</v>
       </c>
       <c r="D60" s="2">
@@ -3159,21 +3271,22 @@
         <v>19.166666666666668</v>
       </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="8">
+      <c r="H60" s="2"/>
+      <c r="I60" s="8">
         <f>'201201'!C60</f>
         <v>1</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J60" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C61" s="12">
-        <f t="shared" si="2"/>
+        <f>D61+E61+G61-F61-I61-H61</f>
         <v>19.6111111111111</v>
       </c>
       <c r="D61" s="2">
@@ -3187,21 +3300,22 @@
         <v>76.3888888888889</v>
       </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="8">
+      <c r="H61" s="2"/>
+      <c r="I61" s="8">
         <f>'201201'!C61</f>
         <v>4</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J61" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C62" s="12">
-        <f t="shared" si="2"/>
+        <f>D62+E62+G62-F62-I62-H62</f>
         <v>65.294125465178084</v>
       </c>
       <c r="D62" s="2">
@@ -3215,21 +3329,22 @@
         <v>127.70587453482192</v>
       </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="8">
+      <c r="H62" s="2"/>
+      <c r="I62" s="8">
         <f>'201201'!C62</f>
         <v>7</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J62" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="12">
-        <f t="shared" si="2"/>
+        <f>D63+E63+G63-F63-I63-H63</f>
         <v>45.082137161084532</v>
       </c>
       <c r="D63" s="2">
@@ -3243,21 +3358,22 @@
         <v>51.917862838915468</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="8">
+      <c r="H63" s="2"/>
+      <c r="I63" s="8">
         <f>'201201'!C63</f>
         <v>3</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J63" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C64" s="12">
-        <f t="shared" si="2"/>
+        <f>D64+E64+G64-F64-I64-H64</f>
         <v>40.786549707602333</v>
       </c>
       <c r="D64" s="2">
@@ -3271,21 +3387,22 @@
         <v>56.213450292397667</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="8">
+      <c r="H64" s="2"/>
+      <c r="I64" s="8">
         <f>'201201'!C64</f>
         <v>3</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J64" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="12">
-        <f t="shared" si="2"/>
+        <f>D65+E65+G65-F65-I65-H65</f>
         <v>80.111111111111114</v>
       </c>
       <c r="D65" s="2">
@@ -3299,22 +3416,23 @@
         <v>18.888888888888889</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="8">
+      <c r="H65" s="2"/>
+      <c r="I65" s="8">
         <f>'201201'!C65</f>
         <v>1</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J65" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" si="2"/>
-        <v>91.861111111111114</v>
+        <f>D66+E66+G66-F66-I66-H66</f>
+        <v>81.861111111111114</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -3327,21 +3445,24 @@
         <v>36.138888888888886</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="8">
+      <c r="H66" s="2">
+        <v>10</v>
+      </c>
+      <c r="I66" s="8">
         <f>'201201'!C66</f>
         <v>2</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J66" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C67" s="12">
-        <f t="shared" si="2"/>
+        <f>D67+E67+G67-F67-I67-H67</f>
         <v>10.111111111111111</v>
       </c>
       <c r="D67" s="2">
@@ -3355,22 +3476,23 @@
         <v>18.888888888888889</v>
       </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="8">
+      <c r="H67" s="2"/>
+      <c r="I67" s="8">
         <f>'201201'!C67</f>
         <v>1</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J67" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" si="2"/>
-        <v>83.647660818713433</v>
+        <f>D68+E68+G68-F68-I68-H68</f>
+        <v>73.647660818713433</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -3383,21 +3505,24 @@
         <v>72.352339181286567</v>
       </c>
       <c r="G68" s="1"/>
-      <c r="H68" s="8">
+      <c r="H68" s="2">
+        <v>10</v>
+      </c>
+      <c r="I68" s="8">
         <f>'201201'!C68</f>
         <v>4</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J68" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C69" s="12">
-        <f t="shared" si="2"/>
+        <f>D69+E69+G69-F69-I69-H69</f>
         <v>9.8333333333333321</v>
       </c>
       <c r="D69" s="2">
@@ -3411,22 +3536,23 @@
         <v>19.166666666666668</v>
       </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="8">
+      <c r="H69" s="2"/>
+      <c r="I69" s="8">
         <f>'201201'!C69</f>
         <v>1</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J69" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C70" s="12">
-        <f t="shared" si="2"/>
-        <v>10.842105263157894</v>
+        <f>D70+E70+G70-F70-I70-H70</f>
+        <v>0.8421052631578938</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -3439,15 +3565,18 @@
         <v>18.157894736842106</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="8">
+      <c r="H70" s="2">
+        <v>10</v>
+      </c>
+      <c r="I70" s="8">
         <f>'201201'!C70</f>
         <v>1</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J70" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="12"/>
@@ -3455,10 +3584,11 @@
       <c r="E71" s="2"/>
       <c r="F71" s="9"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H71" s="1"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="12"/>
@@ -3466,10 +3596,11 @@
       <c r="E72" s="2"/>
       <c r="F72" s="9"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H72" s="1"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="12"/>
@@ -3477,10 +3608,11 @@
       <c r="E73" s="2"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H73" s="1"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="12"/>
@@ -3488,10 +3620,11 @@
       <c r="E74" s="2"/>
       <c r="F74" s="9"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H74" s="1"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="12"/>
@@ -3499,10 +3632,11 @@
       <c r="E75" s="2"/>
       <c r="F75" s="9"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H75" s="1"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="12"/>
@@ -3510,10 +3644,11 @@
       <c r="E76" s="2"/>
       <c r="F76" s="9"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H76" s="1"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="12"/>
@@ -3521,10 +3656,11 @@
       <c r="E77" s="2"/>
       <c r="F77" s="9"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H77" s="1"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="12"/>
@@ -3532,10 +3668,11 @@
       <c r="E78" s="2"/>
       <c r="F78" s="9"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H78" s="1"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="12"/>
@@ -3543,10 +3680,11 @@
       <c r="E79" s="2"/>
       <c r="F79" s="9"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H79" s="1"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="12"/>
@@ -3554,10 +3692,11 @@
       <c r="E80" s="2"/>
       <c r="F80" s="9"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H80" s="1"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="12"/>
@@ -3565,10 +3704,11 @@
       <c r="E81" s="2"/>
       <c r="F81" s="9"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H81" s="1"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="12"/>
@@ -3576,10 +3716,11 @@
       <c r="E82" s="2"/>
       <c r="F82" s="9"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H82" s="1"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="12"/>
@@ -3587,10 +3728,11 @@
       <c r="E83" s="2"/>
       <c r="F83" s="9"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H83" s="1"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="12"/>
@@ -3598,10 +3740,11 @@
       <c r="E84" s="2"/>
       <c r="F84" s="9"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H84" s="1"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="12"/>
@@ -3609,10 +3752,11 @@
       <c r="E85" s="2"/>
       <c r="F85" s="9"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H85" s="1"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="12"/>
@@ -3620,10 +3764,11 @@
       <c r="E86" s="2"/>
       <c r="F86" s="9"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H86" s="1"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="12"/>
@@ -3631,10 +3776,11 @@
       <c r="E87" s="2"/>
       <c r="F87" s="9"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H87" s="1"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="12"/>
@@ -3642,10 +3788,11 @@
       <c r="E88" s="2"/>
       <c r="F88" s="9"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H88" s="1"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="12"/>
@@ -3653,10 +3800,11 @@
       <c r="E89" s="2"/>
       <c r="F89" s="9"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H89" s="1"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="12"/>
@@ -3664,8 +3812,9 @@
       <c r="E90" s="2"/>
       <c r="F90" s="9"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3676,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3692,38 +3841,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(B3:B350)</f>
-        <v>3643</v>
+        <v>3489</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -3744,19 +3893,19 @@
         <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -3775,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3798,10 +3947,10 @@
         <v>468</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3824,10 +3973,10 @@
         <v>503</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3850,10 +3999,10 @@
         <v>603</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -3876,10 +4025,10 @@
         <v>703</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -3902,10 +4051,10 @@
         <v>803</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -3928,10 +4077,10 @@
         <v>843</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -3954,10 +4103,10 @@
         <v>943</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -3980,10 +4129,10 @@
         <v>1043</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -4006,10 +4155,10 @@
         <v>1143</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -4032,10 +4181,10 @@
         <v>1243</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -4058,10 +4207,10 @@
         <v>1343</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>6</v>
@@ -4084,10 +4233,10 @@
         <v>1373</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>6</v>
@@ -4110,10 +4259,10 @@
         <v>1473</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -4136,10 +4285,10 @@
         <v>1573</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -4162,10 +4311,10 @@
         <v>1673</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
@@ -4188,10 +4337,10 @@
         <v>1773</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>6</v>
@@ -4214,10 +4363,10 @@
         <v>1793</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -4240,19 +4389,19 @@
         <v>1693</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -4268,10 +4417,10 @@
         <v>1348</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -4294,10 +4443,10 @@
         <v>1448</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -4320,10 +4469,10 @@
         <v>1548</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>6</v>
@@ -4346,10 +4495,10 @@
         <v>1648</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>6</v>
@@ -4372,10 +4521,10 @@
         <v>1718</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -4398,10 +4547,10 @@
         <v>1818</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>6</v>
@@ -4424,10 +4573,10 @@
         <v>1918</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
@@ -4450,10 +4599,10 @@
         <v>2018</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>6</v>
@@ -4476,10 +4625,10 @@
         <v>2118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>6</v>
@@ -4502,10 +4651,10 @@
         <v>2218</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4528,10 +4677,10 @@
         <v>2318</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>6</v>
@@ -4554,10 +4703,10 @@
         <v>1968</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -4580,10 +4729,10 @@
         <v>2068</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -4606,10 +4755,10 @@
         <v>2168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>6</v>
@@ -4632,10 +4781,10 @@
         <v>2268</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>6</v>
@@ -4658,10 +4807,10 @@
         <v>2368</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>6</v>
@@ -4687,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>6</v>
@@ -4710,10 +4859,10 @@
         <v>2568</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -4736,11 +4885,11 @@
         <v>2228</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>6</v>
       </c>
@@ -4748,7 +4897,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I41